--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
@@ -811,7 +811,7 @@
         <v>10</v>
       </c>
       <c r="I3" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="J3" t="n">
         <v>5.4</v>
@@ -838,7 +838,7 @@
         <v>1.58</v>
       </c>
       <c r="R3" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="S3" t="n">
         <v>2.42</v>
@@ -895,7 +895,7 @@
         <v>12</v>
       </c>
       <c r="AK3" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL3" t="n">
         <v>32</v>
@@ -976,7 +976,7 @@
         <v>1.57</v>
       </c>
       <c r="S4" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T4" t="n">
         <v>1.72</v>
@@ -1009,7 +1009,7 @@
         <v>10</v>
       </c>
       <c r="AD4" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="n">
         <v>17</v>
@@ -1033,13 +1033,13 @@
         <v>75</v>
       </c>
       <c r="AL4" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AO4" t="n">
         <v>7.4</v>
@@ -1096,22 +1096,22 @@
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="O5" t="n">
         <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R5" t="n">
         <v>1.57</v>
       </c>
       <c r="S5" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="T5" t="n">
         <v>1.58</v>
@@ -1141,7 +1141,7 @@
         <v>16</v>
       </c>
       <c r="AC5" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD5" t="n">
         <v>13</v>
@@ -1156,7 +1156,7 @@
         <v>13</v>
       </c>
       <c r="AH5" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI5" t="n">
         <v>32</v>
@@ -1216,10 +1216,10 @@
         <v>1.41</v>
       </c>
       <c r="I6" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="J6" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="K6" t="n">
         <v>5.9</v>
@@ -1240,13 +1240,13 @@
         <v>2.74</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="R6" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="S6" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="T6" t="n">
         <v>1.8</v>
@@ -1276,13 +1276,13 @@
         <v>38</v>
       </c>
       <c r="AC6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD6" t="n">
         <v>10.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF6" t="n">
         <v>1000</v>
@@ -1306,7 +1306,7 @@
         <v>100</v>
       </c>
       <c r="AM6" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN6" t="n">
         <v>1000</v>
@@ -1345,7 +1345,7 @@
         <v>2.32</v>
       </c>
       <c r="G7" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H7" t="n">
         <v>3.3</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="G8" t="n">
         <v>1.73</v>
@@ -1501,13 +1501,13 @@
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="O8" t="n">
         <v>1.19</v>
       </c>
       <c r="P8" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="Q8" t="n">
         <v>1.59</v>
@@ -1522,7 +1522,7 @@
         <v>1.63</v>
       </c>
       <c r="U8" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1555,10 +1555,10 @@
         <v>65</v>
       </c>
       <c r="AF8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG8" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH8" t="n">
         <v>17.5</v>
@@ -1648,7 +1648,7 @@
         <v>1.55</v>
       </c>
       <c r="R9" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="S9" t="n">
         <v>2.38</v>
@@ -1657,7 +1657,7 @@
         <v>1.79</v>
       </c>
       <c r="U9" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1705,7 +1705,7 @@
         <v>13</v>
       </c>
       <c r="AK9" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL9" t="n">
         <v>30</v>
@@ -1786,7 +1786,7 @@
         <v>2.04</v>
       </c>
       <c r="S10" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="T10" t="n">
         <v>1.67</v>
@@ -1816,7 +1816,7 @@
         <v>16.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AD10" t="n">
         <v>34</v>
@@ -1918,7 +1918,7 @@
         <v>1.93</v>
       </c>
       <c r="R11" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S11" t="n">
         <v>3.25</v>
@@ -2023,13 +2023,13 @@
         <v>2.32</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I12" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K12" t="n">
         <v>3.8</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
@@ -811,10 +811,10 @@
         <v>10</v>
       </c>
       <c r="I3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="J3" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K3" t="n">
         <v>5.7</v>
@@ -832,7 +832,7 @@
         <v>1.19</v>
       </c>
       <c r="P3" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="Q3" t="n">
         <v>1.58</v>
@@ -847,7 +847,7 @@
         <v>1.89</v>
       </c>
       <c r="U3" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>10.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -961,19 +961,19 @@
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O4" t="n">
         <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q4" t="n">
         <v>1.67</v>
       </c>
       <c r="R4" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S4" t="n">
         <v>2.64</v>
@@ -982,7 +982,7 @@
         <v>1.72</v>
       </c>
       <c r="U4" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y4" t="n">
         <v>11.5</v>
@@ -1000,7 +1000,7 @@
         <v>11.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AB4" t="n">
         <v>25</v>
@@ -1012,25 +1012,25 @@
         <v>10</v>
       </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF4" t="n">
         <v>50</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH4" t="n">
         <v>18</v>
       </c>
       <c r="AI4" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ4" t="n">
         <v>150</v>
       </c>
       <c r="AK4" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AL4" t="n">
         <v>65</v>
@@ -1042,7 +1042,7 @@
         <v>65</v>
       </c>
       <c r="AO4" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="5">
@@ -1111,7 +1111,7 @@
         <v>1.57</v>
       </c>
       <c r="S5" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T5" t="n">
         <v>1.58</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y5" t="n">
         <v>15</v>
@@ -1168,13 +1168,13 @@
         <v>28</v>
       </c>
       <c r="AL5" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM5" t="n">
         <v>75</v>
       </c>
       <c r="AN5" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AO5" t="n">
         <v>16.5</v>
@@ -1210,7 +1210,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="H6" t="n">
         <v>1.41</v>
@@ -1231,7 +1231,7 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O6" t="n">
         <v>1.18</v>
@@ -1243,13 +1243,13 @@
         <v>1.53</v>
       </c>
       <c r="R6" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="S6" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T6" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U6" t="n">
         <v>2.16</v>
@@ -1270,13 +1270,13 @@
         <v>11</v>
       </c>
       <c r="AA6" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB6" t="n">
         <v>38</v>
       </c>
       <c r="AC6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AD6" t="n">
         <v>10.5</v>
@@ -1291,7 +1291,7 @@
         <v>32</v>
       </c>
       <c r="AH6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
@@ -1306,7 +1306,7 @@
         <v>100</v>
       </c>
       <c r="AM6" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AN6" t="n">
         <v>1000</v>
@@ -1345,19 +1345,19 @@
         <v>2.32</v>
       </c>
       <c r="G7" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I7" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J7" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K7" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1378,16 +1378,16 @@
         <v>1.8</v>
       </c>
       <c r="R7" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S7" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="T7" t="n">
         <v>1.67</v>
       </c>
       <c r="U7" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="G8" t="n">
         <v>1.73</v>
       </c>
       <c r="H8" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J8" t="n">
         <v>4.3</v>
@@ -1501,7 +1501,7 @@
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="O8" t="n">
         <v>1.19</v>
@@ -1522,7 +1522,7 @@
         <v>1.63</v>
       </c>
       <c r="U8" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1549,7 +1549,7 @@
         <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE8" t="n">
         <v>65</v>
@@ -1564,10 +1564,10 @@
         <v>17.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AK8" t="n">
         <v>16.5</v>
@@ -1636,25 +1636,25 @@
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="O9" t="n">
         <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R9" t="n">
         <v>1.67</v>
       </c>
       <c r="S9" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U9" t="n">
         <v>2.16</v>
@@ -1750,10 +1750,10 @@
         <v>1.35</v>
       </c>
       <c r="G10" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="H10" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="I10" t="n">
         <v>9.6</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y10" t="n">
         <v>55</v>
@@ -1810,7 +1810,7 @@
         <v>120</v>
       </c>
       <c r="AA10" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AB10" t="n">
         <v>16.5</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G11" t="n">
         <v>2.38</v>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="Y11" t="n">
         <v>14.5</v>
@@ -1963,22 +1963,22 @@
         <v>19.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
         <v>50</v>
       </c>
       <c r="AJ11" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AK11" t="n">
         <v>26</v>
       </c>
       <c r="AL11" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM11" t="n">
         <v>100</v>
@@ -2026,7 +2026,7 @@
         <v>3.45</v>
       </c>
       <c r="I12" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J12" t="n">
         <v>3.45</v>
@@ -2050,7 +2050,7 @@
         <v>1.92</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.77</v>
+        <v>1.94</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.07</v>
+        <v>1.24</v>
       </c>
       <c r="Q2" t="n">
         <v>1.01</v>
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G3" t="n">
         <v>1.37</v>
       </c>
-      <c r="G3" t="n">
-        <v>1.39</v>
-      </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="I3" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="J3" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="K3" t="n">
         <v>5.7</v>
@@ -832,10 +832,10 @@
         <v>1.19</v>
       </c>
       <c r="P3" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="R3" t="n">
         <v>1.66</v>
@@ -847,7 +847,7 @@
         <v>1.89</v>
       </c>
       <c r="U3" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="Y3" t="n">
         <v>1000</v>
@@ -865,19 +865,19 @@
         <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="AB3" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AE3" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AF3" t="n">
         <v>9.4</v>
@@ -886,25 +886,25 @@
         <v>10.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK3" t="n">
         <v>13.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AM3" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="G4" t="n">
         <v>5.8</v>
       </c>
-      <c r="G4" t="n">
-        <v>5.9</v>
-      </c>
       <c r="H4" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="I4" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="J4" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K4" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P4" t="n">
         <v>2.42</v>
@@ -1000,13 +1000,13 @@
         <v>11.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC4" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD4" t="n">
         <v>10</v>
@@ -1018,19 +1018,19 @@
         <v>50</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
       </c>
       <c r="AJ4" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AK4" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AL4" t="n">
         <v>65</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
         <v>5.2</v>
@@ -1105,10 +1105,10 @@
         <v>2.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R5" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="S5" t="n">
         <v>2.68</v>
@@ -1117,7 +1117,7 @@
         <v>1.58</v>
       </c>
       <c r="U5" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Y5" t="n">
         <v>15</v>
       </c>
       <c r="Z5" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AB5" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD5" t="n">
         <v>13</v>
@@ -1150,7 +1150,7 @@
         <v>26</v>
       </c>
       <c r="AF5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG5" t="n">
         <v>13</v>
@@ -1159,25 +1159,25 @@
         <v>14.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AK5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL5" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM5" t="n">
         <v>75</v>
       </c>
       <c r="AN5" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
+        <v>8</v>
+      </c>
+      <c r="G6" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="G6" t="n">
-        <v>9</v>
-      </c>
       <c r="H6" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="I6" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="J6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K6" t="n">
         <v>5.6</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5.9</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1231,19 +1231,19 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="O6" t="n">
         <v>1.18</v>
       </c>
       <c r="P6" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R6" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="S6" t="n">
         <v>2.36</v>
@@ -1261,22 +1261,22 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB6" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AC6" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AD6" t="n">
         <v>10.5</v>
@@ -1291,10 +1291,10 @@
         <v>32</v>
       </c>
       <c r="AH6" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AJ6" t="n">
         <v>280</v>
@@ -1303,16 +1303,16 @@
         <v>130</v>
       </c>
       <c r="AL6" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
         <v>120</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AO6" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G7" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="H7" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J7" t="n">
         <v>3.65</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
         <v>4.5</v>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y7" t="n">
         <v>15.5</v>
@@ -1405,13 +1405,13 @@
         <v>26</v>
       </c>
       <c r="AA7" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AB7" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD7" t="n">
         <v>14.5</v>
@@ -1441,13 +1441,13 @@
         <v>34</v>
       </c>
       <c r="AM7" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN7" t="n">
         <v>15.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -1483,10 +1483,10 @@
         <v>1.73</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I8" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J8" t="n">
         <v>4.3</v>
@@ -1501,13 +1501,13 @@
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="O8" t="n">
         <v>1.19</v>
       </c>
       <c r="P8" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="Q8" t="n">
         <v>1.59</v>
@@ -1522,7 +1522,7 @@
         <v>1.63</v>
       </c>
       <c r="U8" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1540,19 +1540,19 @@
         <v>46</v>
       </c>
       <c r="AA8" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB8" t="n">
         <v>13</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF8" t="n">
         <v>13</v>
@@ -1567,7 +1567,7 @@
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AK8" t="n">
         <v>16.5</v>
@@ -1579,7 +1579,7 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AO8" t="n">
         <v>150</v>
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G9" t="n">
         <v>1.43</v>
       </c>
-      <c r="G9" t="n">
-        <v>1.45</v>
-      </c>
       <c r="H9" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="I9" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="J9" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="K9" t="n">
         <v>5.5</v>
@@ -1642,22 +1642,22 @@
         <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="Q9" t="n">
         <v>1.56</v>
       </c>
       <c r="R9" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S9" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="T9" t="n">
         <v>1.8</v>
       </c>
       <c r="U9" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>36</v>
       </c>
       <c r="Z9" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AA9" t="n">
         <v>290</v>
@@ -1699,7 +1699,7 @@
         <v>22</v>
       </c>
       <c r="AI9" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ9" t="n">
         <v>13</v>
@@ -1711,10 +1711,10 @@
         <v>30</v>
       </c>
       <c r="AM9" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AO9" t="n">
         <v>110</v>
@@ -1756,7 +1756,7 @@
         <v>9</v>
       </c>
       <c r="I10" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J10" t="n">
         <v>6.2</v>
@@ -1774,7 +1774,7 @@
         <v>8.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P10" t="n">
         <v>3.55</v>
@@ -1789,7 +1789,7 @@
         <v>1.91</v>
       </c>
       <c r="T10" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U10" t="n">
         <v>2.42</v>
@@ -1837,13 +1837,13 @@
         <v>80</v>
       </c>
       <c r="AJ10" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK10" t="n">
         <v>13</v>
       </c>
       <c r="AL10" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AM10" t="n">
         <v>80</v>
@@ -1891,10 +1891,10 @@
         <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J11" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K11" t="n">
         <v>3.65</v>
@@ -1942,13 +1942,13 @@
         <v>14.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA11" t="n">
         <v>60</v>
       </c>
       <c r="AB11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC11" t="n">
         <v>8.199999999999999</v>
@@ -1957,37 +1957,37 @@
         <v>14.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF11" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="AG11" t="n">
         <v>11.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AJ11" t="n">
         <v>32</v>
       </c>
       <c r="AK11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL11" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AM11" t="n">
         <v>100</v>
       </c>
       <c r="AN11" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.14</v>
+        <v>1.95</v>
       </c>
       <c r="G12" t="n">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="H12" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="I12" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="J12" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="K12" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.94</v>
+        <v>1.8</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.09</v>
+        <v>1.81</v>
       </c>
       <c r="G13" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="I13" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="J13" t="n">
         <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>980</v>
+        <v>4.3</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO13"/>
+  <dimension ref="A1:AO14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -811,10 +811,10 @@
         <v>10.5</v>
       </c>
       <c r="I3" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="J3" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="K3" t="n">
         <v>5.7</v>
@@ -835,19 +835,19 @@
         <v>2.64</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R3" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S3" t="n">
         <v>2.42</v>
       </c>
       <c r="T3" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U3" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="AB3" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC3" t="n">
         <v>13</v>
       </c>
       <c r="AD3" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AF3" t="n">
         <v>9.4</v>
@@ -889,7 +889,7 @@
         <v>25</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ3" t="n">
         <v>11.5</v>
@@ -898,10 +898,10 @@
         <v>13.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AM3" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
         <v>4.8</v>
@@ -940,13 +940,13 @@
         <v>5.6</v>
       </c>
       <c r="G4" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="H4" t="n">
         <v>1.68</v>
       </c>
       <c r="I4" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="J4" t="n">
         <v>4.2</v>
@@ -964,7 +964,7 @@
         <v>5.3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
         <v>2.42</v>
@@ -973,7 +973,7 @@
         <v>1.67</v>
       </c>
       <c r="R4" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S4" t="n">
         <v>2.64</v>
@@ -991,16 +991,16 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z4" t="n">
         <v>11.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AB4" t="n">
         <v>26</v>
@@ -1009,10 +1009,10 @@
         <v>10.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
         <v>50</v>
@@ -1030,25 +1030,25 @@
         <v>160</v>
       </c>
       <c r="AK4" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AL4" t="n">
         <v>65</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN4" t="n">
         <v>65</v>
       </c>
       <c r="AO4" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,66 +1058,66 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>AD Ceuta FC</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.72</v>
+        <v>1.51</v>
       </c>
       <c r="G5" t="n">
-        <v>2.76</v>
+        <v>3.85</v>
       </c>
       <c r="H5" t="n">
-        <v>2.68</v>
+        <v>1.35</v>
       </c>
       <c r="I5" t="n">
-        <v>2.7</v>
+        <v>2.94</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="K5" t="n">
-        <v>3.8</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.38</v>
+        <v>1.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.67</v>
+        <v>1.96</v>
       </c>
       <c r="R5" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>2.68</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1126,58 +1126,58 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AM5" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1198,61 +1198,61 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Olympiakos</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>2.72</v>
       </c>
       <c r="G6" t="n">
-        <v>8.199999999999999</v>
+        <v>2.78</v>
       </c>
       <c r="H6" t="n">
-        <v>1.44</v>
+        <v>2.66</v>
       </c>
       <c r="I6" t="n">
-        <v>1.45</v>
+        <v>2.7</v>
       </c>
       <c r="J6" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>5.6</v>
+        <v>3.8</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>6</v>
+        <v>5.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P6" t="n">
-        <v>2.72</v>
+        <v>2.38</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.54</v>
+        <v>1.68</v>
       </c>
       <c r="R6" t="n">
-        <v>1.7</v>
+        <v>1.56</v>
       </c>
       <c r="S6" t="n">
-        <v>2.36</v>
+        <v>2.68</v>
       </c>
       <c r="T6" t="n">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="U6" t="n">
-        <v>2.16</v>
+        <v>2.6</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1261,58 +1261,58 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI6" t="n">
         <v>34</v>
       </c>
-      <c r="Y6" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>36</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>28</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>280</v>
+        <v>46</v>
       </c>
       <c r="AK6" t="n">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM6" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AN6" t="n">
-        <v>120</v>
+        <v>17.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -1333,61 +1333,61 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Olympiakos</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G7" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S7" t="n">
         <v>2.34</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.98</v>
-      </c>
       <c r="T7" t="n">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="U7" t="n">
-        <v>2.42</v>
+        <v>2.16</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1396,58 +1396,58 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="Z7" t="n">
-        <v>26</v>
+        <v>10.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="AB7" t="n">
-        <v>12.5</v>
+        <v>36</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.4</v>
+        <v>13</v>
       </c>
       <c r="AD7" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>36</v>
+        <v>13.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="AH7" t="n">
-        <v>15.5</v>
+        <v>23</v>
       </c>
       <c r="AI7" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="AJ7" t="n">
-        <v>32</v>
+        <v>270</v>
       </c>
       <c r="AK7" t="n">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="AL7" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AN7" t="n">
-        <v>15.5</v>
+        <v>120</v>
       </c>
       <c r="AO7" t="n">
-        <v>30</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="8">
@@ -1468,61 +1468,61 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.72</v>
+        <v>2.3</v>
       </c>
       <c r="G8" t="n">
-        <v>1.73</v>
+        <v>2.34</v>
       </c>
       <c r="H8" t="n">
-        <v>5.1</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>5.4</v>
+        <v>3.4</v>
       </c>
       <c r="J8" t="n">
-        <v>4.3</v>
+        <v>3.65</v>
       </c>
       <c r="K8" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>5.6</v>
+        <v>4.6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="P8" t="n">
-        <v>2.6</v>
+        <v>2.22</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.59</v>
+        <v>1.78</v>
       </c>
       <c r="R8" t="n">
-        <v>1.64</v>
+        <v>1.47</v>
       </c>
       <c r="S8" t="n">
-        <v>2.46</v>
+        <v>2.96</v>
       </c>
       <c r="T8" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="U8" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1531,58 +1531,58 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z8" t="n">
         <v>26</v>
       </c>
-      <c r="Y8" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>46</v>
-      </c>
       <c r="AA8" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="AB8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AF8" t="n">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ8" t="n">
-        <v>18.5</v>
+        <v>30</v>
       </c>
       <c r="AK8" t="n">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="AL8" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN8" t="n">
-        <v>7.2</v>
+        <v>15</v>
       </c>
       <c r="AO8" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -1603,31 +1603,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.42</v>
+        <v>1.71</v>
       </c>
       <c r="G9" t="n">
-        <v>1.43</v>
+        <v>1.72</v>
       </c>
       <c r="H9" t="n">
-        <v>8.4</v>
+        <v>5.1</v>
       </c>
       <c r="I9" t="n">
-        <v>9</v>
+        <v>5.4</v>
       </c>
       <c r="J9" t="n">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
       <c r="K9" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1636,28 +1636,28 @@
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P9" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="R9" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="S9" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="T9" t="n">
-        <v>1.8</v>
+        <v>1.63</v>
       </c>
       <c r="U9" t="n">
-        <v>2.14</v>
+        <v>2.46</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1666,58 +1666,58 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL9" t="n">
         <v>28</v>
       </c>
-      <c r="Y9" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>80</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>290</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>30</v>
-      </c>
       <c r="AM9" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AN9" t="n">
-        <v>5</v>
+        <v>7.2</v>
       </c>
       <c r="AO9" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10">
@@ -1738,61 +1738,61 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="G10" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="I10" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J10" t="n">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="K10" t="n">
-        <v>6.6</v>
+        <v>5.6</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>8.6</v>
+        <v>5.9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="P10" t="n">
-        <v>3.55</v>
+        <v>2.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.37</v>
+        <v>1.56</v>
       </c>
       <c r="R10" t="n">
-        <v>2.04</v>
+        <v>1.68</v>
       </c>
       <c r="S10" t="n">
-        <v>1.91</v>
+        <v>2.38</v>
       </c>
       <c r="T10" t="n">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
       <c r="U10" t="n">
-        <v>2.42</v>
+        <v>2.16</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1801,22 +1801,22 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="Y10" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="Z10" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="AA10" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AB10" t="n">
-        <v>16.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD10" t="n">
         <v>34</v>
@@ -1825,34 +1825,34 @@
         <v>110</v>
       </c>
       <c r="AF10" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH10" t="n">
         <v>23</v>
       </c>
       <c r="AI10" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AJ10" t="n">
         <v>13</v>
       </c>
       <c r="AK10" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AM10" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.55</v>
+        <v>5</v>
       </c>
       <c r="AO10" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
@@ -1873,61 +1873,61 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.36</v>
+        <v>1.34</v>
       </c>
       <c r="G11" t="n">
-        <v>2.38</v>
+        <v>1.35</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>3.35</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J11" t="n">
-        <v>3.6</v>
+        <v>6.4</v>
       </c>
       <c r="K11" t="n">
-        <v>3.65</v>
+        <v>6.6</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>4.1</v>
+        <v>8.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.3</v>
+        <v>1.11</v>
       </c>
       <c r="P11" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R11" t="n">
         <v>2.04</v>
       </c>
-      <c r="Q11" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.42</v>
-      </c>
       <c r="S11" t="n">
-        <v>3.25</v>
+        <v>1.91</v>
       </c>
       <c r="T11" t="n">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="U11" t="n">
-        <v>2.28</v>
+        <v>2.44</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1936,64 +1936,64 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="Y11" t="n">
-        <v>14.5</v>
+        <v>55</v>
       </c>
       <c r="Z11" t="n">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="AA11" t="n">
-        <v>60</v>
+        <v>310</v>
       </c>
       <c r="AB11" t="n">
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.199999999999999</v>
+        <v>16.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>14.5</v>
+        <v>34</v>
       </c>
       <c r="AE11" t="n">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="AF11" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AG11" t="n">
         <v>11.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="AI11" t="n">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="AJ11" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="AK11" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="AL11" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="AM11" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AN11" t="n">
-        <v>17.5</v>
+        <v>3.55</v>
       </c>
       <c r="AO11" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,66 +2003,66 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Fortaleza EC</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
       <c r="G12" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H12" t="n">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="I12" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="J12" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="K12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N12" t="n">
         <v>4.1</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,192 +2071,327 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-11-26</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Red Bull Bragantino</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Fortaleza EC</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>2025-11-26</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>20:30:00</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Atletico Bucaramanga</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Fortaleza FC</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="F14" t="n">
         <v>1.81</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G14" t="n">
         <v>2</v>
       </c>
-      <c r="H13" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="H14" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I14" t="n">
         <v>6.6</v>
       </c>
-      <c r="J13" t="n">
-        <v>3</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J14" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K14" t="n">
         <v>4.3</v>
       </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
         <v>1.66</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q14" t="n">
         <v>2.06</v>
       </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO13" t="n">
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="Q2" t="n">
         <v>1.01</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -805,7 +805,7 @@
         <v>1.36</v>
       </c>
       <c r="G3" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="H3" t="n">
         <v>10.5</v>
@@ -832,22 +832,22 @@
         <v>1.19</v>
       </c>
       <c r="P3" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="Q3" t="n">
         <v>1.58</v>
       </c>
       <c r="R3" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="S3" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="T3" t="n">
         <v>1.9</v>
       </c>
       <c r="U3" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>26</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="G4" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="H4" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="I4" t="n">
         <v>1.7</v>
@@ -952,37 +952,37 @@
         <v>4.2</v>
       </c>
       <c r="K4" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="O4" t="n">
         <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R4" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="S4" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="T4" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U4" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>22</v>
       </c>
       <c r="Y4" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z4" t="n">
         <v>11.5</v>
@@ -1003,16 +1003,16 @@
         <v>17</v>
       </c>
       <c r="AB4" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AC4" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD4" t="n">
         <v>10.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF4" t="n">
         <v>50</v>
@@ -1036,7 +1036,7 @@
         <v>65</v>
       </c>
       <c r="AM4" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AN4" t="n">
         <v>65</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="G5" t="n">
         <v>3.85</v>
@@ -1081,7 +1081,7 @@
         <v>1.35</v>
       </c>
       <c r="I5" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="J5" t="n">
         <v>3.35</v>
@@ -1105,7 +1105,7 @@
         <v>1.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="G7" t="n">
         <v>8.800000000000001</v>
@@ -1357,7 +1357,7 @@
         <v>5.4</v>
       </c>
       <c r="K7" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1378,10 +1378,10 @@
         <v>1.55</v>
       </c>
       <c r="R7" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="S7" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T7" t="n">
         <v>1.79</v>
@@ -1426,7 +1426,7 @@
         <v>32</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI7" t="n">
         <v>28</v>
@@ -1483,10 +1483,10 @@
         <v>2.34</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I8" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J8" t="n">
         <v>3.65</v>
@@ -1501,19 +1501,19 @@
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O8" t="n">
         <v>1.26</v>
       </c>
       <c r="P8" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q8" t="n">
         <v>1.78</v>
       </c>
       <c r="R8" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S8" t="n">
         <v>2.96</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="G9" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="H9" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="J9" t="n">
         <v>4.3</v>
@@ -1639,25 +1639,25 @@
         <v>5.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="Q9" t="n">
         <v>1.59</v>
       </c>
       <c r="R9" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="S9" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T9" t="n">
         <v>1.63</v>
       </c>
       <c r="U9" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1678,10 +1678,10 @@
         <v>130</v>
       </c>
       <c r="AB9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD9" t="n">
         <v>21</v>
@@ -1693,31 +1693,31 @@
         <v>13</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH9" t="n">
         <v>17.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AK9" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL9" t="n">
         <v>28</v>
       </c>
       <c r="AM9" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AO9" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10">
@@ -1750,19 +1750,19 @@
         <v>1.41</v>
       </c>
       <c r="G10" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="H10" t="n">
         <v>8.6</v>
       </c>
       <c r="I10" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="J10" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="K10" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O10" t="n">
         <v>1.18</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G11" t="n">
         <v>1.34</v>
       </c>
-      <c r="G11" t="n">
-        <v>1.35</v>
-      </c>
       <c r="H11" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="I11" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="J11" t="n">
         <v>6.4</v>
@@ -1927,7 +1927,7 @@
         <v>1.66</v>
       </c>
       <c r="U11" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1984,7 +1984,7 @@
         <v>80</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AO11" t="n">
         <v>80</v>
@@ -2017,13 +2017,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G12" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="H12" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
         <v>3.3</v>
@@ -2053,7 +2053,7 @@
         <v>1.93</v>
       </c>
       <c r="R12" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S12" t="n">
         <v>3.25</v>
@@ -2086,7 +2086,7 @@
         <v>11.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD12" t="n">
         <v>14.5</v>
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="G13" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="H13" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I13" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K13" t="n">
         <v>4.1</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
@@ -691,16 +691,16 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="R2" t="n">
         <v>1.18</v>
@@ -805,10 +805,10 @@
         <v>1.36</v>
       </c>
       <c r="G3" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="H3" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="I3" t="n">
         <v>12</v>
@@ -844,7 +844,7 @@
         <v>2.44</v>
       </c>
       <c r="T3" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U3" t="n">
         <v>2.02</v>
@@ -880,7 +880,7 @@
         <v>190</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG3" t="n">
         <v>10.5</v>
@@ -940,16 +940,16 @@
         <v>5.5</v>
       </c>
       <c r="G4" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="H4" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="J4" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K4" t="n">
         <v>4.4</v>
@@ -964,19 +964,19 @@
         <v>5.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="R4" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="S4" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="T4" t="n">
         <v>1.73</v>
@@ -1000,13 +1000,13 @@
         <v>11.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AB4" t="n">
         <v>24</v>
       </c>
       <c r="AC4" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD4" t="n">
         <v>10.5</v>
@@ -1015,34 +1015,34 @@
         <v>16.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AG4" t="n">
         <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
       </c>
       <c r="AJ4" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AK4" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AL4" t="n">
         <v>65</v>
       </c>
       <c r="AM4" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
         <v>65</v>
       </c>
       <c r="AO4" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="5">
@@ -1210,10 +1210,10 @@
         <v>2.72</v>
       </c>
       <c r="G6" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="H6" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="I6" t="n">
         <v>2.7</v>
@@ -1228,19 +1228,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O6" t="n">
         <v>1.22</v>
       </c>
       <c r="P6" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R6" t="n">
         <v>1.56</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="H7" t="n">
         <v>1.42</v>
@@ -1375,7 +1375,7 @@
         <v>2.74</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="R7" t="n">
         <v>1.71</v>
@@ -1384,7 +1384,7 @@
         <v>2.36</v>
       </c>
       <c r="T7" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U7" t="n">
         <v>2.16</v>
@@ -1396,16 +1396,16 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y7" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AA7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB7" t="n">
         <v>36</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="G8" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="H8" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J8" t="n">
         <v>3.65</v>
@@ -1498,13 +1498,13 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
         <v>2.24</v>
@@ -1522,7 +1522,7 @@
         <v>1.66</v>
       </c>
       <c r="U8" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1531,13 +1531,13 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y8" t="n">
         <v>16</v>
       </c>
       <c r="Z8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA8" t="n">
         <v>70</v>
@@ -1552,10 +1552,10 @@
         <v>14.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AF8" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG8" t="n">
         <v>11</v>
@@ -1570,7 +1570,7 @@
         <v>30</v>
       </c>
       <c r="AK8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL8" t="n">
         <v>34</v>
@@ -1579,10 +1579,10 @@
         <v>75</v>
       </c>
       <c r="AN8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="G9" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I9" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J9" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K9" t="n">
         <v>4.5</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
         <v>5.6</v>
@@ -1645,7 +1645,7 @@
         <v>2.58</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R9" t="n">
         <v>1.63</v>
@@ -1654,7 +1654,7 @@
         <v>2.48</v>
       </c>
       <c r="T9" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U9" t="n">
         <v>2.48</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y9" t="n">
         <v>26</v>
       </c>
       <c r="Z9" t="n">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="AA9" t="n">
         <v>130</v>
@@ -1681,7 +1681,7 @@
         <v>12.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD9" t="n">
         <v>21</v>
@@ -1690,13 +1690,13 @@
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG9" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH9" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
@@ -1717,7 +1717,7 @@
         <v>7.6</v>
       </c>
       <c r="AO9" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="G10" t="n">
         <v>1.43</v>
       </c>
       <c r="H10" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J10" t="n">
         <v>5.2</v>
@@ -1777,22 +1777,22 @@
         <v>1.18</v>
       </c>
       <c r="P10" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="R10" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="S10" t="n">
         <v>2.38</v>
       </c>
       <c r="T10" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U10" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y10" t="n">
         <v>38</v>
@@ -1822,7 +1822,7 @@
         <v>34</v>
       </c>
       <c r="AE10" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="AF10" t="n">
         <v>10.5</v>
@@ -1834,10 +1834,10 @@
         <v>23</v>
       </c>
       <c r="AI10" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK10" t="n">
         <v>13.5</v>
@@ -1849,10 +1849,10 @@
         <v>100</v>
       </c>
       <c r="AN10" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AO10" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11">
@@ -1897,7 +1897,7 @@
         <v>6.4</v>
       </c>
       <c r="K11" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1948,7 +1948,7 @@
         <v>310</v>
       </c>
       <c r="AB11" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC11" t="n">
         <v>16.5</v>
@@ -1963,7 +1963,7 @@
         <v>12</v>
       </c>
       <c r="AG11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
         <v>23</v>
@@ -1978,7 +1978,7 @@
         <v>13</v>
       </c>
       <c r="AL11" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AM11" t="n">
         <v>80</v>
@@ -2020,13 +2020,13 @@
         <v>2.4</v>
       </c>
       <c r="G12" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I12" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J12" t="n">
         <v>3.55</v>
@@ -2056,7 +2056,7 @@
         <v>1.41</v>
       </c>
       <c r="S12" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T12" t="n">
         <v>1.73</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="G13" t="n">
         <v>2.18</v>
@@ -2161,7 +2161,7 @@
         <v>3.75</v>
       </c>
       <c r="I13" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J13" t="n">
         <v>3.65</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H14" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="I14" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="J14" t="n">
         <v>3.05</v>
       </c>
       <c r="K14" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q14" t="n">
         <v>2.06</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO14"/>
+  <dimension ref="A1:AO15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,13 +691,13 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.32</v>
+        <v>1.1</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="Q2" t="n">
         <v>1.48</v>
@@ -706,7 +706,7 @@
         <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T2" t="n">
         <v>1.04</v>
@@ -802,25 +802,25 @@
         </is>
       </c>
       <c r="F3" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G3" t="n">
         <v>1.36</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.37</v>
       </c>
       <c r="H3" t="n">
         <v>11</v>
       </c>
       <c r="I3" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="J3" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="K3" t="n">
         <v>5.7</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -838,7 +838,7 @@
         <v>1.58</v>
       </c>
       <c r="R3" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="S3" t="n">
         <v>2.44</v>
@@ -847,25 +847,25 @@
         <v>1.91</v>
       </c>
       <c r="U3" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="X3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y3" t="n">
         <v>42</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA3" t="n">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="AB3" t="n">
         <v>10.5</v>
@@ -874,28 +874,28 @@
         <v>13</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AE3" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AG3" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH3" t="n">
         <v>25</v>
       </c>
       <c r="AI3" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AJ3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK3" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL3" t="n">
         <v>32</v>
@@ -907,7 +907,7 @@
         <v>4.8</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4">
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="G4" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="H4" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="I4" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="J4" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K4" t="n">
         <v>4.4</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
         <v>1.23</v>
@@ -970,7 +970,7 @@
         <v>2.36</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R4" t="n">
         <v>1.55</v>
@@ -985,61 +985,61 @@
         <v>2.28</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="X4" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA4" t="n">
         <v>17.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC4" t="n">
         <v>9.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE4" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF4" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH4" t="n">
         <v>17.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ4" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AK4" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AL4" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN4" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AO4" t="n">
         <v>7.8</v>
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.53</v>
+        <v>2.04</v>
       </c>
       <c r="G5" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="H5" t="n">
-        <v>1.35</v>
+        <v>1.64</v>
       </c>
       <c r="I5" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="J5" t="n">
         <v>3.35</v>
@@ -1090,100 +1090,100 @@
         <v>1000</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P5" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,39 +1193,39 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>St Gallen</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.72</v>
+        <v>2.08</v>
       </c>
       <c r="G6" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
-        <v>2.64</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>2.7</v>
+        <v>3.85</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K6" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
@@ -1234,85 +1234,85 @@
         <v>5.2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P6" t="n">
         <v>2.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.69</v>
+        <v>1.61</v>
       </c>
       <c r="R6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T6" t="n">
         <v>1.56</v>
       </c>
-      <c r="S6" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.58</v>
-      </c>
       <c r="U6" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="X6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD6" t="n">
         <v>22</v>
       </c>
-      <c r="Y6" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB6" t="n">
+      <c r="AE6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG6" t="n">
         <v>15.5</v>
       </c>
-      <c r="AC6" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>13</v>
-      </c>
       <c r="AH6" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AJ6" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AK6" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AL6" t="n">
         <v>38</v>
       </c>
       <c r="AM6" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN6" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1333,61 +1333,61 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Olympiakos</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>8.199999999999999</v>
+        <v>2.76</v>
       </c>
       <c r="G7" t="n">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="H7" t="n">
-        <v>1.42</v>
+        <v>2.64</v>
       </c>
       <c r="I7" t="n">
-        <v>1.43</v>
+        <v>2.66</v>
       </c>
       <c r="J7" t="n">
-        <v>5.4</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>5.7</v>
+        <v>3.8</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>5.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>2.74</v>
+        <v>2.38</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.54</v>
+        <v>1.68</v>
       </c>
       <c r="R7" t="n">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="S7" t="n">
-        <v>2.36</v>
+        <v>2.68</v>
       </c>
       <c r="T7" t="n">
-        <v>1.8</v>
+        <v>1.58</v>
       </c>
       <c r="U7" t="n">
-        <v>2.16</v>
+        <v>2.6</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1396,58 +1396,58 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="Z7" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AA7" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD7" t="n">
         <v>12.5</v>
       </c>
-      <c r="AB7" t="n">
-        <v>36</v>
-      </c>
-      <c r="AC7" t="n">
+      <c r="AE7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG7" t="n">
         <v>13</v>
       </c>
-      <c r="AD7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>32</v>
-      </c>
       <c r="AH7" t="n">
-        <v>22</v>
+        <v>14.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AJ7" t="n">
-        <v>270</v>
+        <v>46</v>
       </c>
       <c r="AK7" t="n">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM7" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AN7" t="n">
-        <v>120</v>
+        <v>17.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>4.9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -1468,61 +1468,61 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Olympiakos</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.24</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>2.28</v>
+        <v>9</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>1.42</v>
       </c>
       <c r="I8" t="n">
-        <v>3.5</v>
+        <v>1.44</v>
       </c>
       <c r="J8" t="n">
-        <v>3.65</v>
+        <v>5.4</v>
       </c>
       <c r="K8" t="n">
-        <v>3.7</v>
+        <v>5.7</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>4.6</v>
+        <v>6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="P8" t="n">
-        <v>2.24</v>
+        <v>2.74</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.78</v>
+        <v>1.54</v>
       </c>
       <c r="R8" t="n">
-        <v>1.48</v>
+        <v>1.71</v>
       </c>
       <c r="S8" t="n">
-        <v>2.96</v>
+        <v>2.34</v>
       </c>
       <c r="T8" t="n">
-        <v>1.66</v>
+        <v>1.79</v>
       </c>
       <c r="U8" t="n">
-        <v>2.42</v>
+        <v>2.16</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1531,58 +1531,58 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>18.5</v>
+        <v>29</v>
       </c>
       <c r="Y8" t="n">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="AA8" t="n">
-        <v>70</v>
+        <v>12.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>12.5</v>
+        <v>36</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.4</v>
+        <v>13</v>
       </c>
       <c r="AD8" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
-        <v>44</v>
+        <v>13.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="AH8" t="n">
-        <v>15.5</v>
+        <v>22</v>
       </c>
       <c r="AI8" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="AJ8" t="n">
-        <v>30</v>
+        <v>270</v>
       </c>
       <c r="AK8" t="n">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AN8" t="n">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="AO8" t="n">
-        <v>32</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="9">
@@ -1603,61 +1603,61 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.7</v>
+        <v>2.28</v>
       </c>
       <c r="G9" t="n">
-        <v>1.71</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
-        <v>5.1</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>5.3</v>
+        <v>3.5</v>
       </c>
       <c r="J9" t="n">
-        <v>4.4</v>
+        <v>3.65</v>
       </c>
       <c r="K9" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>5.6</v>
+        <v>4.7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>2.58</v>
+        <v>2.24</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.6</v>
+        <v>1.77</v>
       </c>
       <c r="R9" t="n">
-        <v>1.63</v>
+        <v>1.48</v>
       </c>
       <c r="S9" t="n">
-        <v>2.48</v>
+        <v>2.94</v>
       </c>
       <c r="T9" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U9" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1666,58 +1666,58 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="Z9" t="n">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="AA9" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="AB9" t="n">
         <v>12.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF9" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AG9" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="AK9" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="AL9" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN9" t="n">
-        <v>7.6</v>
+        <v>14.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>160</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -1738,61 +1738,61 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.42</v>
+        <v>1.69</v>
       </c>
       <c r="G10" t="n">
-        <v>1.43</v>
+        <v>1.7</v>
       </c>
       <c r="H10" t="n">
-        <v>8.800000000000001</v>
+        <v>5.2</v>
       </c>
       <c r="I10" t="n">
-        <v>9.199999999999999</v>
+        <v>5.3</v>
       </c>
       <c r="J10" t="n">
-        <v>5.2</v>
+        <v>4.4</v>
       </c>
       <c r="K10" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P10" t="n">
-        <v>2.68</v>
+        <v>2.58</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="R10" t="n">
-        <v>1.69</v>
+        <v>1.63</v>
       </c>
       <c r="S10" t="n">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="T10" t="n">
-        <v>1.81</v>
+        <v>1.64</v>
       </c>
       <c r="U10" t="n">
-        <v>2.14</v>
+        <v>2.48</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1801,58 +1801,58 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL10" t="n">
         <v>28</v>
       </c>
-      <c r="Y10" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z10" t="n">
+      <c r="AM10" t="n">
         <v>85</v>
       </c>
-      <c r="AA10" t="n">
-        <v>290</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>100</v>
-      </c>
       <c r="AN10" t="n">
-        <v>4.9</v>
+        <v>7.2</v>
       </c>
       <c r="AO10" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11">
@@ -1873,61 +1873,61 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="G11" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="J11" t="n">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="K11" t="n">
-        <v>6.8</v>
+        <v>5.7</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>8.6</v>
+        <v>6.2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="P11" t="n">
-        <v>3.55</v>
+        <v>2.68</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.37</v>
+        <v>1.55</v>
       </c>
       <c r="R11" t="n">
-        <v>2.04</v>
+        <v>1.69</v>
       </c>
       <c r="S11" t="n">
-        <v>1.91</v>
+        <v>2.38</v>
       </c>
       <c r="T11" t="n">
-        <v>1.66</v>
+        <v>1.84</v>
       </c>
       <c r="U11" t="n">
-        <v>2.42</v>
+        <v>2.14</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1936,58 +1936,58 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="Y11" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="Z11" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AA11" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="AB11" t="n">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD11" t="n">
         <v>34</v>
       </c>
       <c r="AE11" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AF11" t="n">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH11" t="n">
         <v>23</v>
       </c>
       <c r="AI11" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AM11" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="AO11" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12">
@@ -2008,61 +2008,61 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.4</v>
+        <v>1.33</v>
       </c>
       <c r="G12" t="n">
-        <v>2.42</v>
+        <v>1.35</v>
       </c>
       <c r="H12" t="n">
-        <v>3.25</v>
+        <v>9.6</v>
       </c>
       <c r="I12" t="n">
-        <v>3.35</v>
+        <v>10</v>
       </c>
       <c r="J12" t="n">
-        <v>3.55</v>
+        <v>6.4</v>
       </c>
       <c r="K12" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N12" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P12" t="n">
         <v>3.6</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N12" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.04</v>
-      </c>
       <c r="Q12" t="n">
-        <v>1.93</v>
+        <v>1.36</v>
       </c>
       <c r="R12" t="n">
-        <v>1.41</v>
+        <v>2.06</v>
       </c>
       <c r="S12" t="n">
-        <v>3.3</v>
+        <v>1.91</v>
       </c>
       <c r="T12" t="n">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="U12" t="n">
-        <v>2.28</v>
+        <v>2.44</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,64 +2071,64 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
+        <v>48</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>120</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>310</v>
+      </c>
+      <c r="AB12" t="n">
         <v>16</v>
       </c>
-      <c r="Y12" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AC12" t="n">
-        <v>7.8</v>
+        <v>17</v>
       </c>
       <c r="AD12" t="n">
-        <v>14.5</v>
+        <v>34</v>
       </c>
       <c r="AE12" t="n">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="AF12" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="AI12" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="AJ12" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="AK12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL12" t="n">
         <v>25</v>
       </c>
-      <c r="AL12" t="n">
-        <v>42</v>
-      </c>
       <c r="AM12" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AN12" t="n">
-        <v>17.5</v>
+        <v>3.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,66 +2138,66 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Fortaleza EC</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.02</v>
+        <v>2.38</v>
       </c>
       <c r="G13" t="n">
-        <v>2.18</v>
+        <v>2.42</v>
       </c>
       <c r="H13" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="I13" t="n">
-        <v>4.4</v>
+        <v>3.35</v>
       </c>
       <c r="J13" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N13" t="n">
         <v>4.1</v>
       </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P13" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2206,64 +2206,64 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,33 +2273,33 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Atletico Bucaramanga</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>Fortaleza EC</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
       <c r="G14" t="n">
-        <v>1.95</v>
+        <v>2.14</v>
       </c>
       <c r="H14" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="I14" t="n">
-        <v>7</v>
+        <v>4.4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.05</v>
+        <v>3.65</v>
       </c>
       <c r="K14" t="n">
         <v>4.1</v>
@@ -2317,81 +2317,216 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-11-26</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Atletico Bucaramanga</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Fortaleza FC</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>7</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>1.65</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q15" t="n">
         <v>2.06</v>
       </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO14" t="n">
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
@@ -691,19 +691,19 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.1</v>
+        <v>1.35</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="Q2" t="n">
         <v>1.48</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S2" t="n">
         <v>1.47</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="G3" t="n">
         <v>1.36</v>
@@ -811,13 +811,13 @@
         <v>11</v>
       </c>
       <c r="I3" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="J3" t="n">
         <v>5.6</v>
       </c>
       <c r="K3" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="L3" t="n">
         <v>1.27</v>
@@ -826,34 +826,34 @@
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O3" t="n">
         <v>1.19</v>
       </c>
       <c r="P3" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="R3" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="S3" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="T3" t="n">
         <v>1.91</v>
       </c>
       <c r="U3" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V3" t="n">
         <v>1.09</v>
       </c>
       <c r="W3" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="X3" t="n">
         <v>25</v>
@@ -880,7 +880,7 @@
         <v>150</v>
       </c>
       <c r="AF3" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG3" t="n">
         <v>10</v>
@@ -901,10 +901,10 @@
         <v>32</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AO3" t="n">
         <v>170</v>
@@ -940,19 +940,19 @@
         <v>5.3</v>
       </c>
       <c r="G4" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="I4" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="J4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K4" t="n">
         <v>4.3</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.4</v>
       </c>
       <c r="L4" t="n">
         <v>1.3</v>
@@ -967,25 +967,25 @@
         <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R4" t="n">
         <v>1.55</v>
       </c>
       <c r="S4" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="T4" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U4" t="n">
         <v>2.28</v>
       </c>
       <c r="V4" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="W4" t="n">
         <v>1.22</v>
@@ -997,7 +997,7 @@
         <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AA4" t="n">
         <v>17.5</v>
@@ -1006,7 +1006,7 @@
         <v>23</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD4" t="n">
         <v>9.800000000000001</v>
@@ -1018,10 +1018,10 @@
         <v>44</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AH4" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
@@ -1036,13 +1036,13 @@
         <v>60</v>
       </c>
       <c r="AM4" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN4" t="n">
         <v>55</v>
       </c>
       <c r="AO4" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1081,7 +1081,7 @@
         <v>1.64</v>
       </c>
       <c r="I5" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="J5" t="n">
         <v>3.35</v>
@@ -1090,19 +1090,19 @@
         <v>1000</v>
       </c>
       <c r="L5" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>1.28</v>
+        <v>2.8</v>
       </c>
       <c r="O5" t="n">
         <v>1.32</v>
       </c>
       <c r="P5" t="n">
-        <v>1.27</v>
+        <v>1.69</v>
       </c>
       <c r="Q5" t="n">
         <v>1.98</v>
@@ -1114,10 +1114,10 @@
         <v>3.1</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V5" t="n">
         <v>1.55</v>
@@ -1225,7 +1225,7 @@
         <v>3.85</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
@@ -1261,58 +1261,58 @@
         <v>1.83</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y6" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Z6" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AA6" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AB6" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AD6" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AF6" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI6" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AJ6" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AK6" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AL6" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM6" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="G7" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="H7" t="n">
         <v>2.64</v>
       </c>
       <c r="I7" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="J7" t="n">
         <v>3.75</v>
@@ -1360,7 +1360,7 @@
         <v>3.8</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
@@ -1390,22 +1390,22 @@
         <v>2.6</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="X7" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y7" t="n">
         <v>15</v>
       </c>
       <c r="Z7" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AB7" t="n">
         <v>15.5</v>
@@ -1414,40 +1414,40 @@
         <v>8.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF7" t="n">
         <v>21</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH7" t="n">
         <v>14.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ7" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AK7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL7" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AM7" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AN7" t="n">
         <v>17.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="8">
@@ -1477,43 +1477,43 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="G8" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="G8" t="n">
-        <v>9</v>
-      </c>
       <c r="H8" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="I8" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="J8" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K8" t="n">
         <v>5.7</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="O8" t="n">
         <v>1.18</v>
       </c>
       <c r="P8" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="Q8" t="n">
         <v>1.54</v>
       </c>
       <c r="R8" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="S8" t="n">
         <v>2.34</v>
@@ -1525,19 +1525,19 @@
         <v>2.16</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="X8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y8" t="n">
         <v>11.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA8" t="n">
         <v>12.5</v>
@@ -1546,40 +1546,40 @@
         <v>36</v>
       </c>
       <c r="AC8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE8" t="n">
         <v>13</v>
       </c>
-      <c r="AD8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AG8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AH8" t="n">
         <v>22</v>
       </c>
       <c r="AI8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ8" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AK8" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM8" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AN8" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AO8" t="n">
         <v>4.9</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="G9" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="J9" t="n">
         <v>3.65</v>
@@ -1630,13 +1630,13 @@
         <v>3.7</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M9" t="n">
         <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O9" t="n">
         <v>1.25</v>
@@ -1645,7 +1645,7 @@
         <v>2.24</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="R9" t="n">
         <v>1.48</v>
@@ -1660,37 +1660,37 @@
         <v>2.44</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="X9" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y9" t="n">
         <v>16</v>
       </c>
       <c r="Z9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA9" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AB9" t="n">
         <v>12.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD9" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE9" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AF9" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG9" t="n">
         <v>11</v>
@@ -1699,7 +1699,7 @@
         <v>15.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AJ9" t="n">
         <v>30</v>
@@ -1708,16 +1708,16 @@
         <v>22</v>
       </c>
       <c r="AL9" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM9" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN9" t="n">
         <v>14.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -1750,7 +1750,7 @@
         <v>1.69</v>
       </c>
       <c r="G10" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="H10" t="n">
         <v>5.2</v>
@@ -1765,7 +1765,7 @@
         <v>4.5</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
@@ -1792,67 +1792,67 @@
         <v>1.64</v>
       </c>
       <c r="U10" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="X10" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y10" t="n">
         <v>25</v>
       </c>
-      <c r="Y10" t="n">
-        <v>27</v>
-      </c>
       <c r="Z10" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA10" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB10" t="n">
         <v>12.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD10" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF10" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH10" t="n">
         <v>17</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ10" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AM10" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AN10" t="n">
         <v>7.2</v>
       </c>
       <c r="AO10" t="n">
-        <v>160</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="G11" t="n">
         <v>1.41</v>
@@ -1900,7 +1900,7 @@
         <v>5.7</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
@@ -1915,10 +1915,10 @@
         <v>2.68</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R11" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="S11" t="n">
         <v>2.38</v>
@@ -1927,22 +1927,22 @@
         <v>1.84</v>
       </c>
       <c r="U11" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="X11" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Y11" t="n">
         <v>38</v>
       </c>
       <c r="Z11" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AA11" t="n">
         <v>290</v>
@@ -1954,40 +1954,40 @@
         <v>12.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AE11" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG11" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH11" t="n">
         <v>23</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM11" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN11" t="n">
         <v>4.8</v>
       </c>
       <c r="AO11" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
@@ -2020,10 +2020,10 @@
         <v>1.33</v>
       </c>
       <c r="G12" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="H12" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I12" t="n">
         <v>10</v>
@@ -2035,58 +2035,58 @@
         <v>6.6</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="M12" t="n">
         <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O12" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P12" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="Q12" t="n">
         <v>1.36</v>
       </c>
       <c r="R12" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="S12" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="T12" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U12" t="n">
         <v>2.44</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="X12" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Y12" t="n">
         <v>60</v>
       </c>
       <c r="Z12" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AA12" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="AB12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC12" t="n">
         <v>16</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>17</v>
       </c>
       <c r="AD12" t="n">
         <v>34</v>
@@ -2095,7 +2095,7 @@
         <v>110</v>
       </c>
       <c r="AF12" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG12" t="n">
         <v>11</v>
@@ -2104,22 +2104,22 @@
         <v>23</v>
       </c>
       <c r="AI12" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM12" t="n">
         <v>80</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="AO12" t="n">
         <v>80</v>
@@ -2167,10 +2167,10 @@
         <v>3.55</v>
       </c>
       <c r="K13" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
@@ -2179,7 +2179,7 @@
         <v>4.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
         <v>2.04</v>
@@ -2200,22 +2200,22 @@
         <v>2.28</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="X13" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y13" t="n">
         <v>14</v>
       </c>
       <c r="Z13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA13" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB13" t="n">
         <v>11.5</v>
@@ -2224,37 +2224,37 @@
         <v>7.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE13" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF13" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
         <v>16.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ13" t="n">
         <v>32</v>
       </c>
       <c r="AK13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL13" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM13" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AN13" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AO13" t="n">
         <v>32</v>
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G14" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H14" t="n">
         <v>3.75</v>
       </c>
       <c r="I14" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J14" t="n">
         <v>3.65</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="G15" t="n">
         <v>1.95</v>
@@ -2437,7 +2437,7 @@
         <v>3.05</v>
       </c>
       <c r="K15" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="G2" t="n">
         <v>1000</v>
@@ -679,7 +679,7 @@
         <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="K2" t="n">
         <v>950</v>
@@ -691,13 +691,13 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.35</v>
+        <v>1.1</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="Q2" t="n">
         <v>1.48</v>
@@ -706,7 +706,7 @@
         <v>1.2</v>
       </c>
       <c r="S2" t="n">
-        <v>1.47</v>
+        <v>1.92</v>
       </c>
       <c r="T2" t="n">
         <v>1.04</v>
@@ -715,10 +715,10 @@
         <v>1.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="G3" t="n">
         <v>1.36</v>
@@ -814,7 +814,7 @@
         <v>12</v>
       </c>
       <c r="J3" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="K3" t="n">
         <v>5.9</v>
@@ -826,19 +826,19 @@
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="O3" t="n">
         <v>1.19</v>
       </c>
       <c r="P3" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="R3" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S3" t="n">
         <v>2.42</v>
@@ -847,19 +847,19 @@
         <v>1.91</v>
       </c>
       <c r="U3" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V3" t="n">
         <v>1.09</v>
       </c>
       <c r="W3" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="X3" t="n">
         <v>25</v>
       </c>
       <c r="Y3" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Z3" t="n">
         <v>110</v>
@@ -871,13 +871,13 @@
         <v>10.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AE3" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AF3" t="n">
         <v>8.800000000000001</v>
@@ -886,7 +886,7 @@
         <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI3" t="n">
         <v>130</v>
@@ -940,7 +940,7 @@
         <v>5.3</v>
       </c>
       <c r="G4" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="H4" t="n">
         <v>1.73</v>
@@ -961,13 +961,13 @@
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O4" t="n">
         <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q4" t="n">
         <v>1.72</v>
@@ -988,7 +988,7 @@
         <v>2.34</v>
       </c>
       <c r="W4" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="X4" t="n">
         <v>20</v>
@@ -1006,7 +1006,7 @@
         <v>23</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD4" t="n">
         <v>9.800000000000001</v>
@@ -1072,46 +1072,46 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.04</v>
+        <v>1.04</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>1.64</v>
+        <v>1.04</v>
       </c>
       <c r="I5" t="n">
-        <v>2.82</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>3.35</v>
+        <v>1.09</v>
       </c>
       <c r="K5" t="n">
         <v>1000</v>
       </c>
       <c r="L5" t="n">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="O5" t="n">
         <v>1.32</v>
       </c>
       <c r="P5" t="n">
-        <v>1.69</v>
+        <v>1.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.98</v>
+        <v>1.32</v>
       </c>
       <c r="R5" t="n">
-        <v>1.27</v>
+        <v>1.16</v>
       </c>
       <c r="S5" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="T5" t="n">
         <v>1.04</v>
@@ -1120,10 +1120,10 @@
         <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1225,7 +1225,7 @@
         <v>3.85</v>
       </c>
       <c r="L6" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
@@ -1480,7 +1480,7 @@
         <v>7.8</v>
       </c>
       <c r="G8" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="H8" t="n">
         <v>1.44</v>
@@ -1489,10 +1489,10 @@
         <v>1.45</v>
       </c>
       <c r="J8" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="K8" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="L8" t="n">
         <v>1.27</v>
@@ -1501,43 +1501,43 @@
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O8" t="n">
         <v>1.18</v>
       </c>
       <c r="P8" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R8" t="n">
         <v>1.7</v>
       </c>
       <c r="S8" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T8" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U8" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="W8" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="X8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y8" t="n">
         <v>11.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AA8" t="n">
         <v>12.5</v>
@@ -1579,7 +1579,7 @@
         <v>100</v>
       </c>
       <c r="AN8" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AO8" t="n">
         <v>4.9</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G9" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H9" t="n">
         <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J9" t="n">
         <v>3.65</v>
@@ -1639,19 +1639,19 @@
         <v>4.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P9" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R9" t="n">
         <v>1.48</v>
       </c>
       <c r="S9" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="T9" t="n">
         <v>1.65</v>
@@ -1660,16 +1660,16 @@
         <v>2.44</v>
       </c>
       <c r="V9" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W9" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X9" t="n">
         <v>18</v>
       </c>
       <c r="Y9" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z9" t="n">
         <v>26</v>
@@ -1690,13 +1690,13 @@
         <v>34</v>
       </c>
       <c r="AF9" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG9" t="n">
         <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
         <v>40</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="G10" t="n">
         <v>1.71</v>
@@ -1777,7 +1777,7 @@
         <v>1.19</v>
       </c>
       <c r="P10" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="Q10" t="n">
         <v>1.59</v>
@@ -1888,16 +1888,16 @@
         <v>1.41</v>
       </c>
       <c r="H11" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="I11" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="J11" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K11" t="n">
         <v>5.5</v>
-      </c>
-      <c r="K11" t="n">
-        <v>5.7</v>
       </c>
       <c r="L11" t="n">
         <v>1.27</v>
@@ -1909,7 +1909,7 @@
         <v>6.2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P11" t="n">
         <v>2.68</v>
@@ -1918,10 +1918,10 @@
         <v>1.56</v>
       </c>
       <c r="R11" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="S11" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="T11" t="n">
         <v>1.84</v>
@@ -1933,7 +1933,7 @@
         <v>1.11</v>
       </c>
       <c r="W11" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="X11" t="n">
         <v>26</v>
@@ -1942,7 +1942,7 @@
         <v>38</v>
       </c>
       <c r="Z11" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AA11" t="n">
         <v>290</v>
@@ -1954,7 +1954,7 @@
         <v>12.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AE11" t="n">
         <v>120</v>
@@ -2017,13 +2017,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="G12" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="H12" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="I12" t="n">
         <v>10</v>
@@ -2032,7 +2032,7 @@
         <v>6.4</v>
       </c>
       <c r="K12" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="L12" t="n">
         <v>1.19</v>
@@ -2059,7 +2059,7 @@
         <v>1.89</v>
       </c>
       <c r="T12" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U12" t="n">
         <v>2.44</v>
@@ -2107,7 +2107,7 @@
         <v>80</v>
       </c>
       <c r="AJ12" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK12" t="n">
         <v>12.5</v>
@@ -2119,7 +2119,7 @@
         <v>80</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="AO12" t="n">
         <v>80</v>
@@ -2182,10 +2182,10 @@
         <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="R13" t="n">
         <v>1.41</v>
@@ -2194,10 +2194,10 @@
         <v>3.25</v>
       </c>
       <c r="T13" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U13" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V13" t="n">
         <v>1.43</v>
@@ -2239,7 +2239,7 @@
         <v>16.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AJ13" t="n">
         <v>32</v>
@@ -2248,10 +2248,10 @@
         <v>24</v>
       </c>
       <c r="AL13" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AM13" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN13" t="n">
         <v>17.5</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
         <v>2.16</v>
@@ -2305,16 +2305,16 @@
         <v>4.1</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P14" t="n">
         <v>2.06</v>
@@ -2323,76 +2323,76 @@
         <v>1.8</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.77</v>
+        <v>1.68</v>
       </c>
       <c r="G15" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="H15" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J15" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="K15" t="n">
-        <v>4.3</v>
+        <v>5.7</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO15"/>
+  <dimension ref="A1:AO16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,7 +653,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -706,7 +706,7 @@
         <v>1.2</v>
       </c>
       <c r="S2" t="n">
-        <v>1.92</v>
+        <v>1.05</v>
       </c>
       <c r="T2" t="n">
         <v>1.04</v>
@@ -715,10 +715,10 @@
         <v>1.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="W2" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -808,16 +808,16 @@
         <v>1.36</v>
       </c>
       <c r="H3" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="I3" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="J3" t="n">
         <v>5.7</v>
       </c>
       <c r="K3" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L3" t="n">
         <v>1.27</v>
@@ -832,7 +832,7 @@
         <v>1.19</v>
       </c>
       <c r="P3" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="Q3" t="n">
         <v>1.56</v>
@@ -859,25 +859,25 @@
         <v>25</v>
       </c>
       <c r="Y3" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Z3" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AA3" t="n">
         <v>410</v>
       </c>
       <c r="AB3" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC3" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD3" t="n">
         <v>40</v>
       </c>
       <c r="AE3" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AF3" t="n">
         <v>8.800000000000001</v>
@@ -886,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI3" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ3" t="n">
         <v>11</v>
@@ -907,7 +907,7 @@
         <v>4.7</v>
       </c>
       <c r="AO3" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4">
@@ -940,13 +940,13 @@
         <v>5.3</v>
       </c>
       <c r="G4" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="H4" t="n">
         <v>1.73</v>
       </c>
       <c r="I4" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="J4" t="n">
         <v>4.1</v>
@@ -985,10 +985,10 @@
         <v>2.28</v>
       </c>
       <c r="V4" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="W4" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="X4" t="n">
         <v>20</v>
@@ -1006,7 +1006,7 @@
         <v>23</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD4" t="n">
         <v>9.800000000000001</v>
@@ -1021,7 +1021,7 @@
         <v>20</v>
       </c>
       <c r="AH4" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
@@ -1036,13 +1036,13 @@
         <v>60</v>
       </c>
       <c r="AM4" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN4" t="n">
         <v>55</v>
       </c>
       <c r="AO4" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -1108,7 +1108,7 @@
         <v>1.32</v>
       </c>
       <c r="R5" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="S5" t="n">
         <v>2</v>
@@ -1264,55 +1264,55 @@
         <v>27</v>
       </c>
       <c r="Y6" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="Z6" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AA6" t="n">
         <v>65</v>
       </c>
       <c r="AB6" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD6" t="n">
         <v>19.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AF6" t="n">
         <v>19.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
         <v>18</v>
       </c>
       <c r="AI6" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AJ6" t="n">
         <v>32</v>
       </c>
       <c r="AK6" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AL6" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AM6" t="n">
         <v>70</v>
       </c>
       <c r="AN6" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AO6" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="G7" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="H7" t="n">
         <v>2.64</v>
       </c>
       <c r="I7" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="J7" t="n">
         <v>3.75</v>
@@ -1390,10 +1390,10 @@
         <v>2.6</v>
       </c>
       <c r="V7" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W7" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="X7" t="n">
         <v>20</v>
@@ -1405,10 +1405,10 @@
         <v>19.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB7" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC7" t="n">
         <v>8.6</v>
@@ -1432,7 +1432,7 @@
         <v>32</v>
       </c>
       <c r="AJ7" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AK7" t="n">
         <v>26</v>
@@ -1441,13 +1441,13 @@
         <v>32</v>
       </c>
       <c r="AM7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN7" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AO7" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -1480,7 +1480,7 @@
         <v>7.8</v>
       </c>
       <c r="G8" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H8" t="n">
         <v>1.44</v>
@@ -1489,7 +1489,7 @@
         <v>1.45</v>
       </c>
       <c r="J8" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K8" t="n">
         <v>5.6</v>
@@ -1507,7 +1507,7 @@
         <v>1.18</v>
       </c>
       <c r="P8" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="Q8" t="n">
         <v>1.55</v>
@@ -1519,7 +1519,7 @@
         <v>2.36</v>
       </c>
       <c r="T8" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U8" t="n">
         <v>2.18</v>
@@ -1528,7 +1528,7 @@
         <v>3.25</v>
       </c>
       <c r="W8" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="X8" t="n">
         <v>25</v>
@@ -1540,7 +1540,7 @@
         <v>10.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AB8" t="n">
         <v>36</v>
@@ -1570,13 +1570,13 @@
         <v>260</v>
       </c>
       <c r="AK8" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AL8" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AM8" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN8" t="n">
         <v>90</v>
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G9" t="n">
         <v>2.3</v>
       </c>
-      <c r="G9" t="n">
-        <v>2.34</v>
-      </c>
       <c r="H9" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I9" t="n">
         <v>3.4</v>
@@ -1630,10 +1630,10 @@
         <v>3.7</v>
       </c>
       <c r="L9" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
         <v>4.6</v>
@@ -1645,10 +1645,10 @@
         <v>2.22</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R9" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S9" t="n">
         <v>2.96</v>
@@ -1657,34 +1657,34 @@
         <v>1.65</v>
       </c>
       <c r="U9" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V9" t="n">
         <v>1.41</v>
       </c>
       <c r="W9" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="X9" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="Y9" t="n">
         <v>15.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AA9" t="n">
         <v>60</v>
       </c>
       <c r="AB9" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC9" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD9" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE9" t="n">
         <v>34</v>
@@ -1696,13 +1696,13 @@
         <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI9" t="n">
         <v>40</v>
       </c>
       <c r="AJ9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK9" t="n">
         <v>22</v>
@@ -1711,13 +1711,13 @@
         <v>32</v>
       </c>
       <c r="AM9" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN9" t="n">
         <v>14.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
@@ -1765,7 +1765,7 @@
         <v>4.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
@@ -1774,13 +1774,13 @@
         <v>5.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P10" t="n">
         <v>2.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R10" t="n">
         <v>1.63</v>
@@ -1792,7 +1792,7 @@
         <v>1.64</v>
       </c>
       <c r="U10" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="V10" t="n">
         <v>1.23</v>
@@ -1813,10 +1813,10 @@
         <v>120</v>
       </c>
       <c r="AB10" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC10" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD10" t="n">
         <v>20</v>
@@ -1885,19 +1885,19 @@
         <v>1.39</v>
       </c>
       <c r="G11" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="H11" t="n">
         <v>9.6</v>
       </c>
       <c r="I11" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="J11" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K11" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L11" t="n">
         <v>1.27</v>
@@ -1909,22 +1909,22 @@
         <v>6.2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P11" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="R11" t="n">
         <v>1.69</v>
       </c>
       <c r="S11" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="T11" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U11" t="n">
         <v>2.12</v>
@@ -1933,13 +1933,13 @@
         <v>1.11</v>
       </c>
       <c r="W11" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="X11" t="n">
         <v>26</v>
       </c>
       <c r="Y11" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Z11" t="n">
         <v>90</v>
@@ -1984,7 +1984,7 @@
         <v>110</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="AO11" t="n">
         <v>120</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="G12" t="n">
         <v>1.35</v>
@@ -2026,13 +2026,13 @@
         <v>9.6</v>
       </c>
       <c r="I12" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="J12" t="n">
         <v>6.4</v>
       </c>
       <c r="K12" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="L12" t="n">
         <v>1.19</v>
@@ -2062,13 +2062,13 @@
         <v>1.66</v>
       </c>
       <c r="U12" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V12" t="n">
         <v>1.11</v>
       </c>
       <c r="W12" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="X12" t="n">
         <v>42</v>
@@ -2116,13 +2116,13 @@
         <v>24</v>
       </c>
       <c r="AM12" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AO12" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
@@ -2155,13 +2155,13 @@
         <v>2.38</v>
       </c>
       <c r="G13" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H13" t="n">
         <v>3.25</v>
       </c>
       <c r="I13" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J13" t="n">
         <v>3.55</v>
@@ -2185,10 +2185,10 @@
         <v>2.06</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R13" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S13" t="n">
         <v>3.25</v>
@@ -2203,7 +2203,7 @@
         <v>1.43</v>
       </c>
       <c r="W13" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X13" t="n">
         <v>15</v>
@@ -2236,7 +2236,7 @@
         <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI13" t="n">
         <v>44</v>
@@ -2254,7 +2254,7 @@
         <v>80</v>
       </c>
       <c r="AN13" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AO13" t="n">
         <v>32</v>
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G14" t="n">
         <v>2.16</v>
       </c>
       <c r="H14" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I14" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="J14" t="n">
         <v>3.65</v>
@@ -2311,7 +2311,7 @@
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O14" t="n">
         <v>1.28</v>
@@ -2323,211 +2323,346 @@
         <v>1.8</v>
       </c>
       <c r="R14" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="S14" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="U14" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="W14" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y14" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Z14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO14" t="n">
         <v>42</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Chilean Primera B</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-11-26</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Deportes Concepcion</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Deportes Copiapo</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>2025-11-26</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>20:30:00</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Atletico Bucaramanga</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>Fortaleza FC</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="I15" t="n">
-        <v>11</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K15" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>0</v>
+      <c r="F16" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K16" t="n">
+        <v>980</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W16" t="n">
+        <v>2</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO16"/>
+  <dimension ref="A1:AO21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Hong Kong Premier League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>04:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Southern District</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Juventus B</t>
+          <t>Kitchee SC</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.09</v>
+        <v>4.8</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="H2" t="n">
-        <v>1.04</v>
+        <v>1.46</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>1.84</v>
       </c>
       <c r="J2" t="n">
-        <v>1.09</v>
+        <v>3.7</v>
       </c>
       <c r="K2" t="n">
-        <v>950</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -691,34 +691,34 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.1</v>
+        <v>2.06</v>
       </c>
       <c r="O2" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="T2" t="n">
         <v>1.01</v>
       </c>
-      <c r="P2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W2" t="n">
         <v>1.04</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.01</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,126 +788,126 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Kairat Almaty</t>
+          <t>Juventus B</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.35</v>
+        <v>1.09</v>
       </c>
       <c r="G3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K3" t="n">
+        <v>950</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P3" t="n">
         <v>1.36</v>
       </c>
-      <c r="H3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="I3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="K3" t="n">
-        <v>6</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N3" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.19</v>
       </c>
-      <c r="P3" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.09</v>
-      </c>
       <c r="W3" t="n">
-        <v>3.75</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>410</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.7</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -928,127 +928,127 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Kairat Almaty</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.3</v>
+        <v>1.35</v>
       </c>
       <c r="G4" t="n">
-        <v>5.4</v>
+        <v>1.36</v>
       </c>
       <c r="H4" t="n">
-        <v>1.73</v>
+        <v>10.5</v>
       </c>
       <c r="I4" t="n">
-        <v>1.75</v>
+        <v>11.5</v>
       </c>
       <c r="J4" t="n">
-        <v>4.1</v>
+        <v>5.7</v>
       </c>
       <c r="K4" t="n">
-        <v>4.3</v>
+        <v>6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="P4" t="n">
-        <v>2.36</v>
+        <v>2.64</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.72</v>
+        <v>1.56</v>
       </c>
       <c r="R4" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="S4" t="n">
-        <v>2.74</v>
+        <v>2.42</v>
       </c>
       <c r="T4" t="n">
-        <v>1.72</v>
+        <v>1.92</v>
       </c>
       <c r="U4" t="n">
-        <v>2.28</v>
+        <v>2.04</v>
       </c>
       <c r="V4" t="n">
-        <v>2.32</v>
+        <v>1.09</v>
       </c>
       <c r="W4" t="n">
-        <v>1.22</v>
+        <v>3.75</v>
       </c>
       <c r="X4" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Y4" t="n">
+        <v>42</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>410</v>
+      </c>
+      <c r="AB4" t="n">
         <v>11</v>
       </c>
-      <c r="Z4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>23</v>
-      </c>
       <c r="AC4" t="n">
-        <v>9.4</v>
+        <v>13</v>
       </c>
       <c r="AD4" t="n">
-        <v>9.800000000000001</v>
+        <v>40</v>
       </c>
       <c r="AE4" t="n">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="AF4" t="n">
-        <v>44</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AH4" t="n">
-        <v>17.5</v>
+        <v>25</v>
       </c>
       <c r="AI4" t="n">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="AJ4" t="n">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="AK4" t="n">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="AL4" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="AM4" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="AN4" t="n">
-        <v>55</v>
+        <v>4.7</v>
       </c>
       <c r="AO4" t="n">
-        <v>8.199999999999999</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>AD Ceuta FC</t>
+          <t>Pafos FC</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.04</v>
+        <v>5.3</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="H5" t="n">
-        <v>1.04</v>
+        <v>1.74</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>1.75</v>
       </c>
       <c r="J5" t="n">
-        <v>1.09</v>
+        <v>4.1</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="L5" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="P5" t="n">
-        <v>1.25</v>
+        <v>2.34</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.32</v>
+        <v>1.72</v>
       </c>
       <c r="R5" t="n">
-        <v>1.17</v>
+        <v>1.55</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>2.74</v>
       </c>
       <c r="T5" t="n">
-        <v>1.04</v>
+        <v>1.72</v>
       </c>
       <c r="U5" t="n">
-        <v>1.04</v>
+        <v>2.28</v>
       </c>
       <c r="V5" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="W5" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,118 +1198,118 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>AD Ceuta FC</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>St Gallen</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.08</v>
+        <v>1.04</v>
       </c>
       <c r="G6" t="n">
-        <v>2.2</v>
+        <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>1.04</v>
       </c>
       <c r="I6" t="n">
-        <v>3.85</v>
+        <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>3.65</v>
+        <v>1.09</v>
       </c>
       <c r="K6" t="n">
-        <v>3.85</v>
+        <v>1000</v>
       </c>
       <c r="L6" t="n">
         <v>1.26</v>
       </c>
       <c r="M6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" t="n">
         <v>1.04</v>
       </c>
-      <c r="N6" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.56</v>
-      </c>
       <c r="U6" t="n">
-        <v>2.5</v>
+        <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="X6" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,36 +1328,36 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>St Gallen</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.78</v>
+        <v>2.08</v>
       </c>
       <c r="G7" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="H7" t="n">
-        <v>2.64</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>2.66</v>
+        <v>3.85</v>
       </c>
       <c r="J7" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K7" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L7" t="n">
         <v>1.3</v>
@@ -1366,88 +1366,88 @@
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P7" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="R7" t="n">
         <v>1.57</v>
       </c>
       <c r="S7" t="n">
-        <v>2.68</v>
+        <v>2.5</v>
       </c>
       <c r="T7" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="U7" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="V7" t="n">
-        <v>1.6</v>
+        <v>1.35</v>
       </c>
       <c r="W7" t="n">
-        <v>1.55</v>
+        <v>1.83</v>
       </c>
       <c r="X7" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="Y7" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="Z7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD7" t="n">
         <v>19.5</v>
       </c>
-      <c r="AA7" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>12</v>
-      </c>
       <c r="AE7" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AF7" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="AI7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>32</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>40</v>
-      </c>
       <c r="AK7" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AL7" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AM7" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AN7" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AO7" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Olympiakos</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X8" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC8" t="n">
         <v>7.8</v>
       </c>
-      <c r="G8" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="J8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N8" t="n">
-        <v>6</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="X8" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB8" t="n">
+      <c r="AD8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE8" t="n">
         <v>36</v>
       </c>
-      <c r="AC8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>13</v>
-      </c>
       <c r="AF8" t="n">
-        <v>75</v>
+        <v>15.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AI8" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="AJ8" t="n">
-        <v>260</v>
+        <v>32</v>
       </c>
       <c r="AK8" t="n">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="AL8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM8" t="n">
         <v>80</v>
       </c>
-      <c r="AM8" t="n">
-        <v>95</v>
-      </c>
       <c r="AN8" t="n">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="AO8" t="n">
-        <v>4.9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.28</v>
+        <v>1.33</v>
       </c>
       <c r="G9" t="n">
-        <v>2.3</v>
+        <v>1.35</v>
       </c>
       <c r="H9" t="n">
-        <v>3.35</v>
+        <v>9.6</v>
       </c>
       <c r="I9" t="n">
-        <v>3.4</v>
+        <v>10.5</v>
       </c>
       <c r="J9" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N9" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P9" t="n">
         <v>3.65</v>
       </c>
-      <c r="K9" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N9" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.22</v>
-      </c>
       <c r="Q9" t="n">
-        <v>1.8</v>
+        <v>1.36</v>
       </c>
       <c r="R9" t="n">
-        <v>1.47</v>
+        <v>2.08</v>
       </c>
       <c r="S9" t="n">
-        <v>2.96</v>
+        <v>1.89</v>
       </c>
       <c r="T9" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U9" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="V9" t="n">
-        <v>1.41</v>
+        <v>1.11</v>
       </c>
       <c r="W9" t="n">
-        <v>1.76</v>
+        <v>3.85</v>
       </c>
       <c r="X9" t="n">
+        <v>42</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>110</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>320</v>
+      </c>
+      <c r="AB9" t="n">
         <v>16.5</v>
       </c>
-      <c r="Y9" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB9" t="n">
+      <c r="AC9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF9" t="n">
         <v>12</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>16</v>
       </c>
       <c r="AG9" t="n">
         <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>15.5</v>
+        <v>23</v>
       </c>
       <c r="AI9" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AJ9" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AK9" t="n">
-        <v>22</v>
+        <v>12.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AM9" t="n">
         <v>75</v>
       </c>
       <c r="AN9" t="n">
-        <v>14.5</v>
+        <v>3.45</v>
       </c>
       <c r="AO9" t="n">
-        <v>28</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.7</v>
+        <v>1.39</v>
       </c>
       <c r="G10" t="n">
-        <v>1.71</v>
+        <v>1.4</v>
       </c>
       <c r="H10" t="n">
-        <v>5.2</v>
+        <v>10</v>
       </c>
       <c r="I10" t="n">
-        <v>5.3</v>
+        <v>10.5</v>
       </c>
       <c r="J10" t="n">
-        <v>4.4</v>
+        <v>5.5</v>
       </c>
       <c r="K10" t="n">
-        <v>4.5</v>
+        <v>5.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="R10" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="S10" t="n">
-        <v>2.48</v>
+        <v>2.36</v>
       </c>
       <c r="T10" t="n">
-        <v>1.64</v>
+        <v>1.85</v>
       </c>
       <c r="U10" t="n">
-        <v>2.46</v>
+        <v>2.1</v>
       </c>
       <c r="V10" t="n">
-        <v>1.23</v>
+        <v>1.1</v>
       </c>
       <c r="W10" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="X10" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>290</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH10" t="n">
         <v>24</v>
       </c>
-      <c r="Y10" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>44</v>
-      </c>
-      <c r="AA10" t="n">
+      <c r="AI10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AO10" t="n">
         <v>120</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>44</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.39</v>
+        <v>1.7</v>
       </c>
       <c r="G11" t="n">
-        <v>1.4</v>
+        <v>1.71</v>
       </c>
       <c r="H11" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="X11" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG11" t="n">
         <v>9.6</v>
       </c>
-      <c r="I11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="J11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K11" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N11" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="X11" t="n">
+      <c r="AH11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL11" t="n">
         <v>26</v>
       </c>
-      <c r="Y11" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>290</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>29</v>
-      </c>
       <c r="AM11" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.6</v>
+        <v>7.2</v>
       </c>
       <c r="AO11" t="n">
-        <v>120</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.33</v>
+        <v>2.28</v>
       </c>
       <c r="G12" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L12" t="n">
         <v>1.35</v>
       </c>
-      <c r="H12" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="I12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="K12" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.19</v>
-      </c>
       <c r="M12" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>8.800000000000001</v>
+        <v>4.6</v>
       </c>
       <c r="O12" t="n">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="P12" t="n">
-        <v>3.65</v>
+        <v>2.22</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.36</v>
+        <v>1.8</v>
       </c>
       <c r="R12" t="n">
-        <v>2.08</v>
+        <v>1.47</v>
       </c>
       <c r="S12" t="n">
-        <v>1.89</v>
+        <v>2.98</v>
       </c>
       <c r="T12" t="n">
         <v>1.66</v>
       </c>
       <c r="U12" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="V12" t="n">
-        <v>1.11</v>
+        <v>1.41</v>
       </c>
       <c r="W12" t="n">
-        <v>3.85</v>
+        <v>1.76</v>
       </c>
       <c r="X12" t="n">
-        <v>42</v>
+        <v>16.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>60</v>
+        <v>15.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="AA12" t="n">
-        <v>320</v>
+        <v>55</v>
       </c>
       <c r="AB12" t="n">
-        <v>16.5</v>
+        <v>12</v>
       </c>
       <c r="AC12" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF12" t="n">
         <v>16</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>12</v>
       </c>
       <c r="AG12" t="n">
         <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>23</v>
+        <v>15.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AJ12" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AK12" t="n">
-        <v>12.5</v>
+        <v>22</v>
       </c>
       <c r="AL12" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AM12" t="n">
         <v>75</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.45</v>
+        <v>14.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Olympiakos</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.38</v>
+        <v>7.6</v>
       </c>
       <c r="G13" t="n">
-        <v>2.4</v>
+        <v>8</v>
       </c>
       <c r="H13" t="n">
-        <v>3.25</v>
+        <v>1.45</v>
       </c>
       <c r="I13" t="n">
-        <v>3.3</v>
+        <v>1.46</v>
       </c>
       <c r="J13" t="n">
-        <v>3.55</v>
+        <v>5.3</v>
       </c>
       <c r="K13" t="n">
-        <v>3.65</v>
+        <v>5.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>4.1</v>
+        <v>5.9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="P13" t="n">
-        <v>2.06</v>
+        <v>2.72</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.9</v>
+        <v>1.55</v>
       </c>
       <c r="R13" t="n">
-        <v>1.42</v>
+        <v>1.7</v>
       </c>
       <c r="S13" t="n">
-        <v>3.25</v>
+        <v>2.36</v>
       </c>
       <c r="T13" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="U13" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.43</v>
+        <v>3.15</v>
       </c>
       <c r="W13" t="n">
-        <v>1.71</v>
+        <v>1.14</v>
       </c>
       <c r="X13" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="Y13" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>23</v>
+        <v>10.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="AB13" t="n">
-        <v>11.5</v>
+        <v>34</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.8</v>
+        <v>12.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="AF13" t="n">
-        <v>15.5</v>
+        <v>75</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="AH13" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AI13" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="AJ13" t="n">
-        <v>32</v>
+        <v>260</v>
       </c>
       <c r="AK13" t="n">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="AL13" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AM13" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AN13" t="n">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="AO13" t="n">
-        <v>32</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,126 +2273,126 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Fortaleza EC</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.02</v>
+        <v>2.78</v>
       </c>
       <c r="G14" t="n">
-        <v>2.16</v>
+        <v>2.8</v>
       </c>
       <c r="H14" t="n">
-        <v>3.7</v>
+        <v>2.64</v>
       </c>
       <c r="I14" t="n">
-        <v>4.1</v>
+        <v>2.66</v>
       </c>
       <c r="J14" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K14" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>2.06</v>
+        <v>2.38</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="R14" t="n">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="S14" t="n">
-        <v>3</v>
+        <v>2.68</v>
       </c>
       <c r="T14" t="n">
-        <v>1.71</v>
+        <v>1.58</v>
       </c>
       <c r="U14" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="V14" t="n">
-        <v>1.32</v>
+        <v>1.6</v>
       </c>
       <c r="W14" t="n">
-        <v>1.87</v>
+        <v>1.55</v>
       </c>
       <c r="X14" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF14" t="n">
         <v>21</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="AG14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO14" t="n">
         <v>16</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>42</v>
       </c>
     </row>
     <row r="15">
@@ -2408,33 +2408,33 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Deportes Concepcion</t>
+          <t>San Marcos</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Deportes Copiapo</t>
+          <t>Cobreloa Calama</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="G15" t="n">
         <v>1000</v>
       </c>
       <c r="H15" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="I15" t="n">
         <v>1000</v>
       </c>
       <c r="J15" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="K15" t="n">
         <v>1000</v>
@@ -2446,22 +2446,22 @@
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="O15" t="n">
         <v>1.01</v>
       </c>
       <c r="P15" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.02</v>
+        <v>1.38</v>
       </c>
       <c r="R15" t="n">
         <v>1.18</v>
       </c>
       <c r="S15" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="T15" t="n">
         <v>1.04</v>
@@ -2533,135 +2533,810 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-11-26</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Red Bull Bragantino</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Fortaleza EC</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N16" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="X16" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chilean Primera B</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-11-26</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Deportes Concepcion</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Deportes Copiapo</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>2025-11-26</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>20:30:00</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Atletico Bucaramanga</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>Fortaleza FC</t>
         </is>
       </c>
-      <c r="F16" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="F18" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I18" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="K18" t="n">
+        <v>500</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-11-26</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Lanus</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Tigre</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S19" t="n">
+        <v>6</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="X19" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>320</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-11-26</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>FC Juarez</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Toluca</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q20" t="n">
         <v>2</v>
       </c>
-      <c r="H16" t="n">
-        <v>4</v>
-      </c>
-      <c r="I16" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="K16" t="n">
-        <v>980</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T16" t="n">
+      <c r="R20" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-11-26</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Atletico Nacional Medell</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Junior FC Barranquilla</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I21" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K21" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M21" t="n">
         <v>1.04</v>
       </c>
-      <c r="U16" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W16" t="n">
-        <v>2</v>
-      </c>
-      <c r="X16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO16" t="n">
+      <c r="N21" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W21" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AO21" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="G2" t="n">
         <v>980</v>
       </c>
       <c r="H2" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="I2" t="n">
         <v>1.84</v>
@@ -682,7 +682,7 @@
         <v>3.7</v>
       </c>
       <c r="K2" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -694,19 +694,19 @@
         <v>2.06</v>
       </c>
       <c r="O2" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="P2" t="n">
         <v>2.06</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="R2" t="n">
         <v>1.42</v>
       </c>
       <c r="S2" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="T2" t="n">
         <v>1.01</v>
@@ -718,7 +718,7 @@
         <v>2.2</v>
       </c>
       <c r="W2" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -808,7 +808,7 @@
         <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="I3" t="n">
         <v>1000</v>
@@ -838,7 +838,7 @@
         <v>1.48</v>
       </c>
       <c r="R3" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
         <v>1.94</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="G4" t="n">
         <v>1.36</v>
       </c>
       <c r="H4" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="I4" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="J4" t="n">
         <v>5.7</v>
@@ -979,7 +979,7 @@
         <v>2.42</v>
       </c>
       <c r="T4" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="U4" t="n">
         <v>2.04</v>
@@ -994,10 +994,10 @@
         <v>25</v>
       </c>
       <c r="Y4" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AA4" t="n">
         <v>410</v>
@@ -1012,7 +1012,7 @@
         <v>40</v>
       </c>
       <c r="AE4" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AF4" t="n">
         <v>8.800000000000001</v>
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="AI4" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AJ4" t="n">
         <v>11</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="G5" t="n">
         <v>5.4</v>
@@ -1081,10 +1081,10 @@
         <v>1.74</v>
       </c>
       <c r="I5" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="J5" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K5" t="n">
         <v>4.3</v>
@@ -1108,13 +1108,13 @@
         <v>1.72</v>
       </c>
       <c r="R5" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S5" t="n">
         <v>2.74</v>
       </c>
       <c r="T5" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U5" t="n">
         <v>2.28</v>
@@ -1123,7 +1123,7 @@
         <v>2.32</v>
       </c>
       <c r="W5" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X5" t="n">
         <v>20</v>
@@ -1360,7 +1360,7 @@
         <v>3.85</v>
       </c>
       <c r="L7" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
@@ -1480,13 +1480,13 @@
         <v>2.38</v>
       </c>
       <c r="G8" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H8" t="n">
         <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J8" t="n">
         <v>3.55</v>
@@ -1501,7 +1501,7 @@
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O8" t="n">
         <v>1.29</v>
@@ -1528,10 +1528,10 @@
         <v>1.43</v>
       </c>
       <c r="W8" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X8" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="Y8" t="n">
         <v>14</v>
@@ -1546,7 +1546,7 @@
         <v>11.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
         <v>14</v>
@@ -1648,7 +1648,7 @@
         <v>1.36</v>
       </c>
       <c r="R9" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="S9" t="n">
         <v>1.89</v>
@@ -1660,16 +1660,16 @@
         <v>2.46</v>
       </c>
       <c r="V9" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W9" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="X9" t="n">
         <v>42</v>
       </c>
       <c r="Y9" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Z9" t="n">
         <v>110</v>
@@ -1753,13 +1753,13 @@
         <v>1.4</v>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="I10" t="n">
         <v>10.5</v>
       </c>
       <c r="J10" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="K10" t="n">
         <v>5.6</v>
@@ -1816,7 +1816,7 @@
         <v>11.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD10" t="n">
         <v>34</v>
@@ -1828,10 +1828,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI10" t="n">
         <v>100</v>
@@ -1909,7 +1909,7 @@
         <v>5.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P11" t="n">
         <v>2.6</v>
@@ -1972,7 +1972,7 @@
         <v>55</v>
       </c>
       <c r="AJ11" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AK11" t="n">
         <v>15.5</v>
@@ -2041,7 +2041,7 @@
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.26</v>
@@ -2056,13 +2056,13 @@
         <v>1.47</v>
       </c>
       <c r="S12" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="T12" t="n">
         <v>1.66</v>
       </c>
       <c r="U12" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="V12" t="n">
         <v>1.41</v>
@@ -2155,7 +2155,7 @@
         <v>7.6</v>
       </c>
       <c r="G13" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H13" t="n">
         <v>1.45</v>
@@ -2164,7 +2164,7 @@
         <v>1.46</v>
       </c>
       <c r="J13" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="K13" t="n">
         <v>5.5</v>
@@ -2182,10 +2182,10 @@
         <v>1.18</v>
       </c>
       <c r="P13" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="R13" t="n">
         <v>1.7</v>
@@ -2245,19 +2245,19 @@
         <v>260</v>
       </c>
       <c r="AK13" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AL13" t="n">
         <v>80</v>
       </c>
       <c r="AM13" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN13" t="n">
         <v>90</v>
       </c>
       <c r="AO13" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -2317,7 +2317,7 @@
         <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q14" t="n">
         <v>1.68</v>
@@ -2602,7 +2602,7 @@
         <v>1.7</v>
       </c>
       <c r="U16" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V16" t="n">
         <v>1.32</v>
@@ -2614,10 +2614,10 @@
         <v>21</v>
       </c>
       <c r="Y16" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="Z16" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AA16" t="n">
         <v>75</v>
@@ -2629,31 +2629,31 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD16" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AE16" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AF16" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AG16" t="n">
         <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AI16" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AJ16" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AK16" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AL16" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AM16" t="n">
         <v>100</v>
@@ -2662,7 +2662,7 @@
         <v>14</v>
       </c>
       <c r="AO16" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
     </row>
     <row r="17">
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="G18" t="n">
         <v>2.16</v>
       </c>
       <c r="H18" t="n">
-        <v>3.85</v>
+        <v>4.5</v>
       </c>
       <c r="I18" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J18" t="n">
-        <v>2.44</v>
+        <v>1.2</v>
       </c>
       <c r="K18" t="n">
-        <v>500</v>
+        <v>5.1</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -2863,7 +2863,7 @@
         <v>2.04</v>
       </c>
       <c r="R18" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="S18" t="n">
         <v>3.55</v>
@@ -2875,7 +2875,7 @@
         <v>1.04</v>
       </c>
       <c r="V18" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W18" t="n">
         <v>1.86</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="G19" t="n">
         <v>2.26</v>
@@ -3013,7 +3013,7 @@
         <v>1.24</v>
       </c>
       <c r="W19" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="X19" t="n">
         <v>8</v>
@@ -3040,7 +3040,7 @@
         <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AG19" t="n">
         <v>980</v>
@@ -3055,7 +3055,7 @@
         <v>980</v>
       </c>
       <c r="AK19" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AL19" t="n">
         <v>75</v>
@@ -3124,10 +3124,10 @@
         <v>3.8</v>
       </c>
       <c r="O20" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P20" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q20" t="n">
         <v>2</v>
@@ -3157,7 +3157,7 @@
         <v>10.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
@@ -3184,7 +3184,7 @@
         <v>1000</v>
       </c>
       <c r="AI20" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
         <v>1000</v>
@@ -3202,7 +3202,7 @@
         <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
@@ -3262,7 +3262,7 @@
         <v>1.24</v>
       </c>
       <c r="P21" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q21" t="n">
         <v>1.61</v>
@@ -3271,16 +3271,16 @@
         <v>1.45</v>
       </c>
       <c r="S21" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="T21" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U21" t="n">
         <v>1.98</v>
       </c>
       <c r="V21" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="W21" t="n">
         <v>2.56</v>
@@ -3301,7 +3301,7 @@
         <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD21" t="n">
         <v>1000</v>
@@ -3313,7 +3313,7 @@
         <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH21" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
@@ -667,91 +667,91 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>980</v>
+        <v>7.8</v>
       </c>
       <c r="H2" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="I2" t="n">
-        <v>1.84</v>
+        <v>1.66</v>
       </c>
       <c r="J2" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K2" t="n">
-        <v>8</v>
+        <v>5.2</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>2.06</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P2" t="n">
-        <v>2.06</v>
+        <v>2.28</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="R2" t="n">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="S2" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="V2" t="n">
-        <v>2.2</v>
+        <v>2.52</v>
       </c>
       <c r="W2" t="n">
-        <v>1.07</v>
+        <v>1.16</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -772,7 +772,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>1.09</v>
       </c>
       <c r="K3" t="n">
-        <v>950</v>
+        <v>980</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -835,7 +835,7 @@
         <v>1.36</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.48</v>
+        <v>1.02</v>
       </c>
       <c r="R3" t="n">
         <v>1.18</v>
@@ -940,7 +940,7 @@
         <v>1.34</v>
       </c>
       <c r="G4" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="H4" t="n">
         <v>11</v>
@@ -952,10 +952,10 @@
         <v>5.7</v>
       </c>
       <c r="K4" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L4" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
@@ -967,7 +967,7 @@
         <v>1.19</v>
       </c>
       <c r="P4" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="Q4" t="n">
         <v>1.56</v>
@@ -988,7 +988,7 @@
         <v>1.09</v>
       </c>
       <c r="W4" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="X4" t="n">
         <v>25</v>
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="G5" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="H5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="I5" t="n">
         <v>1.74</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.76</v>
       </c>
       <c r="J5" t="n">
         <v>4.2</v>
@@ -1120,10 +1120,10 @@
         <v>2.28</v>
       </c>
       <c r="V5" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="W5" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X5" t="n">
         <v>20</v>
@@ -1162,7 +1162,7 @@
         <v>29</v>
       </c>
       <c r="AJ5" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AK5" t="n">
         <v>65</v>
@@ -1360,7 +1360,7 @@
         <v>3.85</v>
       </c>
       <c r="L7" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
@@ -1489,7 +1489,7 @@
         <v>3.3</v>
       </c>
       <c r="J8" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K8" t="n">
         <v>3.65</v>
@@ -1507,7 +1507,7 @@
         <v>1.29</v>
       </c>
       <c r="P8" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q8" t="n">
         <v>1.9</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="G9" t="n">
         <v>1.35</v>
@@ -1630,7 +1630,7 @@
         <v>6.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="M9" t="n">
         <v>1.02</v>
@@ -1642,7 +1642,7 @@
         <v>1.11</v>
       </c>
       <c r="P9" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="Q9" t="n">
         <v>1.36</v>
@@ -1657,13 +1657,13 @@
         <v>1.66</v>
       </c>
       <c r="U9" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="V9" t="n">
         <v>1.1</v>
       </c>
       <c r="W9" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="X9" t="n">
         <v>42</v>
@@ -1675,10 +1675,10 @@
         <v>110</v>
       </c>
       <c r="AA9" t="n">
-        <v>320</v>
+        <v>570</v>
       </c>
       <c r="AB9" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC9" t="n">
         <v>16</v>
@@ -1708,7 +1708,7 @@
         <v>12.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM9" t="n">
         <v>75</v>
@@ -1717,7 +1717,7 @@
         <v>3.45</v>
       </c>
       <c r="AO9" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
@@ -1750,7 +1750,7 @@
         <v>1.39</v>
       </c>
       <c r="G10" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="H10" t="n">
         <v>9.6</v>
@@ -1774,19 +1774,19 @@
         <v>6.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P10" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="R10" t="n">
         <v>1.69</v>
       </c>
       <c r="S10" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="T10" t="n">
         <v>1.85</v>
@@ -1795,10 +1795,10 @@
         <v>2.1</v>
       </c>
       <c r="V10" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W10" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="X10" t="n">
         <v>26</v>
@@ -1816,7 +1816,7 @@
         <v>11.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD10" t="n">
         <v>34</v>
@@ -1843,13 +1843,13 @@
         <v>13</v>
       </c>
       <c r="AL10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM10" t="n">
         <v>110</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AO10" t="n">
         <v>120</v>
@@ -1888,10 +1888,10 @@
         <v>1.71</v>
       </c>
       <c r="H11" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I11" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J11" t="n">
         <v>4.4</v>
@@ -1915,10 +1915,10 @@
         <v>2.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R11" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="S11" t="n">
         <v>2.48</v>
@@ -1930,7 +1930,7 @@
         <v>2.48</v>
       </c>
       <c r="V11" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W11" t="n">
         <v>2.4</v>
@@ -1942,7 +1942,7 @@
         <v>25</v>
       </c>
       <c r="Z11" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AA11" t="n">
         <v>120</v>
@@ -1960,7 +1960,7 @@
         <v>55</v>
       </c>
       <c r="AF11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG11" t="n">
         <v>9.6</v>
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G12" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="H12" t="n">
         <v>3.35</v>
@@ -2056,7 +2056,7 @@
         <v>1.47</v>
       </c>
       <c r="S12" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="T12" t="n">
         <v>1.66</v>
@@ -2068,7 +2068,7 @@
         <v>1.41</v>
       </c>
       <c r="W12" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="X12" t="n">
         <v>16.5</v>
@@ -2080,7 +2080,7 @@
         <v>24</v>
       </c>
       <c r="AA12" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB12" t="n">
         <v>12</v>
@@ -2116,10 +2116,10 @@
         <v>32</v>
       </c>
       <c r="AM12" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN12" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO12" t="n">
         <v>28</v>
@@ -2164,7 +2164,7 @@
         <v>1.46</v>
       </c>
       <c r="J13" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="K13" t="n">
         <v>5.5</v>
@@ -2182,13 +2182,13 @@
         <v>1.18</v>
       </c>
       <c r="P13" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R13" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="S13" t="n">
         <v>2.36</v>
@@ -2245,13 +2245,13 @@
         <v>260</v>
       </c>
       <c r="AK13" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AL13" t="n">
         <v>80</v>
       </c>
       <c r="AM13" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN13" t="n">
         <v>90</v>
@@ -2287,28 +2287,28 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="G14" t="n">
         <v>2.8</v>
       </c>
       <c r="H14" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="I14" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="J14" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K14" t="n">
         <v>3.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
         <v>5.1</v>
@@ -2335,7 +2335,7 @@
         <v>2.6</v>
       </c>
       <c r="V14" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="W14" t="n">
         <v>1.55</v>
@@ -2389,7 +2389,7 @@
         <v>60</v>
       </c>
       <c r="AN14" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AO14" t="n">
         <v>16</v>
@@ -2455,7 +2455,7 @@
         <v>1.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.38</v>
+        <v>1.02</v>
       </c>
       <c r="R15" t="n">
         <v>1.18</v>
@@ -2557,19 +2557,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="G16" t="n">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="H16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J16" t="n">
         <v>3.7</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.65</v>
       </c>
       <c r="K16" t="n">
         <v>4.1</v>
@@ -2590,28 +2590,28 @@
         <v>2.06</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="R16" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S16" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T16" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="U16" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="V16" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="W16" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="X16" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
         <v>980</v>
@@ -2620,13 +2620,13 @@
         <v>980</v>
       </c>
       <c r="AA16" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AB16" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD16" t="n">
         <v>980</v>
@@ -2635,10 +2635,10 @@
         <v>980</v>
       </c>
       <c r="AF16" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH16" t="n">
         <v>980</v>
@@ -2656,10 +2656,10 @@
         <v>980</v>
       </c>
       <c r="AM16" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN16" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AO16" t="n">
         <v>980</v>
@@ -2716,13 +2716,13 @@
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>1.1</v>
+        <v>1.29</v>
       </c>
       <c r="O17" t="n">
         <v>1.01</v>
       </c>
       <c r="P17" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="Q17" t="n">
         <v>1.02</v>
@@ -2827,59 +2827,59 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="G18" t="n">
-        <v>2.16</v>
+        <v>1.95</v>
       </c>
       <c r="H18" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I18" t="n">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>1.2</v>
+        <v>3.35</v>
       </c>
       <c r="K18" t="n">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>2.52</v>
+        <v>3</v>
       </c>
       <c r="O18" t="n">
-        <v>1.02</v>
+        <v>1.42</v>
       </c>
       <c r="P18" t="n">
-        <v>1.54</v>
+        <v>1.68</v>
       </c>
       <c r="Q18" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W18" t="n">
         <v>2.04</v>
       </c>
-      <c r="R18" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.86</v>
-      </c>
       <c r="X18" t="n">
         <v>1000</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ18" t="n">
         <v>1000</v>
@@ -2965,7 +2965,7 @@
         <v>2.04</v>
       </c>
       <c r="G19" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H19" t="n">
         <v>4.3</v>
@@ -3007,7 +3007,7 @@
         <v>2.3</v>
       </c>
       <c r="U19" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="V19" t="n">
         <v>1.24</v>
@@ -3049,7 +3049,7 @@
         <v>980</v>
       </c>
       <c r="AI19" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ19" t="n">
         <v>980</v>
@@ -3061,7 +3061,7 @@
         <v>75</v>
       </c>
       <c r="AM19" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="AN19" t="n">
         <v>1000</v>
@@ -3157,7 +3157,7 @@
         <v>10.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
@@ -3202,7 +3202,7 @@
         <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
@@ -3256,13 +3256,13 @@
         <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="O21" t="n">
         <v>1.24</v>
       </c>
       <c r="P21" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q21" t="n">
         <v>1.61</v>
@@ -3277,7 +3277,7 @@
         <v>1.81</v>
       </c>
       <c r="U21" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
         <v>1.15</v>
@@ -3298,10 +3298,10 @@
         <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD21" t="n">
         <v>1000</v>
@@ -3310,7 +3310,7 @@
         <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG21" t="n">
         <v>12.5</v>
@@ -3331,10 +3331,10 @@
         <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN21" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
@@ -667,82 +667,82 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="G2" t="n">
         <v>7.8</v>
       </c>
       <c r="H2" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="I2" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="J2" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K2" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="P2" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="S2" t="n">
-        <v>2.32</v>
+        <v>2.68</v>
       </c>
       <c r="T2" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="U2" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="V2" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="W2" t="n">
         <v>1.16</v>
       </c>
       <c r="X2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA2" t="n">
         <v>16</v>
       </c>
       <c r="AB2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD2" t="n">
         <v>11</v>
       </c>
       <c r="AE2" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
@@ -751,10 +751,10 @@
         <v>26</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
@@ -772,7 +772,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>7.2</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -994,7 +994,7 @@
         <v>25</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="Z4" t="n">
         <v>110</v>
@@ -1021,7 +1021,7 @@
         <v>10</v>
       </c>
       <c r="AH4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI4" t="n">
         <v>130</v>
@@ -1075,22 +1075,22 @@
         <v>5.3</v>
       </c>
       <c r="G5" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="H5" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="I5" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="J5" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K5" t="n">
         <v>4.3</v>
       </c>
       <c r="L5" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1120,7 +1120,7 @@
         <v>2.28</v>
       </c>
       <c r="V5" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="W5" t="n">
         <v>1.22</v>
@@ -1162,7 +1162,7 @@
         <v>29</v>
       </c>
       <c r="AJ5" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK5" t="n">
         <v>65</v>
@@ -1507,13 +1507,13 @@
         <v>1.29</v>
       </c>
       <c r="P8" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R8" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S8" t="n">
         <v>3.2</v>
@@ -1579,7 +1579,7 @@
         <v>80</v>
       </c>
       <c r="AN8" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AO8" t="n">
         <v>32</v>
@@ -1618,10 +1618,10 @@
         <v>1.35</v>
       </c>
       <c r="H9" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
         <v>6.4</v>
@@ -1642,7 +1642,7 @@
         <v>1.11</v>
       </c>
       <c r="P9" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="Q9" t="n">
         <v>1.36</v>
@@ -1660,7 +1660,7 @@
         <v>2.44</v>
       </c>
       <c r="V9" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W9" t="n">
         <v>3.85</v>
@@ -1675,7 +1675,7 @@
         <v>110</v>
       </c>
       <c r="AA9" t="n">
-        <v>570</v>
+        <v>310</v>
       </c>
       <c r="AB9" t="n">
         <v>16</v>
@@ -1717,7 +1717,7 @@
         <v>3.45</v>
       </c>
       <c r="AO9" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
@@ -1750,10 +1750,10 @@
         <v>1.39</v>
       </c>
       <c r="G10" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="H10" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I10" t="n">
         <v>10.5</v>
@@ -1765,7 +1765,7 @@
         <v>5.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
@@ -1774,10 +1774,10 @@
         <v>6.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="Q10" t="n">
         <v>1.56</v>
@@ -1786,7 +1786,7 @@
         <v>1.69</v>
       </c>
       <c r="S10" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="T10" t="n">
         <v>1.85</v>
@@ -1795,13 +1795,13 @@
         <v>2.1</v>
       </c>
       <c r="V10" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W10" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="X10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y10" t="n">
         <v>40</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="G11" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="H11" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I11" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="J11" t="n">
         <v>4.4</v>
@@ -1906,13 +1906,13 @@
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="O11" t="n">
         <v>1.19</v>
       </c>
       <c r="P11" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q11" t="n">
         <v>1.59</v>
@@ -1921,31 +1921,31 @@
         <v>1.64</v>
       </c>
       <c r="S11" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="T11" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U11" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="V11" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W11" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="X11" t="n">
         <v>24</v>
       </c>
       <c r="Y11" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Z11" t="n">
         <v>46</v>
       </c>
       <c r="AA11" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB11" t="n">
         <v>12</v>
@@ -1957,7 +1957,7 @@
         <v>20</v>
       </c>
       <c r="AE11" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF11" t="n">
         <v>12</v>
@@ -1972,7 +1972,7 @@
         <v>55</v>
       </c>
       <c r="AJ11" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AK11" t="n">
         <v>15.5</v>
@@ -1984,10 +1984,10 @@
         <v>70</v>
       </c>
       <c r="AN11" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AO11" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G12" t="n">
         <v>2.3</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2.34</v>
       </c>
       <c r="H12" t="n">
         <v>3.35</v>
@@ -2029,49 +2029,49 @@
         <v>3.4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K12" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L12" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O12" t="n">
         <v>1.26</v>
       </c>
       <c r="P12" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="R12" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S12" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="T12" t="n">
         <v>1.66</v>
       </c>
       <c r="U12" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V12" t="n">
         <v>1.41</v>
       </c>
       <c r="W12" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X12" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y12" t="n">
         <v>15.5</v>
@@ -2083,7 +2083,7 @@
         <v>60</v>
       </c>
       <c r="AB12" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC12" t="n">
         <v>8.199999999999999</v>
@@ -2107,7 +2107,7 @@
         <v>40</v>
       </c>
       <c r="AJ12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AK12" t="n">
         <v>22</v>
@@ -2122,7 +2122,7 @@
         <v>14</v>
       </c>
       <c r="AO12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="G13" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="H13" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="I13" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="J13" t="n">
         <v>5.3</v>
       </c>
       <c r="K13" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L13" t="n">
         <v>1.27</v>
@@ -2185,7 +2185,7 @@
         <v>2.72</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="R13" t="n">
         <v>1.71</v>
@@ -2194,10 +2194,10 @@
         <v>2.36</v>
       </c>
       <c r="T13" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U13" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V13" t="n">
         <v>3.15</v>
@@ -2215,7 +2215,7 @@
         <v>10.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB13" t="n">
         <v>34</v>
@@ -2230,10 +2230,10 @@
         <v>13</v>
       </c>
       <c r="AF13" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH13" t="n">
         <v>22</v>
@@ -2245,13 +2245,13 @@
         <v>260</v>
       </c>
       <c r="AK13" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AL13" t="n">
         <v>80</v>
       </c>
       <c r="AM13" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN13" t="n">
         <v>90</v>
@@ -2290,7 +2290,7 @@
         <v>2.76</v>
       </c>
       <c r="G14" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="H14" t="n">
         <v>2.66</v>
@@ -2320,13 +2320,13 @@
         <v>2.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R14" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S14" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="T14" t="n">
         <v>1.58</v>
@@ -2338,7 +2338,7 @@
         <v>1.59</v>
       </c>
       <c r="W14" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="X14" t="n">
         <v>20</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="G16" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H16" t="n">
         <v>4</v>
@@ -2590,7 +2590,7 @@
         <v>2.06</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="R16" t="n">
         <v>1.41</v>
@@ -2599,16 +2599,16 @@
         <v>3.05</v>
       </c>
       <c r="T16" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U16" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V16" t="n">
         <v>1.28</v>
       </c>
       <c r="W16" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="G18" t="n">
         <v>1.95</v>
@@ -2962,37 +2962,37 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="G19" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="H19" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="I19" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J19" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="K19" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="L19" t="n">
         <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="N19" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="O19" t="n">
         <v>1.61</v>
       </c>
       <c r="P19" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q19" t="n">
         <v>2.84</v>
@@ -3010,13 +3010,13 @@
         <v>1.64</v>
       </c>
       <c r="V19" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W19" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="X19" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="Y19" t="n">
         <v>12</v>
@@ -3028,10 +3028,10 @@
         <v>170</v>
       </c>
       <c r="AB19" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD19" t="n">
         <v>980</v>
@@ -3040,7 +3040,7 @@
         <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AG19" t="n">
         <v>980</v>
@@ -3064,7 +3064,7 @@
         <v>310</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3115,7 +3115,7 @@
         <v>3.85</v>
       </c>
       <c r="L20" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M20" t="n">
         <v>1.06</v>
@@ -3232,25 +3232,25 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.51</v>
+        <v>1.62</v>
       </c>
       <c r="G21" t="n">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="H21" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I21" t="n">
-        <v>8.6</v>
+        <v>6.6</v>
       </c>
       <c r="J21" t="n">
         <v>3.85</v>
       </c>
       <c r="K21" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="L21" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M21" t="n">
         <v>1.04</v>
@@ -3259,31 +3259,31 @@
         <v>3.9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P21" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="R21" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="S21" t="n">
-        <v>2.6</v>
+        <v>2.78</v>
       </c>
       <c r="T21" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V21" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="W21" t="n">
-        <v>2.56</v>
+        <v>2.34</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3298,7 +3298,7 @@
         <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
         <v>1000</v>
@@ -3310,10 +3310,10 @@
         <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
         <v>1000</v>
@@ -3331,7 +3331,7 @@
         <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN21" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
@@ -667,37 +667,37 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="G2" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="H2" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="I2" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="J2" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
         <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
         <v>1.23</v>
       </c>
       <c r="P2" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="Q2" t="n">
         <v>1.67</v>
@@ -706,55 +706,55 @@
         <v>1.48</v>
       </c>
       <c r="S2" t="n">
-        <v>2.68</v>
+        <v>2.48</v>
       </c>
       <c r="T2" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U2" t="n">
         <v>2.04</v>
       </c>
       <c r="V2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W2" t="n">
         <v>1.16</v>
       </c>
       <c r="X2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC2" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH2" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AI2" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
@@ -772,7 +772,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="3">
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="G4" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="H4" t="n">
         <v>11</v>
@@ -961,40 +961,40 @@
         <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="O4" t="n">
         <v>1.19</v>
       </c>
       <c r="P4" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="R4" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="S4" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="T4" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U4" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V4" t="n">
         <v>1.09</v>
       </c>
       <c r="W4" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="X4" t="n">
         <v>25</v>
       </c>
       <c r="Y4" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Z4" t="n">
         <v>110</v>
@@ -1003,7 +1003,7 @@
         <v>410</v>
       </c>
       <c r="AB4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC4" t="n">
         <v>13</v>
@@ -1012,7 +1012,7 @@
         <v>40</v>
       </c>
       <c r="AE4" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AF4" t="n">
         <v>8.800000000000001</v>
@@ -1021,7 +1021,7 @@
         <v>10</v>
       </c>
       <c r="AH4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI4" t="n">
         <v>130</v>
@@ -1078,10 +1078,10 @@
         <v>5.4</v>
       </c>
       <c r="H5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="I5" t="n">
         <v>1.74</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.76</v>
       </c>
       <c r="J5" t="n">
         <v>4.1</v>
@@ -1117,16 +1117,16 @@
         <v>1.73</v>
       </c>
       <c r="U5" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V5" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="W5" t="n">
         <v>1.22</v>
       </c>
       <c r="X5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y5" t="n">
         <v>11</v>
@@ -1138,19 +1138,19 @@
         <v>17.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC5" t="n">
         <v>9.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
         <v>16</v>
       </c>
       <c r="AF5" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AG5" t="n">
         <v>20</v>
@@ -1162,22 +1162,22 @@
         <v>29</v>
       </c>
       <c r="AJ5" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AK5" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL5" t="n">
         <v>60</v>
       </c>
       <c r="AM5" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN5" t="n">
         <v>55</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1219,7 +1219,7 @@
         <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="K6" t="n">
         <v>1000</v>
@@ -1255,7 +1255,7 @@
         <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="W6" t="n">
         <v>1.01</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G7" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H7" t="n">
         <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J7" t="n">
         <v>3.65</v>
@@ -1360,7 +1360,7 @@
         <v>3.85</v>
       </c>
       <c r="L7" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
@@ -1384,7 +1384,7 @@
         <v>2.5</v>
       </c>
       <c r="T7" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="U7" t="n">
         <v>2.52</v>
@@ -1393,61 +1393,61 @@
         <v>1.35</v>
       </c>
       <c r="W7" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="X7" t="n">
         <v>27</v>
       </c>
       <c r="Y7" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="Z7" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AA7" t="n">
         <v>65</v>
       </c>
       <c r="AB7" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD7" t="n">
         <v>19.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AF7" t="n">
         <v>19.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH7" t="n">
         <v>18</v>
       </c>
       <c r="AI7" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AJ7" t="n">
         <v>32</v>
       </c>
       <c r="AK7" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AL7" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AM7" t="n">
         <v>70</v>
       </c>
       <c r="AN7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -1495,7 +1495,7 @@
         <v>3.65</v>
       </c>
       <c r="L8" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
@@ -1507,16 +1507,16 @@
         <v>1.29</v>
       </c>
       <c r="P8" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R8" t="n">
         <v>1.41</v>
       </c>
       <c r="S8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T8" t="n">
         <v>1.72</v>
@@ -1531,7 +1531,7 @@
         <v>1.71</v>
       </c>
       <c r="X8" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y8" t="n">
         <v>14</v>
@@ -1546,7 +1546,7 @@
         <v>11.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD8" t="n">
         <v>14</v>
@@ -1561,7 +1561,7 @@
         <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI8" t="n">
         <v>44</v>
@@ -1582,7 +1582,7 @@
         <v>17.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -1618,7 +1618,7 @@
         <v>1.35</v>
       </c>
       <c r="H9" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="I9" t="n">
         <v>10</v>
@@ -1627,7 +1627,7 @@
         <v>6.4</v>
       </c>
       <c r="K9" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="L9" t="n">
         <v>1.2</v>
@@ -1642,7 +1642,7 @@
         <v>1.11</v>
       </c>
       <c r="P9" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="Q9" t="n">
         <v>1.36</v>
@@ -1657,28 +1657,28 @@
         <v>1.66</v>
       </c>
       <c r="U9" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V9" t="n">
         <v>1.11</v>
       </c>
       <c r="W9" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="X9" t="n">
         <v>42</v>
       </c>
       <c r="Y9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Z9" t="n">
         <v>110</v>
       </c>
       <c r="AA9" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="AB9" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC9" t="n">
         <v>16</v>
@@ -1753,16 +1753,16 @@
         <v>1.4</v>
       </c>
       <c r="H10" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="I10" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="I10" t="n">
-        <v>10.5</v>
-      </c>
       <c r="J10" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="K10" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="L10" t="n">
         <v>1.26</v>
@@ -1777,10 +1777,10 @@
         <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="R10" t="n">
         <v>1.69</v>
@@ -1792,16 +1792,16 @@
         <v>1.85</v>
       </c>
       <c r="U10" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V10" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W10" t="n">
         <v>3.5</v>
       </c>
       <c r="X10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y10" t="n">
         <v>40</v>
@@ -1819,13 +1819,13 @@
         <v>12.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AE10" t="n">
         <v>120</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AG10" t="n">
         <v>10.5</v>
@@ -1852,7 +1852,7 @@
         <v>4.7</v>
       </c>
       <c r="AO10" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
@@ -1906,7 +1906,7 @@
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="O11" t="n">
         <v>1.19</v>
@@ -1918,13 +1918,13 @@
         <v>1.59</v>
       </c>
       <c r="R11" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="S11" t="n">
         <v>2.46</v>
       </c>
       <c r="T11" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U11" t="n">
         <v>2.46</v>
@@ -1933,13 +1933,13 @@
         <v>1.21</v>
       </c>
       <c r="W11" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="X11" t="n">
         <v>24</v>
       </c>
       <c r="Y11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z11" t="n">
         <v>46</v>
@@ -1981,7 +1981,7 @@
         <v>26</v>
       </c>
       <c r="AM11" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN11" t="n">
         <v>7</v>
@@ -2035,7 +2035,7 @@
         <v>3.75</v>
       </c>
       <c r="L12" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
@@ -2056,13 +2056,13 @@
         <v>1.48</v>
       </c>
       <c r="S12" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="T12" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U12" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V12" t="n">
         <v>1.41</v>
@@ -2080,7 +2080,7 @@
         <v>24</v>
       </c>
       <c r="AA12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB12" t="n">
         <v>12.5</v>
@@ -2098,7 +2098,7 @@
         <v>16</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH12" t="n">
         <v>15.5</v>
@@ -2107,7 +2107,7 @@
         <v>40</v>
       </c>
       <c r="AJ12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK12" t="n">
         <v>22</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="G13" t="n">
         <v>7.8</v>
       </c>
-      <c r="G13" t="n">
-        <v>8</v>
-      </c>
       <c r="H13" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="I13" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="J13" t="n">
         <v>5.3</v>
@@ -2185,49 +2185,49 @@
         <v>2.72</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="R13" t="n">
         <v>1.71</v>
       </c>
       <c r="S13" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="T13" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="U13" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V13" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="W13" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="X13" t="n">
         <v>25</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z13" t="n">
         <v>10.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AB13" t="n">
         <v>34</v>
       </c>
       <c r="AC13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD13" t="n">
         <v>10.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF13" t="n">
         <v>70</v>
@@ -2236,28 +2236,28 @@
         <v>27</v>
       </c>
       <c r="AH13" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI13" t="n">
         <v>27</v>
       </c>
       <c r="AJ13" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AK13" t="n">
         <v>90</v>
       </c>
       <c r="AL13" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN13" t="n">
         <v>80</v>
       </c>
-      <c r="AM13" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>90</v>
-      </c>
       <c r="AO13" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="14">
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="G14" t="n">
         <v>2.76</v>
       </c>
-      <c r="G14" t="n">
-        <v>2.78</v>
-      </c>
       <c r="H14" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="I14" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="J14" t="n">
         <v>3.7</v>
@@ -2335,7 +2335,7 @@
         <v>2.6</v>
       </c>
       <c r="V14" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="W14" t="n">
         <v>1.56</v>
@@ -2392,7 +2392,7 @@
         <v>17.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="15">
@@ -2557,19 +2557,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="G16" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I16" t="n">
         <v>4.5</v>
       </c>
       <c r="J16" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K16" t="n">
         <v>4.1</v>
@@ -2587,31 +2587,31 @@
         <v>1.28</v>
       </c>
       <c r="P16" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="R16" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S16" t="n">
         <v>3.05</v>
       </c>
       <c r="T16" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U16" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V16" t="n">
         <v>1.28</v>
       </c>
       <c r="W16" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y16" t="n">
         <v>980</v>
@@ -2620,7 +2620,7 @@
         <v>980</v>
       </c>
       <c r="AA16" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AB16" t="n">
         <v>10.5</v>
@@ -2635,13 +2635,13 @@
         <v>980</v>
       </c>
       <c r="AF16" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG16" t="n">
         <v>10.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AI16" t="n">
         <v>980</v>
@@ -2659,7 +2659,7 @@
         <v>110</v>
       </c>
       <c r="AN16" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AO16" t="n">
         <v>980</v>
@@ -2827,28 +2827,28 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="G18" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="H18" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="I18" t="n">
         <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K18" t="n">
         <v>4.3</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M18" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N18" t="n">
         <v>3</v>
@@ -2857,28 +2857,28 @@
         <v>1.42</v>
       </c>
       <c r="P18" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="R18" t="n">
         <v>1.25</v>
       </c>
       <c r="S18" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="T18" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U18" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="V18" t="n">
         <v>1.2</v>
       </c>
       <c r="W18" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -2914,7 +2914,7 @@
         <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ18" t="n">
         <v>1000</v>
@@ -2962,28 +2962,28 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G19" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="H19" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I19" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J19" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="K19" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="M19" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="N19" t="n">
         <v>2.36</v>
@@ -2992,28 +2992,28 @@
         <v>1.61</v>
       </c>
       <c r="P19" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="R19" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="S19" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="T19" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="U19" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="V19" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W19" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X19" t="n">
         <v>7.6</v>
@@ -3022,16 +3022,16 @@
         <v>12</v>
       </c>
       <c r="Z19" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AA19" t="n">
         <v>170</v>
       </c>
       <c r="AB19" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="AD19" t="n">
         <v>980</v>
@@ -3040,16 +3040,16 @@
         <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AH19" t="n">
         <v>980</v>
       </c>
       <c r="AI19" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AJ19" t="n">
         <v>980</v>
@@ -3058,13 +3058,13 @@
         <v>980</v>
       </c>
       <c r="AL19" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AM19" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="AN19" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3097,46 +3097,46 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="G20" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="H20" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="I20" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="J20" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K20" t="n">
         <v>3.85</v>
       </c>
       <c r="L20" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="M20" t="n">
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O20" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P20" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q20" t="n">
         <v>2</v>
       </c>
       <c r="R20" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S20" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T20" t="n">
         <v>1.74</v>
@@ -3145,10 +3145,10 @@
         <v>2.16</v>
       </c>
       <c r="V20" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="W20" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="X20" t="n">
         <v>15.5</v>
@@ -3157,13 +3157,13 @@
         <v>10.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC20" t="n">
         <v>8.4</v>
@@ -3178,7 +3178,7 @@
         <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
         <v>1000</v>
@@ -3202,7 +3202,7 @@
         <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="21">
@@ -3235,19 +3235,19 @@
         <v>1.62</v>
       </c>
       <c r="G21" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="H21" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="I21" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="J21" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="K21" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L21" t="n">
         <v>1.34</v>
@@ -3256,34 +3256,34 @@
         <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="O21" t="n">
         <v>1.26</v>
       </c>
       <c r="P21" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="R21" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S21" t="n">
-        <v>2.78</v>
+        <v>2.92</v>
       </c>
       <c r="T21" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="U21" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V21" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W21" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3313,7 +3313,7 @@
         <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH21" t="n">
         <v>1000</v>
@@ -3331,7 +3331,7 @@
         <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN21" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO21"/>
+  <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,91 +667,91 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="G2" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="H2" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="I2" t="n">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O2" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>2.16</v>
+        <v>1.94</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.67</v>
+        <v>1.84</v>
       </c>
       <c r="R2" t="n">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="S2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V2" t="n">
         <v>2.48</v>
       </c>
-      <c r="T2" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2.38</v>
-      </c>
       <c r="W2" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="n">
-        <v>12</v>
+        <v>8.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>12.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA2" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE2" t="n">
         <v>17.5</v>
       </c>
-      <c r="AB2" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>19</v>
-      </c>
       <c r="AF2" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI2" t="n">
         <v>40</v>
@@ -772,13 +772,13 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Kastamonuspor</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Juventus B</t>
+          <t>Altinordu</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.09</v>
+        <v>1.47</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>1.89</v>
       </c>
       <c r="H3" t="n">
-        <v>1.05</v>
+        <v>4.7</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="J3" t="n">
-        <v>1.09</v>
+        <v>3.35</v>
       </c>
       <c r="K3" t="n">
-        <v>980</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,34 +826,34 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.1</v>
+        <v>1.76</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P3" t="n">
-        <v>1.36</v>
+        <v>1.76</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.02</v>
+        <v>1.73</v>
       </c>
       <c r="R3" t="n">
         <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>1.94</v>
+        <v>1.73</v>
       </c>
       <c r="T3" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.19</v>
+        <v>1.02</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Ankaraspor</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Kairat Almaty</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="G4" t="n">
-        <v>1.36</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>11</v>
+        <v>1.01</v>
       </c>
       <c r="I4" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>5.7</v>
+        <v>1.02</v>
       </c>
       <c r="K4" t="n">
-        <v>5.9</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>5.8</v>
+        <v>1.24</v>
       </c>
       <c r="O4" t="n">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>2.62</v>
+        <v>1.24</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.58</v>
+        <v>1.02</v>
       </c>
       <c r="R4" t="n">
-        <v>1.66</v>
+        <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>2.46</v>
+        <v>1.32</v>
       </c>
       <c r="T4" t="n">
-        <v>1.92</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>3.75</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>410</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.7</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>Inegolspor</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Iskenderunspor</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5.3</v>
+        <v>2.12</v>
       </c>
       <c r="G5" t="n">
-        <v>5.4</v>
+        <v>2.96</v>
       </c>
       <c r="H5" t="n">
-        <v>1.73</v>
+        <v>2.76</v>
       </c>
       <c r="I5" t="n">
-        <v>1.74</v>
+        <v>4.4</v>
       </c>
       <c r="J5" t="n">
-        <v>4.1</v>
+        <v>2.68</v>
       </c>
       <c r="K5" t="n">
-        <v>4.3</v>
+        <v>6.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>1.54</v>
       </c>
       <c r="O5" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>2.34</v>
+        <v>1.54</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.54</v>
+        <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>2.74</v>
+        <v>2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.73</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>2.26</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>2.34</v>
+        <v>1.29</v>
       </c>
       <c r="W5" t="n">
-        <v>1.22</v>
+        <v>1.51</v>
       </c>
       <c r="X5" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,72 +1193,72 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>AD Ceuta FC</t>
+          <t>Beykoz Anadolu Spor</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Elazigspor</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.04</v>
+        <v>3.4</v>
       </c>
       <c r="G6" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="H6" t="n">
-        <v>1.04</v>
+        <v>1.65</v>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>2.18</v>
       </c>
       <c r="J6" t="n">
-        <v>1.03</v>
+        <v>3.3</v>
       </c>
       <c r="K6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="L6" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.1</v>
+        <v>1.66</v>
       </c>
       <c r="O6" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.25</v>
+        <v>1.66</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.32</v>
+        <v>1.84</v>
       </c>
       <c r="R6" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="T6" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>1.48</v>
+        <v>1.84</v>
       </c>
       <c r="W6" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Bucaspor</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>St Gallen</t>
+          <t>Adana 1954 FK</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.1</v>
+        <v>5.1</v>
       </c>
       <c r="G7" t="n">
-        <v>2.22</v>
+        <v>140</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="I7" t="n">
-        <v>3.8</v>
+        <v>1.75</v>
       </c>
       <c r="J7" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K7" t="n">
-        <v>3.85</v>
+        <v>11</v>
       </c>
       <c r="L7" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>5.2</v>
+        <v>1.87</v>
       </c>
       <c r="O7" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="P7" t="n">
-        <v>2.4</v>
+        <v>1.87</v>
       </c>
       <c r="Q7" t="n">
         <v>1.61</v>
       </c>
       <c r="R7" t="n">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="S7" t="n">
         <v>2.5</v>
       </c>
       <c r="T7" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="U7" t="n">
-        <v>2.52</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.35</v>
+        <v>2.32</v>
       </c>
       <c r="W7" t="n">
-        <v>1.82</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Kepez Belediyespor</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Erzincanspor</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.38</v>
+        <v>2.92</v>
       </c>
       <c r="G8" t="n">
-        <v>2.4</v>
+        <v>4.9</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>1.91</v>
       </c>
       <c r="I8" t="n">
-        <v>3.3</v>
+        <v>2.68</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>2.96</v>
       </c>
       <c r="K8" t="n">
-        <v>3.65</v>
+        <v>7.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>4.2</v>
+        <v>1.83</v>
       </c>
       <c r="O8" t="n">
-        <v>1.29</v>
+        <v>1.02</v>
       </c>
       <c r="P8" t="n">
-        <v>2.08</v>
+        <v>1.83</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.9</v>
+        <v>1.67</v>
       </c>
       <c r="R8" t="n">
-        <v>1.41</v>
+        <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>3.25</v>
+        <v>1.67</v>
       </c>
       <c r="T8" t="n">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="U8" t="n">
-        <v>2.3</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>1.43</v>
+        <v>1.59</v>
       </c>
       <c r="W8" t="n">
-        <v>1.71</v>
+        <v>1.25</v>
       </c>
       <c r="X8" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Juventus B</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.34</v>
+        <v>2.2</v>
       </c>
       <c r="G9" t="n">
-        <v>1.35</v>
+        <v>2.44</v>
       </c>
       <c r="H9" t="n">
-        <v>9.6</v>
+        <v>3.65</v>
       </c>
       <c r="I9" t="n">
-        <v>10</v>
+        <v>4.3</v>
       </c>
       <c r="J9" t="n">
-        <v>6.4</v>
+        <v>2.96</v>
       </c>
       <c r="K9" t="n">
-        <v>6.8</v>
+        <v>3.4</v>
       </c>
       <c r="L9" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="R9" t="n">
         <v>1.2</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N9" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.06</v>
-      </c>
       <c r="S9" t="n">
-        <v>1.89</v>
+        <v>5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.66</v>
+        <v>2.02</v>
       </c>
       <c r="U9" t="n">
-        <v>2.46</v>
+        <v>1.79</v>
       </c>
       <c r="V9" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="W9" t="n">
-        <v>3.9</v>
+        <v>1.7</v>
       </c>
       <c r="X9" t="n">
-        <v>42</v>
+        <v>9.4</v>
       </c>
       <c r="Y9" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="Z9" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>16.5</v>
+        <v>7.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>16</v>
+        <v>7.6</v>
       </c>
       <c r="AD9" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK9" t="n">
         <v>34</v>
       </c>
-      <c r="AE9" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AL9" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.45</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1733,126 +1733,126 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Kairat Almaty</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="G10" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="H10" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="I10" t="n">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="J10" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="K10" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>2.7</v>
+        <v>2.52</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="R10" t="n">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="S10" t="n">
-        <v>2.36</v>
+        <v>2.56</v>
       </c>
       <c r="T10" t="n">
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
       <c r="U10" t="n">
-        <v>2.12</v>
+        <v>1.97</v>
       </c>
       <c r="V10" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="W10" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="X10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y10" t="n">
         <v>40</v>
       </c>
       <c r="Z10" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AA10" t="n">
-        <v>290</v>
+        <v>370</v>
       </c>
       <c r="AB10" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AC10" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD10" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AE10" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AG10" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI10" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AJ10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK10" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AM10" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="AO10" t="n">
-        <v>110</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>Pafos FC</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.68</v>
+        <v>5.3</v>
       </c>
       <c r="G11" t="n">
-        <v>1.69</v>
+        <v>5.4</v>
       </c>
       <c r="H11" t="n">
-        <v>5.4</v>
+        <v>1.72</v>
       </c>
       <c r="I11" t="n">
-        <v>5.6</v>
+        <v>1.73</v>
       </c>
       <c r="J11" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K11" t="n">
         <v>4.4</v>
       </c>
-      <c r="K11" t="n">
-        <v>4.5</v>
-      </c>
       <c r="L11" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="P11" t="n">
-        <v>2.62</v>
+        <v>2.32</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.59</v>
+        <v>1.72</v>
       </c>
       <c r="R11" t="n">
-        <v>1.65</v>
+        <v>1.54</v>
       </c>
       <c r="S11" t="n">
-        <v>2.46</v>
+        <v>2.76</v>
       </c>
       <c r="T11" t="n">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="U11" t="n">
-        <v>2.46</v>
+        <v>2.28</v>
       </c>
       <c r="V11" t="n">
-        <v>1.21</v>
+        <v>2.36</v>
       </c>
       <c r="W11" t="n">
-        <v>2.42</v>
+        <v>1.22</v>
       </c>
       <c r="X11" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y11" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="Z11" t="n">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="AA11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>130</v>
       </c>
-      <c r="AB11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE11" t="n">
+      <c r="AK11" t="n">
         <v>60</v>
       </c>
-      <c r="AF11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI11" t="n">
+      <c r="AL11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN11" t="n">
         <v>55</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>7</v>
-      </c>
       <c r="AO11" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>AD Ceuta FC</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.28</v>
+        <v>1.04</v>
       </c>
       <c r="G12" t="n">
-        <v>2.3</v>
+        <v>1000</v>
       </c>
       <c r="H12" t="n">
-        <v>3.35</v>
+        <v>1.04</v>
       </c>
       <c r="I12" t="n">
-        <v>3.4</v>
+        <v>1000</v>
       </c>
       <c r="J12" t="n">
-        <v>3.7</v>
+        <v>1.05</v>
       </c>
       <c r="K12" t="n">
-        <v>3.75</v>
+        <v>1000</v>
       </c>
       <c r="L12" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>4.6</v>
+        <v>1.32</v>
       </c>
       <c r="O12" t="n">
-        <v>1.26</v>
+        <v>1.08</v>
       </c>
       <c r="P12" t="n">
-        <v>2.26</v>
+        <v>1.32</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.77</v>
+        <v>1.01</v>
       </c>
       <c r="R12" t="n">
-        <v>1.48</v>
+        <v>1.16</v>
       </c>
       <c r="S12" t="n">
-        <v>2.94</v>
+        <v>2</v>
       </c>
       <c r="T12" t="n">
-        <v>1.65</v>
+        <v>1.04</v>
       </c>
       <c r="U12" t="n">
-        <v>2.44</v>
+        <v>1.04</v>
       </c>
       <c r="V12" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="W12" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="X12" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,126 +2138,126 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Olympiakos</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>St Gallen</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>7.6</v>
+        <v>2.08</v>
       </c>
       <c r="G13" t="n">
-        <v>7.8</v>
+        <v>2.2</v>
       </c>
       <c r="H13" t="n">
-        <v>1.47</v>
+        <v>3.55</v>
       </c>
       <c r="I13" t="n">
-        <v>1.48</v>
+        <v>3.9</v>
       </c>
       <c r="J13" t="n">
-        <v>5.3</v>
+        <v>3.65</v>
       </c>
       <c r="K13" t="n">
-        <v>5.4</v>
+        <v>3.85</v>
       </c>
       <c r="L13" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P13" t="n">
-        <v>2.72</v>
+        <v>2.4</v>
       </c>
       <c r="Q13" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T13" t="n">
         <v>1.56</v>
       </c>
-      <c r="R13" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.75</v>
-      </c>
       <c r="U13" t="n">
-        <v>2.24</v>
+        <v>2.52</v>
       </c>
       <c r="V13" t="n">
-        <v>3.1</v>
+        <v>1.34</v>
       </c>
       <c r="W13" t="n">
-        <v>1.15</v>
+        <v>1.83</v>
       </c>
       <c r="X13" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Y13" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Z13" t="n">
-        <v>10.5</v>
+        <v>36</v>
       </c>
       <c r="AA13" t="n">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="AB13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL13" t="n">
         <v>34</v>
       </c>
-      <c r="AC13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF13" t="n">
+      <c r="AM13" t="n">
         <v>70</v>
       </c>
-      <c r="AG13" t="n">
-        <v>27</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>27</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>250</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>85</v>
-      </c>
       <c r="AN13" t="n">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="AO13" t="n">
-        <v>5.1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -2278,127 +2278,127 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.72</v>
+        <v>2.34</v>
       </c>
       <c r="G14" t="n">
-        <v>2.76</v>
+        <v>2.36</v>
       </c>
       <c r="H14" t="n">
-        <v>2.68</v>
+        <v>3.35</v>
       </c>
       <c r="I14" t="n">
-        <v>2.72</v>
+        <v>3.4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K14" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L14" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>2.4</v>
+        <v>2.08</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.69</v>
+        <v>1.89</v>
       </c>
       <c r="R14" t="n">
-        <v>1.58</v>
+        <v>1.42</v>
       </c>
       <c r="S14" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="T14" t="n">
-        <v>1.58</v>
+        <v>1.72</v>
       </c>
       <c r="U14" t="n">
-        <v>2.6</v>
+        <v>2.32</v>
       </c>
       <c r="V14" t="n">
-        <v>1.58</v>
+        <v>1.41</v>
       </c>
       <c r="W14" t="n">
-        <v>1.56</v>
+        <v>1.73</v>
       </c>
       <c r="X14" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="Y14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF14" t="n">
         <v>15</v>
       </c>
-      <c r="Z14" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>21</v>
-      </c>
       <c r="AG14" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI14" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>32</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>40</v>
-      </c>
       <c r="AK14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL14" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO14" t="n">
         <v>32</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>16.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>San Marcos</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Cobreloa Calama</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.04</v>
+        <v>1.34</v>
       </c>
       <c r="G15" t="n">
-        <v>1000</v>
+        <v>1.35</v>
       </c>
       <c r="H15" t="n">
-        <v>1.04</v>
+        <v>9.6</v>
       </c>
       <c r="I15" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>1.03</v>
+        <v>6.4</v>
       </c>
       <c r="K15" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>1.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O15" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="P15" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.02</v>
+        <v>1.35</v>
       </c>
       <c r="R15" t="n">
-        <v>1.18</v>
+        <v>2.08</v>
       </c>
       <c r="S15" t="n">
-        <v>1.39</v>
+        <v>1.89</v>
       </c>
       <c r="T15" t="n">
-        <v>1.04</v>
+        <v>1.65</v>
       </c>
       <c r="U15" t="n">
-        <v>1.04</v>
+        <v>2.46</v>
       </c>
       <c r="V15" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="W15" t="n">
-        <v>1.01</v>
+        <v>3.85</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>3.45</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Fortaleza EC</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.95</v>
+        <v>1.38</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H16" t="n">
-        <v>4.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="J16" t="n">
-        <v>3.75</v>
+        <v>5.6</v>
       </c>
       <c r="K16" t="n">
-        <v>4.1</v>
+        <v>5.7</v>
       </c>
       <c r="L16" t="n">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>4.1</v>
+        <v>6.2</v>
       </c>
       <c r="O16" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="P16" t="n">
-        <v>2.08</v>
+        <v>2.72</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="R16" t="n">
-        <v>1.43</v>
+        <v>1.69</v>
       </c>
       <c r="S16" t="n">
-        <v>3.05</v>
+        <v>2.36</v>
       </c>
       <c r="T16" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="U16" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="V16" t="n">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="W16" t="n">
-        <v>2</v>
+        <v>3.55</v>
       </c>
       <c r="X16" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Y16" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="Z16" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AA16" t="n">
-        <v>110</v>
+        <v>290</v>
       </c>
       <c r="AB16" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>9</v>
+        <v>12.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AE16" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AF16" t="n">
-        <v>13</v>
+        <v>9.4</v>
       </c>
       <c r="AG16" t="n">
         <v>10.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AI16" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AJ16" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AK16" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AL16" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AM16" t="n">
         <v>110</v>
       </c>
       <c r="AN16" t="n">
-        <v>12.5</v>
+        <v>4.7</v>
       </c>
       <c r="AO16" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Deportes Concepcion</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Deportes Copiapo</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.09</v>
+        <v>2.68</v>
       </c>
       <c r="G17" t="n">
-        <v>1000</v>
+        <v>2.7</v>
       </c>
       <c r="H17" t="n">
-        <v>1.09</v>
+        <v>2.74</v>
       </c>
       <c r="I17" t="n">
-        <v>1000</v>
+        <v>2.76</v>
       </c>
       <c r="J17" t="n">
-        <v>1.09</v>
+        <v>3.7</v>
       </c>
       <c r="K17" t="n">
-        <v>1000</v>
+        <v>3.8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M17" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>1.29</v>
+        <v>5.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="P17" t="n">
-        <v>1.28</v>
+        <v>2.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.02</v>
+        <v>1.69</v>
       </c>
       <c r="R17" t="n">
-        <v>1.18</v>
+        <v>1.57</v>
       </c>
       <c r="S17" t="n">
-        <v>1.42</v>
+        <v>2.7</v>
       </c>
       <c r="T17" t="n">
-        <v>1.04</v>
+        <v>1.59</v>
       </c>
       <c r="U17" t="n">
-        <v>1.04</v>
+        <v>2.6</v>
       </c>
       <c r="V17" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="W17" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Atletico Bucaramanga</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.79</v>
+        <v>2.28</v>
       </c>
       <c r="G18" t="n">
-        <v>1.94</v>
+        <v>2.3</v>
       </c>
       <c r="H18" t="n">
-        <v>4.9</v>
+        <v>3.35</v>
       </c>
       <c r="I18" t="n">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="J18" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="K18" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="L18" t="n">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
       <c r="M18" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.42</v>
+        <v>1.26</v>
       </c>
       <c r="P18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="T18" t="n">
         <v>1.67</v>
       </c>
-      <c r="Q18" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2</v>
-      </c>
       <c r="U18" t="n">
-        <v>1.8</v>
+        <v>2.44</v>
       </c>
       <c r="V18" t="n">
-        <v>1.2</v>
+        <v>1.41</v>
       </c>
       <c r="W18" t="n">
-        <v>2.06</v>
+        <v>1.76</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Lanus</t>
+          <t>Olympiakos</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.12</v>
+        <v>7.4</v>
       </c>
       <c r="G19" t="n">
-        <v>2.28</v>
+        <v>7.6</v>
       </c>
       <c r="H19" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="I19" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="J19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K19" t="n">
         <v>5.1</v>
       </c>
-      <c r="J19" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.1</v>
-      </c>
       <c r="L19" t="n">
-        <v>1.62</v>
+        <v>1.28</v>
       </c>
       <c r="M19" t="n">
-        <v>1.12</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>2.36</v>
+        <v>5.9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.61</v>
+        <v>1.19</v>
       </c>
       <c r="P19" t="n">
-        <v>1.43</v>
+        <v>2.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.88</v>
+        <v>1.56</v>
       </c>
       <c r="R19" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="W19" t="n">
         <v>1.15</v>
       </c>
-      <c r="S19" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.78</v>
-      </c>
       <c r="X19" t="n">
-        <v>7.6</v>
+        <v>25</v>
       </c>
       <c r="Y19" t="n">
         <v>12</v>
       </c>
       <c r="Z19" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AA19" t="n">
-        <v>170</v>
+        <v>14.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>7.4</v>
+        <v>32</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.6</v>
+        <v>11.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>12.5</v>
+        <v>65</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AH19" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AI19" t="n">
-        <v>160</v>
+        <v>27</v>
       </c>
       <c r="AJ19" t="n">
-        <v>980</v>
+        <v>200</v>
       </c>
       <c r="AK19" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AL19" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM19" t="n">
-        <v>320</v>
+        <v>90</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,260 +3083,1070 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>FC Juarez</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Toluca</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.55</v>
+        <v>1.68</v>
       </c>
       <c r="G20" t="n">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="H20" t="n">
-        <v>2.08</v>
+        <v>5.3</v>
       </c>
       <c r="I20" t="n">
-        <v>2.26</v>
+        <v>5.5</v>
       </c>
       <c r="J20" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="K20" t="n">
-        <v>3.85</v>
+        <v>4.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>3.85</v>
+        <v>5.7</v>
       </c>
       <c r="O20" t="n">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="P20" t="n">
-        <v>1.98</v>
+        <v>2.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>1.59</v>
       </c>
       <c r="R20" t="n">
-        <v>1.38</v>
+        <v>1.64</v>
       </c>
       <c r="S20" t="n">
-        <v>3.25</v>
+        <v>2.46</v>
       </c>
       <c r="T20" t="n">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="U20" t="n">
-        <v>2.16</v>
+        <v>2.48</v>
       </c>
       <c r="V20" t="n">
-        <v>1.79</v>
+        <v>1.22</v>
       </c>
       <c r="W20" t="n">
-        <v>1.33</v>
+        <v>2.42</v>
       </c>
       <c r="X20" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK20" t="n">
         <v>15.5</v>
       </c>
-      <c r="Y20" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AO20" t="n">
-        <v>16.5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>Chilean Primera B</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-11-26</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>San Marcos</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Cobreloa Calama</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-11-26</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Red Bull Bragantino</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Fortaleza EC</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K22" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N22" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W22" t="n">
+        <v>2</v>
+      </c>
+      <c r="X22" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chilean Primera B</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-11-26</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Deportes Concepcion</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Deportes Copiapo</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>2025-11-26</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Atletico Bucaramanga</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Fortaleza FC</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>6</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N24" t="n">
+        <v>3</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W24" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-11-26</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Lanus</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Tigre</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S25" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X25" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>320</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-11-26</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>FC Juarez</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Toluca</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X26" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-11-26</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>22:30:00</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>Atletico Nacional Medell</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>Junior FC Barranquilla</t>
         </is>
       </c>
-      <c r="F21" t="n">
+      <c r="F27" t="n">
         <v>1.62</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G27" t="n">
         <v>1.76</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H27" t="n">
         <v>5.1</v>
       </c>
-      <c r="I21" t="n">
-        <v>7</v>
-      </c>
-      <c r="J21" t="n">
+      <c r="I27" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J27" t="n">
         <v>3.6</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K27" t="n">
         <v>5.1</v>
       </c>
-      <c r="L21" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M21" t="n">
+      <c r="L27" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M27" t="n">
         <v>1.04</v>
       </c>
-      <c r="N21" t="n">
+      <c r="N27" t="n">
         <v>4.2</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O27" t="n">
         <v>1.26</v>
       </c>
-      <c r="P21" t="n">
+      <c r="P27" t="n">
         <v>2.06</v>
       </c>
-      <c r="Q21" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R21" t="n">
+      <c r="Q27" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R27" t="n">
         <v>1.42</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S27" t="n">
         <v>2.92</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T27" t="n">
         <v>1.76</v>
       </c>
-      <c r="U21" t="n">
+      <c r="U27" t="n">
         <v>2.02</v>
       </c>
-      <c r="V21" t="n">
+      <c r="V27" t="n">
         <v>1.18</v>
       </c>
-      <c r="W21" t="n">
+      <c r="W27" t="n">
         <v>2.3</v>
       </c>
-      <c r="X21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG21" t="n">
+      <c r="X27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG27" t="n">
         <v>12.5</v>
       </c>
-      <c r="AH21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM21" t="n">
+      <c r="AH27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM27" t="n">
         <v>130</v>
       </c>
-      <c r="AN21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO21" t="n">
+      <c r="AN27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO27" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="G2" t="n">
         <v>8</v>
       </c>
       <c r="H2" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="I2" t="n">
         <v>1.66</v>
@@ -691,13 +691,13 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P2" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q2" t="n">
         <v>1.84</v>
@@ -706,16 +706,16 @@
         <v>1.36</v>
       </c>
       <c r="S2" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T2" t="n">
         <v>1.9</v>
       </c>
       <c r="U2" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V2" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="W2" t="n">
         <v>1.15</v>
@@ -733,7 +733,7 @@
         <v>15.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="n">
         <v>10.5</v>
@@ -802,64 +802,64 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="G3" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="H3" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="I3" t="n">
-        <v>980</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J3" t="n">
         <v>3.35</v>
       </c>
       <c r="K3" t="n">
-        <v>9.199999999999999</v>
+        <v>4.8</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>1.76</v>
+        <v>3.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.02</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>1.76</v>
+        <v>1.91</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="S3" t="n">
-        <v>1.73</v>
+        <v>2.9</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="V3" t="n">
-        <v>1.02</v>
+        <v>1.13</v>
       </c>
       <c r="W3" t="n">
-        <v>2.12</v>
+        <v>2.42</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -868,43 +868,43 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,58 +937,58 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.01</v>
+        <v>2.56</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>2.98</v>
       </c>
       <c r="H4" t="n">
-        <v>1.01</v>
+        <v>2.64</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>3.25</v>
       </c>
       <c r="J4" t="n">
-        <v>1.02</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>1.24</v>
+        <v>3.05</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="P4" t="n">
-        <v>1.24</v>
+        <v>1.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.02</v>
+        <v>1.97</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="S4" t="n">
-        <v>1.32</v>
+        <v>3.15</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="G5" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
         <v>2.76</v>
@@ -1087,7 +1087,7 @@
         <v>2.68</v>
       </c>
       <c r="K5" t="n">
-        <v>6.2</v>
+        <v>980</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,7 +1096,7 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.54</v>
+        <v>2.48</v>
       </c>
       <c r="O5" t="n">
         <v>1.01</v>
@@ -1111,19 +1111,19 @@
         <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V5" t="n">
         <v>1.29</v>
       </c>
       <c r="W5" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1207,94 +1207,94 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="G6" t="n">
         <v>6.4</v>
       </c>
       <c r="H6" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="I6" t="n">
-        <v>2.18</v>
+        <v>1.96</v>
       </c>
       <c r="J6" t="n">
         <v>3.3</v>
       </c>
       <c r="K6" t="n">
-        <v>980</v>
+        <v>4.2</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>1.66</v>
+        <v>3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="P6" t="n">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R6" t="n">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="S6" t="n">
-        <v>1.84</v>
+        <v>3.2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="V6" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="W6" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ6" t="n">
         <v>1000</v>
@@ -1312,7 +1312,7 @@
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="7">
@@ -1342,58 +1342,58 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="I7" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="J7" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="K7" t="n">
-        <v>11</v>
+        <v>950</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="T7" t="n">
         <v>1.87</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P7" t="n">
+      <c r="U7" t="n">
         <v>1.87</v>
       </c>
-      <c r="Q7" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.01</v>
-      </c>
       <c r="V7" t="n">
-        <v>2.32</v>
+        <v>2.48</v>
       </c>
       <c r="W7" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="G8" t="n">
-        <v>4.9</v>
+        <v>3.65</v>
       </c>
       <c r="H8" t="n">
-        <v>1.91</v>
+        <v>2.22</v>
       </c>
       <c r="I8" t="n">
-        <v>2.68</v>
+        <v>2.58</v>
       </c>
       <c r="J8" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="K8" t="n">
-        <v>7.6</v>
+        <v>4.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>1.83</v>
+        <v>3.45</v>
       </c>
       <c r="O8" t="n">
-        <v>1.02</v>
+        <v>1.27</v>
       </c>
       <c r="P8" t="n">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="R8" t="n">
-        <v>1.18</v>
+        <v>1.37</v>
       </c>
       <c r="S8" t="n">
-        <v>1.67</v>
+        <v>2.8</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="V8" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="W8" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ8" t="n">
         <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -1612,46 +1612,46 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="G9" t="n">
-        <v>2.44</v>
+        <v>2.26</v>
       </c>
       <c r="H9" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="J9" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="O9" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="P9" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.48</v>
+        <v>2.38</v>
       </c>
       <c r="R9" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="T9" t="n">
         <v>2.02</v>
@@ -1660,19 +1660,19 @@
         <v>1.79</v>
       </c>
       <c r="V9" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="W9" t="n">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="X9" t="n">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -1684,19 +1684,19 @@
         <v>7.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
@@ -1705,7 +1705,7 @@
         <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
         <v>1000</v>
@@ -1753,7 +1753,7 @@
         <v>1.36</v>
       </c>
       <c r="H10" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="I10" t="n">
         <v>12</v>
@@ -1765,58 +1765,58 @@
         <v>5.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
         <v>5.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P10" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R10" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="S10" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="T10" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="U10" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="V10" t="n">
         <v>1.09</v>
       </c>
       <c r="W10" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="X10" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y10" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Z10" t="n">
         <v>110</v>
       </c>
       <c r="AA10" t="n">
-        <v>370</v>
+        <v>440</v>
       </c>
       <c r="AB10" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD10" t="n">
         <v>40</v>
@@ -1831,7 +1831,7 @@
         <v>10</v>
       </c>
       <c r="AH10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI10" t="n">
         <v>140</v>
@@ -1846,10 +1846,10 @@
         <v>34</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN10" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AO10" t="n">
         <v>180</v>
@@ -1888,10 +1888,10 @@
         <v>5.4</v>
       </c>
       <c r="H11" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="I11" t="n">
         <v>1.72</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.73</v>
       </c>
       <c r="J11" t="n">
         <v>4.3</v>
@@ -1918,19 +1918,19 @@
         <v>1.72</v>
       </c>
       <c r="R11" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S11" t="n">
         <v>2.76</v>
       </c>
       <c r="T11" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U11" t="n">
         <v>2.28</v>
       </c>
       <c r="V11" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="W11" t="n">
         <v>1.22</v>
@@ -1963,7 +1963,7 @@
         <v>42</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AH11" t="n">
         <v>17.5</v>
@@ -1987,7 +1987,7 @@
         <v>55</v>
       </c>
       <c r="AO11" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -2155,10 +2155,10 @@
         <v>2.08</v>
       </c>
       <c r="G13" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H13" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I13" t="n">
         <v>3.9</v>
@@ -2221,7 +2221,7 @@
         <v>16.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD13" t="n">
         <v>19.5</v>
@@ -2230,13 +2230,13 @@
         <v>44</v>
       </c>
       <c r="AF13" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI13" t="n">
         <v>48</v>
@@ -2251,10 +2251,10 @@
         <v>34</v>
       </c>
       <c r="AM13" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN13" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO13" t="n">
         <v>32</v>
@@ -2317,10 +2317,10 @@
         <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R14" t="n">
         <v>1.42</v>
@@ -2461,7 +2461,7 @@
         <v>2.08</v>
       </c>
       <c r="S15" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="T15" t="n">
         <v>1.65</v>
@@ -2482,7 +2482,7 @@
         <v>55</v>
       </c>
       <c r="Z15" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AA15" t="n">
         <v>300</v>
@@ -2497,7 +2497,7 @@
         <v>34</v>
       </c>
       <c r="AE15" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AF15" t="n">
         <v>12</v>
@@ -2506,7 +2506,7 @@
         <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI15" t="n">
         <v>80</v>
@@ -2524,7 +2524,7 @@
         <v>75</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AO15" t="n">
         <v>70</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="G16" t="n">
         <v>1.4</v>
@@ -2566,10 +2566,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="J16" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="K16" t="n">
         <v>5.7</v>
@@ -2593,7 +2593,7 @@
         <v>1.55</v>
       </c>
       <c r="R16" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="S16" t="n">
         <v>2.36</v>
@@ -2605,10 +2605,10 @@
         <v>2.12</v>
       </c>
       <c r="V16" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W16" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="X16" t="n">
         <v>26</v>
@@ -2653,7 +2653,7 @@
         <v>13</v>
       </c>
       <c r="AL16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM16" t="n">
         <v>110</v>
@@ -2692,10 +2692,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="G17" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="H17" t="n">
         <v>2.74</v>
@@ -2731,7 +2731,7 @@
         <v>1.57</v>
       </c>
       <c r="S17" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="T17" t="n">
         <v>1.59</v>
@@ -2746,7 +2746,7 @@
         <v>1.58</v>
       </c>
       <c r="X17" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y17" t="n">
         <v>15</v>
@@ -2755,7 +2755,7 @@
         <v>20</v>
       </c>
       <c r="AA17" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AB17" t="n">
         <v>15</v>
@@ -2770,7 +2770,7 @@
         <v>25</v>
       </c>
       <c r="AF17" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AG17" t="n">
         <v>12.5</v>
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G18" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H18" t="n">
         <v>3.35</v>
@@ -2845,58 +2845,58 @@
         <v>3.75</v>
       </c>
       <c r="L18" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="M18" t="n">
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="O18" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P18" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="R18" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="S18" t="n">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="T18" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="U18" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="V18" t="n">
         <v>1.41</v>
       </c>
       <c r="W18" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="X18" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="Y18" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z18" t="n">
         <v>24</v>
       </c>
       <c r="AA18" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB18" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD18" t="n">
         <v>14</v>
@@ -2905,7 +2905,7 @@
         <v>36</v>
       </c>
       <c r="AF18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG18" t="n">
         <v>10.5</v>
@@ -2917,22 +2917,22 @@
         <v>42</v>
       </c>
       <c r="AJ18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AK18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL18" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM18" t="n">
         <v>75</v>
       </c>
       <c r="AN18" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="G19" t="n">
         <v>7.6</v>
@@ -2983,22 +2983,22 @@
         <v>1.28</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O19" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P19" t="n">
         <v>2.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="R19" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="S19" t="n">
         <v>2.34</v>
@@ -3007,16 +3007,16 @@
         <v>1.74</v>
       </c>
       <c r="U19" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V19" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="W19" t="n">
         <v>1.15</v>
       </c>
       <c r="X19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y19" t="n">
         <v>12</v>
@@ -3025,7 +3025,7 @@
         <v>11</v>
       </c>
       <c r="AA19" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AB19" t="n">
         <v>32</v>
@@ -3043,7 +3043,7 @@
         <v>65</v>
       </c>
       <c r="AG19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH19" t="n">
         <v>20</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="G20" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="H20" t="n">
         <v>5.3</v>
       </c>
       <c r="I20" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J20" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K20" t="n">
         <v>4.4</v>
-      </c>
-      <c r="K20" t="n">
-        <v>4.5</v>
       </c>
       <c r="L20" t="n">
         <v>1.29</v>
@@ -3121,7 +3121,7 @@
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="O20" t="n">
         <v>1.19</v>
@@ -3139,7 +3139,7 @@
         <v>2.46</v>
       </c>
       <c r="T20" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U20" t="n">
         <v>2.48</v>
@@ -3148,7 +3148,7 @@
         <v>1.22</v>
       </c>
       <c r="W20" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="X20" t="n">
         <v>24</v>
@@ -3160,7 +3160,7 @@
         <v>46</v>
       </c>
       <c r="AA20" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB20" t="n">
         <v>12.5</v>
@@ -3175,19 +3175,19 @@
         <v>60</v>
       </c>
       <c r="AF20" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG20" t="n">
         <v>9.6</v>
       </c>
       <c r="AH20" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI20" t="n">
         <v>55</v>
       </c>
       <c r="AJ20" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AK20" t="n">
         <v>15.5</v>
@@ -3196,7 +3196,7 @@
         <v>26</v>
       </c>
       <c r="AM20" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN20" t="n">
         <v>7</v>
@@ -3232,91 +3232,91 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.04</v>
+        <v>2.54</v>
       </c>
       <c r="G21" t="n">
-        <v>1000</v>
+        <v>3.05</v>
       </c>
       <c r="H21" t="n">
-        <v>1.04</v>
+        <v>2.76</v>
       </c>
       <c r="I21" t="n">
-        <v>1000</v>
+        <v>3.35</v>
       </c>
       <c r="J21" t="n">
-        <v>1.03</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
-        <v>1000</v>
+        <v>3.65</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M21" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="O21" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="P21" t="n">
-        <v>1.3</v>
+        <v>1.71</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.02</v>
+        <v>2</v>
       </c>
       <c r="R21" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="S21" t="n">
-        <v>1.39</v>
+        <v>3.45</v>
       </c>
       <c r="T21" t="n">
-        <v>1.04</v>
+        <v>1.81</v>
       </c>
       <c r="U21" t="n">
-        <v>1.04</v>
+        <v>1.96</v>
       </c>
       <c r="V21" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="W21" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA21" t="n">
         <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE21" t="n">
         <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI21" t="n">
         <v>1000</v>
@@ -3337,7 +3337,7 @@
         <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="G22" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="H22" t="n">
         <v>4.1</v>
       </c>
       <c r="I22" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J22" t="n">
         <v>3.7</v>
       </c>
       <c r="K22" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L22" t="n">
         <v>1.39</v>
@@ -3397,7 +3397,7 @@
         <v>1.29</v>
       </c>
       <c r="P22" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q22" t="n">
         <v>1.84</v>
@@ -3418,7 +3418,7 @@
         <v>1.28</v>
       </c>
       <c r="W22" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X22" t="n">
         <v>20</v>
@@ -3502,64 +3502,64 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M23" t="n">
         <v>1.09</v>
       </c>
-      <c r="G23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.01</v>
-      </c>
       <c r="N23" t="n">
-        <v>1.29</v>
+        <v>2.74</v>
       </c>
       <c r="O23" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="P23" t="n">
-        <v>1.28</v>
+        <v>1.68</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.02</v>
+        <v>2.14</v>
       </c>
       <c r="R23" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="S23" t="n">
-        <v>1.42</v>
+        <v>3.5</v>
       </c>
       <c r="T23" t="n">
-        <v>1.04</v>
+        <v>1.84</v>
       </c>
       <c r="U23" t="n">
-        <v>1.04</v>
+        <v>1.92</v>
       </c>
       <c r="V23" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="W23" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z23" t="n">
         <v>1000</v>
@@ -3568,25 +3568,25 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE23" t="n">
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI23" t="n">
         <v>1000</v>
@@ -3607,7 +3607,7 @@
         <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24">
@@ -3649,7 +3649,7 @@
         <v>6</v>
       </c>
       <c r="J24" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K24" t="n">
         <v>4.1</v>
@@ -3706,7 +3706,7 @@
         <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD24" t="n">
         <v>1000</v>
@@ -3775,7 +3775,7 @@
         <v>2.12</v>
       </c>
       <c r="G25" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="H25" t="n">
         <v>4.6</v>
@@ -3823,7 +3823,7 @@
         <v>1.24</v>
       </c>
       <c r="W25" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="X25" t="n">
         <v>7.6</v>
@@ -3838,7 +3838,7 @@
         <v>170</v>
       </c>
       <c r="AB25" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC25" t="n">
         <v>7.2</v>
@@ -3871,7 +3871,7 @@
         <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="AN25" t="n">
         <v>1000</v>
@@ -3949,10 +3949,10 @@
         <v>3.3</v>
       </c>
       <c r="T26" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U26" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V26" t="n">
         <v>1.83</v>
@@ -4042,25 +4042,25 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="G27" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="H27" t="n">
         <v>5.1</v>
       </c>
       <c r="I27" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J27" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K27" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="L27" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M27" t="n">
         <v>1.04</v>
@@ -4072,7 +4072,7 @@
         <v>1.26</v>
       </c>
       <c r="P27" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q27" t="n">
         <v>1.76</v>
@@ -4093,7 +4093,7 @@
         <v>1.18</v>
       </c>
       <c r="W27" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4144,7 +4144,7 @@
         <v>130</v>
       </c>
       <c r="AN27" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO27"/>
+  <dimension ref="A1:AO28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,52 +667,52 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="G2" t="n">
         <v>8</v>
       </c>
       <c r="H2" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="I2" t="n">
         <v>1.66</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P2" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="R2" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="S2" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="T2" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="U2" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V2" t="n">
         <v>2.52</v>
@@ -721,10 +721,10 @@
         <v>1.15</v>
       </c>
       <c r="X2" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="Z2" t="n">
         <v>9.800000000000001</v>
@@ -763,7 +763,7 @@
         <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
@@ -859,46 +859,46 @@
         <v>19</v>
       </c>
       <c r="Y3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AK3" t="n">
         <v>18.5</v>
       </c>
-      <c r="AK3" t="n">
-        <v>21</v>
-      </c>
       <c r="AL3" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.56</v>
+        <v>2.34</v>
       </c>
       <c r="G4" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="H4" t="n">
         <v>2.98</v>
       </c>
-      <c r="H4" t="n">
-        <v>2.64</v>
-      </c>
       <c r="I4" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="J4" t="n">
         <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="L4" t="n">
         <v>1.33</v>
@@ -976,7 +976,7 @@
         <v>1.31</v>
       </c>
       <c r="S4" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T4" t="n">
         <v>1.73</v>
@@ -985,10 +985,10 @@
         <v>2.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="W4" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1093,13 +1093,13 @@
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>2.48</v>
+        <v>2.12</v>
       </c>
       <c r="O5" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="P5" t="n">
         <v>1.54</v>
@@ -1108,7 +1108,7 @@
         <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S5" t="n">
         <v>2.8</v>
@@ -1228,7 +1228,7 @@
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
         <v>3</v>
@@ -1240,7 +1240,7 @@
         <v>1.78</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="R6" t="n">
         <v>1.3</v>
@@ -1255,7 +1255,7 @@
         <v>1.87</v>
       </c>
       <c r="V6" t="n">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="W6" t="n">
         <v>1.19</v>
@@ -1363,7 +1363,7 @@
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
         <v>3.6</v>
@@ -1372,10 +1372,10 @@
         <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="R7" t="n">
         <v>1.41</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="G8" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="H8" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="I8" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="J8" t="n">
         <v>3.05</v>
@@ -1510,25 +1510,25 @@
         <v>1.96</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="R8" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S8" t="n">
         <v>2.8</v>
       </c>
       <c r="T8" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U8" t="n">
         <v>2.16</v>
       </c>
       <c r="V8" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="W8" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="X8" t="n">
         <v>19.5</v>
@@ -1537,7 +1537,7 @@
         <v>13</v>
       </c>
       <c r="Z8" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA8" t="n">
         <v>34</v>
@@ -1579,7 +1579,7 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AO8" t="n">
         <v>19</v>
@@ -1615,10 +1615,10 @@
         <v>2.04</v>
       </c>
       <c r="G9" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I9" t="n">
         <v>4.8</v>
@@ -1630,7 +1630,7 @@
         <v>3.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="M9" t="n">
         <v>1.1</v>
@@ -1654,7 +1654,7 @@
         <v>4.7</v>
       </c>
       <c r="T9" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U9" t="n">
         <v>1.79</v>
@@ -1663,7 +1663,7 @@
         <v>1.26</v>
       </c>
       <c r="W9" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="X9" t="n">
         <v>11.5</v>
@@ -1672,13 +1672,13 @@
         <v>13</v>
       </c>
       <c r="Z9" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC9" t="n">
         <v>7.6</v>
@@ -1753,16 +1753,16 @@
         <v>1.36</v>
       </c>
       <c r="H10" t="n">
+        <v>11</v>
+      </c>
+      <c r="I10" t="n">
         <v>11.5</v>
       </c>
-      <c r="I10" t="n">
-        <v>12</v>
-      </c>
       <c r="J10" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="K10" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="L10" t="n">
         <v>1.3</v>
@@ -1771,7 +1771,7 @@
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O10" t="n">
         <v>1.21</v>
@@ -1780,7 +1780,7 @@
         <v>2.46</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R10" t="n">
         <v>1.58</v>
@@ -1798,16 +1798,16 @@
         <v>1.09</v>
       </c>
       <c r="W10" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="X10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y10" t="n">
         <v>38</v>
       </c>
       <c r="Z10" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AA10" t="n">
         <v>440</v>
@@ -1825,13 +1825,13 @@
         <v>170</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG10" t="n">
         <v>10</v>
       </c>
       <c r="AH10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI10" t="n">
         <v>140</v>
@@ -1843,16 +1843,16 @@
         <v>13.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM10" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN10" t="n">
         <v>5.1</v>
       </c>
       <c r="AO10" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11">
@@ -1891,7 +1891,7 @@
         <v>1.71</v>
       </c>
       <c r="I11" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="J11" t="n">
         <v>4.3</v>
@@ -1912,31 +1912,31 @@
         <v>1.23</v>
       </c>
       <c r="P11" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R11" t="n">
         <v>1.53</v>
       </c>
       <c r="S11" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="T11" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U11" t="n">
         <v>2.28</v>
       </c>
       <c r="V11" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="W11" t="n">
         <v>1.22</v>
       </c>
       <c r="X11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y11" t="n">
         <v>11</v>
@@ -1966,7 +1966,7 @@
         <v>19.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
         <v>29</v>
@@ -1975,16 +1975,16 @@
         <v>130</v>
       </c>
       <c r="AK11" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AL11" t="n">
         <v>60</v>
       </c>
       <c r="AM11" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO11" t="n">
         <v>8.199999999999999</v>
@@ -2161,7 +2161,7 @@
         <v>3.65</v>
       </c>
       <c r="I13" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J13" t="n">
         <v>3.65</v>
@@ -2170,7 +2170,7 @@
         <v>3.85</v>
       </c>
       <c r="L13" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
@@ -2200,10 +2200,10 @@
         <v>2.52</v>
       </c>
       <c r="V13" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W13" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X13" t="n">
         <v>27</v>
@@ -2218,7 +2218,7 @@
         <v>65</v>
       </c>
       <c r="AB13" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC13" t="n">
         <v>10.5</v>
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="G14" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="H14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I14" t="n">
         <v>3.35</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3.4</v>
       </c>
       <c r="J14" t="n">
         <v>3.6</v>
@@ -2320,7 +2320,7 @@
         <v>2.06</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R14" t="n">
         <v>1.42</v>
@@ -2329,16 +2329,16 @@
         <v>3.2</v>
       </c>
       <c r="T14" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U14" t="n">
         <v>2.32</v>
       </c>
       <c r="V14" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="W14" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="X14" t="n">
         <v>16.5</v>
@@ -2380,7 +2380,7 @@
         <v>32</v>
       </c>
       <c r="AK14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL14" t="n">
         <v>36</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G15" t="n">
         <v>1.34</v>
       </c>
-      <c r="G15" t="n">
-        <v>1.35</v>
-      </c>
       <c r="H15" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="J15" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="K15" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="L15" t="n">
         <v>1.2</v>
@@ -2446,7 +2446,7 @@
         <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
         <v>1.11</v>
@@ -2473,7 +2473,7 @@
         <v>1.11</v>
       </c>
       <c r="W15" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="X15" t="n">
         <v>42</v>
@@ -2485,7 +2485,7 @@
         <v>95</v>
       </c>
       <c r="AA15" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="AB15" t="n">
         <v>16.5</v>
@@ -2524,10 +2524,10 @@
         <v>75</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="AO15" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
@@ -2566,10 +2566,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="J16" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="K16" t="n">
         <v>5.7</v>
@@ -2596,19 +2596,19 @@
         <v>1.71</v>
       </c>
       <c r="S16" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="T16" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U16" t="n">
         <v>2.12</v>
       </c>
       <c r="V16" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W16" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="X16" t="n">
         <v>26</v>
@@ -2635,10 +2635,10 @@
         <v>120</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG16" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
         <v>23</v>
@@ -2653,13 +2653,13 @@
         <v>13</v>
       </c>
       <c r="AL16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM16" t="n">
         <v>110</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="AO16" t="n">
         <v>110</v>
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Olympiakos</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="F17" t="n">
+        <v>7</v>
+      </c>
+      <c r="G17" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N17" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P17" t="n">
         <v>2.7</v>
       </c>
-      <c r="G17" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N17" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.4</v>
-      </c>
       <c r="Q17" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R17" t="n">
         <v>1.69</v>
       </c>
-      <c r="R17" t="n">
-        <v>1.57</v>
-      </c>
       <c r="S17" t="n">
-        <v>2.68</v>
+        <v>2.36</v>
       </c>
       <c r="T17" t="n">
-        <v>1.59</v>
+        <v>1.74</v>
       </c>
       <c r="U17" t="n">
-        <v>2.6</v>
+        <v>2.24</v>
       </c>
       <c r="V17" t="n">
-        <v>1.56</v>
+        <v>3</v>
       </c>
       <c r="W17" t="n">
-        <v>1.58</v>
+        <v>1.16</v>
       </c>
       <c r="X17" t="n">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="Y17" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Z17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH17" t="n">
         <v>20</v>
       </c>
-      <c r="AA17" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AI17" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AJ17" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="AK17" t="n">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="AL17" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AM17" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AN17" t="n">
-        <v>16.5</v>
+        <v>70</v>
       </c>
       <c r="AO17" t="n">
-        <v>17</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="18">
@@ -2827,25 +2827,25 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G18" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="H18" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I18" t="n">
         <v>3.4</v>
       </c>
       <c r="J18" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K18" t="n">
         <v>3.7</v>
       </c>
-      <c r="K18" t="n">
-        <v>3.75</v>
-      </c>
       <c r="L18" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M18" t="n">
         <v>1.06</v>
@@ -2857,7 +2857,7 @@
         <v>1.28</v>
       </c>
       <c r="P18" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q18" t="n">
         <v>1.85</v>
@@ -2869,16 +2869,16 @@
         <v>3.15</v>
       </c>
       <c r="T18" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U18" t="n">
         <v>2.36</v>
       </c>
       <c r="V18" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W18" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="X18" t="n">
         <v>16</v>
@@ -2932,7 +2932,7 @@
         <v>15.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Olympiakos</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>7.2</v>
+        <v>2.66</v>
       </c>
       <c r="G19" t="n">
-        <v>7.6</v>
+        <v>2.68</v>
       </c>
       <c r="H19" t="n">
-        <v>1.5</v>
+        <v>2.78</v>
       </c>
       <c r="I19" t="n">
-        <v>1.51</v>
+        <v>2.8</v>
       </c>
       <c r="J19" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="K19" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N19" t="n">
         <v>5.1</v>
       </c>
-      <c r="L19" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N19" t="n">
-        <v>6</v>
-      </c>
       <c r="O19" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P19" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="Q19" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V19" t="n">
         <v>1.55</v>
       </c>
-      <c r="R19" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2.96</v>
-      </c>
       <c r="W19" t="n">
-        <v>1.15</v>
+        <v>1.59</v>
       </c>
       <c r="X19" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE19" t="n">
         <v>26</v>
       </c>
-      <c r="Y19" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB19" t="n">
+      <c r="AF19" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI19" t="n">
         <v>32</v>
       </c>
-      <c r="AC19" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG19" t="n">
+      <c r="AJ19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK19" t="n">
         <v>26</v>
       </c>
-      <c r="AH19" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>27</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>200</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>85</v>
-      </c>
       <c r="AL19" t="n">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="AM19" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AN19" t="n">
-        <v>70</v>
+        <v>16.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>5.2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20">
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G20" t="n">
         <v>1.7</v>
       </c>
-      <c r="G20" t="n">
-        <v>1.72</v>
-      </c>
       <c r="H20" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I20" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="J20" t="n">
         <v>4.3</v>
       </c>
       <c r="K20" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L20" t="n">
         <v>1.29</v>
@@ -3121,7 +3121,7 @@
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="O20" t="n">
         <v>1.19</v>
@@ -3136,19 +3136,19 @@
         <v>1.64</v>
       </c>
       <c r="S20" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U20" t="n">
         <v>2.46</v>
       </c>
-      <c r="T20" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.48</v>
-      </c>
       <c r="V20" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W20" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="X20" t="n">
         <v>24</v>
@@ -3160,7 +3160,7 @@
         <v>46</v>
       </c>
       <c r="AA20" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB20" t="n">
         <v>12.5</v>
@@ -3178,7 +3178,7 @@
         <v>12.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH20" t="n">
         <v>16.5</v>
@@ -3187,7 +3187,7 @@
         <v>55</v>
       </c>
       <c r="AJ20" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AK20" t="n">
         <v>15.5</v>
@@ -3196,13 +3196,13 @@
         <v>26</v>
       </c>
       <c r="AM20" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN20" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AO20" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
@@ -3235,61 +3235,61 @@
         <v>2.54</v>
       </c>
       <c r="G21" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="H21" t="n">
         <v>2.76</v>
       </c>
       <c r="I21" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="K21" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="L21" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="M21" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="O21" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="P21" t="n">
-        <v>1.71</v>
+        <v>1.82</v>
       </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="R21" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="S21" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T21" t="n">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="U21" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="V21" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="W21" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="X21" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="Z21" t="n">
         <v>21</v>
@@ -3298,7 +3298,7 @@
         <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AC21" t="n">
         <v>8</v>
@@ -3337,7 +3337,7 @@
         <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
@@ -3478,7 +3478,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,78 +3488,78 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Deportes Concepcion</t>
+          <t>Juticalpa</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Deportes Copiapo</t>
+          <t>CD Victoria</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.3</v>
+        <v>1.04</v>
       </c>
       <c r="G23" t="n">
-        <v>2.66</v>
+        <v>1000</v>
       </c>
       <c r="H23" t="n">
-        <v>3.05</v>
+        <v>1.04</v>
       </c>
       <c r="I23" t="n">
-        <v>3.7</v>
+        <v>1000</v>
       </c>
       <c r="J23" t="n">
-        <v>2.98</v>
+        <v>1.02</v>
       </c>
       <c r="K23" t="n">
-        <v>3.6</v>
+        <v>1000</v>
       </c>
       <c r="L23" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>2.74</v>
+        <v>1.01</v>
       </c>
       <c r="O23" t="n">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="P23" t="n">
-        <v>1.68</v>
+        <v>1.08</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.14</v>
+        <v>1.28</v>
       </c>
       <c r="R23" t="n">
-        <v>1.26</v>
+        <v>1.08</v>
       </c>
       <c r="S23" t="n">
-        <v>3.5</v>
+        <v>1.01</v>
       </c>
       <c r="T23" t="n">
-        <v>1.84</v>
+        <v>1.01</v>
       </c>
       <c r="U23" t="n">
-        <v>1.92</v>
+        <v>1.01</v>
       </c>
       <c r="V23" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="W23" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="X23" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
         <v>1000</v>
@@ -3568,25 +3568,25 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD23" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
         <v>1000</v>
@@ -3607,13 +3607,13 @@
         <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3628,109 +3628,109 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Atletico Bucaramanga</t>
+          <t>Deportes Concepcion</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>Deportes Copiapo</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.77</v>
+        <v>2.52</v>
       </c>
       <c r="G24" t="n">
-        <v>1.92</v>
+        <v>2.92</v>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>2.82</v>
       </c>
       <c r="I24" t="n">
-        <v>6</v>
+        <v>3.35</v>
       </c>
       <c r="J24" t="n">
-        <v>3.25</v>
+        <v>2.84</v>
       </c>
       <c r="K24" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="L24" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="M24" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N24" t="n">
-        <v>3</v>
+        <v>2.74</v>
       </c>
       <c r="O24" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V24" t="n">
         <v>1.42</v>
       </c>
-      <c r="P24" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S24" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.2</v>
-      </c>
       <c r="W24" t="n">
-        <v>2.08</v>
+        <v>1.52</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA24" t="n">
         <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE24" t="n">
         <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI24" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL24" t="n">
         <v>1000</v>
@@ -3739,16 +3739,16 @@
         <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,120 +3758,120 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Lanus</t>
+          <t>Atletico Bucaramanga</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.12</v>
+        <v>1.81</v>
       </c>
       <c r="G25" t="n">
-        <v>2.24</v>
+        <v>1.92</v>
       </c>
       <c r="H25" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="I25" t="n">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="J25" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="K25" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="L25" t="n">
-        <v>1.62</v>
+        <v>1.48</v>
       </c>
       <c r="M25" t="n">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>2.44</v>
+        <v>3</v>
       </c>
       <c r="O25" t="n">
-        <v>1.63</v>
+        <v>1.42</v>
       </c>
       <c r="P25" t="n">
-        <v>1.46</v>
+        <v>1.67</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.94</v>
+        <v>2.22</v>
       </c>
       <c r="R25" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="S25" t="n">
-        <v>6.4</v>
+        <v>4.2</v>
       </c>
       <c r="T25" t="n">
-        <v>2.34</v>
+        <v>2</v>
       </c>
       <c r="U25" t="n">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
       <c r="V25" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="W25" t="n">
-        <v>1.81</v>
+        <v>2.08</v>
       </c>
       <c r="X25" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AE25" t="n">
         <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AI25" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AJ25" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL25" t="n">
         <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
         <v>1000</v>
@@ -3883,7 +3883,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,260 +3893,395 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>FC Juarez</t>
+          <t>Lanus</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Toluca</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
       <c r="G26" t="n">
-        <v>3.9</v>
+        <v>2.22</v>
       </c>
       <c r="H26" t="n">
-        <v>2.06</v>
+        <v>4.7</v>
       </c>
       <c r="I26" t="n">
-        <v>2.2</v>
+        <v>5.2</v>
       </c>
       <c r="J26" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="K26" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="L26" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="N26" t="n">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="O26" t="n">
-        <v>1.31</v>
+        <v>1.64</v>
       </c>
       <c r="P26" t="n">
-        <v>1.96</v>
+        <v>1.46</v>
       </c>
       <c r="Q26" t="n">
-        <v>2</v>
+        <v>2.94</v>
       </c>
       <c r="R26" t="n">
-        <v>1.37</v>
+        <v>1.16</v>
       </c>
       <c r="S26" t="n">
-        <v>3.3</v>
+        <v>6.4</v>
       </c>
       <c r="T26" t="n">
-        <v>1.76</v>
+        <v>2.32</v>
       </c>
       <c r="U26" t="n">
-        <v>2.14</v>
+        <v>1.66</v>
       </c>
       <c r="V26" t="n">
-        <v>1.83</v>
+        <v>1.24</v>
       </c>
       <c r="W26" t="n">
-        <v>1.35</v>
+        <v>1.81</v>
       </c>
       <c r="X26" t="n">
-        <v>15.5</v>
+        <v>7.4</v>
       </c>
       <c r="Y26" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AB26" t="n">
-        <v>15</v>
+        <v>6.4</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="AD26" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AE26" t="n">
         <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG26" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL26" t="n">
         <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AN26" t="n">
         <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-11-26</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>FC Juarez</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Toluca</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X27" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>2025-11-26</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>22:30:00</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>Atletico Nacional Medell</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>Junior FC Barranquilla</t>
         </is>
       </c>
-      <c r="F27" t="n">
+      <c r="F28" t="n">
         <v>1.61</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G28" t="n">
         <v>1.75</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H28" t="n">
         <v>5.1</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I28" t="n">
         <v>6.4</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J28" t="n">
         <v>3.65</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K28" t="n">
         <v>4.7</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L28" t="n">
         <v>1.34</v>
       </c>
-      <c r="M27" t="n">
+      <c r="M28" t="n">
         <v>1.04</v>
       </c>
-      <c r="N27" t="n">
+      <c r="N28" t="n">
         <v>4.2</v>
       </c>
-      <c r="O27" t="n">
+      <c r="O28" t="n">
         <v>1.26</v>
       </c>
-      <c r="P27" t="n">
+      <c r="P28" t="n">
         <v>2.08</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="Q28" t="n">
         <v>1.76</v>
       </c>
-      <c r="R27" t="n">
+      <c r="R28" t="n">
         <v>1.42</v>
       </c>
-      <c r="S27" t="n">
+      <c r="S28" t="n">
         <v>2.92</v>
       </c>
-      <c r="T27" t="n">
+      <c r="T28" t="n">
         <v>1.76</v>
       </c>
-      <c r="U27" t="n">
+      <c r="U28" t="n">
         <v>2.02</v>
       </c>
-      <c r="V27" t="n">
+      <c r="V28" t="n">
         <v>1.18</v>
       </c>
-      <c r="W27" t="n">
+      <c r="W28" t="n">
         <v>2.32</v>
       </c>
-      <c r="X27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB27" t="n">
+      <c r="X28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB28" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC27" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG27" t="n">
+      <c r="AC28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG28" t="n">
         <v>12.5</v>
       </c>
-      <c r="AH27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM27" t="n">
+      <c r="AH28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM28" t="n">
         <v>130</v>
       </c>
-      <c r="AN27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO27" t="n">
+      <c r="AN28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO28" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
@@ -685,7 +685,7 @@
         <v>4.9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -700,16 +700,16 @@
         <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="R2" t="n">
         <v>1.39</v>
       </c>
       <c r="S2" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U2" t="n">
         <v>1.91</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="G4" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="H4" t="n">
         <v>2.74</v>
       </c>
-      <c r="H4" t="n">
-        <v>2.98</v>
-      </c>
       <c r="I4" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="J4" t="n">
         <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="L4" t="n">
         <v>1.33</v>
@@ -964,7 +964,7 @@
         <v>3.05</v>
       </c>
       <c r="O4" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
         <v>1.8</v>
@@ -985,10 +985,10 @@
         <v>2.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="W4" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1075,7 +1075,7 @@
         <v>2.1</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H5" t="n">
         <v>2.76</v>
@@ -1084,22 +1084,22 @@
         <v>4.4</v>
       </c>
       <c r="J5" t="n">
-        <v>2.68</v>
+        <v>2.94</v>
       </c>
       <c r="K5" t="n">
-        <v>980</v>
+        <v>4.6</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>2.12</v>
+        <v>2.48</v>
       </c>
       <c r="O5" t="n">
-        <v>1.05</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
         <v>1.54</v>
@@ -1108,7 +1108,7 @@
         <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="S5" t="n">
         <v>2.8</v>
@@ -1210,7 +1210,7 @@
         <v>4.2</v>
       </c>
       <c r="G6" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="H6" t="n">
         <v>1.73</v>
@@ -1258,7 +1258,7 @@
         <v>2.04</v>
       </c>
       <c r="W6" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="X6" t="n">
         <v>16</v>
@@ -1381,7 +1381,7 @@
         <v>1.41</v>
       </c>
       <c r="S7" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="T7" t="n">
         <v>1.87</v>
@@ -1498,7 +1498,7 @@
         <v>1.28</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
         <v>3.45</v>
@@ -1618,7 +1618,7 @@
         <v>2.22</v>
       </c>
       <c r="H9" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I9" t="n">
         <v>4.8</v>
@@ -1630,7 +1630,7 @@
         <v>3.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M9" t="n">
         <v>1.1</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G10" t="n">
         <v>1.35</v>
       </c>
-      <c r="G10" t="n">
-        <v>1.36</v>
-      </c>
       <c r="H10" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="I10" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="J10" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="K10" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L10" t="n">
         <v>1.3</v>
@@ -1780,52 +1780,52 @@
         <v>2.46</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R10" t="n">
         <v>1.58</v>
       </c>
       <c r="S10" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="T10" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U10" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="V10" t="n">
         <v>1.09</v>
       </c>
       <c r="W10" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="X10" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y10" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Z10" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AA10" t="n">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC10" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD10" t="n">
         <v>40</v>
       </c>
       <c r="AE10" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AG10" t="n">
         <v>10</v>
@@ -1834,7 +1834,7 @@
         <v>28</v>
       </c>
       <c r="AI10" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AJ10" t="n">
         <v>11</v>
@@ -1849,7 +1849,7 @@
         <v>160</v>
       </c>
       <c r="AN10" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AO10" t="n">
         <v>200</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="G11" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="H11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I11" t="n">
         <v>1.71</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.73</v>
       </c>
       <c r="J11" t="n">
         <v>4.3</v>
@@ -1912,10 +1912,10 @@
         <v>1.23</v>
       </c>
       <c r="P11" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R11" t="n">
         <v>1.53</v>
@@ -1927,16 +1927,16 @@
         <v>1.74</v>
       </c>
       <c r="U11" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V11" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="W11" t="n">
         <v>1.22</v>
       </c>
       <c r="X11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y11" t="n">
         <v>11</v>
@@ -1963,7 +1963,7 @@
         <v>42</v>
       </c>
       <c r="AG11" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AH11" t="n">
         <v>18</v>
@@ -1987,7 +1987,7 @@
         <v>60</v>
       </c>
       <c r="AO11" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -2167,7 +2167,7 @@
         <v>3.65</v>
       </c>
       <c r="K13" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L13" t="n">
         <v>1.25</v>
@@ -2194,16 +2194,16 @@
         <v>2.5</v>
       </c>
       <c r="T13" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="U13" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="V13" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W13" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="X13" t="n">
         <v>27</v>
@@ -2221,7 +2221,7 @@
         <v>15.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD13" t="n">
         <v>19.5</v>
@@ -2251,7 +2251,7 @@
         <v>34</v>
       </c>
       <c r="AM13" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN13" t="n">
         <v>12.5</v>
@@ -2287,64 +2287,64 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G14" t="n">
         <v>2.38</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2.4</v>
       </c>
       <c r="H14" t="n">
         <v>3.3</v>
       </c>
       <c r="I14" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K14" t="n">
         <v>3.65</v>
       </c>
       <c r="L14" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="P14" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="R14" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V14" t="n">
         <v>1.42</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.43</v>
       </c>
       <c r="W14" t="n">
         <v>1.72</v>
       </c>
       <c r="X14" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z14" t="n">
         <v>23</v>
@@ -2353,16 +2353,16 @@
         <v>60</v>
       </c>
       <c r="AB14" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD14" t="n">
         <v>14</v>
       </c>
       <c r="AE14" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF14" t="n">
         <v>15</v>
@@ -2371,10 +2371,10 @@
         <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI14" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ14" t="n">
         <v>32</v>
@@ -2386,13 +2386,13 @@
         <v>36</v>
       </c>
       <c r="AM14" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN14" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="G15" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="H15" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="I15" t="n">
         <v>9.800000000000001</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10</v>
       </c>
       <c r="J15" t="n">
         <v>6.6</v>
@@ -2467,7 +2467,7 @@
         <v>1.65</v>
       </c>
       <c r="U15" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="V15" t="n">
         <v>1.11</v>
@@ -2476,7 +2476,7 @@
         <v>3.9</v>
       </c>
       <c r="X15" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Y15" t="n">
         <v>55</v>
@@ -2485,7 +2485,7 @@
         <v>95</v>
       </c>
       <c r="AA15" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AB15" t="n">
         <v>16.5</v>
@@ -2497,7 +2497,7 @@
         <v>34</v>
       </c>
       <c r="AE15" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AF15" t="n">
         <v>12</v>
@@ -2521,13 +2521,13 @@
         <v>23</v>
       </c>
       <c r="AM15" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="AO15" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="G16" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H16" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="I16" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="J16" t="n">
         <v>5.6</v>
@@ -2596,19 +2596,19 @@
         <v>1.71</v>
       </c>
       <c r="S16" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="T16" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="U16" t="n">
         <v>2.12</v>
       </c>
       <c r="V16" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W16" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="X16" t="n">
         <v>26</v>
@@ -2617,7 +2617,7 @@
         <v>40</v>
       </c>
       <c r="Z16" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AA16" t="n">
         <v>290</v>
@@ -2632,7 +2632,7 @@
         <v>34</v>
       </c>
       <c r="AE16" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AF16" t="n">
         <v>9.199999999999999</v>
@@ -2644,25 +2644,25 @@
         <v>23</v>
       </c>
       <c r="AI16" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AJ16" t="n">
         <v>12</v>
       </c>
       <c r="AK16" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AL16" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM16" t="n">
         <v>110</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="F17" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G17" t="n">
         <v>7</v>
       </c>
-      <c r="G17" t="n">
-        <v>7.2</v>
-      </c>
       <c r="H17" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="I17" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="J17" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="K17" t="n">
         <v>5.3</v>
@@ -2716,13 +2716,13 @@
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="O17" t="n">
         <v>1.18</v>
       </c>
       <c r="P17" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="Q17" t="n">
         <v>1.56</v>
@@ -2737,10 +2737,10 @@
         <v>1.74</v>
       </c>
       <c r="U17" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="V17" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="W17" t="n">
         <v>1.16</v>
@@ -2755,10 +2755,10 @@
         <v>11</v>
       </c>
       <c r="AA17" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC17" t="n">
         <v>11.5</v>
@@ -2773,31 +2773,31 @@
         <v>65</v>
       </c>
       <c r="AG17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH17" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI17" t="n">
         <v>26</v>
       </c>
       <c r="AJ17" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AK17" t="n">
         <v>85</v>
       </c>
       <c r="AL17" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM17" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN17" t="n">
         <v>70</v>
       </c>
       <c r="AO17" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="18">
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="F18" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G18" t="n">
         <v>2.32</v>
       </c>
-      <c r="G18" t="n">
-        <v>2.34</v>
-      </c>
       <c r="H18" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I18" t="n">
         <v>3.4</v>
@@ -2851,34 +2851,34 @@
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O18" t="n">
         <v>1.28</v>
       </c>
       <c r="P18" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="R18" t="n">
         <v>1.44</v>
       </c>
       <c r="S18" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T18" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="U18" t="n">
         <v>2.36</v>
       </c>
       <c r="V18" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W18" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="X18" t="n">
         <v>16</v>
@@ -2911,7 +2911,7 @@
         <v>10.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI18" t="n">
         <v>42</v>
@@ -2920,7 +2920,7 @@
         <v>30</v>
       </c>
       <c r="AK18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL18" t="n">
         <v>34</v>
@@ -2932,7 +2932,7 @@
         <v>15.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
@@ -2965,7 +2965,7 @@
         <v>2.66</v>
       </c>
       <c r="G19" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="H19" t="n">
         <v>2.78</v>
@@ -2974,13 +2974,13 @@
         <v>2.8</v>
       </c>
       <c r="J19" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K19" t="n">
         <v>3.8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M19" t="n">
         <v>1.05</v>
@@ -2989,34 +2989,34 @@
         <v>5.1</v>
       </c>
       <c r="O19" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P19" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R19" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="S19" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="T19" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="U19" t="n">
         <v>2.6</v>
       </c>
       <c r="V19" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="W19" t="n">
         <v>1.59</v>
       </c>
       <c r="X19" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y19" t="n">
         <v>15</v>
@@ -3025,7 +3025,7 @@
         <v>21</v>
       </c>
       <c r="AA19" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB19" t="n">
         <v>15</v>
@@ -3034,7 +3034,7 @@
         <v>8.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE19" t="n">
         <v>26</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="G20" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="H20" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="I20" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="J20" t="n">
         <v>4.3</v>
       </c>
       <c r="K20" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L20" t="n">
         <v>1.29</v>
@@ -3124,13 +3124,13 @@
         <v>5.8</v>
       </c>
       <c r="O20" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P20" t="n">
         <v>2.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R20" t="n">
         <v>1.64</v>
@@ -3142,16 +3142,16 @@
         <v>1.64</v>
       </c>
       <c r="U20" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V20" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="W20" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="X20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y20" t="n">
         <v>26</v>
@@ -3160,7 +3160,7 @@
         <v>46</v>
       </c>
       <c r="AA20" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB20" t="n">
         <v>12.5</v>
@@ -3169,7 +3169,7 @@
         <v>10</v>
       </c>
       <c r="AD20" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE20" t="n">
         <v>60</v>
@@ -3178,7 +3178,7 @@
         <v>12.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH20" t="n">
         <v>16.5</v>
@@ -3187,16 +3187,16 @@
         <v>55</v>
       </c>
       <c r="AJ20" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AK20" t="n">
         <v>15.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM20" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN20" t="n">
         <v>7.2</v>
@@ -3247,7 +3247,7 @@
         <v>2.9</v>
       </c>
       <c r="K21" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L21" t="n">
         <v>1.35</v>
@@ -3256,28 +3256,28 @@
         <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P21" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="R21" t="n">
         <v>1.32</v>
       </c>
       <c r="S21" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="T21" t="n">
         <v>1.74</v>
       </c>
       <c r="U21" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V21" t="n">
         <v>1.45</v>
@@ -3286,7 +3286,7 @@
         <v>1.52</v>
       </c>
       <c r="X21" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y21" t="n">
         <v>14</v>
@@ -3301,7 +3301,7 @@
         <v>13</v>
       </c>
       <c r="AC21" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD21" t="n">
         <v>14.5</v>
@@ -3334,7 +3334,7 @@
         <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO21" t="n">
         <v>34</v>
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="G22" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
         <v>4.1</v>
       </c>
       <c r="I22" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J22" t="n">
         <v>3.7</v>
@@ -3415,10 +3415,10 @@
         <v>2.18</v>
       </c>
       <c r="V22" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W22" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X22" t="n">
         <v>20</v>
@@ -3514,10 +3514,10 @@
         <v>1000</v>
       </c>
       <c r="J23" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K23" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
@@ -3526,28 +3526,28 @@
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="O23" t="n">
         <v>1.01</v>
       </c>
-      <c r="O23" t="n">
+      <c r="P23" t="n">
         <v>1.28</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.08</v>
       </c>
       <c r="Q23" t="n">
         <v>1.28</v>
       </c>
       <c r="R23" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="S23" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="T23" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U23" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V23" t="n">
         <v>1.01</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="G24" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="H24" t="n">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="I24" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="J24" t="n">
         <v>2.84</v>
@@ -3685,10 +3685,10 @@
         <v>1.94</v>
       </c>
       <c r="V24" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="W24" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="X24" t="n">
         <v>12</v>
@@ -3709,7 +3709,7 @@
         <v>7.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE24" t="n">
         <v>1000</v>
@@ -3727,10 +3727,10 @@
         <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
         <v>1000</v>
@@ -3742,7 +3742,7 @@
         <v>40</v>
       </c>
       <c r="AO24" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
@@ -3775,7 +3775,7 @@
         <v>1.81</v>
       </c>
       <c r="G25" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="H25" t="n">
         <v>4.9</v>
@@ -3805,7 +3805,7 @@
         <v>1.67</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="R25" t="n">
         <v>1.25</v>
@@ -3823,7 +3823,7 @@
         <v>1.2</v>
       </c>
       <c r="W25" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="G26" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H26" t="n">
         <v>4.7</v>
       </c>
       <c r="I26" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="J26" t="n">
         <v>2.9</v>
@@ -3949,16 +3949,16 @@
         <v>6.4</v>
       </c>
       <c r="T26" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="U26" t="n">
         <v>1.66</v>
       </c>
       <c r="V26" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W26" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="X26" t="n">
         <v>7.4</v>
@@ -3967,10 +3967,10 @@
         <v>12.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AA26" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
         <v>6.4</v>
@@ -3979,13 +3979,13 @@
         <v>7</v>
       </c>
       <c r="AD26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE26" t="n">
         <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG26" t="n">
         <v>12.5</v>
@@ -3994,13 +3994,13 @@
         <v>48</v>
       </c>
       <c r="AI26" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AK26" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AL26" t="n">
         <v>1000</v>
@@ -4009,7 +4009,7 @@
         <v>310</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4093,7 +4093,7 @@
         <v>1.83</v>
       </c>
       <c r="W27" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X27" t="n">
         <v>15.5</v>
@@ -4279,7 +4279,7 @@
         <v>130</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO28"/>
+  <dimension ref="A1:AO30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,58 +667,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="H2" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="I2" t="n">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="K2" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="L2" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="T2" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U2" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V2" t="n">
-        <v>2.52</v>
+        <v>2.76</v>
       </c>
       <c r="W2" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="X2" t="n">
         <v>21</v>
@@ -727,28 +727,28 @@
         <v>10.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AA2" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD2" t="n">
         <v>10.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
         <v>24</v>
@@ -763,7 +763,7 @@
         <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
@@ -772,7 +772,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>9.6</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K3" t="n">
         <v>4.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
@@ -835,7 +835,7 @@
         <v>1.91</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R3" t="n">
         <v>1.35</v>
@@ -937,25 +937,25 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="G4" t="n">
         <v>2.76</v>
       </c>
       <c r="H4" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="I4" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L4" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
@@ -964,13 +964,13 @@
         <v>3.05</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P4" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R4" t="n">
         <v>1.31</v>
@@ -985,10 +985,10 @@
         <v>2.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="W4" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,58 +1072,58 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="G5" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J5" t="n">
         <v>2.98</v>
       </c>
-      <c r="H5" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.94</v>
-      </c>
       <c r="K5" t="n">
-        <v>4.6</v>
+        <v>3.95</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>2.48</v>
+        <v>2.92</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="P5" t="n">
-        <v>1.54</v>
+        <v>1.65</v>
       </c>
       <c r="Q5" t="n">
         <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="S5" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.04</v>
+        <v>1.84</v>
       </c>
       <c r="U5" t="n">
-        <v>1.04</v>
+        <v>1.9</v>
       </c>
       <c r="V5" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="W5" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1207,25 +1207,25 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="G6" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="H6" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="I6" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="J6" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K6" t="n">
         <v>4.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
@@ -1237,7 +1237,7 @@
         <v>1.33</v>
       </c>
       <c r="P6" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Q6" t="n">
         <v>1.89</v>
@@ -1249,13 +1249,13 @@
         <v>3.2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U6" t="n">
         <v>1.87</v>
       </c>
       <c r="V6" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="W6" t="n">
         <v>1.2</v>
@@ -1267,10 +1267,10 @@
         <v>9.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AB6" t="n">
         <v>20</v>
@@ -1282,7 +1282,7 @@
         <v>12.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF6" t="n">
         <v>50</v>
@@ -1294,7 +1294,7 @@
         <v>26</v>
       </c>
       <c r="AI6" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ6" t="n">
         <v>1000</v>
@@ -1312,7 +1312,7 @@
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="7">
@@ -1354,7 +1354,7 @@
         <v>1.68</v>
       </c>
       <c r="J7" t="n">
-        <v>3.85</v>
+        <v>1.2</v>
       </c>
       <c r="K7" t="n">
         <v>950</v>
@@ -1486,10 +1486,10 @@
         <v>2.1</v>
       </c>
       <c r="I8" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="J8" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
         <v>4.1</v>
@@ -1501,13 +1501,13 @@
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="O8" t="n">
         <v>1.27</v>
       </c>
       <c r="P8" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q8" t="n">
         <v>1.79</v>
@@ -1522,13 +1522,13 @@
         <v>1.67</v>
       </c>
       <c r="U8" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V8" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="W8" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X8" t="n">
         <v>19.5</v>
@@ -1552,7 +1552,7 @@
         <v>13.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF8" t="n">
         <v>28</v>
@@ -1582,7 +1582,7 @@
         <v>42</v>
       </c>
       <c r="AO8" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="9">
@@ -1618,16 +1618,16 @@
         <v>2.22</v>
       </c>
       <c r="H9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I9" t="n">
         <v>4.8</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K9" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L9" t="n">
         <v>1.45</v>
@@ -1639,13 +1639,13 @@
         <v>2.72</v>
       </c>
       <c r="O9" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P9" t="n">
         <v>1.59</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R9" t="n">
         <v>1.21</v>
@@ -1663,7 +1663,7 @@
         <v>1.26</v>
       </c>
       <c r="W9" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="X9" t="n">
         <v>11.5</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="G10" t="n">
         <v>1.35</v>
       </c>
       <c r="H10" t="n">
+        <v>11</v>
+      </c>
+      <c r="I10" t="n">
         <v>11.5</v>
-      </c>
-      <c r="I10" t="n">
-        <v>12</v>
       </c>
       <c r="J10" t="n">
         <v>5.9</v>
@@ -1771,16 +1771,16 @@
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P10" t="n">
         <v>2.46</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R10" t="n">
         <v>1.58</v>
@@ -1792,7 +1792,7 @@
         <v>2.02</v>
       </c>
       <c r="U10" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V10" t="n">
         <v>1.09</v>
@@ -1801,10 +1801,10 @@
         <v>3.85</v>
       </c>
       <c r="X10" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y10" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Z10" t="n">
         <v>110</v>
@@ -1813,7 +1813,7 @@
         <v>450</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC10" t="n">
         <v>13</v>
@@ -1822,19 +1822,19 @@
         <v>40</v>
       </c>
       <c r="AE10" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AG10" t="n">
         <v>10</v>
       </c>
       <c r="AH10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI10" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AJ10" t="n">
         <v>11</v>
@@ -1885,19 +1885,19 @@
         <v>5.4</v>
       </c>
       <c r="G11" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="H11" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="I11" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="J11" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K11" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L11" t="n">
         <v>1.31</v>
@@ -1915,25 +1915,25 @@
         <v>2.32</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R11" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S11" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="T11" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U11" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V11" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="W11" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="X11" t="n">
         <v>21</v>
@@ -1945,10 +1945,10 @@
         <v>11</v>
       </c>
       <c r="AA11" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AB11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC11" t="n">
         <v>9.4</v>
@@ -1960,10 +1960,10 @@
         <v>16</v>
       </c>
       <c r="AF11" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH11" t="n">
         <v>18</v>
@@ -1972,7 +1972,7 @@
         <v>29</v>
       </c>
       <c r="AJ11" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AK11" t="n">
         <v>65</v>
@@ -1987,7 +1987,7 @@
         <v>60</v>
       </c>
       <c r="AO11" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -2038,7 +2038,7 @@
         <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
         <v>1.32</v>
@@ -2050,7 +2050,7 @@
         <v>1.32</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="R12" t="n">
         <v>1.16</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="G13" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H13" t="n">
         <v>3.65</v>
       </c>
       <c r="I13" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
         <v>3.65</v>
@@ -2170,7 +2170,7 @@
         <v>3.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
@@ -2185,7 +2185,7 @@
         <v>2.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R13" t="n">
         <v>1.57</v>
@@ -2200,10 +2200,10 @@
         <v>2.54</v>
       </c>
       <c r="V13" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W13" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="X13" t="n">
         <v>27</v>
@@ -2230,10 +2230,10 @@
         <v>44</v>
       </c>
       <c r="AF13" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH13" t="n">
         <v>17.5</v>
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="F14" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G14" t="n">
         <v>2.36</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2.38</v>
       </c>
       <c r="H14" t="n">
         <v>3.3</v>
       </c>
       <c r="I14" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J14" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K14" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L14" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="P14" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.96</v>
+        <v>1.83</v>
       </c>
       <c r="R14" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="S14" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="T14" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="U14" t="n">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="V14" t="n">
         <v>1.42</v>
       </c>
       <c r="W14" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X14" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="Z14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA14" t="n">
         <v>60</v>
       </c>
       <c r="AB14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF14" t="n">
         <v>15</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI14" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AJ14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AO14" t="n">
         <v>32</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.34</v>
+        <v>2.34</v>
       </c>
       <c r="G15" t="n">
-        <v>1.35</v>
+        <v>2.36</v>
       </c>
       <c r="H15" t="n">
-        <v>9.6</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>9.800000000000001</v>
+        <v>3.45</v>
       </c>
       <c r="J15" t="n">
-        <v>6.6</v>
+        <v>3.5</v>
       </c>
       <c r="K15" t="n">
-        <v>6.8</v>
+        <v>3.55</v>
       </c>
       <c r="L15" t="n">
-        <v>1.2</v>
+        <v>1.39</v>
       </c>
       <c r="M15" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.11</v>
+        <v>1.31</v>
       </c>
       <c r="P15" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.35</v>
+        <v>1.97</v>
       </c>
       <c r="R15" t="n">
-        <v>2.08</v>
+        <v>1.39</v>
       </c>
       <c r="S15" t="n">
-        <v>1.88</v>
+        <v>3.35</v>
       </c>
       <c r="T15" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="U15" t="n">
-        <v>2.44</v>
+        <v>2.26</v>
       </c>
       <c r="V15" t="n">
-        <v>1.11</v>
+        <v>1.4</v>
       </c>
       <c r="W15" t="n">
-        <v>3.9</v>
+        <v>1.73</v>
       </c>
       <c r="X15" t="n">
-        <v>44</v>
+        <v>14.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>55</v>
+        <v>13.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="AA15" t="n">
-        <v>260</v>
+        <v>60</v>
       </c>
       <c r="AB15" t="n">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="AC15" t="n">
-        <v>16</v>
+        <v>7.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="AE15" t="n">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="AF15" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AG15" t="n">
         <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="AJ15" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="AK15" t="n">
-        <v>12.5</v>
+        <v>24</v>
       </c>
       <c r="AL15" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="AM15" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.4</v>
+        <v>18</v>
       </c>
       <c r="AO15" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Olympiakos</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.37</v>
+        <v>7</v>
       </c>
       <c r="G16" t="n">
-        <v>1.38</v>
+        <v>7.2</v>
       </c>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>1.49</v>
       </c>
       <c r="I16" t="n">
-        <v>10.5</v>
+        <v>1.5</v>
       </c>
       <c r="J16" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="K16" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="L16" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P16" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R16" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="S16" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="U16" t="n">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
       <c r="V16" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="W16" t="n">
-        <v>3.6</v>
+        <v>1.16</v>
       </c>
       <c r="X16" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG16" t="n">
         <v>26</v>
       </c>
-      <c r="Y16" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>95</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>290</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>11</v>
-      </c>
       <c r="AH16" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="AJ16" t="n">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="AK16" t="n">
-        <v>12.5</v>
+        <v>85</v>
       </c>
       <c r="AL16" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AM16" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.5</v>
+        <v>75</v>
       </c>
       <c r="AO16" t="n">
-        <v>120</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Olympiakos</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>6.8</v>
+        <v>1.34</v>
       </c>
       <c r="G17" t="n">
-        <v>7</v>
+        <v>1.35</v>
       </c>
       <c r="H17" t="n">
-        <v>1.51</v>
+        <v>9.6</v>
       </c>
       <c r="I17" t="n">
-        <v>1.52</v>
+        <v>10</v>
       </c>
       <c r="J17" t="n">
-        <v>5.1</v>
+        <v>6.4</v>
       </c>
       <c r="K17" t="n">
-        <v>5.3</v>
+        <v>6.6</v>
       </c>
       <c r="L17" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>5.8</v>
+        <v>8.6</v>
       </c>
       <c r="O17" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="P17" t="n">
-        <v>2.68</v>
+        <v>3.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.56</v>
+        <v>1.35</v>
       </c>
       <c r="R17" t="n">
-        <v>1.69</v>
+        <v>2.06</v>
       </c>
       <c r="S17" t="n">
-        <v>2.36</v>
+        <v>1.88</v>
       </c>
       <c r="T17" t="n">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
       <c r="U17" t="n">
-        <v>2.28</v>
+        <v>2.44</v>
       </c>
       <c r="V17" t="n">
-        <v>2.96</v>
+        <v>1.11</v>
       </c>
       <c r="W17" t="n">
-        <v>1.16</v>
+        <v>3.85</v>
       </c>
       <c r="X17" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="Y17" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>95</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>260</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF17" t="n">
         <v>12</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AG17" t="n">
         <v>11</v>
       </c>
-      <c r="AA17" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>25</v>
-      </c>
       <c r="AH17" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AI17" t="n">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="AJ17" t="n">
-        <v>190</v>
+        <v>13</v>
       </c>
       <c r="AK17" t="n">
-        <v>85</v>
+        <v>12.5</v>
       </c>
       <c r="AL17" t="n">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="AM17" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AN17" t="n">
-        <v>70</v>
+        <v>3.45</v>
       </c>
       <c r="AO17" t="n">
-        <v>5.3</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.3</v>
+        <v>1.37</v>
       </c>
       <c r="G18" t="n">
-        <v>2.32</v>
+        <v>1.38</v>
       </c>
       <c r="H18" t="n">
-        <v>3.35</v>
+        <v>10</v>
       </c>
       <c r="I18" t="n">
-        <v>3.4</v>
+        <v>10.5</v>
       </c>
       <c r="J18" t="n">
-        <v>3.65</v>
+        <v>5.7</v>
       </c>
       <c r="K18" t="n">
-        <v>3.7</v>
+        <v>5.8</v>
       </c>
       <c r="L18" t="n">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>4.3</v>
+        <v>5.9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="P18" t="n">
-        <v>2.12</v>
+        <v>2.66</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.86</v>
+        <v>1.56</v>
       </c>
       <c r="R18" t="n">
-        <v>1.44</v>
+        <v>1.68</v>
       </c>
       <c r="S18" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="T18" t="n">
-        <v>1.71</v>
+        <v>1.9</v>
       </c>
       <c r="U18" t="n">
-        <v>2.36</v>
+        <v>2.06</v>
       </c>
       <c r="V18" t="n">
-        <v>1.41</v>
+        <v>1.1</v>
       </c>
       <c r="W18" t="n">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="X18" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="Y18" t="n">
-        <v>14.5</v>
+        <v>40</v>
       </c>
       <c r="Z18" t="n">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="AA18" t="n">
-        <v>60</v>
+        <v>290</v>
       </c>
       <c r="AB18" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>8</v>
+        <v>12.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="AE18" t="n">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG18" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH18" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AI18" t="n">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="AJ18" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="AK18" t="n">
-        <v>22</v>
+        <v>12.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM18" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AN18" t="n">
-        <v>15.5</v>
+        <v>4.7</v>
       </c>
       <c r="AO18" t="n">
-        <v>29</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.66</v>
+        <v>1.71</v>
       </c>
       <c r="G19" t="n">
-        <v>2.7</v>
+        <v>1.72</v>
       </c>
       <c r="H19" t="n">
-        <v>2.78</v>
+        <v>5.4</v>
       </c>
       <c r="I19" t="n">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="J19" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="K19" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="O19" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="P19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W19" t="n">
         <v>2.38</v>
       </c>
-      <c r="Q19" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.59</v>
-      </c>
       <c r="X19" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Y19" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="Z19" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="AA19" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="AB19" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="AD19" t="n">
-        <v>12.5</v>
+        <v>19.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="AF19" t="n">
-        <v>19.5</v>
+        <v>12</v>
       </c>
       <c r="AG19" t="n">
-        <v>12.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH19" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AI19" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AJ19" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="AK19" t="n">
-        <v>26</v>
+        <v>15.5</v>
       </c>
       <c r="AL19" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AM19" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AN19" t="n">
-        <v>16.5</v>
+        <v>7.2</v>
       </c>
       <c r="AO19" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,127 +3088,127 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>Club Sportivo Ameliano</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.71</v>
+        <v>1.96</v>
       </c>
       <c r="G20" t="n">
-        <v>1.72</v>
+        <v>4.1</v>
       </c>
       <c r="H20" t="n">
-        <v>5.2</v>
+        <v>1.61</v>
       </c>
       <c r="I20" t="n">
-        <v>5.3</v>
+        <v>3.1</v>
       </c>
       <c r="J20" t="n">
-        <v>4.3</v>
+        <v>2.88</v>
       </c>
       <c r="K20" t="n">
-        <v>4.4</v>
+        <v>980</v>
       </c>
       <c r="L20" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T20" t="n">
         <v>1.04</v>
       </c>
-      <c r="N20" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.64</v>
-      </c>
       <c r="U20" t="n">
-        <v>2.48</v>
+        <v>1.04</v>
       </c>
       <c r="V20" t="n">
-        <v>1.23</v>
+        <v>1.47</v>
       </c>
       <c r="W20" t="n">
-        <v>2.38</v>
+        <v>1.32</v>
       </c>
       <c r="X20" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD20" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI20" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>San Marcos</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Cobreloa Calama</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.54</v>
+        <v>2.7</v>
       </c>
       <c r="G21" t="n">
-        <v>2.9</v>
+        <v>2.72</v>
       </c>
       <c r="H21" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="I21" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="J21" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="K21" t="n">
         <v>3.75</v>
       </c>
       <c r="L21" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>3.1</v>
+        <v>5.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="P21" t="n">
-        <v>1.84</v>
+        <v>2.38</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.96</v>
+        <v>1.7</v>
       </c>
       <c r="R21" t="n">
-        <v>1.32</v>
+        <v>1.56</v>
       </c>
       <c r="S21" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="T21" t="n">
-        <v>1.74</v>
+        <v>1.59</v>
       </c>
       <c r="U21" t="n">
-        <v>2.08</v>
+        <v>2.6</v>
       </c>
       <c r="V21" t="n">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="W21" t="n">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="X21" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z21" t="n">
         <v>21</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AB21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH21" t="n">
         <v>14.5</v>
       </c>
-      <c r="AE21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>20</v>
-      </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN21" t="n">
-        <v>32</v>
+        <v>16.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,57 +3353,57 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>San Marcos</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Fortaleza EC</t>
+          <t>Cobreloa Calama</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.95</v>
+        <v>2.54</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="H22" t="n">
-        <v>4.1</v>
+        <v>2.76</v>
       </c>
       <c r="I22" t="n">
-        <v>4.5</v>
+        <v>3.35</v>
       </c>
       <c r="J22" t="n">
-        <v>3.7</v>
+        <v>2.96</v>
       </c>
       <c r="K22" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L22" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="O22" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P22" t="n">
-        <v>2.12</v>
+        <v>1.84</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.84</v>
+        <v>1.96</v>
       </c>
       <c r="R22" t="n">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="S22" t="n">
         <v>3.15</v>
@@ -3412,73 +3412,73 @@
         <v>1.74</v>
       </c>
       <c r="U22" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="V22" t="n">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="W22" t="n">
-        <v>2</v>
+        <v>1.52</v>
       </c>
       <c r="X22" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH22" t="n">
         <v>20</v>
       </c>
-      <c r="Y22" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>18</v>
-      </c>
       <c r="AI22" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>12.5</v>
+        <v>28</v>
       </c>
       <c r="AO22" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Juticalpa</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>CD Victoria</t>
+          <t>Fortaleza EC</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.04</v>
+        <v>1.95</v>
       </c>
       <c r="G23" t="n">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
-        <v>1.04</v>
+        <v>4.1</v>
       </c>
       <c r="I23" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="J23" t="n">
-        <v>1.03</v>
+        <v>3.75</v>
       </c>
       <c r="K23" t="n">
-        <v>950</v>
+        <v>4</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M23" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>1.28</v>
+        <v>4.1</v>
       </c>
       <c r="O23" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="P23" t="n">
-        <v>1.28</v>
+        <v>2.12</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.28</v>
+        <v>1.84</v>
       </c>
       <c r="R23" t="n">
-        <v>1.21</v>
+        <v>1.41</v>
       </c>
       <c r="S23" t="n">
-        <v>1.28</v>
+        <v>3.15</v>
       </c>
       <c r="T23" t="n">
-        <v>1.04</v>
+        <v>1.74</v>
       </c>
       <c r="U23" t="n">
-        <v>1.04</v>
+        <v>2.24</v>
       </c>
       <c r="V23" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="W23" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,105 +3623,105 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Deportes Concepcion</t>
+          <t>Olimpia</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Deportes Copiapo</t>
+          <t>Club 2 de Mayo</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>2.74</v>
+        <v>1.25</v>
       </c>
       <c r="O24" t="n">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="P24" t="n">
-        <v>1.68</v>
+        <v>1.24</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.14</v>
+        <v>1.31</v>
       </c>
       <c r="R24" t="n">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="S24" t="n">
-        <v>3.5</v>
+        <v>1.31</v>
       </c>
       <c r="T24" t="n">
-        <v>1.83</v>
+        <v>1.04</v>
       </c>
       <c r="U24" t="n">
-        <v>1.94</v>
+        <v>1.04</v>
       </c>
       <c r="V24" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="W24" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="X24" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
         <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD24" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
         <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
         <v>1000</v>
@@ -3739,16 +3739,16 @@
         <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,72 +3758,72 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Atletico Bucaramanga</t>
+          <t>Juticalpa</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>CD Victoria</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.81</v>
+        <v>1.04</v>
       </c>
       <c r="G25" t="n">
-        <v>1.9</v>
+        <v>1000</v>
       </c>
       <c r="H25" t="n">
-        <v>4.9</v>
+        <v>1.04</v>
       </c>
       <c r="I25" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="J25" t="n">
-        <v>3.4</v>
+        <v>1.03</v>
       </c>
       <c r="K25" t="n">
-        <v>3.8</v>
+        <v>950</v>
       </c>
       <c r="L25" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>3</v>
+        <v>1.34</v>
       </c>
       <c r="O25" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="P25" t="n">
-        <v>1.67</v>
+        <v>1.34</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.14</v>
+        <v>1.28</v>
       </c>
       <c r="R25" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="S25" t="n">
-        <v>4.2</v>
+        <v>1.28</v>
       </c>
       <c r="T25" t="n">
-        <v>2</v>
+        <v>1.04</v>
       </c>
       <c r="U25" t="n">
-        <v>1.8</v>
+        <v>1.04</v>
       </c>
       <c r="V25" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="W25" t="n">
-        <v>2.1</v>
+        <v>1.01</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -3841,7 +3841,7 @@
         <v>1000</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD25" t="n">
         <v>1000</v>
@@ -3859,7 +3859,7 @@
         <v>1000</v>
       </c>
       <c r="AI25" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
         <v>1000</v>
@@ -3883,7 +3883,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,123 +3893,123 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Lanus</t>
+          <t>Deportes Concepcion</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Deportes Copiapo</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="G26" t="n">
-        <v>2.2</v>
+        <v>2.56</v>
       </c>
       <c r="H26" t="n">
-        <v>4.7</v>
+        <v>2.98</v>
       </c>
       <c r="I26" t="n">
-        <v>5.4</v>
+        <v>3.85</v>
       </c>
       <c r="J26" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="K26" t="n">
-        <v>3.1</v>
+        <v>3.65</v>
       </c>
       <c r="L26" t="n">
-        <v>1.62</v>
+        <v>1.39</v>
       </c>
       <c r="M26" t="n">
-        <v>1.16</v>
+        <v>1.09</v>
       </c>
       <c r="N26" t="n">
-        <v>2.4</v>
+        <v>2.74</v>
       </c>
       <c r="O26" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W26" t="n">
         <v>1.64</v>
       </c>
-      <c r="P26" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S26" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.83</v>
-      </c>
       <c r="X26" t="n">
-        <v>7.4</v>
+        <v>12</v>
       </c>
       <c r="Y26" t="n">
         <v>12.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="AA26" t="n">
         <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>6.4</v>
+        <v>9.4</v>
       </c>
       <c r="AC26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD26" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="AE26" t="n">
         <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>11.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG26" t="n">
         <v>12.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="AI26" t="n">
         <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="AK26" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="AL26" t="n">
         <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4018,7 +4018,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,93 +4028,93 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>FC Juarez</t>
+          <t>Atletico Bucaramanga</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Toluca</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.7</v>
+        <v>1.66</v>
       </c>
       <c r="G27" t="n">
-        <v>4.1</v>
+        <v>1.83</v>
       </c>
       <c r="H27" t="n">
-        <v>2.06</v>
+        <v>5.6</v>
       </c>
       <c r="I27" t="n">
-        <v>2.2</v>
+        <v>6.8</v>
       </c>
       <c r="J27" t="n">
         <v>3.5</v>
       </c>
       <c r="K27" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M27" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>3.75</v>
+        <v>2.94</v>
       </c>
       <c r="O27" t="n">
-        <v>1.31</v>
+        <v>1.42</v>
       </c>
       <c r="P27" t="n">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="Q27" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="R27" t="n">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="S27" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="T27" t="n">
-        <v>1.75</v>
+        <v>2.06</v>
       </c>
       <c r="U27" t="n">
-        <v>2.14</v>
+        <v>1.79</v>
       </c>
       <c r="V27" t="n">
-        <v>1.83</v>
+        <v>1.2</v>
       </c>
       <c r="W27" t="n">
-        <v>1.33</v>
+        <v>2.2</v>
       </c>
       <c r="X27" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y27" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Z27" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AA27" t="n">
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD27" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE27" t="n">
         <v>1000</v>
@@ -4123,13 +4123,13 @@
         <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AH27" t="n">
         <v>1000</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ27" t="n">
         <v>1000</v>
@@ -4144,16 +4144,16 @@
         <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AO27" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,125 +4163,395 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>22:30:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Atletico Nacional Medell</t>
+          <t>Lanus</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Junior FC Barranquilla</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.61</v>
+        <v>2.08</v>
       </c>
       <c r="G28" t="n">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="H28" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="I28" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S28" t="n">
         <v>6.4</v>
       </c>
-      <c r="J28" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K28" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N28" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P28" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S28" t="n">
-        <v>2.92</v>
-      </c>
       <c r="T28" t="n">
-        <v>1.76</v>
+        <v>2.34</v>
       </c>
       <c r="U28" t="n">
-        <v>2.02</v>
+        <v>1.66</v>
       </c>
       <c r="V28" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="W28" t="n">
-        <v>2.32</v>
+        <v>1.84</v>
       </c>
       <c r="X28" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="Y28" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB28" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF28" t="n">
         <v>11.5</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>1000</v>
       </c>
       <c r="AG28" t="n">
         <v>12.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL28" t="n">
         <v>1000</v>
       </c>
       <c r="AM28" t="n">
+        <v>310</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-11-26</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>FC Juarez</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Toluca</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X29" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-11-26</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Atletico Nacional Medell</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Junior FC Barranquilla</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="I30" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J30" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K30" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N30" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM30" t="n">
         <v>130</v>
       </c>
-      <c r="AN28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO28" t="n">
+      <c r="AN30" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AO30" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
@@ -667,82 +667,82 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="G2" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H2" t="n">
         <v>1.47</v>
       </c>
       <c r="I2" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="J2" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="K2" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="L2" t="n">
         <v>1.34</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="R2" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="S2" t="n">
-        <v>2.88</v>
+        <v>2.68</v>
       </c>
       <c r="T2" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="U2" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="V2" t="n">
-        <v>2.76</v>
+        <v>2.92</v>
       </c>
       <c r="W2" t="n">
         <v>1.14</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Y2" t="n">
         <v>10.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AA2" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD2" t="n">
         <v>10.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
@@ -751,7 +751,7 @@
         <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI2" t="n">
         <v>40</v>
@@ -772,7 +772,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="3">
@@ -802,109 +802,109 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
       <c r="G3" t="n">
-        <v>1.7</v>
+        <v>1.97</v>
       </c>
       <c r="H3" t="n">
-        <v>5.3</v>
+        <v>4.6</v>
       </c>
       <c r="I3" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="X3" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC3" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="J3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="X3" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AD3" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AG3" t="n">
         <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="AK3" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="G4" t="n">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
       <c r="H4" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="I4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
         <v>3.75</v>
@@ -985,10 +985,10 @@
         <v>2.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W4" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1006,7 +1006,7 @@
         <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
@@ -1021,7 +1021,7 @@
         <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1075,19 +1075,19 @@
         <v>2.3</v>
       </c>
       <c r="G5" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="H5" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="I5" t="n">
         <v>3.8</v>
       </c>
       <c r="J5" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="K5" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="L5" t="n">
         <v>1.46</v>
@@ -1099,7 +1099,7 @@
         <v>2.92</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P5" t="n">
         <v>1.65</v>
@@ -1111,7 +1111,7 @@
         <v>1.25</v>
       </c>
       <c r="S5" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="T5" t="n">
         <v>1.84</v>
@@ -1120,7 +1120,7 @@
         <v>1.9</v>
       </c>
       <c r="V5" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W5" t="n">
         <v>1.58</v>
@@ -1138,10 +1138,10 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="G6" t="n">
         <v>6.2</v>
       </c>
       <c r="H6" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="I6" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="J6" t="n">
         <v>3.45</v>
@@ -1231,13 +1231,13 @@
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P6" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q6" t="n">
         <v>1.89</v>
@@ -1255,46 +1255,46 @@
         <v>1.87</v>
       </c>
       <c r="V6" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="W6" t="n">
         <v>1.2</v>
       </c>
       <c r="X6" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AF6" t="n">
         <v>50</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AH6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="AJ6" t="n">
         <v>1000</v>
@@ -1312,7 +1312,7 @@
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -1345,34 +1345,34 @@
         <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="H7" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="I7" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="J7" t="n">
-        <v>1.2</v>
+        <v>3.85</v>
       </c>
       <c r="K7" t="n">
-        <v>950</v>
+        <v>5.8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
         <v>3.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P7" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="Q7" t="n">
         <v>1.73</v>
@@ -1381,43 +1381,43 @@
         <v>1.41</v>
       </c>
       <c r="S7" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="T7" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U7" t="n">
         <v>1.87</v>
       </c>
       <c r="V7" t="n">
-        <v>2.48</v>
+        <v>2.66</v>
       </c>
       <c r="W7" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB7" t="n">
         <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF7" t="n">
         <v>1000</v>
@@ -1447,7 +1447,7 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="G8" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H8" t="n">
         <v>2.1</v>
@@ -1489,28 +1489,28 @@
         <v>2.44</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K8" t="n">
         <v>4.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O8" t="n">
         <v>1.27</v>
       </c>
       <c r="P8" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R8" t="n">
         <v>1.38</v>
@@ -1528,61 +1528,61 @@
         <v>1.69</v>
       </c>
       <c r="W8" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X8" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>290</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>95</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>260</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO8" t="n">
         <v>17.5</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>42</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>18.5</v>
       </c>
     </row>
     <row r="9">
@@ -1627,10 +1627,10 @@
         <v>3.05</v>
       </c>
       <c r="K9" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="M9" t="n">
         <v>1.1</v>
@@ -1663,7 +1663,7 @@
         <v>1.26</v>
       </c>
       <c r="W9" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="X9" t="n">
         <v>11.5</v>
@@ -1672,7 +1672,7 @@
         <v>13</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -1702,10 +1702,10 @@
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL9" t="n">
         <v>1000</v>
@@ -1753,10 +1753,10 @@
         <v>1.35</v>
       </c>
       <c r="H10" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="I10" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="J10" t="n">
         <v>5.9</v>
@@ -1771,16 +1771,16 @@
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P10" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R10" t="n">
         <v>1.58</v>
@@ -1789,10 +1789,10 @@
         <v>2.62</v>
       </c>
       <c r="T10" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U10" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V10" t="n">
         <v>1.09</v>
@@ -1801,7 +1801,7 @@
         <v>3.85</v>
       </c>
       <c r="X10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y10" t="n">
         <v>38</v>
@@ -1813,7 +1813,7 @@
         <v>450</v>
       </c>
       <c r="AB10" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AC10" t="n">
         <v>13</v>
@@ -1825,19 +1825,19 @@
         <v>170</v>
       </c>
       <c r="AF10" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG10" t="n">
         <v>10</v>
       </c>
       <c r="AH10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI10" t="n">
         <v>140</v>
       </c>
       <c r="AJ10" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK10" t="n">
         <v>13.5</v>
@@ -1846,10 +1846,10 @@
         <v>36</v>
       </c>
       <c r="AM10" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN10" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AO10" t="n">
         <v>200</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="G11" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H11" t="n">
         <v>1.68</v>
@@ -1912,31 +1912,31 @@
         <v>1.23</v>
       </c>
       <c r="P11" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="R11" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S11" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="T11" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U11" t="n">
         <v>2.28</v>
       </c>
       <c r="V11" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="W11" t="n">
         <v>1.21</v>
       </c>
       <c r="X11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y11" t="n">
         <v>11</v>
@@ -1951,13 +1951,13 @@
         <v>23</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD11" t="n">
         <v>10</v>
       </c>
       <c r="AE11" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF11" t="n">
         <v>44</v>
@@ -1978,16 +1978,16 @@
         <v>65</v>
       </c>
       <c r="AL11" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN11" t="n">
         <v>60</v>
       </c>
       <c r="AO11" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="12">
@@ -2029,7 +2029,7 @@
         <v>1000</v>
       </c>
       <c r="J12" t="n">
-        <v>1.05</v>
+        <v>2.34</v>
       </c>
       <c r="K12" t="n">
         <v>1000</v>
@@ -2065,7 +2065,7 @@
         <v>1.04</v>
       </c>
       <c r="V12" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W12" t="n">
         <v>1.01</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.06</v>
+        <v>1.97</v>
       </c>
       <c r="G13" t="n">
-        <v>2.16</v>
+        <v>1.99</v>
       </c>
       <c r="H13" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="J13" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="K13" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L13" t="n">
         <v>1.3</v>
@@ -2176,85 +2176,85 @@
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P13" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R13" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S13" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="T13" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="U13" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="V13" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="W13" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="X13" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Y13" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>24</v>
       </c>
-      <c r="Z13" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ13" t="n">
+      <c r="AK13" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL13" t="n">
         <v>32</v>
       </c>
-      <c r="AK13" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>34</v>
-      </c>
       <c r="AM13" t="n">
-        <v>60</v>
+        <v>580</v>
       </c>
       <c r="AN13" t="n">
-        <v>12.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO13" t="n">
         <v>32</v>
@@ -2299,10 +2299,10 @@
         <v>3.35</v>
       </c>
       <c r="J14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K14" t="n">
         <v>3.65</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.7</v>
       </c>
       <c r="L14" t="n">
         <v>1.37</v>
@@ -2320,19 +2320,19 @@
         <v>2.14</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R14" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S14" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T14" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U14" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="V14" t="n">
         <v>1.42</v>
@@ -2341,13 +2341,13 @@
         <v>1.73</v>
       </c>
       <c r="X14" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA14" t="n">
         <v>60</v>
@@ -2356,25 +2356,25 @@
         <v>12</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD14" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF14" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ14" t="n">
         <v>30</v>
@@ -2392,7 +2392,7 @@
         <v>16</v>
       </c>
       <c r="AO14" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G15" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="H15" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I15" t="n">
         <v>3.4</v>
       </c>
-      <c r="I15" t="n">
-        <v>3.45</v>
-      </c>
       <c r="J15" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K15" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L15" t="n">
         <v>1.39</v>
@@ -2467,16 +2467,16 @@
         <v>1.75</v>
       </c>
       <c r="U15" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="V15" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W15" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="X15" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y15" t="n">
         <v>13.5</v>
@@ -2491,7 +2491,7 @@
         <v>11</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD15" t="n">
         <v>14</v>
@@ -2563,16 +2563,16 @@
         <v>7.2</v>
       </c>
       <c r="H16" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="I16" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="J16" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K16" t="n">
         <v>5.2</v>
-      </c>
-      <c r="K16" t="n">
-        <v>5.3</v>
       </c>
       <c r="L16" t="n">
         <v>1.28</v>
@@ -2581,10 +2581,10 @@
         <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P16" t="n">
         <v>2.7</v>
@@ -2593,10 +2593,10 @@
         <v>1.56</v>
       </c>
       <c r="R16" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="S16" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="T16" t="n">
         <v>1.74</v>
@@ -2605,7 +2605,7 @@
         <v>2.26</v>
       </c>
       <c r="V16" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="W16" t="n">
         <v>1.16</v>
@@ -2623,7 +2623,7 @@
         <v>14.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC16" t="n">
         <v>11.5</v>
@@ -2638,10 +2638,10 @@
         <v>65</v>
       </c>
       <c r="AG16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH16" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AI16" t="n">
         <v>26</v>
@@ -2659,7 +2659,7 @@
         <v>85</v>
       </c>
       <c r="AN16" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AO16" t="n">
         <v>5.3</v>
@@ -2701,22 +2701,22 @@
         <v>9.6</v>
       </c>
       <c r="I17" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J17" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="K17" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="M17" t="n">
         <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="O17" t="n">
         <v>1.11</v>
@@ -2728,13 +2728,13 @@
         <v>1.35</v>
       </c>
       <c r="R17" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="S17" t="n">
         <v>1.88</v>
       </c>
       <c r="T17" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U17" t="n">
         <v>2.44</v>
@@ -2743,10 +2743,10 @@
         <v>1.11</v>
       </c>
       <c r="W17" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="X17" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="Y17" t="n">
         <v>55</v>
@@ -2755,7 +2755,7 @@
         <v>95</v>
       </c>
       <c r="AA17" t="n">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="AB17" t="n">
         <v>16.5</v>
@@ -2767,7 +2767,7 @@
         <v>34</v>
       </c>
       <c r="AE17" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AF17" t="n">
         <v>12</v>
@@ -2779,25 +2779,25 @@
         <v>22</v>
       </c>
       <c r="AI17" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ17" t="n">
         <v>13</v>
       </c>
       <c r="AK17" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AL17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM17" t="n">
         <v>75</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="AO17" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="G18" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="H18" t="n">
         <v>10</v>
@@ -2839,10 +2839,10 @@
         <v>10.5</v>
       </c>
       <c r="J18" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="K18" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="L18" t="n">
         <v>1.26</v>
@@ -2851,22 +2851,22 @@
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P18" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="R18" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="S18" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T18" t="n">
         <v>1.9</v>
@@ -2878,28 +2878,28 @@
         <v>1.1</v>
       </c>
       <c r="W18" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="X18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y18" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Z18" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AA18" t="n">
         <v>290</v>
       </c>
       <c r="AB18" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC18" t="n">
         <v>12.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AE18" t="n">
         <v>130</v>
@@ -2911,7 +2911,7 @@
         <v>11</v>
       </c>
       <c r="AH18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI18" t="n">
         <v>110</v>
@@ -2920,16 +2920,16 @@
         <v>12</v>
       </c>
       <c r="AK18" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AL18" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AM18" t="n">
         <v>110</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AO18" t="n">
         <v>130</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="G19" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="H19" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="I19" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="J19" t="n">
         <v>4.2</v>
       </c>
       <c r="K19" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L19" t="n">
         <v>1.29</v>
@@ -2995,13 +2995,13 @@
         <v>2.6</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R19" t="n">
         <v>1.63</v>
       </c>
       <c r="S19" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T19" t="n">
         <v>1.64</v>
@@ -3010,10 +3010,10 @@
         <v>2.48</v>
       </c>
       <c r="V19" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W19" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="X19" t="n">
         <v>23</v>
@@ -3031,7 +3031,7 @@
         <v>12.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD19" t="n">
         <v>19.5</v>
@@ -3043,10 +3043,10 @@
         <v>12</v>
       </c>
       <c r="AG19" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH19" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI19" t="n">
         <v>55</v>
@@ -3064,7 +3064,7 @@
         <v>70</v>
       </c>
       <c r="AN19" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AO19" t="n">
         <v>42</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.96</v>
+        <v>2.88</v>
       </c>
       <c r="G20" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="H20" t="n">
-        <v>1.61</v>
+        <v>2.38</v>
       </c>
       <c r="I20" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="K20" t="n">
-        <v>980</v>
+        <v>4.2</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
@@ -3121,13 +3121,13 @@
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>2.62</v>
+        <v>3.05</v>
       </c>
       <c r="O20" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P20" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q20" t="n">
         <v>1.96</v>
@@ -3139,19 +3139,19 @@
         <v>3.3</v>
       </c>
       <c r="T20" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U20" t="n">
         <v>1.04</v>
       </c>
       <c r="V20" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="W20" t="n">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y20" t="n">
         <v>1000</v>
@@ -3166,7 +3166,7 @@
         <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD20" t="n">
         <v>1000</v>
@@ -3238,10 +3238,10 @@
         <v>2.72</v>
       </c>
       <c r="H21" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I21" t="n">
         <v>2.78</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2.8</v>
       </c>
       <c r="J21" t="n">
         <v>3.7</v>
@@ -3268,10 +3268,10 @@
         <v>1.7</v>
       </c>
       <c r="R21" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S21" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="T21" t="n">
         <v>1.59</v>
@@ -3367,64 +3367,64 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G22" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J22" t="n">
         <v>2.9</v>
       </c>
-      <c r="H22" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2.96</v>
-      </c>
       <c r="K22" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L22" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O22" t="n">
         <v>1.35</v>
       </c>
-      <c r="M22" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N22" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.33</v>
-      </c>
       <c r="P22" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="R22" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="S22" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="T22" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="U22" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="V22" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="W22" t="n">
         <v>1.52</v>
       </c>
       <c r="X22" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z22" t="n">
         <v>21</v>
@@ -3433,7 +3433,7 @@
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC22" t="n">
         <v>8.199999999999999</v>
@@ -3469,7 +3469,7 @@
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AO22" t="n">
         <v>34</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -3526,31 +3526,31 @@
         <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O23" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P23" t="n">
         <v>2.12</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="R23" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S23" t="n">
         <v>3.15</v>
       </c>
       <c r="T23" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="U23" t="n">
         <v>2.24</v>
       </c>
       <c r="V23" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W23" t="n">
         <v>2</v>
@@ -3559,13 +3559,13 @@
         <v>20</v>
       </c>
       <c r="Y23" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AA23" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AB23" t="n">
         <v>10</v>
@@ -3574,10 +3574,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD23" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AE23" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AF23" t="n">
         <v>13</v>
@@ -3589,19 +3589,19 @@
         <v>18</v>
       </c>
       <c r="AI23" t="n">
-        <v>980</v>
+        <v>260</v>
       </c>
       <c r="AJ23" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AK23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL23" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AM23" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="AN23" t="n">
         <v>12.5</v>
@@ -3670,13 +3670,13 @@
         <v>1.24</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="R24" t="n">
         <v>1.18</v>
       </c>
       <c r="S24" t="n">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="T24" t="n">
         <v>1.04</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.04</v>
+        <v>1.54</v>
       </c>
       <c r="G25" t="n">
         <v>1000</v>
       </c>
       <c r="H25" t="n">
-        <v>1.04</v>
+        <v>2.7</v>
       </c>
       <c r="I25" t="n">
         <v>1000</v>
       </c>
       <c r="J25" t="n">
-        <v>1.03</v>
+        <v>3.15</v>
       </c>
       <c r="K25" t="n">
-        <v>950</v>
+        <v>7</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3796,16 +3796,16 @@
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="O25" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="P25" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="R25" t="n">
         <v>1.18</v>
@@ -3820,10 +3820,10 @@
         <v>1.04</v>
       </c>
       <c r="V25" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="W25" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -3907,19 +3907,19 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G26" t="n">
         <v>2.56</v>
       </c>
       <c r="H26" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="I26" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J26" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="K26" t="n">
         <v>3.65</v>
@@ -3940,7 +3940,7 @@
         <v>1.69</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="R26" t="n">
         <v>1.26</v>
@@ -3964,10 +3964,10 @@
         <v>12</v>
       </c>
       <c r="Y26" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA26" t="n">
         <v>1000</v>
@@ -3976,10 +3976,10 @@
         <v>9.4</v>
       </c>
       <c r="AC26" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE26" t="n">
         <v>1000</v>
@@ -3997,7 +3997,7 @@
         <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK26" t="n">
         <v>32</v>
@@ -4042,61 +4042,61 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.66</v>
+        <v>1.77</v>
       </c>
       <c r="G27" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="H27" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="I27" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="J27" t="n">
         <v>3.5</v>
       </c>
       <c r="K27" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="L27" t="n">
         <v>1.39</v>
       </c>
       <c r="M27" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="O27" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P27" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="R27" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S27" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T27" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U27" t="n">
         <v>1.79</v>
       </c>
       <c r="V27" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W27" t="n">
         <v>2.2</v>
       </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y27" t="n">
         <v>1000</v>
@@ -4108,10 +4108,10 @@
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD27" t="n">
         <v>1000</v>
@@ -4120,13 +4120,13 @@
         <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AI27" t="n">
         <v>120</v>
@@ -4135,16 +4135,16 @@
         <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AL27" t="n">
         <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN27" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>
@@ -4177,10 +4177,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="G28" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H28" t="n">
         <v>4.8</v>
@@ -4189,10 +4189,10 @@
         <v>5.3</v>
       </c>
       <c r="J28" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="K28" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L28" t="n">
         <v>1.62</v>
@@ -4201,10 +4201,10 @@
         <v>1.15</v>
       </c>
       <c r="N28" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="O28" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="P28" t="n">
         <v>1.46</v>
@@ -4216,7 +4216,7 @@
         <v>1.16</v>
       </c>
       <c r="S28" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="T28" t="n">
         <v>2.34</v>
@@ -4237,7 +4237,7 @@
         <v>12.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AA28" t="n">
         <v>150</v>
@@ -4246,7 +4246,7 @@
         <v>6.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD28" t="n">
         <v>24</v>
@@ -4261,7 +4261,7 @@
         <v>12.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AI28" t="n">
         <v>140</v>
@@ -4270,13 +4270,13 @@
         <v>29</v>
       </c>
       <c r="AK28" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AL28" t="n">
         <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="AN28" t="n">
         <v>34</v>
@@ -4321,7 +4321,7 @@
         <v>2.08</v>
       </c>
       <c r="I29" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="J29" t="n">
         <v>3.55</v>
@@ -4360,7 +4360,7 @@
         <v>2.14</v>
       </c>
       <c r="V29" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="W29" t="n">
         <v>1.35</v>
@@ -4393,7 +4393,7 @@
         <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AH29" t="n">
         <v>1000</v>
@@ -4453,7 +4453,7 @@
         <v>1.66</v>
       </c>
       <c r="H30" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="I30" t="n">
         <v>7.2</v>
@@ -4471,7 +4471,7 @@
         <v>1.05</v>
       </c>
       <c r="N30" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O30" t="n">
         <v>1.25</v>
@@ -4480,7 +4480,7 @@
         <v>2.14</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R30" t="n">
         <v>1.44</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
@@ -667,40 +667,40 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="G2" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="H2" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="I2" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="J2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K2" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R2" t="n">
         <v>1.48</v>
@@ -709,37 +709,37 @@
         <v>2.68</v>
       </c>
       <c r="T2" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="U2" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="V2" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="W2" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="X2" t="n">
         <v>25</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z2" t="n">
         <v>9.4</v>
       </c>
       <c r="AA2" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC2" t="n">
         <v>12.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
         <v>15.5</v>
@@ -748,13 +748,13 @@
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AH2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI2" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="G3" t="n">
         <v>1.97</v>
@@ -811,43 +811,43 @@
         <v>4.6</v>
       </c>
       <c r="I3" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J3" t="n">
         <v>3.4</v>
       </c>
       <c r="K3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L3" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="R3" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="S3" t="n">
-        <v>3.15</v>
+        <v>3.8</v>
       </c>
       <c r="T3" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="U3" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="V3" t="n">
         <v>1.21</v>
@@ -856,19 +856,19 @@
         <v>2.02</v>
       </c>
       <c r="X3" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z3" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC3" t="n">
         <v>8.800000000000001</v>
@@ -880,31 +880,31 @@
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG3" t="n">
         <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AJ3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN3" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -940,10 +940,10 @@
         <v>2.44</v>
       </c>
       <c r="G4" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="H4" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="I4" t="n">
         <v>3.4</v>
@@ -985,7 +985,7 @@
         <v>2.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W4" t="n">
         <v>1.56</v>
@@ -1006,7 +1006,7 @@
         <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
@@ -1021,13 +1021,13 @@
         <v>1000</v>
       </c>
       <c r="AH4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>980</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1000</v>
       </c>
       <c r="AK4" t="n">
         <v>1000</v>
@@ -1105,7 +1105,7 @@
         <v>1.65</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="R5" t="n">
         <v>1.25</v>
@@ -1162,7 +1162,7 @@
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK5" t="n">
         <v>1000</v>
@@ -1399,10 +1399,10 @@
         <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AA7" t="n">
         <v>900</v>
@@ -1417,7 +1417,7 @@
         <v>40</v>
       </c>
       <c r="AE7" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
         <v>1000</v>
@@ -1483,13 +1483,13 @@
         <v>3.8</v>
       </c>
       <c r="H8" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="I8" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
         <v>4.1</v>
@@ -1525,10 +1525,10 @@
         <v>2.14</v>
       </c>
       <c r="V8" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="W8" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="X8" t="n">
         <v>17.5</v>
@@ -1579,7 +1579,7 @@
         <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>40</v>
+        <v>600</v>
       </c>
       <c r="AO8" t="n">
         <v>17.5</v>
@@ -1651,7 +1651,7 @@
         <v>1.21</v>
       </c>
       <c r="S9" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T9" t="n">
         <v>2.04</v>
@@ -1714,7 +1714,7 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1753,13 +1753,13 @@
         <v>1.35</v>
       </c>
       <c r="H10" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="I10" t="n">
         <v>12</v>
       </c>
       <c r="J10" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="K10" t="n">
         <v>6</v>
@@ -1786,13 +1786,13 @@
         <v>1.58</v>
       </c>
       <c r="S10" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T10" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U10" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="V10" t="n">
         <v>1.09</v>
@@ -1804,7 +1804,7 @@
         <v>23</v>
       </c>
       <c r="Y10" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Z10" t="n">
         <v>110</v>
@@ -1849,7 +1849,7 @@
         <v>150</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AO10" t="n">
         <v>200</v>
@@ -1885,7 +1885,7 @@
         <v>5.6</v>
       </c>
       <c r="G11" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="H11" t="n">
         <v>1.68</v>
@@ -1894,10 +1894,10 @@
         <v>1.69</v>
       </c>
       <c r="J11" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K11" t="n">
         <v>4.4</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4.5</v>
       </c>
       <c r="L11" t="n">
         <v>1.31</v>
@@ -1915,10 +1915,10 @@
         <v>2.38</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R11" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S11" t="n">
         <v>2.72</v>
@@ -1930,7 +1930,7 @@
         <v>2.28</v>
       </c>
       <c r="V11" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="W11" t="n">
         <v>1.21</v>
@@ -1960,7 +1960,7 @@
         <v>15.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG11" t="n">
         <v>21</v>
@@ -1969,7 +1969,7 @@
         <v>18</v>
       </c>
       <c r="AI11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ11" t="n">
         <v>140</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="G13" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="H13" t="n">
         <v>4.1</v>
       </c>
       <c r="I13" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J13" t="n">
         <v>3.8</v>
@@ -2191,7 +2191,7 @@
         <v>1.58</v>
       </c>
       <c r="S13" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="T13" t="n">
         <v>1.59</v>
@@ -2200,22 +2200,22 @@
         <v>2.52</v>
       </c>
       <c r="V13" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W13" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X13" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y13" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="Z13" t="n">
         <v>34</v>
       </c>
       <c r="AA13" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AB13" t="n">
         <v>13</v>
@@ -2239,7 +2239,7 @@
         <v>15</v>
       </c>
       <c r="AI13" t="n">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="AJ13" t="n">
         <v>24</v>
@@ -2248,7 +2248,7 @@
         <v>18.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM13" t="n">
         <v>580</v>
@@ -2344,7 +2344,7 @@
         <v>16.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z14" t="n">
         <v>23</v>
@@ -2356,7 +2356,7 @@
         <v>12</v>
       </c>
       <c r="AC14" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD14" t="n">
         <v>13.5</v>
@@ -2365,7 +2365,7 @@
         <v>34</v>
       </c>
       <c r="AF14" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG14" t="n">
         <v>11</v>
@@ -2377,7 +2377,7 @@
         <v>40</v>
       </c>
       <c r="AJ14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK14" t="n">
         <v>23</v>
@@ -2422,13 +2422,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G15" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="H15" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
         <v>3.4</v>
@@ -2452,28 +2452,28 @@
         <v>1.31</v>
       </c>
       <c r="P15" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="R15" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S15" t="n">
         <v>3.35</v>
       </c>
       <c r="T15" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U15" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="V15" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W15" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="X15" t="n">
         <v>15</v>
@@ -2488,7 +2488,7 @@
         <v>60</v>
       </c>
       <c r="AB15" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC15" t="n">
         <v>7.8</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="G16" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="H16" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="I16" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="J16" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K16" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L16" t="n">
         <v>1.28</v>
@@ -2599,16 +2599,16 @@
         <v>2.36</v>
       </c>
       <c r="T16" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U16" t="n">
         <v>2.26</v>
       </c>
       <c r="V16" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="W16" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="X16" t="n">
         <v>27</v>
@@ -2638,7 +2638,7 @@
         <v>65</v>
       </c>
       <c r="AG16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH16" t="n">
         <v>21</v>
@@ -2647,13 +2647,13 @@
         <v>26</v>
       </c>
       <c r="AJ16" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="AK16" t="n">
         <v>85</v>
       </c>
       <c r="AL16" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM16" t="n">
         <v>85</v>
@@ -2662,7 +2662,7 @@
         <v>80</v>
       </c>
       <c r="AO16" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="17">
@@ -2704,10 +2704,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="J17" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K17" t="n">
         <v>6.6</v>
-      </c>
-      <c r="K17" t="n">
-        <v>6.8</v>
       </c>
       <c r="L17" t="n">
         <v>1.21</v>
@@ -2722,7 +2722,7 @@
         <v>1.11</v>
       </c>
       <c r="P17" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Q17" t="n">
         <v>1.35</v>
@@ -2743,16 +2743,16 @@
         <v>1.11</v>
       </c>
       <c r="W17" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="X17" t="n">
         <v>48</v>
       </c>
       <c r="Y17" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Z17" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AA17" t="n">
         <v>310</v>
@@ -2767,7 +2767,7 @@
         <v>34</v>
       </c>
       <c r="AE17" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AF17" t="n">
         <v>12</v>
@@ -2788,7 +2788,7 @@
         <v>12</v>
       </c>
       <c r="AL17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM17" t="n">
         <v>75</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="G18" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="I18" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J18" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="K18" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="L18" t="n">
         <v>1.26</v>
@@ -2857,37 +2857,37 @@
         <v>1.19</v>
       </c>
       <c r="P18" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R18" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S18" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="T18" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="U18" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V18" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W18" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="X18" t="n">
         <v>25</v>
       </c>
       <c r="Y18" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z18" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AA18" t="n">
         <v>290</v>
@@ -2896,10 +2896,10 @@
         <v>11</v>
       </c>
       <c r="AC18" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AE18" t="n">
         <v>130</v>
@@ -2911,7 +2911,7 @@
         <v>11</v>
       </c>
       <c r="AH18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI18" t="n">
         <v>110</v>
@@ -2932,7 +2932,7 @@
         <v>4.8</v>
       </c>
       <c r="AO18" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19">
@@ -2965,13 +2965,13 @@
         <v>1.74</v>
       </c>
       <c r="G19" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="H19" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I19" t="n">
         <v>5.2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>5.3</v>
       </c>
       <c r="J19" t="n">
         <v>4.2</v>
@@ -2992,7 +2992,7 @@
         <v>1.2</v>
       </c>
       <c r="P19" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="Q19" t="n">
         <v>1.61</v>
@@ -3001,7 +3001,7 @@
         <v>1.63</v>
       </c>
       <c r="S19" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="T19" t="n">
         <v>1.64</v>
@@ -3028,31 +3028,31 @@
         <v>120</v>
       </c>
       <c r="AB19" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD19" t="n">
         <v>19.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF19" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH19" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI19" t="n">
         <v>55</v>
       </c>
       <c r="AJ19" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AK19" t="n">
         <v>15.5</v>
@@ -3067,7 +3067,7 @@
         <v>7.4</v>
       </c>
       <c r="AO19" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="G20" t="n">
         <v>3.5</v>
       </c>
       <c r="H20" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>2.76</v>
       </c>
       <c r="J20" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="K20" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
@@ -3130,10 +3130,10 @@
         <v>1.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S20" t="n">
         <v>3.3</v>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="F21" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G21" t="n">
         <v>2.7</v>
-      </c>
-      <c r="G21" t="n">
-        <v>2.72</v>
       </c>
       <c r="H21" t="n">
         <v>2.76</v>
@@ -3295,7 +3295,7 @@
         <v>21</v>
       </c>
       <c r="AA21" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AB21" t="n">
         <v>15</v>
@@ -3325,7 +3325,7 @@
         <v>40</v>
       </c>
       <c r="AK21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL21" t="n">
         <v>32</v>
@@ -3337,7 +3337,7 @@
         <v>16.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="22">
@@ -3520,7 +3520,7 @@
         <v>4</v>
       </c>
       <c r="L23" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M23" t="n">
         <v>1.06</v>
@@ -3535,7 +3535,7 @@
         <v>2.12</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R23" t="n">
         <v>1.42</v>
@@ -3550,7 +3550,7 @@
         <v>2.24</v>
       </c>
       <c r="V23" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W23" t="n">
         <v>2</v>
@@ -3565,7 +3565,7 @@
         <v>100</v>
       </c>
       <c r="AA23" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB23" t="n">
         <v>10</v>
@@ -3577,7 +3577,7 @@
         <v>17</v>
       </c>
       <c r="AE23" t="n">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AF23" t="n">
         <v>13</v>
@@ -3607,7 +3607,7 @@
         <v>12.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>980</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24">
@@ -3664,7 +3664,7 @@
         <v>1.25</v>
       </c>
       <c r="O24" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="P24" t="n">
         <v>1.24</v>
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.54</v>
+        <v>1.42</v>
       </c>
       <c r="G25" t="n">
-        <v>1000</v>
+        <v>2.5</v>
       </c>
       <c r="H25" t="n">
         <v>2.7</v>
@@ -3784,10 +3784,10 @@
         <v>1000</v>
       </c>
       <c r="J25" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K25" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3823,7 +3823,7 @@
         <v>1.19</v>
       </c>
       <c r="W25" t="n">
-        <v>1.59</v>
+        <v>1.74</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -3907,25 +3907,25 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G26" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="H26" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I26" t="n">
         <v>3.8</v>
       </c>
       <c r="J26" t="n">
-        <v>3.05</v>
+        <v>2.86</v>
       </c>
       <c r="K26" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="L26" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M26" t="n">
         <v>1.09</v>
@@ -3934,7 +3934,7 @@
         <v>2.74</v>
       </c>
       <c r="O26" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P26" t="n">
         <v>1.69</v>
@@ -3949,7 +3949,7 @@
         <v>3.45</v>
       </c>
       <c r="T26" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U26" t="n">
         <v>1.92</v>
@@ -3958,7 +3958,7 @@
         <v>1.35</v>
       </c>
       <c r="W26" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="X26" t="n">
         <v>12</v>
@@ -3997,7 +3997,7 @@
         <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AK26" t="n">
         <v>32</v>
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="G27" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="H27" t="n">
         <v>5.7</v>
       </c>
       <c r="I27" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="J27" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K27" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L27" t="n">
         <v>1.39</v>
@@ -4066,10 +4066,10 @@
         <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="O27" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P27" t="n">
         <v>1.71</v>
@@ -4078,7 +4078,7 @@
         <v>2.2</v>
       </c>
       <c r="R27" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S27" t="n">
         <v>4.3</v>
@@ -4087,13 +4087,13 @@
         <v>2.08</v>
       </c>
       <c r="U27" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V27" t="n">
         <v>1.18</v>
       </c>
       <c r="W27" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="X27" t="n">
         <v>21</v>
@@ -4177,10 +4177,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="G28" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="H28" t="n">
         <v>4.8</v>
@@ -4204,10 +4204,10 @@
         <v>2.44</v>
       </c>
       <c r="O28" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="P28" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="Q28" t="n">
         <v>2.94</v>
@@ -4219,7 +4219,7 @@
         <v>6.2</v>
       </c>
       <c r="T28" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="U28" t="n">
         <v>1.66</v>
@@ -4228,13 +4228,13 @@
         <v>1.23</v>
       </c>
       <c r="W28" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="X28" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="Y28" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z28" t="n">
         <v>980</v>
@@ -4243,7 +4243,7 @@
         <v>150</v>
       </c>
       <c r="AB28" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AC28" t="n">
         <v>7.2</v>
@@ -4261,7 +4261,7 @@
         <v>12.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AI28" t="n">
         <v>140</v>
@@ -4279,7 +4279,7 @@
         <v>290</v>
       </c>
       <c r="AN28" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4312,10 +4312,10 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="G29" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="H29" t="n">
         <v>2.08</v>
@@ -4336,7 +4336,7 @@
         <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O29" t="n">
         <v>1.31</v>
@@ -4348,13 +4348,13 @@
         <v>1.91</v>
       </c>
       <c r="R29" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S29" t="n">
         <v>3.35</v>
       </c>
       <c r="T29" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="U29" t="n">
         <v>2.14</v>
@@ -4363,16 +4363,16 @@
         <v>1.86</v>
       </c>
       <c r="W29" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="X29" t="n">
         <v>15.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z29" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA29" t="n">
         <v>1000</v>
@@ -4393,7 +4393,7 @@
         <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH29" t="n">
         <v>1000</v>
@@ -4417,7 +4417,7 @@
         <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
@@ -4453,7 +4453,7 @@
         <v>1.66</v>
       </c>
       <c r="H30" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="I30" t="n">
         <v>7.2</v>
@@ -4462,7 +4462,7 @@
         <v>4.3</v>
       </c>
       <c r="K30" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="L30" t="n">
         <v>1.29</v>
@@ -4471,16 +4471,16 @@
         <v>1.05</v>
       </c>
       <c r="N30" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="O30" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P30" t="n">
         <v>2.14</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="R30" t="n">
         <v>1.44</v>
@@ -4489,7 +4489,7 @@
         <v>2.84</v>
       </c>
       <c r="T30" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U30" t="n">
         <v>2</v>
@@ -4516,7 +4516,7 @@
         <v>1000</v>
       </c>
       <c r="AC30" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD30" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
@@ -667,94 +667,94 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="I2" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="J2" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P2" t="n">
         <v>2.28</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="R2" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S2" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="T2" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="U2" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V2" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="W2" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="X2" t="n">
         <v>25</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="AC2" t="n">
         <v>12.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AH2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
@@ -772,7 +772,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="3">
@@ -802,109 +802,109 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="G3" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="H3" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="I3" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="J3" t="n">
         <v>3.4</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="P3" t="n">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.08</v>
+        <v>1.96</v>
       </c>
       <c r="R3" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="S3" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="T3" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="U3" t="n">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="V3" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="W3" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X3" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="Y3" t="n">
         <v>17</v>
       </c>
       <c r="Z3" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG3" t="n">
         <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI3" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL3" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AM3" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,58 +937,58 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="G4" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="H4" t="n">
         <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="L4" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R4" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S4" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="T4" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U4" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V4" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="W4" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1006,7 +1006,7 @@
         <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
@@ -1081,28 +1081,28 @@
         <v>3.05</v>
       </c>
       <c r="I5" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J5" t="n">
         <v>3.05</v>
       </c>
       <c r="K5" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L5" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="M5" t="n">
         <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="O5" t="n">
         <v>1.39</v>
       </c>
       <c r="P5" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q5" t="n">
         <v>2.16</v>
@@ -1111,16 +1111,16 @@
         <v>1.25</v>
       </c>
       <c r="S5" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="T5" t="n">
         <v>1.84</v>
       </c>
       <c r="U5" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V5" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W5" t="n">
         <v>1.58</v>
@@ -1207,88 +1207,88 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="G6" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="H6" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="I6" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="J6" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="K6" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O6" t="n">
         <v>1.32</v>
       </c>
       <c r="P6" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="R6" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S6" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="U6" t="n">
         <v>1.87</v>
       </c>
       <c r="V6" t="n">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
       <c r="W6" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="X6" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD6" t="n">
         <v>11</v>
       </c>
       <c r="AE6" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AF6" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AH6" t="n">
         <v>23</v>
@@ -1312,7 +1312,7 @@
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="7">
@@ -1342,55 +1342,55 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="G7" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="H7" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="I7" t="n">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="J7" t="n">
-        <v>3.85</v>
+        <v>4.5</v>
       </c>
       <c r="K7" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P7" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R7" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S7" t="n">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="T7" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="U7" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="V7" t="n">
-        <v>2.66</v>
+        <v>2.96</v>
       </c>
       <c r="W7" t="n">
         <v>1.13</v>
@@ -1399,10 +1399,10 @@
         <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.5</v>
+        <v>29</v>
       </c>
       <c r="Z7" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="AA7" t="n">
         <v>900</v>
@@ -1414,7 +1414,7 @@
         <v>42</v>
       </c>
       <c r="AD7" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="G8" t="n">
         <v>3.8</v>
@@ -1495,13 +1495,13 @@
         <v>4.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O8" t="n">
         <v>1.27</v>
@@ -1513,10 +1513,10 @@
         <v>1.8</v>
       </c>
       <c r="R8" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S8" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="T8" t="n">
         <v>1.67</v>
@@ -1528,7 +1528,7 @@
         <v>1.7</v>
       </c>
       <c r="W8" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="X8" t="n">
         <v>17.5</v>
@@ -1630,22 +1630,22 @@
         <v>3.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="O9" t="n">
         <v>1.48</v>
       </c>
       <c r="P9" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="R9" t="n">
         <v>1.21</v>
@@ -1666,7 +1666,7 @@
         <v>1.81</v>
       </c>
       <c r="X9" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="Y9" t="n">
         <v>13</v>
@@ -1681,7 +1681,7 @@
         <v>7.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD9" t="n">
         <v>19.5</v>
@@ -1756,7 +1756,7 @@
         <v>11</v>
       </c>
       <c r="I10" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="J10" t="n">
         <v>5.8</v>
@@ -1765,7 +1765,7 @@
         <v>6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
@@ -1774,25 +1774,25 @@
         <v>5.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R10" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S10" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="T10" t="n">
         <v>2.06</v>
       </c>
       <c r="U10" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="V10" t="n">
         <v>1.09</v>
@@ -1801,19 +1801,19 @@
         <v>3.85</v>
       </c>
       <c r="X10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y10" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Z10" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AA10" t="n">
         <v>450</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC10" t="n">
         <v>13</v>
@@ -1828,10 +1828,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI10" t="n">
         <v>140</v>
@@ -1843,10 +1843,10 @@
         <v>13.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM10" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN10" t="n">
         <v>5</v>
@@ -1900,13 +1900,13 @@
         <v>4.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O11" t="n">
         <v>1.23</v>
@@ -1921,7 +1921,7 @@
         <v>1.56</v>
       </c>
       <c r="S11" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T11" t="n">
         <v>1.74</v>
@@ -1933,10 +1933,10 @@
         <v>2.44</v>
       </c>
       <c r="W11" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="X11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y11" t="n">
         <v>11</v>
@@ -1954,7 +1954,7 @@
         <v>9.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE11" t="n">
         <v>15.5</v>
@@ -1987,7 +1987,7 @@
         <v>60</v>
       </c>
       <c r="AO11" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="12">
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="H13" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J13" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K13" t="n">
         <v>3.9</v>
@@ -2176,40 +2176,40 @@
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P13" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="R13" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="T13" t="n">
         <v>1.58</v>
       </c>
-      <c r="S13" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.59</v>
-      </c>
       <c r="U13" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="V13" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="W13" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="X13" t="n">
         <v>22</v>
       </c>
       <c r="Y13" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="Z13" t="n">
         <v>34</v>
@@ -2218,10 +2218,10 @@
         <v>190</v>
       </c>
       <c r="AB13" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD13" t="n">
         <v>17</v>
@@ -2239,7 +2239,7 @@
         <v>15</v>
       </c>
       <c r="AI13" t="n">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="AJ13" t="n">
         <v>24</v>
@@ -2251,10 +2251,10 @@
         <v>34</v>
       </c>
       <c r="AM13" t="n">
-        <v>580</v>
+        <v>65</v>
       </c>
       <c r="AN13" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AO13" t="n">
         <v>32</v>
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G14" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="H14" t="n">
         <v>3.3</v>
@@ -2305,7 +2305,7 @@
         <v>3.65</v>
       </c>
       <c r="L14" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
@@ -2317,31 +2317,31 @@
         <v>1.28</v>
       </c>
       <c r="P14" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R14" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S14" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T14" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U14" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V14" t="n">
         <v>1.42</v>
       </c>
       <c r="W14" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="X14" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y14" t="n">
         <v>14</v>
@@ -2350,10 +2350,10 @@
         <v>23</v>
       </c>
       <c r="AA14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB14" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC14" t="n">
         <v>7.8</v>
@@ -2425,13 +2425,13 @@
         <v>2.38</v>
       </c>
       <c r="G15" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H15" t="n">
         <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J15" t="n">
         <v>3.55</v>
@@ -2440,13 +2440,13 @@
         <v>3.6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O15" t="n">
         <v>1.31</v>
@@ -2455,16 +2455,16 @@
         <v>2.04</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="R15" t="n">
         <v>1.4</v>
       </c>
       <c r="S15" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T15" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="U15" t="n">
         <v>2.28</v>
@@ -2476,7 +2476,7 @@
         <v>1.71</v>
       </c>
       <c r="X15" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y15" t="n">
         <v>13.5</v>
@@ -2485,7 +2485,7 @@
         <v>23</v>
       </c>
       <c r="AA15" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB15" t="n">
         <v>10.5</v>
@@ -2497,7 +2497,7 @@
         <v>14</v>
       </c>
       <c r="AE15" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF15" t="n">
         <v>15</v>
@@ -2506,7 +2506,7 @@
         <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI15" t="n">
         <v>46</v>
@@ -2515,10 +2515,10 @@
         <v>32</v>
       </c>
       <c r="AK15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL15" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM15" t="n">
         <v>85</v>
@@ -2557,112 +2557,112 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="G16" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="H16" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="I16" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="J16" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K16" t="n">
         <v>5.2</v>
       </c>
-      <c r="K16" t="n">
-        <v>5.3</v>
-      </c>
       <c r="L16" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P16" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="R16" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="S16" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="T16" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U16" t="n">
         <v>2.26</v>
       </c>
       <c r="V16" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="W16" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="X16" t="n">
         <v>27</v>
       </c>
       <c r="Y16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z16" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA16" t="n">
         <v>14.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AC16" t="n">
         <v>11.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE16" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF16" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI16" t="n">
         <v>26</v>
       </c>
       <c r="AJ16" t="n">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="AK16" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL16" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM16" t="n">
         <v>85</v>
       </c>
       <c r="AN16" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AO16" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="17">
@@ -2695,13 +2695,13 @@
         <v>1.34</v>
       </c>
       <c r="G17" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="H17" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="I17" t="n">
         <v>9.6</v>
-      </c>
-      <c r="I17" t="n">
-        <v>9.800000000000001</v>
       </c>
       <c r="J17" t="n">
         <v>6.4</v>
@@ -2734,7 +2734,7 @@
         <v>1.88</v>
       </c>
       <c r="T17" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U17" t="n">
         <v>2.44</v>
@@ -2746,16 +2746,16 @@
         <v>3.85</v>
       </c>
       <c r="X17" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Y17" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Z17" t="n">
         <v>100</v>
       </c>
       <c r="AA17" t="n">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="AB17" t="n">
         <v>16.5</v>
@@ -2797,7 +2797,7 @@
         <v>3.4</v>
       </c>
       <c r="AO17" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
@@ -2827,73 +2827,73 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="G18" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="H18" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I18" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="J18" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K18" t="n">
         <v>5.3</v>
       </c>
-      <c r="K18" t="n">
-        <v>5.4</v>
-      </c>
       <c r="L18" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="O18" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P18" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S18" t="n">
         <v>2.64</v>
       </c>
-      <c r="Q18" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.44</v>
-      </c>
       <c r="T18" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="U18" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="V18" t="n">
         <v>1.11</v>
       </c>
       <c r="W18" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="X18" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y18" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Z18" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AA18" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AB18" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC18" t="n">
         <v>11.5</v>
@@ -2902,19 +2902,19 @@
         <v>32</v>
       </c>
       <c r="AE18" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF18" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH18" t="n">
         <v>23</v>
       </c>
       <c r="AI18" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ18" t="n">
         <v>12</v>
@@ -2926,13 +2926,13 @@
         <v>29</v>
       </c>
       <c r="AM18" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19">
@@ -2962,25 +2962,25 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="G19" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="H19" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="I19" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="J19" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K19" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
@@ -2989,34 +2989,34 @@
         <v>5.8</v>
       </c>
       <c r="O19" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P19" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="R19" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="S19" t="n">
         <v>2.48</v>
       </c>
       <c r="T19" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="U19" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="V19" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W19" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="X19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y19" t="n">
         <v>26</v>
@@ -3025,22 +3025,22 @@
         <v>46</v>
       </c>
       <c r="AA19" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB19" t="n">
         <v>12</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AD19" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE19" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF19" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG19" t="n">
         <v>9.800000000000001</v>
@@ -3052,10 +3052,10 @@
         <v>55</v>
       </c>
       <c r="AJ19" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL19" t="n">
         <v>25</v>
@@ -3064,10 +3064,10 @@
         <v>70</v>
       </c>
       <c r="AN19" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AO19" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20">
@@ -3097,55 +3097,55 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="G20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H20" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="I20" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="J20" t="n">
         <v>3.05</v>
       </c>
       <c r="K20" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M20" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N20" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P20" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="R20" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="S20" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="T20" t="n">
-        <v>1.05</v>
+        <v>1.83</v>
       </c>
       <c r="U20" t="n">
-        <v>1.04</v>
+        <v>1.98</v>
       </c>
       <c r="V20" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="W20" t="n">
         <v>1.41</v>
@@ -3250,16 +3250,16 @@
         <v>3.75</v>
       </c>
       <c r="L21" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M21" t="n">
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P21" t="n">
         <v>2.38</v>
@@ -3271,7 +3271,7 @@
         <v>1.57</v>
       </c>
       <c r="S21" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="T21" t="n">
         <v>1.59</v>
@@ -3286,7 +3286,7 @@
         <v>1.58</v>
       </c>
       <c r="X21" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y21" t="n">
         <v>15</v>
@@ -3295,7 +3295,7 @@
         <v>21</v>
       </c>
       <c r="AA21" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB21" t="n">
         <v>15</v>
@@ -3370,28 +3370,28 @@
         <v>2.56</v>
       </c>
       <c r="G22" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="H22" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="I22" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J22" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="K22" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L22" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="M22" t="n">
         <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O22" t="n">
         <v>1.35</v>
@@ -3400,7 +3400,7 @@
         <v>1.78</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="R22" t="n">
         <v>1.3</v>
@@ -3412,10 +3412,10 @@
         <v>1.76</v>
       </c>
       <c r="U22" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V22" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="W22" t="n">
         <v>1.52</v>
@@ -3424,7 +3424,7 @@
         <v>15.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Z22" t="n">
         <v>21</v>
@@ -3433,7 +3433,7 @@
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AC22" t="n">
         <v>8.199999999999999</v>
@@ -3451,7 +3451,7 @@
         <v>13.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AI22" t="n">
         <v>1000</v>
@@ -3460,7 +3460,7 @@
         <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL22" t="n">
         <v>1000</v>
@@ -3469,10 +3469,10 @@
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AO22" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
@@ -3511,7 +3511,7 @@
         <v>4.1</v>
       </c>
       <c r="I23" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J23" t="n">
         <v>3.75</v>
@@ -3526,7 +3526,7 @@
         <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O23" t="n">
         <v>1.28</v>
@@ -3535,34 +3535,34 @@
         <v>2.12</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="R23" t="n">
         <v>1.42</v>
       </c>
       <c r="S23" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T23" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U23" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V23" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W23" t="n">
         <v>2</v>
       </c>
       <c r="X23" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y23" t="n">
         <v>16.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AA23" t="n">
         <v>85</v>
@@ -3571,16 +3571,16 @@
         <v>10</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD23" t="n">
         <v>17</v>
       </c>
       <c r="AE23" t="n">
-        <v>980</v>
+        <v>220</v>
       </c>
       <c r="AF23" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG23" t="n">
         <v>10.5</v>
@@ -3598,10 +3598,10 @@
         <v>23</v>
       </c>
       <c r="AL23" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AM23" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN23" t="n">
         <v>12.5</v>
@@ -3655,28 +3655,28 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M24" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>1.25</v>
+        <v>3.85</v>
       </c>
       <c r="O24" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P24" t="n">
-        <v>1.24</v>
+        <v>1.92</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.38</v>
+        <v>1.97</v>
       </c>
       <c r="R24" t="n">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="S24" t="n">
-        <v>1.38</v>
+        <v>3.35</v>
       </c>
       <c r="T24" t="n">
         <v>1.04</v>
@@ -3925,13 +3925,13 @@
         <v>3.45</v>
       </c>
       <c r="L26" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="M26" t="n">
         <v>1.09</v>
       </c>
       <c r="N26" t="n">
-        <v>2.74</v>
+        <v>2.96</v>
       </c>
       <c r="O26" t="n">
         <v>1.4</v>
@@ -3940,13 +3940,13 @@
         <v>1.69</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R26" t="n">
         <v>1.26</v>
       </c>
       <c r="S26" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="T26" t="n">
         <v>1.86</v>
@@ -4045,28 +4045,28 @@
         <v>1.73</v>
       </c>
       <c r="G27" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="H27" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="I27" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J27" t="n">
         <v>3.55</v>
       </c>
       <c r="K27" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L27" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="M27" t="n">
         <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O27" t="n">
         <v>1.42</v>
@@ -4075,7 +4075,7 @@
         <v>1.71</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="R27" t="n">
         <v>1.26</v>
@@ -4087,7 +4087,7 @@
         <v>2.08</v>
       </c>
       <c r="U27" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="V27" t="n">
         <v>1.18</v>
@@ -4105,7 +4105,7 @@
         <v>1000</v>
       </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AB27" t="n">
         <v>13.5</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="G28" t="n">
         <v>2.14</v>
@@ -4186,70 +4186,70 @@
         <v>4.8</v>
       </c>
       <c r="I28" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J28" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="K28" t="n">
         <v>3.15</v>
       </c>
       <c r="L28" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S28" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U28" t="n">
         <v>1.62</v>
       </c>
-      <c r="M28" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N28" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S28" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.66</v>
-      </c>
       <c r="V28" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W28" t="n">
         <v>1.87</v>
       </c>
       <c r="X28" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Y28" t="n">
         <v>12</v>
       </c>
       <c r="Z28" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AA28" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AB28" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AC28" t="n">
         <v>7.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE28" t="n">
         <v>1000</v>
@@ -4258,28 +4258,28 @@
         <v>11.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH28" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AI28" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="AJ28" t="n">
         <v>29</v>
       </c>
       <c r="AK28" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AL28" t="n">
         <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="AN28" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4312,13 +4312,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="G29" t="n">
         <v>4.1</v>
       </c>
       <c r="H29" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="I29" t="n">
         <v>2.16</v>
@@ -4351,10 +4351,10 @@
         <v>1.38</v>
       </c>
       <c r="S29" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T29" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U29" t="n">
         <v>2.14</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="G30" t="n">
         <v>1.66</v>
       </c>
       <c r="H30" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="I30" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="J30" t="n">
         <v>4.3</v>
       </c>
       <c r="K30" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="L30" t="n">
         <v>1.29</v>
@@ -4471,16 +4471,16 @@
         <v>1.05</v>
       </c>
       <c r="N30" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="O30" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P30" t="n">
         <v>2.14</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R30" t="n">
         <v>1.44</v>
@@ -4489,13 +4489,13 @@
         <v>2.84</v>
       </c>
       <c r="T30" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U30" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V30" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W30" t="n">
         <v>2.5</v>
@@ -4516,7 +4516,7 @@
         <v>1000</v>
       </c>
       <c r="AC30" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD30" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
@@ -667,94 +667,94 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I2" t="n">
         <v>1.41</v>
       </c>
-      <c r="I2" t="n">
-        <v>1.46</v>
-      </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="K2" t="n">
         <v>6.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="P2" t="n">
-        <v>2.28</v>
+        <v>2.52</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="R2" t="n">
-        <v>1.49</v>
+        <v>1.62</v>
       </c>
       <c r="S2" t="n">
-        <v>2.7</v>
+        <v>2.44</v>
       </c>
       <c r="T2" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U2" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="V2" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="W2" t="n">
         <v>1.11</v>
       </c>
       <c r="X2" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AA2" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB2" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AC2" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AD2" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AH2" t="n">
         <v>29</v>
       </c>
       <c r="AI2" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
@@ -772,7 +772,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>6.8</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="3">
@@ -802,109 +802,109 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="G3" t="n">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="H3" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="J3" t="n">
         <v>3.4</v>
       </c>
       <c r="K3" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L3" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O3" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="P3" t="n">
         <v>1.84</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
         <v>1.32</v>
       </c>
       <c r="S3" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="U3" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="V3" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="W3" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="X3" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z3" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AF3" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG3" t="n">
         <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AK3" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL3" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN3" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="G4" t="n">
         <v>2.74</v>
@@ -952,7 +952,7 @@
         <v>3.2</v>
       </c>
       <c r="K4" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L4" t="n">
         <v>1.43</v>
@@ -964,16 +964,16 @@
         <v>3.3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="P4" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="R4" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S4" t="n">
         <v>3.45</v>
@@ -985,10 +985,10 @@
         <v>2.02</v>
       </c>
       <c r="V4" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="W4" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1027,7 +1027,7 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AK4" t="n">
         <v>1000</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="G5" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="H5" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J5" t="n">
         <v>3.05</v>
       </c>
       <c r="K5" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L5" t="n">
         <v>1.48</v>
@@ -1102,28 +1102,28 @@
         <v>1.39</v>
       </c>
       <c r="P5" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R5" t="n">
         <v>1.25</v>
       </c>
       <c r="S5" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T5" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="U5" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="V5" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="W5" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1138,7 +1138,7 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
         <v>42</v>
@@ -1162,7 +1162,7 @@
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
         <v>1000</v>
@@ -1207,25 +1207,25 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="G6" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="H6" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="I6" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="J6" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="K6" t="n">
         <v>4.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
@@ -1234,7 +1234,7 @@
         <v>3.35</v>
       </c>
       <c r="O6" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="P6" t="n">
         <v>1.83</v>
@@ -1252,10 +1252,10 @@
         <v>1.9</v>
       </c>
       <c r="U6" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="V6" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="W6" t="n">
         <v>1.19</v>
@@ -1273,7 +1273,7 @@
         <v>18.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC6" t="n">
         <v>9.800000000000001</v>
@@ -1285,16 +1285,16 @@
         <v>20</v>
       </c>
       <c r="AF6" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
         <v>25</v>
       </c>
       <c r="AH6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI6" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AJ6" t="n">
         <v>1000</v>
@@ -1348,13 +1348,13 @@
         <v>10.5</v>
       </c>
       <c r="H7" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="I7" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="J7" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K7" t="n">
         <v>5.7</v>
@@ -1375,22 +1375,22 @@
         <v>2.06</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R7" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S7" t="n">
         <v>2.78</v>
       </c>
       <c r="T7" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="U7" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V7" t="n">
-        <v>2.96</v>
+        <v>2.84</v>
       </c>
       <c r="W7" t="n">
         <v>1.13</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G8" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="H8" t="n">
         <v>2.12</v>
       </c>
       <c r="I8" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="J8" t="n">
         <v>3.4</v>
       </c>
       <c r="K8" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
         <v>1.38</v>
@@ -1510,10 +1510,10 @@
         <v>1.98</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R8" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S8" t="n">
         <v>3.05</v>
@@ -1528,7 +1528,7 @@
         <v>1.7</v>
       </c>
       <c r="W8" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X8" t="n">
         <v>17.5</v>
@@ -1582,7 +1582,7 @@
         <v>600</v>
       </c>
       <c r="AO8" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
@@ -1618,10 +1618,10 @@
         <v>2.22</v>
       </c>
       <c r="H9" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I9" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J9" t="n">
         <v>3.05</v>
@@ -1642,7 +1642,7 @@
         <v>1.48</v>
       </c>
       <c r="P9" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q9" t="n">
         <v>2.46</v>
@@ -1702,19 +1702,19 @@
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="AK9" t="n">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>600</v>
+        <v>48</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1756,13 +1756,13 @@
         <v>11</v>
       </c>
       <c r="I10" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="J10" t="n">
         <v>5.8</v>
       </c>
       <c r="K10" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L10" t="n">
         <v>1.32</v>
@@ -1771,28 +1771,28 @@
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P10" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R10" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S10" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="T10" t="n">
         <v>2.06</v>
       </c>
       <c r="U10" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="V10" t="n">
         <v>1.09</v>
@@ -1801,19 +1801,19 @@
         <v>3.85</v>
       </c>
       <c r="X10" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y10" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z10" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AA10" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC10" t="n">
         <v>13</v>
@@ -1831,7 +1831,7 @@
         <v>10.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI10" t="n">
         <v>140</v>
@@ -1849,7 +1849,7 @@
         <v>160</v>
       </c>
       <c r="AN10" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="AO10" t="n">
         <v>200</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="G11" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="H11" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="I11" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="J11" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K11" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L11" t="n">
         <v>1.33</v>
@@ -1906,7 +1906,7 @@
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="O11" t="n">
         <v>1.23</v>
@@ -1921,43 +1921,43 @@
         <v>1.56</v>
       </c>
       <c r="S11" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="T11" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U11" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V11" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="W11" t="n">
         <v>1.2</v>
       </c>
       <c r="X11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y11" t="n">
         <v>11</v>
       </c>
       <c r="Z11" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AB11" t="n">
         <v>23</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF11" t="n">
         <v>46</v>
@@ -1987,7 +1987,7 @@
         <v>60</v>
       </c>
       <c r="AO11" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="12">
@@ -2023,7 +2023,7 @@
         <v>1000</v>
       </c>
       <c r="H12" t="n">
-        <v>1.04</v>
+        <v>1.25</v>
       </c>
       <c r="I12" t="n">
         <v>1000</v>
@@ -2032,7 +2032,7 @@
         <v>2.34</v>
       </c>
       <c r="K12" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
@@ -2041,7 +2041,7 @@
         <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>1.32</v>
+        <v>1.1</v>
       </c>
       <c r="O12" t="n">
         <v>1.08</v>
@@ -2152,112 +2152,112 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="G13" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N13" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W13" t="n">
         <v>2.02</v>
       </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.98</v>
-      </c>
       <c r="X13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z13" t="n">
         <v>34</v>
       </c>
       <c r="AA13" t="n">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="AB13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD13" t="n">
         <v>17</v>
       </c>
       <c r="AE13" t="n">
-        <v>42</v>
+        <v>190</v>
       </c>
       <c r="AF13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG13" t="n">
         <v>10.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="AJ13" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="AK13" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AO13" t="n">
         <v>34</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="G14" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="I14" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="J14" t="n">
         <v>3.6</v>
@@ -2320,52 +2320,52 @@
         <v>2.12</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R14" t="n">
         <v>1.44</v>
       </c>
       <c r="S14" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T14" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U14" t="n">
         <v>2.32</v>
       </c>
       <c r="V14" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="W14" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="X14" t="n">
         <v>16</v>
       </c>
       <c r="Y14" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD14" t="n">
         <v>14</v>
       </c>
-      <c r="Z14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AE14" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF14" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG14" t="n">
         <v>11</v>
@@ -2374,13 +2374,13 @@
         <v>15.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AJ14" t="n">
         <v>29</v>
       </c>
       <c r="AK14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL14" t="n">
         <v>34</v>
@@ -2392,7 +2392,7 @@
         <v>16</v>
       </c>
       <c r="AO14" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G15" t="n">
         <v>2.38</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2.4</v>
       </c>
       <c r="H15" t="n">
         <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J15" t="n">
         <v>3.55</v>
@@ -2455,7 +2455,7 @@
         <v>2.04</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="R15" t="n">
         <v>1.4</v>
@@ -2464,7 +2464,7 @@
         <v>3.4</v>
       </c>
       <c r="T15" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U15" t="n">
         <v>2.28</v>
@@ -2473,10 +2473,10 @@
         <v>1.42</v>
       </c>
       <c r="W15" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X15" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y15" t="n">
         <v>13.5</v>
@@ -2485,7 +2485,7 @@
         <v>23</v>
       </c>
       <c r="AA15" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB15" t="n">
         <v>10.5</v>
@@ -2512,7 +2512,7 @@
         <v>46</v>
       </c>
       <c r="AJ15" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK15" t="n">
         <v>23</v>
@@ -2557,37 +2557,37 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="G16" t="n">
         <v>7</v>
       </c>
       <c r="H16" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="I16" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="J16" t="n">
+        <v>5</v>
+      </c>
+      <c r="K16" t="n">
         <v>5.1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>5.2</v>
       </c>
       <c r="L16" t="n">
         <v>1.29</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="O16" t="n">
         <v>1.2</v>
       </c>
       <c r="P16" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="Q16" t="n">
         <v>1.58</v>
@@ -2596,22 +2596,22 @@
         <v>1.66</v>
       </c>
       <c r="S16" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="T16" t="n">
         <v>1.74</v>
       </c>
       <c r="U16" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="V16" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="W16" t="n">
         <v>1.16</v>
       </c>
       <c r="X16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y16" t="n">
         <v>11</v>
@@ -2623,7 +2623,7 @@
         <v>14.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC16" t="n">
         <v>11.5</v>
@@ -2662,7 +2662,7 @@
         <v>75</v>
       </c>
       <c r="AO16" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="G17" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="H17" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="I17" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="J17" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="K17" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="L17" t="n">
         <v>1.21</v>
@@ -2716,22 +2716,22 @@
         <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="O17" t="n">
         <v>1.11</v>
       </c>
       <c r="P17" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="R17" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="S17" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="T17" t="n">
         <v>1.66</v>
@@ -2740,61 +2740,61 @@
         <v>2.44</v>
       </c>
       <c r="V17" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W17" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="X17" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Y17" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Z17" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AA17" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="AB17" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AD17" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AE17" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AF17" t="n">
         <v>12</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI17" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ17" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK17" t="n">
         <v>12</v>
       </c>
       <c r="AL17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM17" t="n">
         <v>75</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="AO17" t="n">
         <v>80</v>
@@ -2827,73 +2827,73 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="G18" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="H18" t="n">
+        <v>9</v>
+      </c>
+      <c r="I18" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="I18" t="n">
-        <v>9.4</v>
-      </c>
       <c r="J18" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K18" t="n">
         <v>5.2</v>
       </c>
-      <c r="K18" t="n">
-        <v>5.3</v>
-      </c>
       <c r="L18" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="O18" t="n">
         <v>1.22</v>
       </c>
       <c r="P18" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="R18" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S18" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="T18" t="n">
         <v>1.91</v>
       </c>
       <c r="U18" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V18" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W18" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="X18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y18" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Z18" t="n">
         <v>80</v>
       </c>
       <c r="AA18" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC18" t="n">
         <v>11.5</v>
@@ -2905,7 +2905,7 @@
         <v>120</v>
       </c>
       <c r="AF18" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG18" t="n">
         <v>10.5</v>
@@ -2917,19 +2917,19 @@
         <v>100</v>
       </c>
       <c r="AJ18" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK18" t="n">
         <v>13</v>
       </c>
       <c r="AL18" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AM18" t="n">
         <v>120</v>
       </c>
       <c r="AN18" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AO18" t="n">
         <v>150</v>
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="G19" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="H19" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="I19" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="J19" t="n">
         <v>4.4</v>
@@ -2986,88 +2986,88 @@
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="O19" t="n">
         <v>1.19</v>
       </c>
       <c r="P19" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R19" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="S19" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="T19" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="U19" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="V19" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="W19" t="n">
-        <v>2.42</v>
+        <v>2.56</v>
       </c>
       <c r="X19" t="n">
         <v>24</v>
       </c>
       <c r="Y19" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Z19" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AA19" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AB19" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG19" t="n">
         <v>10</v>
       </c>
-      <c r="AD19" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE19" t="n">
+      <c r="AH19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI19" t="n">
         <v>60</v>
       </c>
-      <c r="AF19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH19" t="n">
+      <c r="AJ19" t="n">
         <v>16</v>
       </c>
-      <c r="AI19" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AK19" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL19" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AM19" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN19" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="AO19" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="G20" t="n">
         <v>3.4</v>
@@ -3106,13 +3106,13 @@
         <v>2.44</v>
       </c>
       <c r="I20" t="n">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="J20" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K20" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L20" t="n">
         <v>1.48</v>
@@ -3127,13 +3127,13 @@
         <v>1.39</v>
       </c>
       <c r="P20" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="Q20" t="n">
         <v>2.2</v>
       </c>
       <c r="R20" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S20" t="n">
         <v>4.1</v>
@@ -3145,7 +3145,7 @@
         <v>1.98</v>
       </c>
       <c r="V20" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="W20" t="n">
         <v>1.41</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="H21" t="n">
         <v>2.68</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>2.7</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2.78</v>
       </c>
       <c r="J21" t="n">
         <v>3.7</v>
       </c>
       <c r="K21" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L21" t="n">
         <v>1.35</v>
@@ -3256,10 +3256,10 @@
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P21" t="n">
         <v>2.38</v>
@@ -3268,10 +3268,10 @@
         <v>1.7</v>
       </c>
       <c r="R21" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="S21" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="T21" t="n">
         <v>1.59</v>
@@ -3280,37 +3280,37 @@
         <v>2.6</v>
       </c>
       <c r="V21" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="W21" t="n">
         <v>1.56</v>
       </c>
-      <c r="W21" t="n">
-        <v>1.58</v>
-      </c>
       <c r="X21" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB21" t="n">
         <v>15</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD21" t="n">
         <v>12.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF21" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
         <v>12.5</v>
@@ -3322,7 +3322,7 @@
         <v>32</v>
       </c>
       <c r="AJ21" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AK21" t="n">
         <v>25</v>
@@ -3334,10 +3334,10 @@
         <v>60</v>
       </c>
       <c r="AN21" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
@@ -3367,19 +3367,19 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="G22" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="H22" t="n">
         <v>2.82</v>
       </c>
       <c r="I22" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J22" t="n">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
       <c r="K22" t="n">
         <v>3.65</v>
@@ -3391,25 +3391,25 @@
         <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O22" t="n">
         <v>1.35</v>
       </c>
       <c r="P22" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R22" t="n">
         <v>1.3</v>
       </c>
       <c r="S22" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="T22" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U22" t="n">
         <v>2.04</v>
@@ -3418,10 +3418,10 @@
         <v>1.43</v>
       </c>
       <c r="W22" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="X22" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y22" t="n">
         <v>12</v>
@@ -3436,7 +3436,7 @@
         <v>11</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD22" t="n">
         <v>14.5</v>
@@ -3445,10 +3445,10 @@
         <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG22" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH22" t="n">
         <v>18.5</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -3514,13 +3514,13 @@
         <v>4.3</v>
       </c>
       <c r="J23" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K23" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L23" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M23" t="n">
         <v>1.06</v>
@@ -3544,7 +3544,7 @@
         <v>3.2</v>
       </c>
       <c r="T23" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="U23" t="n">
         <v>2.22</v>
@@ -3556,52 +3556,52 @@
         <v>2</v>
       </c>
       <c r="X23" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="Y23" t="n">
         <v>16.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="AA23" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AB23" t="n">
         <v>10</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>220</v>
+        <v>48</v>
       </c>
       <c r="AF23" t="n">
         <v>12.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH23" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>260</v>
+        <v>55</v>
       </c>
       <c r="AJ23" t="n">
         <v>23</v>
       </c>
       <c r="AK23" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="AM23" t="n">
-        <v>580</v>
+        <v>90</v>
       </c>
       <c r="AN23" t="n">
         <v>12.5</v>
@@ -3907,73 +3907,73 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="G26" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H26" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J26" t="n">
         <v>3.05</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J26" t="n">
-        <v>2.86</v>
       </c>
       <c r="K26" t="n">
         <v>3.45</v>
       </c>
       <c r="L26" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M26" t="n">
         <v>1.09</v>
       </c>
       <c r="N26" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="O26" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P26" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="R26" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S26" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="T26" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U26" t="n">
         <v>1.92</v>
       </c>
       <c r="V26" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W26" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="X26" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB26" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC26" t="n">
         <v>7.8</v>
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="G27" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="H27" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="I27" t="n">
         <v>6.6</v>
@@ -4057,7 +4057,7 @@
         <v>3.55</v>
       </c>
       <c r="K27" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L27" t="n">
         <v>1.48</v>
@@ -4066,7 +4066,7 @@
         <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O27" t="n">
         <v>1.42</v>
@@ -4081,13 +4081,13 @@
         <v>1.26</v>
       </c>
       <c r="S27" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T27" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U27" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V27" t="n">
         <v>1.18</v>
@@ -4180,19 +4180,19 @@
         <v>2.1</v>
       </c>
       <c r="G28" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H28" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I28" t="n">
         <v>5.2</v>
       </c>
       <c r="J28" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="K28" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L28" t="n">
         <v>1.68</v>
@@ -4201,43 +4201,43 @@
         <v>1.16</v>
       </c>
       <c r="N28" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="O28" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="P28" t="n">
         <v>1.43</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="R28" t="n">
         <v>1.15</v>
       </c>
       <c r="S28" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="T28" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="U28" t="n">
         <v>1.62</v>
       </c>
       <c r="V28" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W28" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="X28" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="Y28" t="n">
         <v>12</v>
       </c>
       <c r="Z28" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AA28" t="n">
         <v>200</v>
@@ -4261,13 +4261,13 @@
         <v>13</v>
       </c>
       <c r="AH28" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AI28" t="n">
         <v>180</v>
       </c>
       <c r="AJ28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AK28" t="n">
         <v>38</v>
@@ -4279,7 +4279,7 @@
         <v>330</v>
       </c>
       <c r="AN28" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4312,13 +4312,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="G29" t="n">
         <v>4.1</v>
       </c>
       <c r="H29" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I29" t="n">
         <v>2.16</v>
@@ -4327,37 +4327,37 @@
         <v>3.55</v>
       </c>
       <c r="K29" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L29" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M29" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O29" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P29" t="n">
         <v>1.98</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="R29" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="S29" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="T29" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="U29" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="V29" t="n">
         <v>1.86</v>
@@ -4414,10 +4414,10 @@
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="30">
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="G30" t="n">
         <v>1.66</v>
@@ -4492,7 +4492,7 @@
         <v>1.79</v>
       </c>
       <c r="U30" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V30" t="n">
         <v>1.17</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
@@ -667,94 +667,94 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="G2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="I2" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="J2" t="n">
-        <v>5.4</v>
+        <v>200</v>
       </c>
       <c r="K2" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>3.45</v>
+        <v>500</v>
       </c>
       <c r="W2" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
@@ -772,7 +772,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>5.2</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="3">
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="G3" t="n">
-        <v>2.1</v>
+        <v>1.96</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
         <v>4.1</v>
@@ -826,16 +826,16 @@
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P3" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="R3" t="n">
         <v>1.32</v>
@@ -844,22 +844,22 @@
         <v>3.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U3" t="n">
         <v>1.97</v>
       </c>
       <c r="V3" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W3" t="n">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="X3" t="n">
         <v>14.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z3" t="n">
         <v>60</v>
@@ -868,19 +868,19 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC3" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="n">
-        <v>420</v>
+        <v>240</v>
       </c>
       <c r="AF3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG3" t="n">
         <v>11</v>
@@ -892,19 +892,19 @@
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AK3" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL3" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AM3" t="n">
         <v>580</v>
       </c>
       <c r="AN3" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,25 +937,25 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.4</v>
+        <v>2.96</v>
       </c>
       <c r="G4" t="n">
-        <v>2.74</v>
+        <v>3.25</v>
       </c>
       <c r="H4" t="n">
-        <v>2.9</v>
+        <v>2.44</v>
       </c>
       <c r="I4" t="n">
-        <v>3.35</v>
+        <v>2.62</v>
       </c>
       <c r="J4" t="n">
         <v>3.2</v>
       </c>
       <c r="K4" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L4" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
@@ -964,31 +964,31 @@
         <v>3.3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P4" t="n">
         <v>1.81</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R4" t="n">
         <v>1.31</v>
       </c>
       <c r="S4" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="T4" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="U4" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.44</v>
+        <v>1.61</v>
       </c>
       <c r="W4" t="n">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1027,7 +1027,7 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
         <v>1000</v>
@@ -1072,58 +1072,58 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="G5" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I5" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J5" t="n">
         <v>3.05</v>
       </c>
       <c r="K5" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L5" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M5" t="n">
         <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O5" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="P5" t="n">
         <v>1.69</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S5" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="U5" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="V5" t="n">
         <v>1.39</v>
       </c>
       <c r="W5" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1141,7 +1141,7 @@
         <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="G6" t="n">
         <v>6.8</v>
@@ -1216,10 +1216,10 @@
         <v>1.63</v>
       </c>
       <c r="I6" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="J6" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="K6" t="n">
         <v>4.5</v>
@@ -1234,28 +1234,28 @@
         <v>3.35</v>
       </c>
       <c r="O6" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P6" t="n">
         <v>1.83</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="R6" t="n">
         <v>1.31</v>
       </c>
       <c r="S6" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="T6" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U6" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="V6" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="W6" t="n">
         <v>1.19</v>
@@ -1264,28 +1264,28 @@
         <v>15.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="Z6" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA6" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC6" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AG6" t="n">
         <v>25</v>
@@ -1294,7 +1294,7 @@
         <v>24</v>
       </c>
       <c r="AI6" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ6" t="n">
         <v>1000</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="G7" t="n">
         <v>10.5</v>
@@ -1351,7 +1351,7 @@
         <v>1.43</v>
       </c>
       <c r="I7" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="J7" t="n">
         <v>4.4</v>
@@ -1366,31 +1366,31 @@
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R7" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S7" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="T7" t="n">
-        <v>1.91</v>
+        <v>1.99</v>
       </c>
       <c r="U7" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V7" t="n">
-        <v>2.84</v>
+        <v>2.96</v>
       </c>
       <c r="W7" t="n">
         <v>1.13</v>
@@ -1414,7 +1414,7 @@
         <v>42</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.15</v>
+        <v>4.1</v>
       </c>
       <c r="G8" t="n">
-        <v>3.85</v>
+        <v>5.2</v>
       </c>
       <c r="H8" t="n">
-        <v>2.12</v>
+        <v>1.81</v>
       </c>
       <c r="I8" t="n">
-        <v>2.44</v>
+        <v>1.99</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P8" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="R8" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="S8" t="n">
         <v>3.05</v>
       </c>
       <c r="T8" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="U8" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="V8" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="X8" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="AA8" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AB8" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AF8" t="n">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AH8" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AI8" t="n">
         <v>95</v>
       </c>
       <c r="AJ8" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="AL8" t="n">
-        <v>260</v>
+        <v>70</v>
       </c>
       <c r="AM8" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
         <v>600</v>
       </c>
       <c r="AO8" t="n">
-        <v>17</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="9">
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="G9" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="H9" t="n">
         <v>4.2</v>
@@ -1636,16 +1636,16 @@
         <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="O9" t="n">
         <v>1.48</v>
       </c>
       <c r="P9" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="R9" t="n">
         <v>1.21</v>
@@ -1663,7 +1663,7 @@
         <v>1.26</v>
       </c>
       <c r="W9" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="X9" t="n">
         <v>10</v>
@@ -1687,13 +1687,13 @@
         <v>19.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AF9" t="n">
         <v>12.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH9" t="n">
         <v>23</v>
@@ -1714,7 +1714,7 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>48</v>
+        <v>600</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1753,7 +1753,7 @@
         <v>1.35</v>
       </c>
       <c r="H10" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="I10" t="n">
         <v>12</v>
@@ -1765,34 +1765,34 @@
         <v>5.9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P10" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="R10" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="S10" t="n">
-        <v>2.62</v>
+        <v>2.74</v>
       </c>
       <c r="T10" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="U10" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V10" t="n">
         <v>1.09</v>
@@ -1801,58 +1801,58 @@
         <v>3.85</v>
       </c>
       <c r="X10" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y10" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z10" t="n">
         <v>110</v>
       </c>
       <c r="AA10" t="n">
-        <v>400</v>
+        <v>620</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC10" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD10" t="n">
         <v>40</v>
       </c>
       <c r="AE10" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AG10" t="n">
         <v>10.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AI10" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AJ10" t="n">
         <v>10.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL10" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM10" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="AO10" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11">
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="G11" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="H11" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="I11" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="J11" t="n">
         <v>4.4</v>
@@ -1900,52 +1900,52 @@
         <v>4.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="O11" t="n">
         <v>1.23</v>
       </c>
       <c r="P11" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R11" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="S11" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="T11" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="U11" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="V11" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="W11" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="X11" t="n">
         <v>20</v>
       </c>
       <c r="Y11" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AB11" t="n">
         <v>23</v>
@@ -1960,31 +1960,31 @@
         <v>15</v>
       </c>
       <c r="AF11" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AJ11" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AK11" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AL11" t="n">
         <v>65</v>
       </c>
       <c r="AM11" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN11" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AO11" t="n">
         <v>7.4</v>
@@ -2023,13 +2023,13 @@
         <v>1000</v>
       </c>
       <c r="H12" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="I12" t="n">
         <v>1000</v>
       </c>
       <c r="J12" t="n">
-        <v>2.34</v>
+        <v>2.06</v>
       </c>
       <c r="K12" t="n">
         <v>150</v>
@@ -2044,19 +2044,19 @@
         <v>1.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="P12" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="Q12" t="n">
         <v>1.03</v>
       </c>
       <c r="R12" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="S12" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="T12" t="n">
         <v>1.04</v>
@@ -2065,7 +2065,7 @@
         <v>1.04</v>
       </c>
       <c r="V12" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="W12" t="n">
         <v>1.01</v>
@@ -2152,28 +2152,28 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="G13" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="H13" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I13" t="n">
         <v>4.1</v>
       </c>
-      <c r="I13" t="n">
-        <v>4.3</v>
-      </c>
       <c r="J13" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="K13" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="L13" t="n">
         <v>1.32</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
         <v>5.4</v>
@@ -2182,82 +2182,82 @@
         <v>1.21</v>
       </c>
       <c r="P13" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="Q13" t="n">
         <v>1.65</v>
       </c>
       <c r="R13" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S13" t="n">
         <v>2.62</v>
       </c>
       <c r="T13" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="U13" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="V13" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="W13" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="X13" t="n">
         <v>21</v>
       </c>
       <c r="Y13" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Z13" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA13" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AB13" t="n">
         <v>13</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE13" t="n">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="AF13" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AG13" t="n">
         <v>10.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI13" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AJ13" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="AK13" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AL13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM13" t="n">
         <v>70</v>
       </c>
       <c r="AN13" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AO13" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G14" t="n">
         <v>2.28</v>
       </c>
-      <c r="G14" t="n">
-        <v>2.3</v>
-      </c>
       <c r="H14" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J14" t="n">
         <v>3.6</v>
@@ -2311,13 +2311,13 @@
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O14" t="n">
         <v>1.28</v>
       </c>
       <c r="P14" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q14" t="n">
         <v>1.87</v>
@@ -2329,16 +2329,16 @@
         <v>3.15</v>
       </c>
       <c r="T14" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="U14" t="n">
         <v>2.32</v>
       </c>
       <c r="V14" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W14" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="X14" t="n">
         <v>16</v>
@@ -2359,7 +2359,7 @@
         <v>8</v>
       </c>
       <c r="AD14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE14" t="n">
         <v>36</v>
@@ -2368,7 +2368,7 @@
         <v>14.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH14" t="n">
         <v>15.5</v>
@@ -2383,7 +2383,7 @@
         <v>22</v>
       </c>
       <c r="AL14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM14" t="n">
         <v>75</v>
@@ -2422,25 +2422,25 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G15" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="H15" t="n">
         <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K15" t="n">
         <v>3.55</v>
       </c>
-      <c r="K15" t="n">
-        <v>3.6</v>
-      </c>
       <c r="L15" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
@@ -2449,13 +2449,13 @@
         <v>4.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P15" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="R15" t="n">
         <v>1.4</v>
@@ -2464,7 +2464,7 @@
         <v>3.4</v>
       </c>
       <c r="T15" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U15" t="n">
         <v>2.28</v>
@@ -2473,10 +2473,10 @@
         <v>1.42</v>
       </c>
       <c r="W15" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="X15" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y15" t="n">
         <v>13.5</v>
@@ -2488,10 +2488,10 @@
         <v>60</v>
       </c>
       <c r="AB15" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD15" t="n">
         <v>14</v>
@@ -2509,19 +2509,19 @@
         <v>15.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ15" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL15" t="n">
         <v>34</v>
       </c>
       <c r="AM15" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN15" t="n">
         <v>18</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G16" t="n">
         <v>6.8</v>
       </c>
-      <c r="G16" t="n">
-        <v>7</v>
-      </c>
       <c r="H16" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="I16" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="J16" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K16" t="n">
         <v>5</v>
-      </c>
-      <c r="K16" t="n">
-        <v>5.1</v>
       </c>
       <c r="L16" t="n">
         <v>1.29</v>
@@ -2587,46 +2587,46 @@
         <v>1.2</v>
       </c>
       <c r="P16" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="R16" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="S16" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T16" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="U16" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V16" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="W16" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="X16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y16" t="n">
         <v>11</v>
       </c>
       <c r="Z16" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AA16" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AB16" t="n">
         <v>30</v>
       </c>
       <c r="AC16" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD16" t="n">
         <v>9.800000000000001</v>
@@ -2638,31 +2638,31 @@
         <v>60</v>
       </c>
       <c r="AG16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI16" t="n">
         <v>25</v>
       </c>
-      <c r="AH16" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>26</v>
-      </c>
       <c r="AJ16" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AK16" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM16" t="n">
         <v>80</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AN16" t="n">
         <v>70</v>
       </c>
-      <c r="AM16" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>75</v>
-      </c>
       <c r="AO16" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="17">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="G17" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="H17" t="n">
+        <v>10</v>
+      </c>
+      <c r="I17" t="n">
         <v>10.5</v>
       </c>
-      <c r="I17" t="n">
-        <v>11</v>
-      </c>
       <c r="J17" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="K17" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="L17" t="n">
         <v>1.21</v>
@@ -2716,37 +2716,37 @@
         <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P17" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="R17" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="S17" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="T17" t="n">
         <v>1.66</v>
       </c>
       <c r="U17" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V17" t="n">
         <v>1.1</v>
       </c>
       <c r="W17" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="X17" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Y17" t="n">
         <v>60</v>
@@ -2755,10 +2755,10 @@
         <v>120</v>
       </c>
       <c r="AA17" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="AB17" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC17" t="n">
         <v>17</v>
@@ -2767,7 +2767,7 @@
         <v>38</v>
       </c>
       <c r="AE17" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AF17" t="n">
         <v>12</v>
@@ -2779,7 +2779,7 @@
         <v>23</v>
       </c>
       <c r="AI17" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ17" t="n">
         <v>12.5</v>
@@ -2788,13 +2788,13 @@
         <v>12</v>
       </c>
       <c r="AL17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM17" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AO17" t="n">
         <v>80</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="G18" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="H18" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="I18" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="J18" t="n">
+        <v>5</v>
+      </c>
+      <c r="K18" t="n">
         <v>5.1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>5.2</v>
       </c>
       <c r="L18" t="n">
         <v>1.33</v>
@@ -2851,7 +2851,7 @@
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O18" t="n">
         <v>1.22</v>
@@ -2860,25 +2860,25 @@
         <v>2.42</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="R18" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S18" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="T18" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U18" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V18" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W18" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="X18" t="n">
         <v>22</v>
@@ -2887,25 +2887,25 @@
         <v>32</v>
       </c>
       <c r="Z18" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AA18" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC18" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD18" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AE18" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AF18" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AG18" t="n">
         <v>10.5</v>
@@ -2914,25 +2914,25 @@
         <v>23</v>
       </c>
       <c r="AI18" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ18" t="n">
         <v>12.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM18" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN18" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="AO18" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19">
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="G19" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I19" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J19" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K19" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L19" t="n">
         <v>1.3</v>
@@ -2986,34 +2986,34 @@
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O19" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P19" t="n">
         <v>2.66</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R19" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="S19" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="T19" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U19" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="V19" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W19" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="X19" t="n">
         <v>24</v>
@@ -3022,7 +3022,7 @@
         <v>28</v>
       </c>
       <c r="Z19" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA19" t="n">
         <v>150</v>
@@ -3034,7 +3034,7 @@
         <v>10.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE19" t="n">
         <v>65</v>
@@ -3043,7 +3043,7 @@
         <v>11.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH19" t="n">
         <v>17.5</v>
@@ -3052,7 +3052,7 @@
         <v>60</v>
       </c>
       <c r="AJ19" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AK19" t="n">
         <v>14.5</v>
@@ -3064,10 +3064,10 @@
         <v>75</v>
       </c>
       <c r="AN19" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AO19" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20">
@@ -3103,7 +3103,7 @@
         <v>3.4</v>
       </c>
       <c r="H20" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="I20" t="n">
         <v>2.66</v>
@@ -3112,7 +3112,7 @@
         <v>3.15</v>
       </c>
       <c r="K20" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L20" t="n">
         <v>1.48</v>
@@ -3121,16 +3121,16 @@
         <v>1.09</v>
       </c>
       <c r="N20" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O20" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P20" t="n">
         <v>1.74</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R20" t="n">
         <v>1.28</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G21" t="n">
         <v>2.78</v>
@@ -3244,7 +3244,7 @@
         <v>2.7</v>
       </c>
       <c r="J21" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K21" t="n">
         <v>3.8</v>
@@ -3265,13 +3265,13 @@
         <v>2.38</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R21" t="n">
         <v>1.56</v>
       </c>
       <c r="S21" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T21" t="n">
         <v>1.59</v>
@@ -3313,7 +3313,7 @@
         <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH21" t="n">
         <v>14.5</v>
@@ -3328,16 +3328,16 @@
         <v>25</v>
       </c>
       <c r="AL21" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM21" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN21" t="n">
         <v>17.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="22">
@@ -3367,52 +3367,52 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.5</v>
+        <v>2.64</v>
       </c>
       <c r="G22" t="n">
         <v>2.84</v>
       </c>
       <c r="H22" t="n">
-        <v>2.82</v>
+        <v>2.96</v>
       </c>
       <c r="I22" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J22" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="L22" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M22" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N22" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O22" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="P22" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="R22" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="S22" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="T22" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="U22" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="V22" t="n">
         <v>1.43</v>
@@ -3424,7 +3424,7 @@
         <v>13.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z22" t="n">
         <v>21</v>
@@ -3433,10 +3433,10 @@
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD22" t="n">
         <v>14.5</v>
@@ -3463,16 +3463,16 @@
         <v>34</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AO22" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H23" t="n">
         <v>4.1</v>
@@ -3517,7 +3517,7 @@
         <v>3.8</v>
       </c>
       <c r="K23" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L23" t="n">
         <v>1.38</v>
@@ -3526,7 +3526,7 @@
         <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O23" t="n">
         <v>1.28</v>
@@ -3535,19 +3535,19 @@
         <v>2.12</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="R23" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S23" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T23" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U23" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V23" t="n">
         <v>1.3</v>
@@ -3556,10 +3556,10 @@
         <v>2</v>
       </c>
       <c r="X23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y23" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Z23" t="n">
         <v>32</v>
@@ -3577,7 +3577,7 @@
         <v>16.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AF23" t="n">
         <v>12.5</v>
@@ -3604,10 +3604,10 @@
         <v>90</v>
       </c>
       <c r="AN23" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO23" t="n">
-        <v>140</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24">
@@ -3667,7 +3667,7 @@
         <v>1.3</v>
       </c>
       <c r="P24" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="Q24" t="n">
         <v>1.97</v>
@@ -3805,16 +3805,16 @@
         <v>1.36</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="R25" t="n">
         <v>1.18</v>
       </c>
       <c r="S25" t="n">
-        <v>1.28</v>
+        <v>1.05</v>
       </c>
       <c r="T25" t="n">
-        <v>1.04</v>
+        <v>1.8</v>
       </c>
       <c r="U25" t="n">
         <v>1.04</v>
@@ -3907,88 +3907,88 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="G26" t="n">
-        <v>2.6</v>
+        <v>2.42</v>
       </c>
       <c r="H26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J26" t="n">
         <v>3.15</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.05</v>
       </c>
       <c r="K26" t="n">
         <v>3.45</v>
       </c>
       <c r="L26" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M26" t="n">
         <v>1.09</v>
       </c>
       <c r="N26" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O26" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="P26" t="n">
         <v>1.68</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="R26" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S26" t="n">
         <v>4.2</v>
       </c>
       <c r="T26" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="U26" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="V26" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="W26" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="X26" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y26" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z26" t="n">
         <v>48</v>
       </c>
       <c r="AA26" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AC26" t="n">
         <v>7.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE26" t="n">
         <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH26" t="n">
         <v>21</v>
@@ -3997,10 +3997,10 @@
         <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="AK26" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AL26" t="n">
         <v>1000</v>
@@ -4009,7 +4009,7 @@
         <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4045,58 +4045,58 @@
         <v>1.71</v>
       </c>
       <c r="G27" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="H27" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="I27" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J27" t="n">
         <v>3.55</v>
       </c>
       <c r="K27" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L27" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O27" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P27" t="n">
         <v>1.71</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="R27" t="n">
         <v>1.26</v>
       </c>
       <c r="S27" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="T27" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="U27" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="V27" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W27" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="X27" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y27" t="n">
         <v>1000</v>
@@ -4108,7 +4108,7 @@
         <v>220</v>
       </c>
       <c r="AB27" t="n">
-        <v>13.5</v>
+        <v>7</v>
       </c>
       <c r="AC27" t="n">
         <v>14</v>
@@ -4129,7 +4129,7 @@
         <v>65</v>
       </c>
       <c r="AI27" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AJ27" t="n">
         <v>1000</v>
@@ -4183,10 +4183,10 @@
         <v>2.16</v>
       </c>
       <c r="H28" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I28" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J28" t="n">
         <v>2.96</v>
@@ -4195,34 +4195,34 @@
         <v>3.1</v>
       </c>
       <c r="L28" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="M28" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="N28" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="O28" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="P28" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="R28" t="n">
         <v>1.15</v>
       </c>
       <c r="S28" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="T28" t="n">
         <v>2.44</v>
       </c>
       <c r="U28" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="V28" t="n">
         <v>1.23</v>
@@ -4237,13 +4237,13 @@
         <v>12</v>
       </c>
       <c r="Z28" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AA28" t="n">
         <v>200</v>
       </c>
       <c r="AB28" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AC28" t="n">
         <v>7.2</v>
@@ -4279,7 +4279,7 @@
         <v>330</v>
       </c>
       <c r="AN28" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4312,25 +4312,25 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="G29" t="n">
         <v>4.1</v>
       </c>
       <c r="H29" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="I29" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="J29" t="n">
         <v>3.55</v>
       </c>
       <c r="K29" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L29" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M29" t="n">
         <v>1.07</v>
@@ -4342,25 +4342,25 @@
         <v>1.33</v>
       </c>
       <c r="P29" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R29" t="n">
         <v>1.36</v>
       </c>
       <c r="S29" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T29" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U29" t="n">
         <v>2.1</v>
       </c>
       <c r="V29" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="W29" t="n">
         <v>1.33</v>
@@ -4447,13 +4447,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="G30" t="n">
         <v>1.66</v>
       </c>
       <c r="H30" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="I30" t="n">
         <v>6.8</v>
@@ -4462,10 +4462,10 @@
         <v>4.3</v>
       </c>
       <c r="K30" t="n">
-        <v>5.4</v>
+        <v>4.6</v>
       </c>
       <c r="L30" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="M30" t="n">
         <v>1.05</v>
@@ -4480,10 +4480,10 @@
         <v>2.14</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="R30" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S30" t="n">
         <v>2.84</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO30"/>
+  <dimension ref="A1:AO29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hong Kong Premier League</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>04:00:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Southern District</t>
+          <t>Kastamonuspor</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Kitchee SC</t>
+          <t>Altinordu</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1000</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>1.02</v>
       </c>
       <c r="H2" t="n">
-        <v>1.01</v>
+        <v>36</v>
       </c>
       <c r="I2" t="n">
-        <v>1.01</v>
+        <v>570</v>
       </c>
       <c r="J2" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -715,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>500</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>50</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -769,10 +769,10 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>1.02</v>
       </c>
       <c r="AO2" t="n">
-        <v>1.01</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3">
@@ -793,121 +793,121 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Kastamonuspor</t>
+          <t>Ankaraspor</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Altinordu</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.85</v>
+        <v>5.2</v>
       </c>
       <c r="G3" t="n">
-        <v>1.96</v>
+        <v>5.8</v>
       </c>
       <c r="H3" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>5.3</v>
+        <v>2.08</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>2.94</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="L3" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.88</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.94</v>
+        <v>1.23</v>
       </c>
       <c r="R3" t="n">
-        <v>1.32</v>
+        <v>1.86</v>
       </c>
       <c r="S3" t="n">
-        <v>3.5</v>
+        <v>2.02</v>
       </c>
       <c r="T3" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.26</v>
+        <v>1.92</v>
       </c>
       <c r="W3" t="n">
-        <v>2.04</v>
+        <v>1.21</v>
       </c>
       <c r="X3" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.800000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>20</v>
+        <v>4.9</v>
       </c>
       <c r="AE3" t="n">
-        <v>240</v>
+        <v>10.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>8.4</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AJ3" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="AL3" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="AM3" t="n">
-        <v>580</v>
+        <v>75</v>
       </c>
       <c r="AN3" t="n">
-        <v>14.5</v>
+        <v>100</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -928,67 +928,67 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Ankaraspor</t>
+          <t>Inegolspor</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Iskenderunspor</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.96</v>
+        <v>1.27</v>
       </c>
       <c r="G4" t="n">
-        <v>3.25</v>
+        <v>1.3</v>
       </c>
       <c r="H4" t="n">
-        <v>2.44</v>
+        <v>20</v>
       </c>
       <c r="I4" t="n">
-        <v>2.62</v>
+        <v>26</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>5.4</v>
       </c>
       <c r="K4" t="n">
-        <v>3.85</v>
+        <v>5.9</v>
       </c>
       <c r="L4" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>1.81</v>
+        <v>1.62</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.04</v>
+        <v>2.46</v>
       </c>
       <c r="R4" t="n">
-        <v>1.31</v>
+        <v>1.16</v>
       </c>
       <c r="S4" t="n">
-        <v>3.85</v>
+        <v>6</v>
       </c>
       <c r="T4" t="n">
-        <v>1.76</v>
+        <v>2.24</v>
       </c>
       <c r="U4" t="n">
-        <v>2.04</v>
+        <v>1.63</v>
       </c>
       <c r="V4" t="n">
-        <v>1.61</v>
+        <v>1.05</v>
       </c>
       <c r="W4" t="n">
-        <v>1.45</v>
+        <v>4.3</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1003,43 +1003,43 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="AC4" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>290</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH4" t="n">
         <v>42</v>
       </c>
-      <c r="AD4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>1000</v>
-      </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1063,67 +1063,67 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Inegolspor</t>
+          <t>Beykoz Anadolu Spor</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Iskenderunspor</t>
+          <t>Elazigspor</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.34</v>
+        <v>11.5</v>
       </c>
       <c r="G5" t="n">
-        <v>2.62</v>
+        <v>900</v>
       </c>
       <c r="H5" t="n">
-        <v>3.15</v>
+        <v>1.03</v>
       </c>
       <c r="I5" t="n">
-        <v>3.75</v>
+        <v>1.04</v>
       </c>
       <c r="J5" t="n">
-        <v>3.05</v>
+        <v>28</v>
       </c>
       <c r="K5" t="n">
-        <v>3.55</v>
+        <v>42</v>
       </c>
       <c r="L5" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.69</v>
+        <v>4.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.2</v>
+        <v>1.24</v>
       </c>
       <c r="R5" t="n">
-        <v>1.26</v>
+        <v>1.75</v>
       </c>
       <c r="S5" t="n">
-        <v>4.3</v>
+        <v>2.08</v>
       </c>
       <c r="T5" t="n">
-        <v>1.84</v>
+        <v>2.48</v>
       </c>
       <c r="U5" t="n">
-        <v>1.95</v>
+        <v>1.54</v>
       </c>
       <c r="V5" t="n">
-        <v>1.39</v>
+        <v>21</v>
       </c>
       <c r="W5" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1132,22 +1132,22 @@
         <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="AB5" t="n">
         <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AF5" t="n">
         <v>1000</v>
@@ -1156,10 +1156,10 @@
         <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
@@ -1168,16 +1168,16 @@
         <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AN5" t="n">
         <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="6">
@@ -1193,108 +1193,108 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Beykoz Anadolu Spor</t>
+          <t>Bucaspor</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Elazigspor</t>
+          <t>Adana 1954 FK</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5.6</v>
+        <v>8</v>
       </c>
       <c r="G6" t="n">
-        <v>6.8</v>
+        <v>11</v>
       </c>
       <c r="H6" t="n">
-        <v>1.63</v>
+        <v>1.37</v>
       </c>
       <c r="I6" t="n">
-        <v>1.75</v>
+        <v>1.43</v>
       </c>
       <c r="J6" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.43</v>
+        <v>1.31</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>3.35</v>
+        <v>5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="P6" t="n">
-        <v>1.83</v>
+        <v>2.38</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.97</v>
+        <v>1.67</v>
       </c>
       <c r="R6" t="n">
-        <v>1.31</v>
+        <v>1.56</v>
       </c>
       <c r="S6" t="n">
-        <v>3.55</v>
+        <v>2.68</v>
       </c>
       <c r="T6" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U6" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="V6" t="n">
-        <v>2.32</v>
+        <v>3.2</v>
       </c>
       <c r="W6" t="n">
-        <v>1.19</v>
+        <v>1.1</v>
       </c>
       <c r="X6" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.8</v>
+        <v>19.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>9.800000000000001</v>
+        <v>21</v>
       </c>
       <c r="AA6" t="n">
-        <v>17.5</v>
+        <v>180</v>
       </c>
       <c r="AB6" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.800000000000001</v>
+        <v>42</v>
       </c>
       <c r="AD6" t="n">
-        <v>10.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>19.5</v>
+        <v>70</v>
       </c>
       <c r="AF6" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
         <v>1000</v>
@@ -1312,7 +1312,7 @@
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Bucaspor</t>
+          <t>Kepez Belediyespor</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Adana 1954 FK</t>
+          <t>Erzincanspor</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>7.2</v>
+        <v>4.3</v>
       </c>
       <c r="G7" t="n">
-        <v>10.5</v>
+        <v>4.9</v>
       </c>
       <c r="H7" t="n">
-        <v>1.43</v>
+        <v>1.87</v>
       </c>
       <c r="I7" t="n">
-        <v>1.51</v>
+        <v>1.95</v>
       </c>
       <c r="J7" t="n">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>5.7</v>
+        <v>4.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.74</v>
+        <v>1.86</v>
       </c>
       <c r="R7" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="S7" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="T7" t="n">
-        <v>1.99</v>
+        <v>1.05</v>
       </c>
       <c r="U7" t="n">
-        <v>1.8</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>2.96</v>
+        <v>2.04</v>
       </c>
       <c r="W7" t="n">
-        <v>1.13</v>
+        <v>1.23</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>610</v>
       </c>
       <c r="Y7" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="Z7" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="AA7" t="n">
-        <v>900</v>
+        <v>27</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AC7" t="n">
-        <v>42</v>
+        <v>990</v>
       </c>
       <c r="AD7" t="n">
-        <v>40</v>
+        <v>990</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AO7" t="n">
-        <v>29</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Kepez Belediyespor</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Erzincanspor</t>
+          <t>Juventus B</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.1</v>
+        <v>1.89</v>
       </c>
       <c r="G8" t="n">
-        <v>5.2</v>
+        <v>2.02</v>
       </c>
       <c r="H8" t="n">
-        <v>1.81</v>
+        <v>4.8</v>
       </c>
       <c r="I8" t="n">
-        <v>1.99</v>
+        <v>5.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="K8" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.37</v>
+        <v>1.55</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="N8" t="n">
-        <v>3.9</v>
+        <v>2.88</v>
       </c>
       <c r="O8" t="n">
-        <v>1.28</v>
+        <v>1.5</v>
       </c>
       <c r="P8" t="n">
-        <v>2.02</v>
+        <v>1.62</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.78</v>
+        <v>2.42</v>
       </c>
       <c r="R8" t="n">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="S8" t="n">
-        <v>3.05</v>
+        <v>4.8</v>
       </c>
       <c r="T8" t="n">
-        <v>1.73</v>
+        <v>2.12</v>
       </c>
       <c r="U8" t="n">
-        <v>2.08</v>
+        <v>1.7</v>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>1.21</v>
       </c>
       <c r="W8" t="n">
-        <v>1.26</v>
+        <v>1.98</v>
       </c>
       <c r="X8" t="n">
-        <v>18.5</v>
+        <v>10</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="Z8" t="n">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="AA8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD8" t="n">
         <v>22</v>
       </c>
-      <c r="AB8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD8" t="n">
+      <c r="AE8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF8" t="n">
         <v>11</v>
       </c>
-      <c r="AE8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>95</v>
-      </c>
       <c r="AG8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>130</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN8" t="n">
         <v>23</v>
       </c>
-      <c r="AH8" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>600</v>
-      </c>
       <c r="AO8" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Juventus B</t>
+          <t>Kairat Almaty</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.02</v>
+        <v>1.33</v>
       </c>
       <c r="G9" t="n">
-        <v>2.18</v>
+        <v>1.34</v>
       </c>
       <c r="H9" t="n">
-        <v>4.2</v>
+        <v>12.5</v>
       </c>
       <c r="I9" t="n">
+        <v>13</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N9" t="n">
         <v>4.9</v>
       </c>
-      <c r="J9" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2.78</v>
-      </c>
       <c r="O9" t="n">
-        <v>1.48</v>
+        <v>1.24</v>
       </c>
       <c r="P9" t="n">
-        <v>1.6</v>
+        <v>2.32</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.4</v>
+        <v>1.74</v>
       </c>
       <c r="R9" t="n">
-        <v>1.21</v>
+        <v>1.53</v>
       </c>
       <c r="S9" t="n">
-        <v>4.8</v>
+        <v>2.84</v>
       </c>
       <c r="T9" t="n">
-        <v>2.04</v>
+        <v>2.24</v>
       </c>
       <c r="U9" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="V9" t="n">
-        <v>1.26</v>
+        <v>1.08</v>
       </c>
       <c r="W9" t="n">
-        <v>1.84</v>
+        <v>3.95</v>
       </c>
       <c r="X9" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="Y9" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="Z9" t="n">
+        <v>120</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>210</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH9" t="n">
         <v>34</v>
       </c>
-      <c r="AA9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>190</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>23</v>
-      </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AJ9" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL9" t="n">
         <v>44</v>
       </c>
-      <c r="AK9" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>130</v>
-      </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN9" t="n">
-        <v>600</v>
+        <v>5</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Pafos FC</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Kairat Almaty</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.34</v>
+        <v>6.4</v>
       </c>
       <c r="G10" t="n">
-        <v>1.35</v>
+        <v>6.6</v>
       </c>
       <c r="H10" t="n">
-        <v>11.5</v>
+        <v>1.6</v>
       </c>
       <c r="I10" t="n">
-        <v>12</v>
+        <v>1.61</v>
       </c>
       <c r="J10" t="n">
-        <v>5.8</v>
+        <v>4.5</v>
       </c>
       <c r="K10" t="n">
-        <v>5.9</v>
+        <v>4.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O10" t="n">
         <v>1.23</v>
       </c>
       <c r="P10" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="R10" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="S10" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="T10" t="n">
-        <v>2.12</v>
+        <v>1.81</v>
       </c>
       <c r="U10" t="n">
-        <v>1.85</v>
+        <v>2.16</v>
       </c>
       <c r="V10" t="n">
-        <v>1.09</v>
+        <v>2.64</v>
       </c>
       <c r="W10" t="n">
-        <v>3.85</v>
+        <v>1.18</v>
       </c>
       <c r="X10" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>36</v>
+        <v>10.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>110</v>
+        <v>9.6</v>
       </c>
       <c r="AA10" t="n">
-        <v>620</v>
+        <v>14.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.199999999999999</v>
+        <v>24</v>
       </c>
       <c r="AC10" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AD10" t="n">
-        <v>40</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE10" t="n">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="AG10" t="n">
-        <v>10.5</v>
+        <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>30</v>
+        <v>19.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="AJ10" t="n">
-        <v>10.5</v>
+        <v>170</v>
       </c>
       <c r="AK10" t="n">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="AL10" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="AM10" t="n">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="AN10" t="n">
-        <v>5.1</v>
+        <v>85</v>
       </c>
       <c r="AO10" t="n">
-        <v>240</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>AD Ceuta FC</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>6</v>
+        <v>1.86</v>
       </c>
       <c r="G11" t="n">
-        <v>6.2</v>
+        <v>3.9</v>
       </c>
       <c r="H11" t="n">
-        <v>1.63</v>
+        <v>2.3</v>
       </c>
       <c r="I11" t="n">
-        <v>1.64</v>
+        <v>1000</v>
       </c>
       <c r="J11" t="n">
-        <v>4.4</v>
+        <v>2.56</v>
       </c>
       <c r="K11" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="L11" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>5</v>
+        <v>1.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.23</v>
+        <v>1.05</v>
       </c>
       <c r="P11" t="n">
-        <v>2.34</v>
+        <v>1.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.72</v>
+        <v>1.03</v>
       </c>
       <c r="R11" t="n">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="S11" t="n">
-        <v>2.78</v>
+        <v>1.99</v>
       </c>
       <c r="T11" t="n">
-        <v>1.78</v>
+        <v>1.04</v>
       </c>
       <c r="U11" t="n">
-        <v>2.22</v>
+        <v>1.04</v>
       </c>
       <c r="V11" t="n">
-        <v>2.52</v>
+        <v>1.01</v>
       </c>
       <c r="W11" t="n">
-        <v>1.19</v>
+        <v>1.34</v>
       </c>
       <c r="X11" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>AD Ceuta FC</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>St Gallen</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.04</v>
+        <v>2.02</v>
       </c>
       <c r="G12" t="n">
-        <v>1000</v>
+        <v>2.06</v>
       </c>
       <c r="H12" t="n">
-        <v>1.26</v>
+        <v>3.9</v>
       </c>
       <c r="I12" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="J12" t="n">
-        <v>2.06</v>
+        <v>3.85</v>
       </c>
       <c r="K12" t="n">
-        <v>150</v>
+        <v>3.9</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>1.1</v>
+        <v>5.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.03</v>
+        <v>1.21</v>
       </c>
       <c r="P12" t="n">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.03</v>
+        <v>1.7</v>
       </c>
       <c r="R12" t="n">
-        <v>1.17</v>
+        <v>1.57</v>
       </c>
       <c r="S12" t="n">
-        <v>1.99</v>
+        <v>2.68</v>
       </c>
       <c r="T12" t="n">
-        <v>1.04</v>
+        <v>1.6</v>
       </c>
       <c r="U12" t="n">
-        <v>1.04</v>
+        <v>2.54</v>
       </c>
       <c r="V12" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="W12" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,123 +2138,123 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>St Gallen</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.04</v>
+        <v>2.26</v>
       </c>
       <c r="G13" t="n">
-        <v>2.06</v>
+        <v>2.28</v>
       </c>
       <c r="H13" t="n">
-        <v>3.95</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>4.1</v>
+        <v>3.55</v>
       </c>
       <c r="J13" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="K13" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="L13" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>5.4</v>
+        <v>4.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="P13" t="n">
-        <v>2.44</v>
+        <v>2.14</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.65</v>
+        <v>1.86</v>
       </c>
       <c r="R13" t="n">
-        <v>1.59</v>
+        <v>1.45</v>
       </c>
       <c r="S13" t="n">
-        <v>2.62</v>
+        <v>3.1</v>
       </c>
       <c r="T13" t="n">
-        <v>1.59</v>
+        <v>1.71</v>
       </c>
       <c r="U13" t="n">
-        <v>2.54</v>
+        <v>2.38</v>
       </c>
       <c r="V13" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="W13" t="n">
-        <v>1.95</v>
+        <v>1.78</v>
       </c>
       <c r="X13" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="Y13" t="n">
-        <v>38</v>
+        <v>14.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AA13" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AB13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD13" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AF13" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG13" t="n">
         <v>10.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI13" t="n">
         <v>42</v>
       </c>
       <c r="AJ13" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AK13" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AL13" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AM13" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN13" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AO13" t="n">
         <v>32</v>
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F14" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U14" t="n">
         <v>2.26</v>
       </c>
-      <c r="G14" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N14" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.32</v>
-      </c>
       <c r="V14" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="W14" t="n">
-        <v>1.77</v>
+        <v>1.66</v>
       </c>
       <c r="X14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y14" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AA14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB14" t="n">
         <v>11</v>
       </c>
       <c r="AC14" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AE14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL14" t="n">
         <v>36</v>
       </c>
-      <c r="AF14" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>32</v>
-      </c>
       <c r="AM14" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN14" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Olympiakos</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="F15" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N15" t="n">
+        <v>6</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="S15" t="n">
         <v>2.38</v>
       </c>
-      <c r="G15" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N15" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3.4</v>
-      </c>
       <c r="T15" t="n">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
       <c r="U15" t="n">
-        <v>2.28</v>
+        <v>2.46</v>
       </c>
       <c r="V15" t="n">
-        <v>1.42</v>
+        <v>2.72</v>
       </c>
       <c r="W15" t="n">
-        <v>1.71</v>
+        <v>1.18</v>
       </c>
       <c r="X15" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE15" t="n">
         <v>14.5</v>
       </c>
-      <c r="Y15" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z15" t="n">
+      <c r="AF15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG15" t="n">
         <v>23</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AH15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL15" t="n">
         <v>60</v>
       </c>
-      <c r="AB15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>34</v>
-      </c>
       <c r="AM15" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AN15" t="n">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="AO15" t="n">
-        <v>34</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Olympiakos</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>6.6</v>
+        <v>1.3</v>
       </c>
       <c r="G16" t="n">
-        <v>6.8</v>
+        <v>1.31</v>
       </c>
       <c r="H16" t="n">
-        <v>1.55</v>
+        <v>10.5</v>
       </c>
       <c r="I16" t="n">
-        <v>1.56</v>
+        <v>11</v>
       </c>
       <c r="J16" t="n">
-        <v>4.9</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>5</v>
+        <v>7.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>5.7</v>
+        <v>10</v>
       </c>
       <c r="O16" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="P16" t="n">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.6</v>
+        <v>1.31</v>
       </c>
       <c r="R16" t="n">
-        <v>1.64</v>
+        <v>2.26</v>
       </c>
       <c r="S16" t="n">
-        <v>2.5</v>
+        <v>1.78</v>
       </c>
       <c r="T16" t="n">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="U16" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="V16" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="W16" t="n">
-        <v>1.17</v>
+        <v>4.2</v>
       </c>
       <c r="X16" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="Y16" t="n">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="Z16" t="n">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="AA16" t="n">
-        <v>15.5</v>
+        <v>350</v>
       </c>
       <c r="AB16" t="n">
-        <v>30</v>
+        <v>18.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>11</v>
+        <v>17.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>9.800000000000001</v>
+        <v>38</v>
       </c>
       <c r="AE16" t="n">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="AF16" t="n">
-        <v>60</v>
+        <v>12.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>24</v>
+        <v>11.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AI16" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="AJ16" t="n">
-        <v>170</v>
+        <v>12.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="AL16" t="n">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="AM16" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO16" t="n">
         <v>80</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>70</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>5.9</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.31</v>
+        <v>1.45</v>
       </c>
       <c r="G17" t="n">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="J17" t="n">
-        <v>7</v>
+        <v>5.1</v>
       </c>
       <c r="K17" t="n">
-        <v>7.2</v>
+        <v>5.2</v>
       </c>
       <c r="L17" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="M17" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>10</v>
+        <v>5.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.1</v>
+        <v>1.22</v>
       </c>
       <c r="P17" t="n">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.32</v>
+        <v>1.68</v>
       </c>
       <c r="R17" t="n">
-        <v>2.2</v>
+        <v>1.57</v>
       </c>
       <c r="S17" t="n">
-        <v>1.79</v>
+        <v>2.7</v>
       </c>
       <c r="T17" t="n">
-        <v>1.66</v>
+        <v>1.9</v>
       </c>
       <c r="U17" t="n">
-        <v>2.42</v>
+        <v>2.06</v>
       </c>
       <c r="V17" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="W17" t="n">
-        <v>4.1</v>
+        <v>3.15</v>
       </c>
       <c r="X17" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="Y17" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="Z17" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AA17" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="AB17" t="n">
-        <v>18</v>
+        <v>9.6</v>
       </c>
       <c r="AC17" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AD17" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AE17" t="n">
         <v>110</v>
       </c>
       <c r="AF17" t="n">
-        <v>12</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG17" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH17" t="n">
         <v>23</v>
       </c>
       <c r="AI17" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AJ17" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK17" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AL17" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AM17" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.1</v>
+        <v>5.8</v>
       </c>
       <c r="AO17" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18">
@@ -2818,127 +2818,127 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="G18" t="n">
-        <v>1.46</v>
+        <v>1.58</v>
       </c>
       <c r="H18" t="n">
-        <v>8.4</v>
+        <v>6.4</v>
       </c>
       <c r="I18" t="n">
-        <v>8.6</v>
+        <v>6.6</v>
       </c>
       <c r="J18" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="K18" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="L18" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="P18" t="n">
-        <v>2.42</v>
+        <v>2.66</v>
       </c>
       <c r="Q18" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R18" t="n">
         <v>1.68</v>
       </c>
-      <c r="R18" t="n">
-        <v>1.58</v>
-      </c>
       <c r="S18" t="n">
-        <v>2.68</v>
+        <v>2.4</v>
       </c>
       <c r="T18" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="U18" t="n">
-        <v>2.06</v>
+        <v>2.34</v>
       </c>
       <c r="V18" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="W18" t="n">
-        <v>3.15</v>
+        <v>2.72</v>
       </c>
       <c r="X18" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y18" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Z18" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AA18" t="n">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.6</v>
+        <v>12.5</v>
       </c>
       <c r="AC18" t="n">
         <v>11</v>
       </c>
       <c r="AD18" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AE18" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AF18" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AG18" t="n">
         <v>10.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AI18" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="AJ18" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM18" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AN18" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AO18" t="n">
-        <v>140</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>Club Sportivo Ameliano</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="F19" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V19" t="n">
         <v>1.6</v>
       </c>
-      <c r="G19" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="H19" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="J19" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K19" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N19" t="n">
-        <v>6</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.18</v>
-      </c>
       <c r="W19" t="n">
-        <v>2.64</v>
+        <v>1.41</v>
       </c>
       <c r="X19" t="n">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="Y19" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>10.5</v>
+        <v>42</v>
       </c>
       <c r="AD19" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>5.9</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,127 +3088,127 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Club Sportivo Ameliano</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.05</v>
+        <v>2.78</v>
       </c>
       <c r="G20" t="n">
-        <v>3.4</v>
+        <v>2.82</v>
       </c>
       <c r="H20" t="n">
-        <v>2.5</v>
+        <v>2.64</v>
       </c>
       <c r="I20" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="J20" t="n">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="K20" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="L20" t="n">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
       <c r="M20" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>3.15</v>
+        <v>5.2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="P20" t="n">
-        <v>1.74</v>
+        <v>2.38</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.22</v>
+        <v>1.71</v>
       </c>
       <c r="R20" t="n">
-        <v>1.28</v>
+        <v>1.57</v>
       </c>
       <c r="S20" t="n">
-        <v>4.1</v>
+        <v>2.72</v>
       </c>
       <c r="T20" t="n">
-        <v>1.83</v>
+        <v>1.6</v>
       </c>
       <c r="U20" t="n">
-        <v>1.98</v>
+        <v>2.6</v>
       </c>
       <c r="V20" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="W20" t="n">
-        <v>1.41</v>
+        <v>1.54</v>
       </c>
       <c r="X20" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC20" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>42</v>
       </c>
-      <c r="AD20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>1000</v>
-      </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>San Marcos</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Cobreloa Calama</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.76</v>
+        <v>2.64</v>
       </c>
       <c r="G21" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="H21" t="n">
-        <v>2.68</v>
+        <v>2.96</v>
       </c>
       <c r="I21" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="J21" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="L21" t="n">
-        <v>1.35</v>
+        <v>1.47</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="N21" t="n">
-        <v>5.1</v>
+        <v>3.15</v>
       </c>
       <c r="O21" t="n">
-        <v>1.23</v>
+        <v>1.38</v>
       </c>
       <c r="P21" t="n">
-        <v>2.38</v>
+        <v>1.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.71</v>
+        <v>2.16</v>
       </c>
       <c r="R21" t="n">
-        <v>1.56</v>
+        <v>1.28</v>
       </c>
       <c r="S21" t="n">
-        <v>2.74</v>
+        <v>3.95</v>
       </c>
       <c r="T21" t="n">
-        <v>1.59</v>
+        <v>1.83</v>
       </c>
       <c r="U21" t="n">
-        <v>2.6</v>
+        <v>1.98</v>
       </c>
       <c r="V21" t="n">
-        <v>1.58</v>
+        <v>1.44</v>
       </c>
       <c r="W21" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="X21" t="n">
-        <v>19.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD21" t="n">
         <v>14.5</v>
       </c>
-      <c r="Z21" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AE21" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH21" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AL21" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="AM21" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>17.5</v>
+        <v>34</v>
       </c>
       <c r="AO21" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>San Marcos</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Cobreloa Calama</t>
+          <t>Fortaleza EC</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.64</v>
+        <v>1.95</v>
       </c>
       <c r="G22" t="n">
-        <v>2.84</v>
+        <v>1.97</v>
       </c>
       <c r="H22" t="n">
-        <v>2.96</v>
+        <v>4.1</v>
       </c>
       <c r="I22" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="K22" t="n">
-        <v>3.3</v>
+        <v>3.95</v>
       </c>
       <c r="L22" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="M22" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="O22" t="n">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="P22" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T22" t="n">
         <v>1.75</v>
       </c>
-      <c r="Q22" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S22" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.82</v>
-      </c>
       <c r="U22" t="n">
-        <v>1.98</v>
+        <v>2.26</v>
       </c>
       <c r="V22" t="n">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="W22" t="n">
-        <v>1.54</v>
+        <v>2.02</v>
       </c>
       <c r="X22" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.5</v>
+        <v>17</v>
       </c>
       <c r="Z22" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB22" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF22" t="n">
-        <v>18</v>
+        <v>12.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AH22" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AK22" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AL22" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO22" t="n">
         <v>55</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Olimpia</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Fortaleza EC</t>
+          <t>Club 2 de Mayo de Pedro Juan Cab</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N23" t="n">
         <v>4.1</v>
       </c>
-      <c r="I23" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N23" t="n">
-        <v>4.4</v>
-      </c>
       <c r="O23" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P23" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="R23" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="S23" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T23" t="n">
-        <v>1.74</v>
+        <v>1.04</v>
       </c>
       <c r="U23" t="n">
-        <v>2.24</v>
+        <v>1.04</v>
       </c>
       <c r="V23" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="W23" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="X23" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD23" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,72 +3623,72 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Olimpia</t>
+          <t>Juticalpa</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Club 2 de Mayo</t>
+          <t>CD Victoria</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L24" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>3.85</v>
+        <v>1.36</v>
       </c>
       <c r="O24" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P24" t="n">
-        <v>1.98</v>
+        <v>1.36</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.97</v>
+        <v>1.26</v>
       </c>
       <c r="R24" t="n">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="S24" t="n">
-        <v>3.35</v>
+        <v>1.27</v>
       </c>
       <c r="T24" t="n">
-        <v>1.04</v>
+        <v>1.79</v>
       </c>
       <c r="U24" t="n">
         <v>1.04</v>
       </c>
       <c r="V24" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="W24" t="n">
-        <v>1.01</v>
+        <v>1.93</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
@@ -3739,7 +3739,7 @@
         <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3748,7 +3748,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,114 +3758,114 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Juticalpa</t>
+          <t>Deportes Concepcion</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>CD Victoria</t>
+          <t>Deportes Copiapo</t>
         </is>
       </c>
       <c r="F25" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N25" t="n">
+        <v>3</v>
+      </c>
+      <c r="O25" t="n">
         <v>1.42</v>
       </c>
-      <c r="G25" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K25" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.27</v>
-      </c>
       <c r="P25" t="n">
-        <v>1.36</v>
+        <v>1.68</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.26</v>
+        <v>2.26</v>
       </c>
       <c r="R25" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="S25" t="n">
-        <v>1.05</v>
+        <v>4.2</v>
       </c>
       <c r="T25" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="U25" t="n">
-        <v>1.04</v>
+        <v>1.87</v>
       </c>
       <c r="V25" t="n">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
       <c r="W25" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="X25" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AA25" t="n">
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AC25" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE25" t="n">
         <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI25" t="n">
         <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK25" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AL25" t="n">
         <v>1000</v>
@@ -3874,7 +3874,7 @@
         <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3883,7 +3883,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,118 +3898,118 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Deportes Concepcion</t>
+          <t>Atletico Bucaramanga</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Deportes Copiapo</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.24</v>
+        <v>1.69</v>
       </c>
       <c r="G26" t="n">
-        <v>2.42</v>
+        <v>1.76</v>
       </c>
       <c r="H26" t="n">
-        <v>3.5</v>
+        <v>6.2</v>
       </c>
       <c r="I26" t="n">
-        <v>3.9</v>
+        <v>7.2</v>
       </c>
       <c r="J26" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="K26" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="L26" t="n">
         <v>1.5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N26" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O26" t="n">
         <v>1.43</v>
       </c>
       <c r="P26" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="R26" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S26" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="T26" t="n">
-        <v>1.91</v>
+        <v>2.16</v>
       </c>
       <c r="U26" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="V26" t="n">
-        <v>1.34</v>
+        <v>1.16</v>
       </c>
       <c r="W26" t="n">
-        <v>1.71</v>
+        <v>2.3</v>
       </c>
       <c r="X26" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Y26" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z26" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AA26" t="n">
         <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>8.6</v>
+        <v>13.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.8</v>
+        <v>14</v>
       </c>
       <c r="AD26" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AE26" t="n">
         <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>14.5</v>
+        <v>25</v>
       </c>
       <c r="AG26" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="AH26" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ26" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL26" t="n">
         <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN26" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4018,7 +4018,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,123 +4028,123 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Atletico Bucaramanga</t>
+          <t>Lanus</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="F27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L27" t="n">
         <v>1.71</v>
       </c>
-      <c r="G27" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="H27" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="I27" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K27" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.5</v>
-      </c>
       <c r="M27" t="n">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="N27" t="n">
-        <v>3.1</v>
+        <v>2.28</v>
       </c>
       <c r="O27" t="n">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="P27" t="n">
-        <v>1.71</v>
+        <v>1.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="R27" t="n">
-        <v>1.26</v>
+        <v>1.13</v>
       </c>
       <c r="S27" t="n">
-        <v>4.5</v>
+        <v>7.6</v>
       </c>
       <c r="T27" t="n">
-        <v>2.16</v>
+        <v>2.52</v>
       </c>
       <c r="U27" t="n">
-        <v>1.76</v>
+        <v>1.59</v>
       </c>
       <c r="V27" t="n">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="W27" t="n">
-        <v>2.28</v>
+        <v>1.86</v>
       </c>
       <c r="X27" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA27" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AB27" t="n">
-        <v>7</v>
+        <v>5.7</v>
       </c>
       <c r="AC27" t="n">
-        <v>14</v>
+        <v>7.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AE27" t="n">
         <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="AG27" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>200</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN27" t="n">
         <v>40</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>65</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>85</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>55</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>
@@ -4153,7 +4153,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Lanus</t>
+          <t>FC Juarez</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="F28" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G28" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U28" t="n">
         <v>2.1</v>
       </c>
-      <c r="G28" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="H28" t="n">
-        <v>5</v>
-      </c>
-      <c r="I28" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J28" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N28" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="S28" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.61</v>
-      </c>
       <c r="V28" t="n">
-        <v>1.23</v>
+        <v>1.87</v>
       </c>
       <c r="W28" t="n">
-        <v>1.86</v>
+        <v>1.33</v>
       </c>
       <c r="X28" t="n">
-        <v>7.2</v>
+        <v>14.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>12</v>
+        <v>9.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>36</v>
+        <v>13.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>5.8</v>
+        <v>14.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AE28" t="n">
         <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AH28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN28" t="n">
         <v>55</v>
       </c>
-      <c r="AI28" t="n">
-        <v>180</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>330</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>38</v>
-      </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,93 +4298,93 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>FC Juarez</t>
+          <t>Atletico Nacional Medell</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Toluca</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="G29" t="n">
-        <v>4.1</v>
+        <v>1.65</v>
       </c>
       <c r="H29" t="n">
-        <v>2.06</v>
+        <v>5.7</v>
       </c>
       <c r="I29" t="n">
-        <v>2.14</v>
+        <v>6.8</v>
       </c>
       <c r="J29" t="n">
-        <v>3.55</v>
+        <v>4.4</v>
       </c>
       <c r="K29" t="n">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="L29" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="M29" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="O29" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="P29" t="n">
-        <v>1.95</v>
+        <v>2.16</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.99</v>
+        <v>1.75</v>
       </c>
       <c r="R29" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="S29" t="n">
-        <v>3.55</v>
+        <v>2.84</v>
       </c>
       <c r="T29" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="U29" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V29" t="n">
-        <v>1.87</v>
+        <v>1.17</v>
       </c>
       <c r="W29" t="n">
-        <v>1.33</v>
+        <v>2.52</v>
       </c>
       <c r="X29" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y29" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z29" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AA29" t="n">
         <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD29" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE29" t="n">
         <v>1000</v>
@@ -4393,7 +4393,7 @@
         <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AH29" t="n">
         <v>1000</v>
@@ -4411,147 +4411,12 @@
         <v>1000</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN29" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2025-11-26</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Atletico Nacional Medell</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Junior FC Barranquilla</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="H30" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="I30" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="J30" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K30" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N30" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P30" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S30" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U30" t="n">
-        <v>2</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W30" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="X30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AO30" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO29"/>
+  <dimension ref="A1:AO23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,105 +653,105 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Kastamonuspor</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Altinordu</t>
+          <t>Juventus B</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.01</v>
+        <v>1.93</v>
       </c>
       <c r="G2" t="n">
-        <v>1.02</v>
+        <v>2.04</v>
       </c>
       <c r="H2" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="X2" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD2" t="n">
         <v>36</v>
       </c>
-      <c r="I2" t="n">
-        <v>570</v>
-      </c>
-      <c r="J2" t="n">
-        <v>55</v>
-      </c>
-      <c r="K2" t="n">
-        <v>140</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W2" t="n">
-        <v>50</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1000</v>
-      </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -760,25 +760,25 @@
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.02</v>
+        <v>32</v>
       </c>
       <c r="AO2" t="n">
-        <v>440</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Ankaraspor</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Kairat Almaty</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.2</v>
+        <v>1.32</v>
       </c>
       <c r="G3" t="n">
-        <v>5.8</v>
+        <v>1.33</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I3" t="n">
-        <v>2.08</v>
+        <v>13.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.94</v>
+        <v>5.9</v>
       </c>
       <c r="K3" t="n">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>2.38</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.23</v>
+        <v>1.69</v>
       </c>
       <c r="R3" t="n">
-        <v>1.86</v>
+        <v>1.55</v>
       </c>
       <c r="S3" t="n">
-        <v>2.02</v>
+        <v>2.74</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="V3" t="n">
-        <v>1.92</v>
+        <v>1.08</v>
       </c>
       <c r="W3" t="n">
-        <v>1.21</v>
+        <v>4</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.5</v>
+        <v>13</v>
       </c>
       <c r="AD3" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>210</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN3" t="n">
         <v>4.9</v>
       </c>
-      <c r="AE3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>100</v>
-      </c>
       <c r="AO3" t="n">
-        <v>16</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Inegolspor</t>
+          <t>Pafos FC</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Iskenderunspor</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.27</v>
+        <v>6.8</v>
       </c>
       <c r="G4" t="n">
-        <v>1.3</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
-        <v>20</v>
+        <v>1.58</v>
       </c>
       <c r="I4" t="n">
-        <v>26</v>
+        <v>1.59</v>
       </c>
       <c r="J4" t="n">
-        <v>5.4</v>
+        <v>4.5</v>
       </c>
       <c r="K4" t="n">
-        <v>5.9</v>
+        <v>4.6</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="P4" t="n">
-        <v>1.62</v>
+        <v>2.28</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.46</v>
+        <v>1.76</v>
       </c>
       <c r="R4" t="n">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="n">
-        <v>6</v>
+        <v>2.94</v>
       </c>
       <c r="T4" t="n">
-        <v>2.24</v>
+        <v>1.87</v>
       </c>
       <c r="U4" t="n">
-        <v>1.63</v>
+        <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.05</v>
+        <v>2.68</v>
       </c>
       <c r="W4" t="n">
-        <v>4.3</v>
+        <v>1.17</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>4.1</v>
+        <v>23</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD4" t="n">
-        <v>40</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE4" t="n">
-        <v>290</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.2</v>
+        <v>55</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>290</v>
+        <v>34</v>
       </c>
       <c r="AJ4" t="n">
-        <v>13</v>
+        <v>320</v>
       </c>
       <c r="AK4" t="n">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="AL4" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN4" t="n">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,72 +1058,72 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Beykoz Anadolu Spor</t>
+          <t>AD Ceuta FC</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Elazigspor</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>11.5</v>
+        <v>2.24</v>
       </c>
       <c r="G5" t="n">
-        <v>900</v>
+        <v>3.85</v>
       </c>
       <c r="H5" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K5" t="n">
+        <v>110</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q5" t="n">
         <v>1.03</v>
       </c>
-      <c r="I5" t="n">
+      <c r="R5" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="T5" t="n">
         <v>1.04</v>
       </c>
-      <c r="J5" t="n">
-        <v>28</v>
-      </c>
-      <c r="K5" t="n">
-        <v>42</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.48</v>
-      </c>
       <c r="U5" t="n">
-        <v>1.54</v>
+        <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>21</v>
+        <v>1.58</v>
       </c>
       <c r="W5" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1132,10 +1132,10 @@
         <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>5.4</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>4.7</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
         <v>1000</v>
@@ -1144,10 +1144,10 @@
         <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
         <v>1000</v>
@@ -1156,10 +1156,10 @@
         <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
@@ -1168,22 +1168,22 @@
         <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
         <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Bucaspor</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Adana 1954 FK</t>
+          <t>St Gallen</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>2.02</v>
       </c>
       <c r="G6" t="n">
-        <v>11</v>
+        <v>2.06</v>
       </c>
       <c r="H6" t="n">
-        <v>1.37</v>
+        <v>3.9</v>
       </c>
       <c r="I6" t="n">
-        <v>1.43</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>3.85</v>
       </c>
       <c r="K6" t="n">
-        <v>6.2</v>
+        <v>3.95</v>
       </c>
       <c r="L6" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O6" t="n">
         <v>1.22</v>
       </c>
       <c r="P6" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R6" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="S6" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="T6" t="n">
-        <v>1.9</v>
+        <v>1.62</v>
       </c>
       <c r="U6" t="n">
-        <v>1.88</v>
+        <v>2.46</v>
       </c>
       <c r="V6" t="n">
-        <v>3.2</v>
+        <v>1.33</v>
       </c>
       <c r="W6" t="n">
-        <v>1.1</v>
+        <v>1.94</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z6" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="AA6" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AE6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM6" t="n">
         <v>70</v>
       </c>
-      <c r="AF6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO6" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Kepez Belediyespor</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Erzincanspor</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.3</v>
+        <v>2.22</v>
       </c>
       <c r="G7" t="n">
-        <v>4.9</v>
+        <v>2.24</v>
       </c>
       <c r="H7" t="n">
-        <v>1.87</v>
+        <v>3.55</v>
       </c>
       <c r="I7" t="n">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="J7" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K7" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P7" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R7" t="n">
-        <v>1.35</v>
+        <v>1.46</v>
       </c>
       <c r="S7" t="n">
         <v>3.1</v>
       </c>
       <c r="T7" t="n">
-        <v>1.05</v>
+        <v>1.73</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>2.34</v>
       </c>
       <c r="V7" t="n">
-        <v>2.04</v>
+        <v>1.38</v>
       </c>
       <c r="W7" t="n">
-        <v>1.23</v>
+        <v>1.8</v>
       </c>
       <c r="X7" t="n">
-        <v>610</v>
+        <v>16</v>
       </c>
       <c r="Y7" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AA7" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="AB7" t="n">
-        <v>23</v>
+        <v>11.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>990</v>
+        <v>8</v>
       </c>
       <c r="AD7" t="n">
-        <v>990</v>
+        <v>15</v>
       </c>
       <c r="AE7" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="AF7" t="n">
-        <v>50</v>
+        <v>14.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>990</v>
+        <v>10.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>990</v>
+        <v>15.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AJ7" t="n">
-        <v>280</v>
+        <v>29</v>
       </c>
       <c r="AK7" t="n">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="AL7" t="n">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="AM7" t="n">
-        <v>290</v>
+        <v>75</v>
       </c>
       <c r="AN7" t="n">
-        <v>150</v>
+        <v>14.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>17.5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,126 +1463,126 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Juventus B</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.89</v>
+        <v>2.52</v>
       </c>
       <c r="G8" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P8" t="n">
         <v>2.02</v>
       </c>
-      <c r="H8" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="Q8" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S8" t="n">
         <v>3.4</v>
       </c>
-      <c r="L8" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S8" t="n">
-        <v>4.8</v>
-      </c>
       <c r="T8" t="n">
-        <v>2.12</v>
+        <v>1.74</v>
       </c>
       <c r="U8" t="n">
-        <v>1.7</v>
+        <v>2.28</v>
       </c>
       <c r="V8" t="n">
-        <v>1.21</v>
+        <v>1.47</v>
       </c>
       <c r="W8" t="n">
-        <v>1.98</v>
+        <v>1.64</v>
       </c>
       <c r="X8" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Y8" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB8" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF8" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>40</v>
+        <v>16.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ8" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AK8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO8" t="n">
         <v>28</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>130</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Kairat Almaty</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="G9" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="H9" t="n">
+        <v>11</v>
+      </c>
+      <c r="I9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W9" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="X9" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>110</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>350</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF9" t="n">
         <v>12.5</v>
       </c>
-      <c r="I9" t="n">
-        <v>13</v>
-      </c>
-      <c r="J9" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="K9" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N9" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W9" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="X9" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>120</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC9" t="n">
+      <c r="AG9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>12.5</v>
       </c>
-      <c r="AD9" t="n">
-        <v>44</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>210</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>290</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>9.4</v>
-      </c>
       <c r="AK9" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AL9" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="AM9" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="AN9" t="n">
-        <v>5</v>
+        <v>2.94</v>
       </c>
       <c r="AO9" t="n">
-        <v>280</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>Olympiakos</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="G10" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="I10" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="J10" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="K10" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="P10" t="n">
-        <v>2.34</v>
+        <v>2.84</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="R10" t="n">
-        <v>1.54</v>
+        <v>1.74</v>
       </c>
       <c r="S10" t="n">
-        <v>2.78</v>
+        <v>2.32</v>
       </c>
       <c r="T10" t="n">
-        <v>1.81</v>
+        <v>1.63</v>
       </c>
       <c r="U10" t="n">
-        <v>2.16</v>
+        <v>2.5</v>
       </c>
       <c r="V10" t="n">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="W10" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="X10" t="n">
-        <v>19.5</v>
+        <v>30</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="Z10" t="n">
-        <v>9.6</v>
+        <v>12.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AB10" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AC10" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AD10" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF10" t="n">
         <v>55</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH10" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AJ10" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AL10" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AM10" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="AN10" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="AO10" t="n">
-        <v>7</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>AD Ceuta FC</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.86</v>
+        <v>1.46</v>
       </c>
       <c r="G11" t="n">
-        <v>3.9</v>
+        <v>1.47</v>
       </c>
       <c r="H11" t="n">
-        <v>2.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="J11" t="n">
-        <v>2.56</v>
+        <v>5.1</v>
       </c>
       <c r="K11" t="n">
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>1.1</v>
+        <v>5.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.05</v>
+        <v>1.23</v>
       </c>
       <c r="P11" t="n">
-        <v>1.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.03</v>
+        <v>1.7</v>
       </c>
       <c r="R11" t="n">
-        <v>1.16</v>
+        <v>1.56</v>
       </c>
       <c r="S11" t="n">
-        <v>1.99</v>
+        <v>2.74</v>
       </c>
       <c r="T11" t="n">
-        <v>1.04</v>
+        <v>1.92</v>
       </c>
       <c r="U11" t="n">
-        <v>1.04</v>
+        <v>2.04</v>
       </c>
       <c r="V11" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="W11" t="n">
-        <v>1.34</v>
+        <v>3.1</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>5.8</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>St Gallen</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.02</v>
+        <v>1.57</v>
       </c>
       <c r="G12" t="n">
-        <v>2.06</v>
+        <v>1.58</v>
       </c>
       <c r="H12" t="n">
-        <v>3.9</v>
+        <v>6.4</v>
       </c>
       <c r="I12" t="n">
-        <v>4.1</v>
+        <v>6.6</v>
       </c>
       <c r="J12" t="n">
-        <v>3.85</v>
+        <v>4.7</v>
       </c>
       <c r="K12" t="n">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="O12" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="P12" t="n">
-        <v>2.4</v>
+        <v>2.66</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="R12" t="n">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="S12" t="n">
-        <v>2.68</v>
+        <v>2.42</v>
       </c>
       <c r="T12" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="U12" t="n">
-        <v>2.54</v>
+        <v>2.34</v>
       </c>
       <c r="V12" t="n">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="W12" t="n">
-        <v>1.94</v>
+        <v>2.72</v>
       </c>
       <c r="X12" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.5</v>
+        <v>28</v>
       </c>
       <c r="Z12" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AA12" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AB12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AD12" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AE12" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="AF12" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AG12" t="n">
         <v>10.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AI12" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="AJ12" t="n">
-        <v>24</v>
+        <v>14.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>19.5</v>
+        <v>14</v>
       </c>
       <c r="AL12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM12" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AO12" t="n">
         <v>70</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Club Sportivo Ameliano</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.26</v>
+        <v>3.05</v>
       </c>
       <c r="G13" t="n">
-        <v>2.28</v>
+        <v>3.3</v>
       </c>
       <c r="H13" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K13" t="n">
         <v>3.5</v>
       </c>
-      <c r="I13" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.65</v>
-      </c>
       <c r="L13" t="n">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="O13" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R13" t="n">
         <v>1.28</v>
       </c>
-      <c r="P13" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.45</v>
-      </c>
       <c r="S13" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="T13" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="U13" t="n">
-        <v>2.38</v>
+        <v>1.98</v>
       </c>
       <c r="V13" t="n">
-        <v>1.39</v>
+        <v>1.58</v>
       </c>
       <c r="W13" t="n">
-        <v>1.78</v>
+        <v>1.43</v>
       </c>
       <c r="X13" t="n">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="Y13" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="AC13" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="AD13" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AF13" t="n">
-        <v>14.5</v>
+        <v>110</v>
       </c>
       <c r="AG13" t="n">
-        <v>10.5</v>
+        <v>85</v>
       </c>
       <c r="AH13" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>29</v>
+        <v>900</v>
       </c>
       <c r="AK13" t="n">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="AL13" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2278,127 +2278,127 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.48</v>
+        <v>2.8</v>
       </c>
       <c r="G14" t="n">
-        <v>2.5</v>
+        <v>2.82</v>
       </c>
       <c r="H14" t="n">
-        <v>3.1</v>
+        <v>2.66</v>
       </c>
       <c r="I14" t="n">
-        <v>3.15</v>
+        <v>2.68</v>
       </c>
       <c r="J14" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="K14" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L14" t="n">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>2.02</v>
+        <v>2.38</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.96</v>
+        <v>1.71</v>
       </c>
       <c r="R14" t="n">
-        <v>1.39</v>
+        <v>1.56</v>
       </c>
       <c r="S14" t="n">
-        <v>3.5</v>
+        <v>2.74</v>
       </c>
       <c r="T14" t="n">
-        <v>1.74</v>
+        <v>1.6</v>
       </c>
       <c r="U14" t="n">
-        <v>2.26</v>
+        <v>2.58</v>
       </c>
       <c r="V14" t="n">
-        <v>1.46</v>
+        <v>1.59</v>
       </c>
       <c r="W14" t="n">
-        <v>1.66</v>
+        <v>1.54</v>
       </c>
       <c r="X14" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB14" t="n">
         <v>15</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="AC14" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD14" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>13</v>
-      </c>
       <c r="AE14" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AF14" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AI14" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AJ14" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AK14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL14" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AM14" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AN14" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Olympiakos</t>
+          <t>San Marcos</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Cobreloa Calama</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>6.2</v>
+        <v>2.64</v>
       </c>
       <c r="G15" t="n">
-        <v>6.4</v>
+        <v>2.84</v>
       </c>
       <c r="H15" t="n">
-        <v>1.57</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>1.58</v>
+        <v>3.3</v>
       </c>
       <c r="J15" t="n">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>4.9</v>
+        <v>3.3</v>
       </c>
       <c r="L15" t="n">
-        <v>1.29</v>
+        <v>1.47</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="N15" t="n">
-        <v>6</v>
+        <v>3.15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.19</v>
+        <v>1.38</v>
       </c>
       <c r="P15" t="n">
-        <v>2.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.56</v>
+        <v>2.16</v>
       </c>
       <c r="R15" t="n">
-        <v>1.71</v>
+        <v>1.28</v>
       </c>
       <c r="S15" t="n">
-        <v>2.38</v>
+        <v>3.95</v>
       </c>
       <c r="T15" t="n">
-        <v>1.66</v>
+        <v>1.83</v>
       </c>
       <c r="U15" t="n">
-        <v>2.46</v>
+        <v>1.98</v>
       </c>
       <c r="V15" t="n">
-        <v>2.72</v>
+        <v>1.43</v>
       </c>
       <c r="W15" t="n">
-        <v>1.18</v>
+        <v>1.54</v>
       </c>
       <c r="X15" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="Y15" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>12.5</v>
+        <v>21</v>
       </c>
       <c r="AA15" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>30</v>
+        <v>10.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>11.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>9.800000000000001</v>
+        <v>14.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>55</v>
+        <v>19.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>5.7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Fortaleza EC</t>
         </is>
       </c>
       <c r="F16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N16" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V16" t="n">
         <v>1.3</v>
       </c>
-      <c r="G16" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="H16" t="n">
+      <c r="W16" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="X16" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB16" t="n">
         <v>10.5</v>
       </c>
-      <c r="I16" t="n">
-        <v>11</v>
-      </c>
-      <c r="J16" t="n">
-        <v>7</v>
-      </c>
-      <c r="K16" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N16" t="n">
-        <v>10</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W16" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="X16" t="n">
-        <v>50</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>110</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>350</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AC16" t="n">
-        <v>17.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>38</v>
+        <v>16.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="AF16" t="n">
         <v>12.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AH16" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AJ16" t="n">
-        <v>12.5</v>
+        <v>22</v>
       </c>
       <c r="AK16" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN16" t="n">
         <v>12</v>
       </c>
-      <c r="AL16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>3</v>
-      </c>
       <c r="AO16" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Olimpia</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Club 2 de Mayo de Pedro Juan Cab</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M17" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N17" t="n">
+        <v>4</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T17" t="n">
         <v>1.04</v>
       </c>
-      <c r="N17" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.9</v>
-      </c>
       <c r="U17" t="n">
-        <v>2.06</v>
+        <v>1.04</v>
       </c>
       <c r="V17" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="W17" t="n">
-        <v>3.15</v>
+        <v>1.01</v>
       </c>
       <c r="X17" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>Juticalpa</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>CD Victoria</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="G18" t="n">
-        <v>1.58</v>
+        <v>2.16</v>
       </c>
       <c r="H18" t="n">
-        <v>6.4</v>
+        <v>2.7</v>
       </c>
       <c r="I18" t="n">
-        <v>6.6</v>
+        <v>4.7</v>
       </c>
       <c r="J18" t="n">
-        <v>4.7</v>
+        <v>3.15</v>
       </c>
       <c r="K18" t="n">
-        <v>4.8</v>
+        <v>7</v>
       </c>
       <c r="L18" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q18" t="n">
         <v>1.29</v>
       </c>
-      <c r="M18" t="n">
+      <c r="R18" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U18" t="n">
         <v>1.04</v>
       </c>
-      <c r="N18" t="n">
-        <v>6</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.34</v>
-      </c>
       <c r="V18" t="n">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="W18" t="n">
-        <v>2.72</v>
+        <v>1.86</v>
       </c>
       <c r="X18" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="AD18" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>5.7</v>
+        <v>600</v>
       </c>
       <c r="AO18" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,114 +2948,114 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Club Sportivo Ameliano</t>
+          <t>Deportes Concepcion</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Deportes Copiapo</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.05</v>
+        <v>2.22</v>
       </c>
       <c r="G19" t="n">
-        <v>3.4</v>
+        <v>2.38</v>
       </c>
       <c r="H19" t="n">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="I19" t="n">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="J19" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K19" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L19" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="M19" t="n">
         <v>1.09</v>
       </c>
       <c r="N19" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="O19" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P19" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="R19" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T19" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="U19" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="V19" t="n">
-        <v>1.6</v>
+        <v>1.31</v>
       </c>
       <c r="W19" t="n">
-        <v>1.41</v>
+        <v>1.73</v>
       </c>
       <c r="X19" t="n">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AC19" t="n">
-        <v>42</v>
+        <v>7.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE19" t="n">
         <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI19" t="n">
         <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL19" t="n">
         <v>1000</v>
@@ -3064,7 +3064,7 @@
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3073,7 +3073,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Atletico Bucaramanga</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.78</v>
+        <v>1.71</v>
       </c>
       <c r="G20" t="n">
-        <v>2.82</v>
+        <v>1.77</v>
       </c>
       <c r="H20" t="n">
-        <v>2.64</v>
+        <v>6.2</v>
       </c>
       <c r="I20" t="n">
-        <v>2.68</v>
+        <v>7</v>
       </c>
       <c r="J20" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="K20" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L20" t="n">
-        <v>1.34</v>
+        <v>1.52</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N20" t="n">
-        <v>5.2</v>
+        <v>2.98</v>
       </c>
       <c r="O20" t="n">
-        <v>1.22</v>
+        <v>1.46</v>
       </c>
       <c r="P20" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q20" t="n">
         <v>2.38</v>
       </c>
-      <c r="Q20" t="n">
-        <v>1.71</v>
-      </c>
       <c r="R20" t="n">
-        <v>1.57</v>
+        <v>1.23</v>
       </c>
       <c r="S20" t="n">
-        <v>2.72</v>
+        <v>4.8</v>
       </c>
       <c r="T20" t="n">
-        <v>1.6</v>
+        <v>2.24</v>
       </c>
       <c r="U20" t="n">
-        <v>2.6</v>
+        <v>1.73</v>
       </c>
       <c r="V20" t="n">
-        <v>1.59</v>
+        <v>1.16</v>
       </c>
       <c r="W20" t="n">
-        <v>1.54</v>
+        <v>2.3</v>
       </c>
       <c r="X20" t="n">
-        <v>20</v>
+        <v>10.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
-        <v>19.5</v>
+        <v>50</v>
       </c>
       <c r="AA20" t="n">
-        <v>38</v>
+        <v>220</v>
       </c>
       <c r="AB20" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AC20" t="n">
         <v>8.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>12.5</v>
+        <v>65</v>
       </c>
       <c r="AE20" t="n">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="AF20" t="n">
-        <v>20</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG20" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>14.5</v>
+        <v>65</v>
       </c>
       <c r="AI20" t="n">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="AJ20" t="n">
-        <v>42</v>
+        <v>17.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AL20" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AM20" t="n">
-        <v>60</v>
+        <v>580</v>
       </c>
       <c r="AN20" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AO20" t="n">
-        <v>15.5</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,123 +3218,123 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>San Marcos</t>
+          <t>Lanus</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Cobreloa Calama</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.64</v>
+        <v>2.12</v>
       </c>
       <c r="G21" t="n">
-        <v>2.84</v>
+        <v>2.16</v>
       </c>
       <c r="H21" t="n">
-        <v>2.96</v>
+        <v>4.9</v>
       </c>
       <c r="I21" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q21" t="n">
         <v>3.3</v>
       </c>
-      <c r="J21" t="n">
-        <v>3</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N21" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.16</v>
-      </c>
       <c r="R21" t="n">
-        <v>1.28</v>
+        <v>1.13</v>
       </c>
       <c r="S21" t="n">
-        <v>3.95</v>
+        <v>7.8</v>
       </c>
       <c r="T21" t="n">
-        <v>1.83</v>
+        <v>2.54</v>
       </c>
       <c r="U21" t="n">
-        <v>1.98</v>
+        <v>1.58</v>
       </c>
       <c r="V21" t="n">
-        <v>1.44</v>
+        <v>1.24</v>
       </c>
       <c r="W21" t="n">
-        <v>1.54</v>
+        <v>1.86</v>
       </c>
       <c r="X21" t="n">
-        <v>13.5</v>
+        <v>7</v>
       </c>
       <c r="Y21" t="n">
         <v>11.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AB21" t="n">
-        <v>10.5</v>
+        <v>5.6</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>14.5</v>
+        <v>26</v>
       </c>
       <c r="AE21" t="n">
         <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>18</v>
+        <v>11.5</v>
       </c>
       <c r="AG21" t="n">
         <v>13</v>
       </c>
       <c r="AH21" t="n">
-        <v>18.5</v>
+        <v>38</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK21" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>410</v>
       </c>
       <c r="AN21" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
@@ -3343,7 +3343,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>FC Juarez</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Fortaleza EC</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.95</v>
+        <v>3.8</v>
       </c>
       <c r="G22" t="n">
-        <v>1.97</v>
+        <v>4.1</v>
       </c>
       <c r="H22" t="n">
-        <v>4.1</v>
+        <v>2.08</v>
       </c>
       <c r="I22" t="n">
-        <v>4.3</v>
+        <v>2.14</v>
       </c>
       <c r="J22" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="K22" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="L22" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>4.4</v>
+        <v>3.85</v>
       </c>
       <c r="O22" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="P22" t="n">
-        <v>2.16</v>
+        <v>1.96</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="R22" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="S22" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="T22" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="U22" t="n">
-        <v>2.26</v>
+        <v>2.1</v>
       </c>
       <c r="V22" t="n">
-        <v>1.3</v>
+        <v>1.87</v>
       </c>
       <c r="W22" t="n">
-        <v>2.02</v>
+        <v>1.33</v>
       </c>
       <c r="X22" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>17</v>
+        <v>9.4</v>
       </c>
       <c r="Z22" t="n">
-        <v>32</v>
+        <v>13.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>10</v>
+        <v>14.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO22" t="n">
         <v>16.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,72 +3488,72 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Olimpia</t>
+          <t>Atletico Nacional Medell</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Club 2 de Mayo de Pedro Juan Cab</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="L23" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="M23" t="n">
         <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O23" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P23" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="R23" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="S23" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="T23" t="n">
-        <v>1.04</v>
+        <v>1.8</v>
       </c>
       <c r="U23" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="W23" t="n">
-        <v>1.01</v>
+        <v>2.52</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -3601,822 +3601,12 @@
         <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN23" t="n">
         <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2025-11-26</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>20:15:00</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Juticalpa</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>CD Victoria</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="G24" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="H24" t="n">
-        <v>3</v>
-      </c>
-      <c r="I24" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K24" t="n">
-        <v>500</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N24" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="X24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>60</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Chilean Primera B</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2025-11-26</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Deportes Concepcion</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Deportes Copiapo</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="H25" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="I25" t="n">
-        <v>4</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N25" t="n">
-        <v>3</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S25" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="X25" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>48</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>28</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2025-11-26</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Atletico Bucaramanga</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Fortaleza FC</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="H26" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N26" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S26" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="W26" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="X26" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>65</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>85</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2025-11-26</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Lanus</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Tigre</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="G27" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="H27" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="I27" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="K27" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N27" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="S27" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="T27" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W27" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="X27" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>200</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>200</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>40</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2025-11-26</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>FC Juarez</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Toluca</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="G28" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N28" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S28" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U28" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X28" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2025-11-26</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Atletico Nacional Medell</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Junior FC Barranquilla</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="H29" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="I29" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="J29" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K29" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N29" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P29" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S29" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U29" t="n">
-        <v>2</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W29" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="X29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO29" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
@@ -667,64 +667,64 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.93</v>
+        <v>1.24</v>
       </c>
       <c r="G2" t="n">
-        <v>2.04</v>
+        <v>1.26</v>
       </c>
       <c r="H2" t="n">
+        <v>27</v>
+      </c>
+      <c r="I2" t="n">
+        <v>32</v>
+      </c>
+      <c r="J2" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="S2" t="n">
+        <v>10</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="W2" t="n">
         <v>4.8</v>
       </c>
-      <c r="I2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S2" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.96</v>
-      </c>
       <c r="X2" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -733,43 +733,43 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.8</v>
+        <v>3.1</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>410</v>
       </c>
       <c r="AF2" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AG2" t="n">
         <v>11</v>
       </c>
-      <c r="AG2" t="n">
-        <v>12</v>
-      </c>
       <c r="AH2" t="n">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="AL2" t="n">
-        <v>65</v>
+        <v>230</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -808,10 +808,10 @@
         <v>1.33</v>
       </c>
       <c r="H3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="I3" t="n">
         <v>13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>13.5</v>
       </c>
       <c r="J3" t="n">
         <v>5.9</v>
@@ -820,34 +820,34 @@
         <v>6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O3" t="n">
         <v>1.23</v>
       </c>
       <c r="P3" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R3" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S3" t="n">
         <v>2.74</v>
       </c>
       <c r="T3" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="U3" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="V3" t="n">
         <v>1.08</v>
@@ -865,10 +865,10 @@
         <v>120</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>620</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC3" t="n">
         <v>13</v>
@@ -877,37 +877,37 @@
         <v>44</v>
       </c>
       <c r="AE3" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AF3" t="n">
         <v>7.6</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AI3" t="n">
         <v>170</v>
       </c>
       <c r="AJ3" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AK3" t="n">
         <v>14</v>
       </c>
       <c r="AL3" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AM3" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="AO3" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="H4" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="I4" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="J4" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K4" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L4" t="n">
         <v>1.35</v>
@@ -964,13 +964,13 @@
         <v>4.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="R4" t="n">
         <v>1.5</v>
@@ -979,31 +979,31 @@
         <v>2.94</v>
       </c>
       <c r="T4" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V4" t="n">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="W4" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="X4" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AA4" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC4" t="n">
         <v>9.800000000000001</v>
@@ -1012,13 +1012,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF4" t="n">
         <v>55</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AH4" t="n">
         <v>21</v>
@@ -1027,19 +1027,19 @@
         <v>34</v>
       </c>
       <c r="AJ4" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="AK4" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL4" t="n">
         <v>85</v>
       </c>
-      <c r="AL4" t="n">
-        <v>80</v>
-      </c>
       <c r="AM4" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN4" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AO4" t="n">
         <v>7.2</v>
@@ -1072,40 +1072,40 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="G5" t="n">
-        <v>3.85</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="I5" t="n">
-        <v>2.72</v>
+        <v>3.55</v>
       </c>
       <c r="J5" t="n">
-        <v>3.05</v>
+        <v>2.56</v>
       </c>
       <c r="K5" t="n">
-        <v>110</v>
+        <v>950</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
+        <v>2</v>
+      </c>
+      <c r="O5" t="n">
         <v>1.1</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.08</v>
-      </c>
       <c r="P5" t="n">
-        <v>1.86</v>
+        <v>1.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="R5" t="n">
         <v>1.17</v>
@@ -1117,13 +1117,13 @@
         <v>1.04</v>
       </c>
       <c r="U5" t="n">
-        <v>1.04</v>
+        <v>2.2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.58</v>
+        <v>1.26</v>
       </c>
       <c r="W5" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1207,25 +1207,25 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="G6" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="H6" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I6" t="n">
         <v>3.9</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4</v>
       </c>
       <c r="J6" t="n">
         <v>3.85</v>
       </c>
       <c r="K6" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
@@ -1234,55 +1234,55 @@
         <v>5.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P6" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R6" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S6" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="T6" t="n">
         <v>1.62</v>
       </c>
       <c r="U6" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V6" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="W6" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="X6" t="n">
         <v>21</v>
       </c>
       <c r="Y6" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="AA6" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AB6" t="n">
         <v>12.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD6" t="n">
         <v>16</v>
       </c>
       <c r="AE6" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AF6" t="n">
         <v>14.5</v>
@@ -1294,16 +1294,16 @@
         <v>15.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ6" t="n">
         <v>25</v>
       </c>
       <c r="AK6" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM6" t="n">
         <v>70</v>
@@ -1342,67 +1342,67 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="G7" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="H7" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="I7" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J7" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K7" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L7" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.27</v>
       </c>
       <c r="P7" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="Q7" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W7" t="n">
         <v>1.85</v>
       </c>
-      <c r="R7" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.8</v>
-      </c>
       <c r="X7" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y7" t="n">
         <v>16</v>
       </c>
-      <c r="Y7" t="n">
-        <v>14.5</v>
-      </c>
       <c r="Z7" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AA7" t="n">
         <v>65</v>
@@ -1411,16 +1411,16 @@
         <v>11.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD7" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF7" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG7" t="n">
         <v>10.5</v>
@@ -1432,19 +1432,19 @@
         <v>44</v>
       </c>
       <c r="AJ7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL7" t="n">
         <v>29</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>32</v>
       </c>
       <c r="AM7" t="n">
         <v>75</v>
       </c>
       <c r="AN7" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AO7" t="n">
         <v>32</v>
@@ -1477,61 +1477,61 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G8" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
         <v>3.05</v>
       </c>
-      <c r="I8" t="n">
-        <v>3.1</v>
-      </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K8" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P8" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q8" t="n">
         <v>1.96</v>
       </c>
       <c r="R8" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S8" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T8" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U8" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V8" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W8" t="n">
         <v>1.64</v>
       </c>
       <c r="X8" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y8" t="n">
         <v>12.5</v>
@@ -1540,34 +1540,34 @@
         <v>20</v>
       </c>
       <c r="AA8" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB8" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD8" t="n">
         <v>13</v>
       </c>
       <c r="AE8" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF8" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG8" t="n">
         <v>11.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI8" t="n">
         <v>42</v>
       </c>
       <c r="AJ8" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AK8" t="n">
         <v>25</v>
@@ -1630,34 +1630,34 @@
         <v>7.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M9" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="O9" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="P9" t="n">
         <v>4.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="R9" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="S9" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T9" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U9" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V9" t="n">
         <v>1.09</v>
@@ -1669,13 +1669,13 @@
         <v>55</v>
       </c>
       <c r="Y9" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Z9" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AA9" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="AB9" t="n">
         <v>18.5</v>
@@ -1684,10 +1684,10 @@
         <v>18</v>
       </c>
       <c r="AD9" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AE9" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AF9" t="n">
         <v>12.5</v>
@@ -1711,13 +1711,13 @@
         <v>24</v>
       </c>
       <c r="AM9" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN9" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="AO9" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
@@ -1747,112 +1747,112 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="H10" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="I10" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="J10" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="K10" t="n">
         <v>5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="R10" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="S10" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="T10" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="U10" t="n">
-        <v>2.5</v>
+        <v>2.64</v>
       </c>
       <c r="V10" t="n">
-        <v>2.72</v>
+        <v>2.52</v>
       </c>
       <c r="W10" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="X10" t="n">
         <v>30</v>
       </c>
       <c r="Y10" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC10" t="n">
         <v>12</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>11.5</v>
       </c>
       <c r="AD10" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AE10" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
+        <v>48</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK10" t="n">
         <v>55</v>
       </c>
-      <c r="AG10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>140</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>65</v>
-      </c>
       <c r="AL10" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM10" t="n">
         <v>55</v>
       </c>
-      <c r="AM10" t="n">
-        <v>65</v>
-      </c>
       <c r="AN10" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AO10" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="11">
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G11" t="n">
         <v>1.46</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.47</v>
       </c>
       <c r="H11" t="n">
         <v>8.199999999999999</v>
@@ -1894,10 +1894,10 @@
         <v>8.4</v>
       </c>
       <c r="J11" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K11" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L11" t="n">
         <v>1.33</v>
@@ -1906,22 +1906,22 @@
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P11" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="R11" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S11" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="T11" t="n">
         <v>1.92</v>
@@ -1933,31 +1933,31 @@
         <v>1.13</v>
       </c>
       <c r="W11" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="X11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z11" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AA11" t="n">
         <v>250</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC11" t="n">
         <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE11" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AF11" t="n">
         <v>9</v>
@@ -1984,10 +1984,10 @@
         <v>120</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AO11" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12">
@@ -2023,16 +2023,16 @@
         <v>1.58</v>
       </c>
       <c r="H12" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I12" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J12" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K12" t="n">
         <v>4.7</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4.8</v>
       </c>
       <c r="L12" t="n">
         <v>1.29</v>
@@ -2047,19 +2047,19 @@
         <v>1.18</v>
       </c>
       <c r="P12" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="Q12" t="n">
         <v>1.58</v>
       </c>
       <c r="R12" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="S12" t="n">
         <v>2.42</v>
       </c>
       <c r="T12" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U12" t="n">
         <v>2.34</v>
@@ -2074,13 +2074,13 @@
         <v>25</v>
       </c>
       <c r="Y12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z12" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA12" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="AB12" t="n">
         <v>12.5</v>
@@ -2116,13 +2116,13 @@
         <v>28</v>
       </c>
       <c r="AM12" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AO12" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G13" t="n">
         <v>3.3</v>
@@ -2167,7 +2167,7 @@
         <v>3.15</v>
       </c>
       <c r="K13" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L13" t="n">
         <v>1.48</v>
@@ -2200,16 +2200,16 @@
         <v>1.98</v>
       </c>
       <c r="V13" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W13" t="n">
         <v>1.43</v>
       </c>
       <c r="X13" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="Y13" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="Z13" t="n">
         <v>1000</v>
@@ -2218,31 +2218,31 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="AC13" t="n">
-        <v>36</v>
+        <v>13.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AE13" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
         <v>110</v>
       </c>
       <c r="AG13" t="n">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI13" t="n">
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>900</v>
+        <v>190</v>
       </c>
       <c r="AK13" t="n">
         <v>250</v>
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="G14" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="H14" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="I14" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="J14" t="n">
         <v>3.7</v>
@@ -2305,7 +2305,7 @@
         <v>3.75</v>
       </c>
       <c r="L14" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
@@ -2317,7 +2317,7 @@
         <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q14" t="n">
         <v>1.71</v>
@@ -2326,46 +2326,46 @@
         <v>1.56</v>
       </c>
       <c r="S14" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="T14" t="n">
         <v>1.6</v>
       </c>
       <c r="U14" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="V14" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="W14" t="n">
         <v>1.54</v>
       </c>
       <c r="X14" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z14" t="n">
         <v>19</v>
       </c>
       <c r="AA14" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB14" t="n">
         <v>15</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE14" t="n">
         <v>24</v>
       </c>
       <c r="AF14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG14" t="n">
         <v>12.5</v>
@@ -2377,7 +2377,7 @@
         <v>32</v>
       </c>
       <c r="AJ14" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AK14" t="n">
         <v>26</v>
@@ -2389,7 +2389,7 @@
         <v>60</v>
       </c>
       <c r="AN14" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO14" t="n">
         <v>16</v>
@@ -2425,109 +2425,109 @@
         <v>2.64</v>
       </c>
       <c r="G15" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="H15" t="n">
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="K15" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N15" t="n">
-        <v>3.15</v>
+        <v>2.96</v>
       </c>
       <c r="O15" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="P15" t="n">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="R15" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="S15" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="T15" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="U15" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="V15" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="W15" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="X15" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF15" t="n">
         <v>19.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO15" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
@@ -2557,97 +2557,97 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="G16" t="n">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="H16" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I16" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="J16" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M16" t="n">
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O16" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V16" t="n">
         <v>1.27</v>
       </c>
-      <c r="P16" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.3</v>
-      </c>
       <c r="W16" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="X16" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA16" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AB16" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AF16" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH16" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI16" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK16" t="n">
         <v>18.5</v>
@@ -2656,13 +2656,13 @@
         <v>32</v>
       </c>
       <c r="AM16" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN16" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>140</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -2827,112 +2827,112 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.71</v>
+        <v>1.96</v>
       </c>
       <c r="G18" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="H18" t="n">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="I18" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K18" t="n">
-        <v>7</v>
+        <v>4.6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>1.1</v>
+        <v>3.85</v>
       </c>
       <c r="O18" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P18" t="n">
-        <v>1.38</v>
+        <v>2.14</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.29</v>
+        <v>1.66</v>
       </c>
       <c r="R18" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="S18" t="n">
-        <v>1.05</v>
+        <v>2.68</v>
       </c>
       <c r="T18" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W18" t="n">
         <v>1.79</v>
       </c>
-      <c r="U18" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.86</v>
-      </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>42</v>
+        <v>10.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>600</v>
+        <v>13</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
@@ -2962,28 +2962,28 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G19" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H19" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I19" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J19" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K19" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L19" t="n">
         <v>1.5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N19" t="n">
         <v>3.05</v>
@@ -2992,13 +2992,13 @@
         <v>1.42</v>
       </c>
       <c r="P19" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R19" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S19" t="n">
         <v>4.2</v>
@@ -3010,25 +3010,25 @@
         <v>1.89</v>
       </c>
       <c r="V19" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W19" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X19" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z19" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB19" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC19" t="n">
         <v>7.8</v>
@@ -3046,7 +3046,7 @@
         <v>12</v>
       </c>
       <c r="AH19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI19" t="n">
         <v>1000</v>
@@ -3055,7 +3055,7 @@
         <v>110</v>
       </c>
       <c r="AK19" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="AL19" t="n">
         <v>1000</v>
@@ -3064,7 +3064,7 @@
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3097,25 +3097,25 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="G20" t="n">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="H20" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I20" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="J20" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K20" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L20" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="M20" t="n">
         <v>1.1</v>
@@ -3127,43 +3127,43 @@
         <v>1.46</v>
       </c>
       <c r="P20" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q20" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W20" t="n">
         <v>2.38</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S20" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="W20" t="n">
-        <v>2.3</v>
       </c>
       <c r="X20" t="n">
         <v>10.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z20" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA20" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="AB20" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AC20" t="n">
         <v>8.6</v>
@@ -3172,37 +3172,37 @@
         <v>65</v>
       </c>
       <c r="AE20" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AF20" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AG20" t="n">
         <v>10.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AI20" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AJ20" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AK20" t="n">
         <v>22</v>
       </c>
       <c r="AL20" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AM20" t="n">
-        <v>580</v>
+        <v>260</v>
       </c>
       <c r="AN20" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21">
@@ -3238,13 +3238,13 @@
         <v>2.16</v>
       </c>
       <c r="H21" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I21" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
         <v>3.1</v>
@@ -3256,73 +3256,73 @@
         <v>1.17</v>
       </c>
       <c r="N21" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="O21" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="P21" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="R21" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="S21" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="T21" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="U21" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="V21" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W21" t="n">
         <v>1.86</v>
       </c>
       <c r="X21" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="Y21" t="n">
         <v>11.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AA21" t="n">
         <v>200</v>
       </c>
       <c r="AB21" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="AC21" t="n">
         <v>7.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE21" t="n">
         <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AI21" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AJ21" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AK21" t="n">
         <v>1000</v>
@@ -3331,10 +3331,10 @@
         <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="AN21" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="G22" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H22" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="I22" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="J22" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K22" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L22" t="n">
         <v>1.42</v>
@@ -3406,25 +3406,25 @@
         <v>1.36</v>
       </c>
       <c r="S22" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T22" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U22" t="n">
         <v>2.1</v>
       </c>
       <c r="V22" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="W22" t="n">
         <v>1.33</v>
       </c>
       <c r="X22" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Z22" t="n">
         <v>13.5</v>
@@ -3433,31 +3433,31 @@
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD22" t="n">
         <v>11</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AF22" t="n">
         <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AK22" t="n">
         <v>1000</v>
@@ -3469,10 +3469,10 @@
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO22" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="G23" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="H23" t="n">
         <v>5.7</v>
       </c>
       <c r="I23" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J23" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K23" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L23" t="n">
         <v>1.35</v>
@@ -3529,31 +3529,31 @@
         <v>4.3</v>
       </c>
       <c r="O23" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P23" t="n">
         <v>2.16</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R23" t="n">
         <v>1.45</v>
       </c>
       <c r="S23" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="T23" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U23" t="n">
         <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="W23" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -3565,7 +3565,7 @@
         <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB23" t="n">
         <v>1000</v>
@@ -3601,7 +3601,7 @@
         <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN23" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO23"/>
+  <dimension ref="A1:AO22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,126 +653,126 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Juventus B</t>
+          <t>Kairat Almaty</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.24</v>
+        <v>1.36</v>
       </c>
       <c r="G2" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H2" t="n">
+        <v>11</v>
+      </c>
+      <c r="I2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O2" t="n">
         <v>1.26</v>
       </c>
-      <c r="H2" t="n">
-        <v>27</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="P2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W2" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X2" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y2" t="n">
         <v>32</v>
       </c>
-      <c r="J2" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="K2" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="S2" t="n">
-        <v>10</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="W2" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1000</v>
-      </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>610</v>
       </c>
       <c r="AB2" t="n">
-        <v>3.1</v>
+        <v>8.4</v>
       </c>
       <c r="AC2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>42</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>990</v>
+      </c>
+      <c r="AF2" t="n">
         <v>7.2</v>
       </c>
-      <c r="AD2" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>410</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>4.6</v>
-      </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ2" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AK2" t="n">
         <v>14.5</v>
       </c>
-      <c r="AK2" t="n">
-        <v>42</v>
-      </c>
       <c r="AL2" t="n">
-        <v>230</v>
+        <v>55</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN2" t="n">
-        <v>44</v>
+        <v>5.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3">
@@ -793,127 +793,127 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Pafos FC</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Kairat Almaty</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.32</v>
+        <v>7</v>
       </c>
       <c r="G3" t="n">
-        <v>1.33</v>
+        <v>7.2</v>
       </c>
       <c r="H3" t="n">
-        <v>12.5</v>
+        <v>1.53</v>
       </c>
       <c r="I3" t="n">
-        <v>13</v>
+        <v>1.54</v>
       </c>
       <c r="J3" t="n">
-        <v>5.9</v>
+        <v>4.8</v>
       </c>
       <c r="K3" t="n">
-        <v>6</v>
+        <v>4.9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O3" t="n">
         <v>1.23</v>
       </c>
       <c r="P3" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R3" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="S3" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="T3" t="n">
-        <v>2.26</v>
+        <v>1.88</v>
       </c>
       <c r="U3" t="n">
-        <v>1.76</v>
+        <v>2.12</v>
       </c>
       <c r="V3" t="n">
-        <v>1.08</v>
+        <v>2.86</v>
       </c>
       <c r="W3" t="n">
-        <v>4</v>
+        <v>1.16</v>
       </c>
       <c r="X3" t="n">
         <v>20</v>
       </c>
       <c r="Y3" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>210</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="n">
         <v>120</v>
       </c>
-      <c r="AA3" t="n">
-        <v>620</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>44</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>200</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>170</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>180</v>
-      </c>
       <c r="AN3" t="n">
-        <v>4.7</v>
+        <v>110</v>
       </c>
       <c r="AO3" t="n">
-        <v>240</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>AD Ceuta FC</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>2.44</v>
       </c>
       <c r="G4" t="n">
-        <v>7.2</v>
+        <v>4.7</v>
       </c>
       <c r="H4" t="n">
-        <v>1.56</v>
+        <v>2.38</v>
       </c>
       <c r="I4" t="n">
-        <v>1.57</v>
+        <v>4.4</v>
       </c>
       <c r="J4" t="n">
-        <v>4.6</v>
+        <v>2.74</v>
       </c>
       <c r="K4" t="n">
-        <v>4.7</v>
+        <v>2.84</v>
       </c>
       <c r="L4" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S4" t="n">
         <v>1.05</v>
       </c>
-      <c r="N4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.94</v>
-      </c>
       <c r="T4" t="n">
-        <v>1.9</v>
+        <v>1.04</v>
       </c>
       <c r="U4" t="n">
-        <v>2.08</v>
+        <v>2.42</v>
       </c>
       <c r="V4" t="n">
-        <v>2.76</v>
+        <v>1.29</v>
       </c>
       <c r="W4" t="n">
-        <v>1.16</v>
+        <v>1.28</v>
       </c>
       <c r="X4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>42</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>80</v>
+      </c>
+      <c r="AH4" t="n">
         <v>18.5</v>
       </c>
-      <c r="Y4" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF4" t="n">
+      <c r="AI4" t="n">
         <v>55</v>
       </c>
-      <c r="AG4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>34</v>
-      </c>
       <c r="AJ4" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AK4" t="n">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="AL4" t="n">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="AM4" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN4" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>7.2</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>AD Ceuta FC</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>St Gallen</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.34</v>
+        <v>1.99</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>2.18</v>
+        <v>4.1</v>
       </c>
       <c r="I5" t="n">
-        <v>3.55</v>
+        <v>4.2</v>
       </c>
       <c r="J5" t="n">
-        <v>2.56</v>
+        <v>3.8</v>
       </c>
       <c r="K5" t="n">
-        <v>950</v>
+        <v>3.85</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>2</v>
+        <v>4.7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>1.25</v>
+        <v>2.22</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.1</v>
+        <v>1.77</v>
       </c>
       <c r="R5" t="n">
-        <v>1.17</v>
+        <v>1.49</v>
       </c>
       <c r="S5" t="n">
-        <v>1.05</v>
+        <v>2.94</v>
       </c>
       <c r="T5" t="n">
-        <v>1.04</v>
+        <v>1.69</v>
       </c>
       <c r="U5" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="V5" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="W5" t="n">
-        <v>1.42</v>
+        <v>1.98</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,99 +1193,99 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>St Gallen</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="G6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="I6" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J6" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="K6" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="P6" t="n">
-        <v>2.34</v>
+        <v>2.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.71</v>
+        <v>1.82</v>
       </c>
       <c r="R6" t="n">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="S6" t="n">
-        <v>2.76</v>
+        <v>3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="U6" t="n">
-        <v>2.48</v>
+        <v>2.36</v>
       </c>
       <c r="V6" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="W6" t="n">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="X6" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA6" t="n">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="AB6" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE6" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF6" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG6" t="n">
         <v>10.5</v>
@@ -1294,22 +1294,22 @@
         <v>15.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK6" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AL6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM6" t="n">
         <v>70</v>
       </c>
       <c r="AN6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO6" t="n">
         <v>32</v>
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Olympiakos</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.16</v>
+        <v>5.2</v>
       </c>
       <c r="G7" t="n">
-        <v>2.18</v>
+        <v>5.4</v>
       </c>
       <c r="H7" t="n">
-        <v>3.7</v>
+        <v>1.63</v>
       </c>
       <c r="I7" t="n">
-        <v>3.75</v>
+        <v>1.64</v>
       </c>
       <c r="J7" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>3.75</v>
+        <v>5.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>4.5</v>
+        <v>6.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="P7" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.82</v>
+        <v>1.48</v>
       </c>
       <c r="R7" t="n">
-        <v>1.48</v>
+        <v>1.79</v>
       </c>
       <c r="S7" t="n">
-        <v>3</v>
+        <v>2.22</v>
       </c>
       <c r="T7" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="U7" t="n">
-        <v>2.38</v>
+        <v>2.64</v>
       </c>
       <c r="V7" t="n">
-        <v>1.36</v>
+        <v>2.56</v>
       </c>
       <c r="W7" t="n">
-        <v>1.85</v>
+        <v>1.22</v>
       </c>
       <c r="X7" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="Y7" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>26</v>
+        <v>13.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>65</v>
+        <v>17.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>11.5</v>
+        <v>28</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.199999999999999</v>
+        <v>12</v>
       </c>
       <c r="AD7" t="n">
-        <v>15.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE7" t="n">
-        <v>40</v>
+        <v>14.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="AG7" t="n">
-        <v>10.5</v>
+        <v>19.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="AJ7" t="n">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="AK7" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="AL7" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="AM7" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AN7" t="n">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="AO7" t="n">
-        <v>32</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="8">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.54</v>
+        <v>1.29</v>
       </c>
       <c r="G8" t="n">
-        <v>2.56</v>
+        <v>1.3</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>10.5</v>
       </c>
       <c r="I8" t="n">
-        <v>3.05</v>
+        <v>11</v>
       </c>
       <c r="J8" t="n">
-        <v>3.55</v>
+        <v>7.2</v>
       </c>
       <c r="K8" t="n">
-        <v>3.6</v>
+        <v>7.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P8" t="n">
         <v>4.1</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
         <v>1.3</v>
       </c>
-      <c r="P8" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.96</v>
-      </c>
       <c r="R8" t="n">
-        <v>1.41</v>
+        <v>2.24</v>
       </c>
       <c r="S8" t="n">
-        <v>3.35</v>
+        <v>1.78</v>
       </c>
       <c r="T8" t="n">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="U8" t="n">
-        <v>2.3</v>
+        <v>2.46</v>
       </c>
       <c r="V8" t="n">
-        <v>1.48</v>
+        <v>1.1</v>
       </c>
       <c r="W8" t="n">
-        <v>1.64</v>
+        <v>4.3</v>
       </c>
       <c r="X8" t="n">
-        <v>14.5</v>
+        <v>55</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.5</v>
+        <v>60</v>
       </c>
       <c r="Z8" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="AA8" t="n">
-        <v>48</v>
+        <v>300</v>
       </c>
       <c r="AB8" t="n">
-        <v>11.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.8</v>
+        <v>18.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="AE8" t="n">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="AF8" t="n">
-        <v>16.5</v>
+        <v>12</v>
       </c>
       <c r="AG8" t="n">
         <v>11.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AI8" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="AJ8" t="n">
-        <v>36</v>
+        <v>12.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="AL8" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="AM8" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AN8" t="n">
-        <v>20</v>
+        <v>3.05</v>
       </c>
       <c r="AO8" t="n">
-        <v>28</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.29</v>
+        <v>2.56</v>
       </c>
       <c r="G9" t="n">
-        <v>1.3</v>
+        <v>2.58</v>
       </c>
       <c r="H9" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="X9" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB9" t="n">
         <v>11.5</v>
       </c>
-      <c r="J9" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N9" t="n">
-        <v>10</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W9" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="X9" t="n">
-        <v>55</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>120</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>360</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AC9" t="n">
-        <v>18</v>
+        <v>7.8</v>
       </c>
       <c r="AD9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI9" t="n">
         <v>40</v>
       </c>
-      <c r="AE9" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>85</v>
-      </c>
       <c r="AJ9" t="n">
-        <v>12.5</v>
+        <v>36</v>
       </c>
       <c r="AK9" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AL9" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="AM9" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.05</v>
+        <v>21</v>
       </c>
       <c r="AO9" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Olympiakos</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.2</v>
+        <v>1.43</v>
       </c>
       <c r="G10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H10" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="J10" t="n">
         <v>5.3</v>
       </c>
-      <c r="H10" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4.8</v>
-      </c>
       <c r="K10" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>2.46</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.49</v>
+        <v>1.68</v>
       </c>
       <c r="R10" t="n">
-        <v>1.79</v>
+        <v>1.59</v>
       </c>
       <c r="S10" t="n">
-        <v>2.22</v>
+        <v>2.66</v>
       </c>
       <c r="T10" t="n">
-        <v>1.57</v>
+        <v>1.93</v>
       </c>
       <c r="U10" t="n">
-        <v>2.64</v>
+        <v>2.02</v>
       </c>
       <c r="V10" t="n">
-        <v>2.52</v>
+        <v>1.13</v>
       </c>
       <c r="W10" t="n">
-        <v>1.23</v>
+        <v>3.25</v>
       </c>
       <c r="X10" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>250</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL10" t="n">
         <v>30</v>
       </c>
-      <c r="Y10" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>48</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ10" t="n">
+      <c r="AM10" t="n">
         <v>110</v>
       </c>
-      <c r="AK10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>55</v>
-      </c>
       <c r="AN10" t="n">
-        <v>40</v>
+        <v>5.4</v>
       </c>
       <c r="AO10" t="n">
-        <v>6.2</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="G11" t="n">
-        <v>1.46</v>
+        <v>1.56</v>
       </c>
       <c r="H11" t="n">
-        <v>8.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="I11" t="n">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="K11" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>2.42</v>
+        <v>2.68</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="R11" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="S11" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="T11" t="n">
-        <v>1.92</v>
+        <v>1.7</v>
       </c>
       <c r="U11" t="n">
-        <v>2.04</v>
+        <v>2.34</v>
       </c>
       <c r="V11" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="W11" t="n">
-        <v>3.15</v>
+        <v>2.78</v>
       </c>
       <c r="X11" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Y11" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Z11" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AA11" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.6</v>
+        <v>12.5</v>
       </c>
       <c r="AC11" t="n">
         <v>11</v>
       </c>
       <c r="AD11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL11" t="n">
         <v>28</v>
       </c>
-      <c r="AE11" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>32</v>
-      </c>
       <c r="AM11" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AO11" t="n">
-        <v>160</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>Club Sportivo Ameliano</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.57</v>
+        <v>3.05</v>
       </c>
       <c r="G12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V12" t="n">
         <v>1.58</v>
       </c>
-      <c r="H12" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="I12" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N12" t="n">
-        <v>6</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.17</v>
-      </c>
       <c r="W12" t="n">
-        <v>2.72</v>
+        <v>1.43</v>
       </c>
       <c r="X12" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Y12" t="n">
-        <v>29</v>
+        <v>19.5</v>
       </c>
       <c r="Z12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH12" t="n">
         <v>60</v>
       </c>
-      <c r="AA12" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>18</v>
-      </c>
       <c r="AI12" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>14.5</v>
+        <v>190</v>
       </c>
       <c r="AK12" t="n">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="AL12" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Club Sportivo Ameliano</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="G13" t="n">
-        <v>3.3</v>
+        <v>2.82</v>
       </c>
       <c r="H13" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="I13" t="n">
         <v>2.7</v>
       </c>
       <c r="J13" t="n">
-        <v>3.15</v>
+        <v>3.7</v>
       </c>
       <c r="K13" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="L13" t="n">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
       <c r="M13" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>3.3</v>
+        <v>5.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.39</v>
+        <v>1.23</v>
       </c>
       <c r="P13" t="n">
-        <v>1.76</v>
+        <v>2.38</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.18</v>
+        <v>1.72</v>
       </c>
       <c r="R13" t="n">
-        <v>1.28</v>
+        <v>1.55</v>
       </c>
       <c r="S13" t="n">
-        <v>4.1</v>
+        <v>2.78</v>
       </c>
       <c r="T13" t="n">
-        <v>1.83</v>
+        <v>1.61</v>
       </c>
       <c r="U13" t="n">
-        <v>1.98</v>
+        <v>2.58</v>
       </c>
       <c r="V13" t="n">
         <v>1.59</v>
       </c>
       <c r="W13" t="n">
-        <v>1.43</v>
+        <v>1.54</v>
       </c>
       <c r="X13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE13" t="n">
         <v>25</v>
       </c>
-      <c r="Y13" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>1000</v>
-      </c>
       <c r="AF13" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="AG13" t="n">
-        <v>28</v>
+        <v>12.5</v>
       </c>
       <c r="AH13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM13" t="n">
         <v>60</v>
       </c>
-      <c r="AI13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>190</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>250</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>San Marcos</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Cobreloa Calama</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="G14" t="n">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="H14" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="I14" t="n">
-        <v>2.62</v>
+        <v>3.05</v>
       </c>
       <c r="J14" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="L14" t="n">
-        <v>1.35</v>
+        <v>1.51</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>5.1</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.22</v>
+        <v>1.45</v>
       </c>
       <c r="P14" t="n">
-        <v>2.36</v>
+        <v>1.66</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.71</v>
+        <v>2.34</v>
       </c>
       <c r="R14" t="n">
-        <v>1.56</v>
+        <v>1.24</v>
       </c>
       <c r="S14" t="n">
-        <v>2.76</v>
+        <v>4.5</v>
       </c>
       <c r="T14" t="n">
-        <v>1.6</v>
+        <v>1.92</v>
       </c>
       <c r="U14" t="n">
-        <v>2.62</v>
+        <v>1.95</v>
       </c>
       <c r="V14" t="n">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="W14" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="X14" t="n">
-        <v>19.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA14" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
         <v>21</v>
       </c>
       <c r="AG14" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AI14" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AJ14" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AK14" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AL14" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AM14" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>San Marcos</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Cobreloa Calama</t>
+          <t>Fortaleza EC</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.64</v>
+        <v>1.88</v>
       </c>
       <c r="G15" t="n">
-        <v>2.86</v>
+        <v>1.89</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="I15" t="n">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="J15" t="n">
-        <v>2.94</v>
+        <v>3.9</v>
       </c>
       <c r="K15" t="n">
-        <v>3.2</v>
+        <v>3.95</v>
       </c>
       <c r="L15" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M15" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>2.96</v>
+        <v>4.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="P15" t="n">
-        <v>1.66</v>
+        <v>2.06</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="R15" t="n">
-        <v>1.24</v>
+        <v>1.41</v>
       </c>
       <c r="S15" t="n">
-        <v>4.2</v>
+        <v>3.35</v>
       </c>
       <c r="T15" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="U15" t="n">
-        <v>1.94</v>
+        <v>2.18</v>
       </c>
       <c r="V15" t="n">
-        <v>1.42</v>
+        <v>1.26</v>
       </c>
       <c r="W15" t="n">
-        <v>1.53</v>
+        <v>2.12</v>
       </c>
       <c r="X15" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Z15" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB15" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AC15" t="n">
         <v>8.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AF15" t="n">
-        <v>19.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>13.5</v>
+        <v>9.6</v>
       </c>
       <c r="AH15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>21</v>
       </c>
-      <c r="AI15" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>50</v>
-      </c>
       <c r="AK15" t="n">
-        <v>38</v>
+        <v>18.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN15" t="n">
-        <v>38</v>
+        <v>12.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Olimpia</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Fortaleza EC</t>
+          <t>Club 2 de Mayo de Pedro Juan Cab</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M16" t="n">
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O16" t="n">
         <v>1.28</v>
       </c>
       <c r="P16" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="Q16" t="n">
         <v>1.86</v>
       </c>
       <c r="R16" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="S16" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T16" t="n">
-        <v>1.77</v>
+        <v>1.04</v>
       </c>
       <c r="U16" t="n">
-        <v>2.24</v>
+        <v>1.04</v>
       </c>
       <c r="V16" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="W16" t="n">
-        <v>2.1</v>
+        <v>1.01</v>
       </c>
       <c r="X16" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Olimpia</t>
+          <t>Juticalpa</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Club 2 de Mayo de Pedro Juan Cab</t>
+          <t>CD Victoria</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="L17" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O17" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="P17" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="R17" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S17" t="n">
-        <v>3.2</v>
+        <v>2.78</v>
       </c>
       <c r="T17" t="n">
-        <v>1.04</v>
+        <v>1.63</v>
       </c>
       <c r="U17" t="n">
-        <v>1.04</v>
+        <v>2.22</v>
       </c>
       <c r="V17" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="W17" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Juticalpa</t>
+          <t>Deportes Concepcion</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CD Victoria</t>
+          <t>Deportes Copiapo</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.96</v>
+        <v>2.26</v>
       </c>
       <c r="G18" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="H18" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K18" t="n">
         <v>3.25</v>
       </c>
-      <c r="I18" t="n">
-        <v>4</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K18" t="n">
-        <v>4.6</v>
-      </c>
       <c r="L18" t="n">
-        <v>1.36</v>
+        <v>1.51</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N18" t="n">
-        <v>3.85</v>
+        <v>3.05</v>
       </c>
       <c r="O18" t="n">
-        <v>1.26</v>
+        <v>1.44</v>
       </c>
       <c r="P18" t="n">
-        <v>2.14</v>
+        <v>1.68</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.66</v>
+        <v>2.34</v>
       </c>
       <c r="R18" t="n">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="S18" t="n">
-        <v>2.68</v>
+        <v>4.5</v>
       </c>
       <c r="T18" t="n">
-        <v>1.62</v>
+        <v>1.97</v>
       </c>
       <c r="U18" t="n">
-        <v>2.24</v>
+        <v>1.92</v>
       </c>
       <c r="V18" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W18" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="X18" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Y18" t="n">
-        <v>18</v>
+        <v>12.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA18" t="n">
-        <v>900</v>
+        <v>190</v>
       </c>
       <c r="AB18" t="n">
-        <v>12.5</v>
+        <v>8.4</v>
       </c>
       <c r="AC18" t="n">
-        <v>10.5</v>
+        <v>7.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AE18" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AF18" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH18" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AI18" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN18" t="n">
         <v>28</v>
       </c>
-      <c r="AK18" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>13</v>
-      </c>
       <c r="AO18" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,31 +2953,31 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Deportes Concepcion</t>
+          <t>Atletico Bucaramanga</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Deportes Copiapo</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="G19" t="n">
-        <v>2.36</v>
+        <v>1.72</v>
       </c>
       <c r="H19" t="n">
-        <v>3.75</v>
+        <v>6.4</v>
       </c>
       <c r="I19" t="n">
-        <v>4.3</v>
+        <v>7.4</v>
       </c>
       <c r="J19" t="n">
-        <v>3.05</v>
+        <v>3.65</v>
       </c>
       <c r="K19" t="n">
-        <v>3.3</v>
+        <v>3.95</v>
       </c>
       <c r="L19" t="n">
         <v>1.5</v>
@@ -2986,85 +2986,85 @@
         <v>1.1</v>
       </c>
       <c r="N19" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O19" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="P19" t="n">
         <v>1.67</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="R19" t="n">
         <v>1.24</v>
       </c>
       <c r="S19" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="T19" t="n">
-        <v>1.93</v>
+        <v>2.26</v>
       </c>
       <c r="U19" t="n">
-        <v>1.89</v>
+        <v>1.72</v>
       </c>
       <c r="V19" t="n">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="W19" t="n">
-        <v>1.74</v>
+        <v>2.38</v>
       </c>
       <c r="X19" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="AA19" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="AB19" t="n">
-        <v>8.4</v>
+        <v>6.4</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>17.5</v>
+        <v>46</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF19" t="n">
-        <v>14</v>
+        <v>8.6</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AK19" t="n">
         <v>22</v>
       </c>
-      <c r="AI19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>80</v>
-      </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AN19" t="n">
-        <v>26</v>
+        <v>15.5</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3073,7 +3073,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Atletico Bucaramanga</t>
+          <t>Lanus</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.66</v>
+        <v>2.12</v>
       </c>
       <c r="G20" t="n">
-        <v>1.72</v>
+        <v>2.16</v>
       </c>
       <c r="H20" t="n">
-        <v>6.4</v>
+        <v>4.8</v>
       </c>
       <c r="I20" t="n">
-        <v>7.6</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>3.65</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="L20" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="M20" t="n">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="N20" t="n">
-        <v>2.98</v>
+        <v>2.4</v>
       </c>
       <c r="O20" t="n">
-        <v>1.46</v>
+        <v>1.68</v>
       </c>
       <c r="P20" t="n">
-        <v>1.67</v>
+        <v>1.45</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.34</v>
+        <v>3.1</v>
       </c>
       <c r="R20" t="n">
-        <v>1.24</v>
+        <v>1.16</v>
       </c>
       <c r="S20" t="n">
-        <v>4.7</v>
+        <v>6.8</v>
       </c>
       <c r="T20" t="n">
-        <v>2.26</v>
+        <v>2.42</v>
       </c>
       <c r="U20" t="n">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="V20" t="n">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="W20" t="n">
-        <v>2.38</v>
+        <v>1.86</v>
       </c>
       <c r="X20" t="n">
-        <v>10.5</v>
+        <v>7.4</v>
       </c>
       <c r="Y20" t="n">
-        <v>18</v>
+        <v>11.5</v>
       </c>
       <c r="Z20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH20" t="n">
         <v>55</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>250</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>65</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>46</v>
       </c>
       <c r="AI20" t="n">
         <v>160</v>
       </c>
       <c r="AJ20" t="n">
-        <v>16.5</v>
+        <v>29</v>
       </c>
       <c r="AK20" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="AL20" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>260</v>
+        <v>330</v>
       </c>
       <c r="AN20" t="n">
-        <v>15.5</v>
+        <v>36</v>
       </c>
       <c r="AO20" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Lanus</t>
+          <t>FC Juarez</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="F21" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U21" t="n">
         <v>2.12</v>
       </c>
-      <c r="G21" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="H21" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="I21" t="n">
-        <v>5</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N21" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S21" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.6</v>
-      </c>
       <c r="V21" t="n">
-        <v>1.25</v>
+        <v>1.89</v>
       </c>
       <c r="W21" t="n">
-        <v>1.86</v>
+        <v>1.33</v>
       </c>
       <c r="X21" t="n">
-        <v>7.2</v>
+        <v>15.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>11.5</v>
+        <v>9.4</v>
       </c>
       <c r="Z21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>95</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN21" t="n">
         <v>55</v>
       </c>
-      <c r="AA21" t="n">
-        <v>200</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>180</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>360</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,111 +3353,111 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FC Juarez</t>
+          <t>Atletico Nacional Medell</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Toluca</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.75</v>
+        <v>1.62</v>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>1.66</v>
       </c>
       <c r="H22" t="n">
-        <v>2.06</v>
+        <v>5.7</v>
       </c>
       <c r="I22" t="n">
-        <v>2.12</v>
+        <v>6.6</v>
       </c>
       <c r="J22" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="K22" t="n">
-        <v>3.85</v>
+        <v>4.6</v>
       </c>
       <c r="L22" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="O22" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="P22" t="n">
-        <v>1.96</v>
+        <v>2.16</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.98</v>
+        <v>1.77</v>
       </c>
       <c r="R22" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="S22" t="n">
-        <v>3.5</v>
+        <v>2.98</v>
       </c>
       <c r="T22" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U22" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V22" t="n">
-        <v>1.89</v>
+        <v>1.19</v>
       </c>
       <c r="W22" t="n">
-        <v>1.33</v>
+        <v>2.5</v>
       </c>
       <c r="X22" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB22" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF22" t="n">
         <v>11</v>
       </c>
-      <c r="AE22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>1000</v>
-      </c>
       <c r="AG22" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI22" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
         <v>1000</v>
@@ -3466,147 +3466,12 @@
         <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN22" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2025-11-26</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Atletico Nacional Medell</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Junior FC Barranquilla</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="H23" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="I23" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="J23" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N23" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U23" t="n">
-        <v>2</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="W23" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="X23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>190</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO23" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO22"/>
+  <dimension ref="A1:AO21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="H2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>5.6</v>
+        <v>1.2</v>
       </c>
       <c r="K2" t="n">
-        <v>5.7</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.24</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2.98</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>3.7</v>
+        <v>50</v>
       </c>
       <c r="X2" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>610</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>55</v>
+        <v>1.04</v>
       </c>
       <c r="AM2" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.4</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,118 +802,118 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="G3" t="n">
-        <v>7.2</v>
+        <v>26</v>
       </c>
       <c r="H3" t="n">
-        <v>1.53</v>
+        <v>9.4</v>
       </c>
       <c r="I3" t="n">
-        <v>1.54</v>
+        <v>9.6</v>
       </c>
       <c r="J3" t="n">
-        <v>4.8</v>
+        <v>1.16</v>
       </c>
       <c r="K3" t="n">
-        <v>4.9</v>
+        <v>1.17</v>
       </c>
       <c r="L3" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>2.76</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>2.86</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>1.09</v>
       </c>
       <c r="AI3" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -928,127 +928,127 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>AD Ceuta FC</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>St Gallen</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.44</v>
+        <v>21</v>
       </c>
       <c r="G4" t="n">
-        <v>4.7</v>
+        <v>24</v>
       </c>
       <c r="H4" t="n">
-        <v>2.38</v>
+        <v>1.37</v>
       </c>
       <c r="I4" t="n">
-        <v>4.4</v>
+        <v>1.38</v>
       </c>
       <c r="J4" t="n">
-        <v>2.74</v>
+        <v>4.3</v>
       </c>
       <c r="K4" t="n">
-        <v>2.84</v>
+        <v>4.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1.17</v>
+        <v>1.96</v>
       </c>
       <c r="S4" t="n">
-        <v>1.05</v>
+        <v>2.02</v>
       </c>
       <c r="T4" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1.29</v>
+        <v>3.75</v>
       </c>
       <c r="W4" t="n">
-        <v>1.28</v>
+        <v>1.03</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>1.89</v>
       </c>
       <c r="AE4" t="n">
-        <v>130</v>
+        <v>7.2</v>
       </c>
       <c r="AF4" t="n">
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>18.5</v>
+        <v>5.2</v>
       </c>
       <c r="AI4" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AJ4" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="AM4" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="AN4" t="n">
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>600</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,126 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>St Gallen</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="H5" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="I5" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="J5" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K5" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P5" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="R5" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="S5" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="U5" t="n">
         <v>2.38</v>
       </c>
       <c r="V5" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="W5" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="X5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Z5" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AA5" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AB5" t="n">
         <v>11</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE5" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AF5" t="n">
         <v>13</v>
       </c>
       <c r="AG5" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AJ5" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AK5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL5" t="n">
         <v>30</v>
       </c>
       <c r="AM5" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN5" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AO5" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -1198,121 +1198,121 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Olympiakos</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.18</v>
+        <v>4.8</v>
       </c>
       <c r="G6" t="n">
-        <v>2.2</v>
+        <v>4.9</v>
       </c>
       <c r="H6" t="n">
-        <v>3.65</v>
+        <v>1.69</v>
       </c>
       <c r="I6" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="J6" t="n">
-        <v>3.65</v>
+        <v>4.8</v>
       </c>
       <c r="K6" t="n">
-        <v>3.7</v>
+        <v>4.9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>4.6</v>
+        <v>6.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="P6" t="n">
-        <v>2.2</v>
+        <v>2.92</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.82</v>
+        <v>1.51</v>
       </c>
       <c r="R6" t="n">
-        <v>1.48</v>
+        <v>1.75</v>
       </c>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>2.32</v>
       </c>
       <c r="T6" t="n">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="U6" t="n">
-        <v>2.36</v>
+        <v>2.66</v>
       </c>
       <c r="V6" t="n">
-        <v>1.37</v>
+        <v>2.42</v>
       </c>
       <c r="W6" t="n">
-        <v>1.83</v>
+        <v>1.25</v>
       </c>
       <c r="X6" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>44</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH6" t="n">
         <v>16.5</v>
       </c>
-      <c r="Y6" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AI6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL6" t="n">
         <v>44</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>30</v>
-      </c>
       <c r="AM6" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AN6" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="AO6" t="n">
-        <v>32</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="7">
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Olympiakos</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.2</v>
+        <v>1.27</v>
       </c>
       <c r="G7" t="n">
-        <v>5.4</v>
+        <v>1.28</v>
       </c>
       <c r="H7" t="n">
-        <v>1.63</v>
+        <v>11</v>
       </c>
       <c r="I7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="K7" t="n">
+        <v>8</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T7" t="n">
         <v>1.64</v>
       </c>
-      <c r="J7" t="n">
-        <v>5</v>
-      </c>
-      <c r="K7" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N7" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.57</v>
-      </c>
       <c r="U7" t="n">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="V7" t="n">
-        <v>2.56</v>
+        <v>1.09</v>
       </c>
       <c r="W7" t="n">
-        <v>1.22</v>
+        <v>4.5</v>
       </c>
       <c r="X7" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.5</v>
+        <v>65</v>
       </c>
       <c r="Z7" t="n">
-        <v>13.5</v>
+        <v>110</v>
       </c>
       <c r="AA7" t="n">
-        <v>17.5</v>
+        <v>310</v>
       </c>
       <c r="AB7" t="n">
-        <v>28</v>
+        <v>18.5</v>
       </c>
       <c r="AC7" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF7" t="n">
         <v>12</v>
       </c>
-      <c r="AD7" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>50</v>
-      </c>
       <c r="AG7" t="n">
-        <v>19.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>16.5</v>
+        <v>25</v>
       </c>
       <c r="AI7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AL7" t="n">
         <v>22</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>46</v>
-      </c>
       <c r="AM7" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AN7" t="n">
-        <v>42</v>
+        <v>2.96</v>
       </c>
       <c r="AO7" t="n">
-        <v>5.9</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.29</v>
+        <v>2.76</v>
       </c>
       <c r="G8" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O8" t="n">
         <v>1.3</v>
       </c>
-      <c r="H8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="I8" t="n">
-        <v>11</v>
-      </c>
-      <c r="J8" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.09</v>
-      </c>
       <c r="P8" t="n">
-        <v>4.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="R8" t="n">
-        <v>2.24</v>
+        <v>1.42</v>
       </c>
       <c r="S8" t="n">
-        <v>1.78</v>
+        <v>3.25</v>
       </c>
       <c r="T8" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="U8" t="n">
-        <v>2.46</v>
+        <v>2.34</v>
       </c>
       <c r="V8" t="n">
-        <v>1.1</v>
+        <v>1.54</v>
       </c>
       <c r="W8" t="n">
-        <v>4.3</v>
+        <v>1.56</v>
       </c>
       <c r="X8" t="n">
-        <v>55</v>
+        <v>14.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>110</v>
+        <v>18.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>300</v>
+        <v>44</v>
       </c>
       <c r="AB8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF8" t="n">
         <v>18.5</v>
       </c>
-      <c r="AC8" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AD8" t="n">
+      <c r="AG8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI8" t="n">
         <v>40</v>
       </c>
-      <c r="AE8" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH8" t="n">
+      <c r="AJ8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO8" t="n">
         <v>24</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>85</v>
       </c>
     </row>
     <row r="9">
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.56</v>
+        <v>1.42</v>
       </c>
       <c r="G9" t="n">
-        <v>2.58</v>
+        <v>1.43</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>3.05</v>
+        <v>9.4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.55</v>
+        <v>5.3</v>
       </c>
       <c r="K9" t="n">
-        <v>3.6</v>
+        <v>5.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>4</v>
+        <v>5.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>2.02</v>
+        <v>2.48</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.97</v>
+        <v>1.67</v>
       </c>
       <c r="R9" t="n">
-        <v>1.4</v>
+        <v>1.58</v>
       </c>
       <c r="S9" t="n">
-        <v>3.4</v>
+        <v>2.66</v>
       </c>
       <c r="T9" t="n">
-        <v>1.74</v>
+        <v>1.92</v>
       </c>
       <c r="U9" t="n">
-        <v>2.28</v>
+        <v>2.06</v>
       </c>
       <c r="V9" t="n">
-        <v>1.48</v>
+        <v>1.12</v>
       </c>
       <c r="W9" t="n">
-        <v>1.63</v>
+        <v>3.35</v>
       </c>
       <c r="X9" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="Y9" t="n">
-        <v>12.5</v>
+        <v>34</v>
       </c>
       <c r="Z9" t="n">
-        <v>19.5</v>
+        <v>80</v>
       </c>
       <c r="AA9" t="n">
-        <v>48</v>
+        <v>250</v>
       </c>
       <c r="AB9" t="n">
-        <v>11.5</v>
+        <v>9.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.8</v>
+        <v>12</v>
       </c>
       <c r="AD9" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="AE9" t="n">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="AF9" t="n">
-        <v>16.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG9" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="AH9" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AI9" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AJ9" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="AK9" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="AL9" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AM9" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AN9" t="n">
-        <v>21</v>
+        <v>5.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.43</v>
+        <v>1.55</v>
       </c>
       <c r="G10" t="n">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="H10" t="n">
-        <v>8.4</v>
+        <v>6.8</v>
       </c>
       <c r="I10" t="n">
-        <v>8.6</v>
+        <v>7</v>
       </c>
       <c r="J10" t="n">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="K10" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="P10" t="n">
-        <v>2.46</v>
+        <v>2.72</v>
       </c>
       <c r="Q10" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R10" t="n">
         <v>1.68</v>
       </c>
-      <c r="R10" t="n">
-        <v>1.59</v>
-      </c>
       <c r="S10" t="n">
-        <v>2.66</v>
+        <v>2.42</v>
       </c>
       <c r="T10" t="n">
-        <v>1.93</v>
+        <v>1.7</v>
       </c>
       <c r="U10" t="n">
-        <v>2.02</v>
+        <v>2.4</v>
       </c>
       <c r="V10" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="W10" t="n">
-        <v>3.25</v>
+        <v>2.76</v>
       </c>
       <c r="X10" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Y10" t="n">
         <v>29</v>
       </c>
       <c r="Z10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE10" t="n">
         <v>75</v>
       </c>
-      <c r="AA10" t="n">
-        <v>250</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>120</v>
-      </c>
       <c r="AF10" t="n">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AG10" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AH10" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AI10" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="AJ10" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL10" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AM10" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AN10" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="AO10" t="n">
-        <v>140</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>Club Sportivo Ameliano</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.55</v>
+        <v>3.2</v>
       </c>
       <c r="G11" t="n">
-        <v>1.56</v>
+        <v>3.45</v>
       </c>
       <c r="H11" t="n">
-        <v>6.8</v>
+        <v>2.52</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>2.64</v>
       </c>
       <c r="J11" t="n">
-        <v>4.7</v>
+        <v>3.1</v>
       </c>
       <c r="K11" t="n">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="L11" t="n">
-        <v>1.29</v>
+        <v>1.48</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.18</v>
+        <v>1.41</v>
       </c>
       <c r="P11" t="n">
-        <v>2.68</v>
+        <v>1.73</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.57</v>
+        <v>2.24</v>
       </c>
       <c r="R11" t="n">
-        <v>1.7</v>
+        <v>1.28</v>
       </c>
       <c r="S11" t="n">
-        <v>2.4</v>
+        <v>4.1</v>
       </c>
       <c r="T11" t="n">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="U11" t="n">
-        <v>2.34</v>
+        <v>2.02</v>
       </c>
       <c r="V11" t="n">
-        <v>1.16</v>
+        <v>1.6</v>
       </c>
       <c r="W11" t="n">
-        <v>2.78</v>
+        <v>1.43</v>
       </c>
       <c r="X11" t="n">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="Z11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA11" t="n">
         <v>60</v>
       </c>
-      <c r="AA11" t="n">
-        <v>180</v>
-      </c>
       <c r="AB11" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>11</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>25</v>
+        <v>19.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AF11" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>14.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>14.5</v>
+        <v>190</v>
       </c>
       <c r="AK11" t="n">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="AL11" t="n">
-        <v>28</v>
+        <v>200</v>
       </c>
       <c r="AM11" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.6</v>
+        <v>600</v>
       </c>
       <c r="AO11" t="n">
-        <v>65</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Club Sportivo Ameliano</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="G12" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="I12" t="n">
-        <v>2.72</v>
+        <v>2.54</v>
       </c>
       <c r="J12" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="K12" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L12" t="n">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
       <c r="M12" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>3.3</v>
+        <v>5.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.4</v>
+        <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>1.76</v>
+        <v>2.38</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.18</v>
+        <v>1.71</v>
       </c>
       <c r="R12" t="n">
-        <v>1.28</v>
+        <v>1.56</v>
       </c>
       <c r="S12" t="n">
-        <v>4.1</v>
+        <v>2.74</v>
       </c>
       <c r="T12" t="n">
-        <v>1.81</v>
+        <v>1.6</v>
       </c>
       <c r="U12" t="n">
-        <v>2.02</v>
+        <v>2.62</v>
       </c>
       <c r="V12" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="W12" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="X12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.5</v>
+        <v>14</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AB12" t="n">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="AC12" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH12" t="n">
         <v>14</v>
       </c>
-      <c r="AD12" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH12" t="n">
+      <c r="AI12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM12" t="n">
         <v>60</v>
       </c>
-      <c r="AI12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>190</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>250</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>San Marcos</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Cobreloa Calama</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="G13" t="n">
-        <v>2.82</v>
+        <v>2.98</v>
       </c>
       <c r="H13" t="n">
-        <v>2.66</v>
+        <v>2.84</v>
       </c>
       <c r="I13" t="n">
-        <v>2.7</v>
+        <v>3.05</v>
       </c>
       <c r="J13" t="n">
-        <v>3.7</v>
+        <v>3.05</v>
       </c>
       <c r="K13" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="L13" t="n">
-        <v>1.34</v>
+        <v>1.52</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>5.1</v>
+        <v>3.05</v>
       </c>
       <c r="O13" t="n">
-        <v>1.23</v>
+        <v>1.45</v>
       </c>
       <c r="P13" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q13" t="n">
         <v>2.38</v>
       </c>
-      <c r="Q13" t="n">
-        <v>1.72</v>
-      </c>
       <c r="R13" t="n">
-        <v>1.55</v>
+        <v>1.25</v>
       </c>
       <c r="S13" t="n">
-        <v>2.78</v>
+        <v>4.6</v>
       </c>
       <c r="T13" t="n">
-        <v>1.61</v>
+        <v>1.93</v>
       </c>
       <c r="U13" t="n">
-        <v>2.58</v>
+        <v>1.96</v>
       </c>
       <c r="V13" t="n">
-        <v>1.59</v>
+        <v>1.48</v>
       </c>
       <c r="W13" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="X13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z13" t="n">
         <v>19.5</v>
       </c>
-      <c r="Y13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>19</v>
-      </c>
       <c r="AA13" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AE13" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH13" t="n">
         <v>20</v>
       </c>
-      <c r="AG13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>14</v>
-      </c>
       <c r="AI13" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AK13" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AM13" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>San Marcos</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Cobreloa Calama</t>
+          <t>Fortaleza EC</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.9</v>
+        <v>1.88</v>
       </c>
       <c r="G14" t="n">
-        <v>2.98</v>
+        <v>1.89</v>
       </c>
       <c r="H14" t="n">
-        <v>2.9</v>
+        <v>4.7</v>
       </c>
       <c r="I14" t="n">
-        <v>3.05</v>
+        <v>4.8</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>3.85</v>
       </c>
       <c r="K14" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="L14" t="n">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="M14" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="P14" t="n">
-        <v>1.66</v>
+        <v>2.04</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.34</v>
+        <v>1.92</v>
       </c>
       <c r="R14" t="n">
-        <v>1.24</v>
+        <v>1.41</v>
       </c>
       <c r="S14" t="n">
-        <v>4.5</v>
+        <v>3.35</v>
       </c>
       <c r="T14" t="n">
-        <v>1.92</v>
+        <v>1.81</v>
       </c>
       <c r="U14" t="n">
-        <v>1.95</v>
+        <v>2.18</v>
       </c>
       <c r="V14" t="n">
-        <v>1.5</v>
+        <v>1.26</v>
       </c>
       <c r="W14" t="n">
-        <v>1.5</v>
+        <v>2.12</v>
       </c>
       <c r="X14" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN14" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI14" t="n">
+      <c r="AO14" t="n">
         <v>70</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>50</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Olimpia</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Fortaleza EC</t>
+          <t>Club 2 de Mayo de Pedro Juan Cab</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P15" t="n">
         <v>2.06</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="R15" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S15" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="T15" t="n">
-        <v>1.78</v>
+        <v>1.04</v>
       </c>
       <c r="U15" t="n">
-        <v>2.18</v>
+        <v>1.04</v>
       </c>
       <c r="V15" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="W15" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="X15" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Olimpia</t>
+          <t>Juticalpa</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Club 2 de Mayo de Pedro Juan Cab</t>
+          <t>CD Victoria</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="L16" t="n">
-        <v>1.4</v>
+        <v>1.23</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.28</v>
+        <v>1.16</v>
       </c>
       <c r="P16" t="n">
-        <v>2.06</v>
+        <v>2.6</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.86</v>
+        <v>1.48</v>
       </c>
       <c r="R16" t="n">
-        <v>1.4</v>
+        <v>1.63</v>
       </c>
       <c r="S16" t="n">
-        <v>3.15</v>
+        <v>2.24</v>
       </c>
       <c r="T16" t="n">
-        <v>1.04</v>
+        <v>1.5</v>
       </c>
       <c r="U16" t="n">
-        <v>1.04</v>
+        <v>2.46</v>
       </c>
       <c r="V16" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="W16" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Juticalpa</t>
+          <t>Deportes Concepcion</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CD Victoria</t>
+          <t>Deportes Copiapo</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.04</v>
+        <v>2.24</v>
       </c>
       <c r="G17" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="H17" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K17" t="n">
         <v>3.3</v>
       </c>
-      <c r="I17" t="n">
-        <v>4</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4.2</v>
-      </c>
       <c r="L17" t="n">
-        <v>1.36</v>
+        <v>1.52</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>3.75</v>
+        <v>3.05</v>
       </c>
       <c r="O17" t="n">
-        <v>1.26</v>
+        <v>1.45</v>
       </c>
       <c r="P17" t="n">
-        <v>2.08</v>
+        <v>1.68</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.7</v>
+        <v>2.34</v>
       </c>
       <c r="R17" t="n">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="S17" t="n">
-        <v>2.78</v>
+        <v>4.5</v>
       </c>
       <c r="T17" t="n">
-        <v>1.63</v>
+        <v>1.98</v>
       </c>
       <c r="U17" t="n">
-        <v>2.22</v>
+        <v>1.9</v>
       </c>
       <c r="V17" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W17" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="X17" t="n">
-        <v>18.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y17" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD17" t="n">
         <v>17</v>
       </c>
-      <c r="Z17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>200</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>16</v>
-      </c>
       <c r="AE17" t="n">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="AF17" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH17" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AI17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK17" t="n">
         <v>48</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AL17" t="n">
+        <v>130</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN17" t="n">
         <v>28</v>
       </c>
-      <c r="AK17" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>14</v>
-      </c>
       <c r="AO17" t="n">
-        <v>34</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,31 +2818,31 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Deportes Concepcion</t>
+          <t>Atletico Bucaramanga</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Deportes Copiapo</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.26</v>
+        <v>1.65</v>
       </c>
       <c r="G18" t="n">
-        <v>2.36</v>
+        <v>1.69</v>
       </c>
       <c r="H18" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I18" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J18" t="n">
         <v>3.7</v>
       </c>
-      <c r="I18" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.15</v>
-      </c>
       <c r="K18" t="n">
-        <v>3.25</v>
+        <v>3.95</v>
       </c>
       <c r="L18" t="n">
         <v>1.51</v>
@@ -2851,94 +2851,94 @@
         <v>1.1</v>
       </c>
       <c r="N18" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O18" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="P18" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R18" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="S18" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="T18" t="n">
-        <v>1.97</v>
+        <v>2.26</v>
       </c>
       <c r="U18" t="n">
-        <v>1.92</v>
+        <v>1.7</v>
       </c>
       <c r="V18" t="n">
-        <v>1.32</v>
+        <v>1.16</v>
       </c>
       <c r="W18" t="n">
-        <v>1.73</v>
+        <v>2.42</v>
       </c>
       <c r="X18" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>12.5</v>
+        <v>18</v>
       </c>
       <c r="Z18" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="AA18" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.4</v>
+        <v>6.4</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AE18" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL18" t="n">
         <v>130</v>
       </c>
-      <c r="AF18" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AN18" t="n">
-        <v>28</v>
+        <v>15.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Atletico Bucaramanga</t>
+          <t>Lanus</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.67</v>
+        <v>2.14</v>
       </c>
       <c r="G19" t="n">
-        <v>1.72</v>
+        <v>2.18</v>
       </c>
       <c r="H19" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S19" t="n">
         <v>6.4</v>
       </c>
-      <c r="I19" t="n">
+      <c r="T19" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="X19" t="n">
         <v>7.4</v>
       </c>
-      <c r="J19" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N19" t="n">
-        <v>3</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S19" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="W19" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="X19" t="n">
-        <v>10.5</v>
-      </c>
       <c r="Y19" t="n">
-        <v>17.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AA19" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="AB19" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="AE19" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI19" t="n">
         <v>140</v>
       </c>
-      <c r="AF19" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>150</v>
-      </c>
       <c r="AJ19" t="n">
-        <v>16.5</v>
+        <v>28</v>
       </c>
       <c r="AK19" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AL19" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AM19" t="n">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="AN19" t="n">
-        <v>15.5</v>
+        <v>32</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Lanus</t>
+          <t>FC Juarez</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="F20" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U20" t="n">
         <v>2.12</v>
       </c>
-      <c r="G20" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="H20" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S20" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.64</v>
-      </c>
       <c r="V20" t="n">
-        <v>1.25</v>
+        <v>1.9</v>
       </c>
       <c r="W20" t="n">
-        <v>1.86</v>
+        <v>1.32</v>
       </c>
       <c r="X20" t="n">
-        <v>7.4</v>
+        <v>15.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>11.5</v>
+        <v>9.4</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AA20" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="AB20" t="n">
-        <v>6</v>
+        <v>14.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="AD20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE20" t="n">
         <v>23</v>
       </c>
-      <c r="AE20" t="n">
-        <v>1000</v>
-      </c>
       <c r="AF20" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="AH20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>95</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN20" t="n">
         <v>55</v>
       </c>
-      <c r="AI20" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>330</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>36</v>
-      </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,260 +3218,125 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FC Juarez</t>
+          <t>Atletico Nacional Medell</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Toluca</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.85</v>
+        <v>1.61</v>
       </c>
       <c r="G21" t="n">
-        <v>4.1</v>
+        <v>1.66</v>
       </c>
       <c r="H21" t="n">
-        <v>2.1</v>
+        <v>5.6</v>
       </c>
       <c r="I21" t="n">
-        <v>2.14</v>
+        <v>6.6</v>
       </c>
       <c r="J21" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="K21" t="n">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="L21" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="O21" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="P21" t="n">
-        <v>1.96</v>
+        <v>2.16</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.98</v>
+        <v>1.79</v>
       </c>
       <c r="R21" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="S21" t="n">
-        <v>3.55</v>
+        <v>3.05</v>
       </c>
       <c r="T21" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U21" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="V21" t="n">
-        <v>1.89</v>
+        <v>1.2</v>
       </c>
       <c r="W21" t="n">
-        <v>1.33</v>
+        <v>2.5</v>
       </c>
       <c r="X21" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>42</v>
+        <v>190</v>
       </c>
       <c r="AB21" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF21" t="n">
         <v>11</v>
       </c>
-      <c r="AE21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>29</v>
-      </c>
       <c r="AG21" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN21" t="n">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="AO21" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2025-11-26</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Atletico Nacional Medell</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Junior FC Barranquilla</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="I22" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="J22" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K22" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N22" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="W22" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="X22" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>190</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO22" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO21"/>
+  <dimension ref="A1:AO18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,78 +653,78 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Club Sportivo Ameliano</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Kairat Almaty</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="F2" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="G2" t="n">
+        <v>13</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="O2" t="n">
+        <v>27</v>
+      </c>
+      <c r="P2" t="n">
         <v>1.01</v>
       </c>
-      <c r="G2" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="W2" t="n">
-        <v>50</v>
+        <v>1.1</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>1.33</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -733,10 +733,10 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -763,7 +763,7 @@
         <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.04</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>24</v>
+        <v>1.01</v>
       </c>
       <c r="G3" t="n">
-        <v>26</v>
+        <v>1.01</v>
       </c>
       <c r="H3" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="I3" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>1.16</v>
+        <v>130</v>
       </c>
       <c r="K3" t="n">
-        <v>1.17</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -838,22 +838,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="V3" t="n">
         <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>100</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -886,16 +886,16 @@
         <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.09</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>1.36</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,36 +923,36 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>St Gallen</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>21</v>
+        <v>1.01</v>
       </c>
       <c r="G4" t="n">
-        <v>24</v>
+        <v>1.01</v>
       </c>
       <c r="H4" t="n">
-        <v>1.37</v>
+        <v>1000</v>
       </c>
       <c r="I4" t="n">
-        <v>1.38</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>4.3</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>4.5</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>3.75</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.03</v>
+        <v>130</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1009,10 +1009,10 @@
         <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.89</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
         <v>1000</v>
@@ -1021,10 +1021,10 @@
         <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>5.2</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
@@ -1033,16 +1033,16 @@
         <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>1.02</v>
       </c>
       <c r="AO4" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1063,121 +1063,121 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.06</v>
+        <v>100</v>
       </c>
       <c r="G5" t="n">
-        <v>2.08</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>3.85</v>
+        <v>1.01</v>
       </c>
       <c r="I5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="J5" t="n">
+        <v>300</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="S5" t="n">
         <v>3.9</v>
       </c>
-      <c r="J5" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3</v>
-      </c>
       <c r="T5" t="n">
-        <v>1.71</v>
+        <v>1.4</v>
       </c>
       <c r="U5" t="n">
-        <v>2.38</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.35</v>
+        <v>220</v>
       </c>
       <c r="W5" t="n">
-        <v>1.91</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
     </row>
     <row r="6">
@@ -1198,121 +1198,121 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Olympiakos</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="G6" t="n">
-        <v>4.9</v>
+        <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
       <c r="I6" t="n">
-        <v>1.7</v>
+        <v>1.01</v>
       </c>
       <c r="J6" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="K6" t="n">
-        <v>4.9</v>
+        <v>1000</v>
       </c>
       <c r="L6" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>2.66</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>2.42</v>
+        <v>500</v>
       </c>
       <c r="W6" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="X6" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.6</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="7">
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Olympiakos</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.27</v>
+        <v>60</v>
       </c>
       <c r="G7" t="n">
-        <v>1.28</v>
+        <v>140</v>
       </c>
       <c r="H7" t="n">
-        <v>11</v>
+        <v>1.13</v>
       </c>
       <c r="I7" t="n">
-        <v>11.5</v>
+        <v>1.15</v>
       </c>
       <c r="J7" t="n">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L7" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="W7" t="n">
         <v>1.01</v>
       </c>
-      <c r="N7" t="n">
-        <v>11</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W7" t="n">
-        <v>4.5</v>
-      </c>
       <c r="X7" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.96</v>
+        <v>230</v>
       </c>
       <c r="AO7" t="n">
-        <v>80</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="8">
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.76</v>
+        <v>9</v>
       </c>
       <c r="G8" t="n">
-        <v>2.78</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>2.82</v>
+        <v>11</v>
       </c>
       <c r="I8" t="n">
-        <v>2.84</v>
+        <v>11.5</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>1.23</v>
       </c>
       <c r="K8" t="n">
-        <v>3.55</v>
+        <v>1.25</v>
       </c>
       <c r="L8" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.08</v>
+        <v>1.19</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.9</v>
+        <v>6</v>
       </c>
       <c r="R8" t="n">
-        <v>1.42</v>
+        <v>1.02</v>
       </c>
       <c r="S8" t="n">
-        <v>3.25</v>
+        <v>30</v>
       </c>
       <c r="T8" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>1.54</v>
+        <v>1.06</v>
       </c>
       <c r="W8" t="n">
-        <v>1.56</v>
+        <v>1.1</v>
       </c>
       <c r="X8" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.6</v>
+        <v>1.29</v>
       </c>
       <c r="AD8" t="n">
         <v>12</v>
       </c>
       <c r="AE8" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c r="AI8" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="G9" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="H9" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="I9" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>5.3</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>5.4</v>
+        <v>1000</v>
       </c>
       <c r="L9" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>2.66</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="W9" t="n">
-        <v>3.35</v>
+        <v>100</v>
       </c>
       <c r="X9" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL9" t="n">
         <v>80</v>
       </c>
-      <c r="AA9" t="n">
-        <v>250</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>30</v>
-      </c>
       <c r="AM9" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.5</v>
+        <v>13</v>
       </c>
       <c r="AO9" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>San Marcos</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Cobreloa Calama</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.55</v>
+        <v>6.6</v>
       </c>
       <c r="G10" t="n">
-        <v>1.56</v>
+        <v>7.6</v>
       </c>
       <c r="H10" t="n">
-        <v>6.8</v>
+        <v>2.06</v>
       </c>
       <c r="I10" t="n">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="J10" t="n">
-        <v>4.7</v>
+        <v>2.54</v>
       </c>
       <c r="K10" t="n">
-        <v>4.8</v>
+        <v>2.72</v>
       </c>
       <c r="L10" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="M10" t="n">
         <v>1.29</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="R10" t="n">
         <v>1.04</v>
       </c>
-      <c r="N10" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.68</v>
-      </c>
       <c r="S10" t="n">
-        <v>2.42</v>
+        <v>12.5</v>
       </c>
       <c r="T10" t="n">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="U10" t="n">
-        <v>2.4</v>
+        <v>1.25</v>
       </c>
       <c r="V10" t="n">
-        <v>1.17</v>
+        <v>1.91</v>
       </c>
       <c r="W10" t="n">
-        <v>2.76</v>
+        <v>1.14</v>
       </c>
       <c r="X10" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD10" t="n">
         <v>25</v>
       </c>
-      <c r="Y10" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>24</v>
-      </c>
       <c r="AE10" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AF10" t="n">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="AG10" t="n">
-        <v>9.6</v>
+        <v>70</v>
       </c>
       <c r="AH10" t="n">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="AI10" t="n">
-        <v>60</v>
+        <v>420</v>
       </c>
       <c r="AJ10" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Club Sportivo Ameliano</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Fortaleza EC</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.2</v>
+        <v>1.86</v>
       </c>
       <c r="G11" t="n">
-        <v>3.45</v>
+        <v>1.87</v>
       </c>
       <c r="H11" t="n">
-        <v>2.52</v>
+        <v>4.6</v>
       </c>
       <c r="I11" t="n">
-        <v>2.64</v>
+        <v>4.7</v>
       </c>
       <c r="J11" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="L11" t="n">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="M11" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="P11" t="n">
-        <v>1.73</v>
+        <v>2.12</v>
       </c>
       <c r="Q11" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U11" t="n">
         <v>2.24</v>
       </c>
-      <c r="R11" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S11" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.02</v>
-      </c>
       <c r="V11" t="n">
-        <v>1.6</v>
+        <v>1.27</v>
       </c>
       <c r="W11" t="n">
-        <v>1.43</v>
+        <v>2.14</v>
       </c>
       <c r="X11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD11" t="n">
         <v>17.5</v>
       </c>
-      <c r="Y11" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA11" t="n">
+      <c r="AE11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI11" t="n">
         <v>60</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AJ11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN11" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC11" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>190</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>250</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>200</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>600</v>
-      </c>
       <c r="AO11" t="n">
-        <v>600</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Olimpia</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Club 2 de Mayo de Pedro Juan Cab</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.96</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="P12" t="n">
-        <v>2.38</v>
+        <v>2.06</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.71</v>
+        <v>1.87</v>
       </c>
       <c r="R12" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="S12" t="n">
-        <v>2.74</v>
+        <v>3.25</v>
       </c>
       <c r="T12" t="n">
-        <v>1.6</v>
+        <v>1.04</v>
       </c>
       <c r="U12" t="n">
-        <v>2.62</v>
+        <v>1.04</v>
       </c>
       <c r="V12" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="W12" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="X12" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,123 +2138,123 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>San Marcos</t>
+          <t>Juticalpa</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Cobreloa Calama</t>
+          <t>CD Victoria</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.86</v>
+        <v>1.57</v>
       </c>
       <c r="G13" t="n">
-        <v>2.98</v>
+        <v>1.73</v>
       </c>
       <c r="H13" t="n">
-        <v>2.84</v>
+        <v>4.5</v>
       </c>
       <c r="I13" t="n">
-        <v>3.05</v>
+        <v>5.8</v>
       </c>
       <c r="J13" t="n">
-        <v>3.05</v>
+        <v>4.6</v>
       </c>
       <c r="K13" t="n">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.52</v>
+        <v>1.16</v>
       </c>
       <c r="M13" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N13" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O13" t="n">
         <v>1.1</v>
       </c>
-      <c r="N13" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.45</v>
-      </c>
       <c r="P13" t="n">
-        <v>1.67</v>
+        <v>3.35</v>
       </c>
       <c r="Q13" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W13" t="n">
         <v>2.38</v>
       </c>
-      <c r="R13" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S13" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.5</v>
-      </c>
       <c r="X13" t="n">
+        <v>46</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG13" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AH13" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ13" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AL13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AM13" t="n">
         <v>60</v>
       </c>
-      <c r="AM13" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>5.8</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2263,7 +2263,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Deportes Concepcion</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Fortaleza EC</t>
+          <t>Deportes Copiapo</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.88</v>
+        <v>2.14</v>
       </c>
       <c r="G14" t="n">
-        <v>1.89</v>
+        <v>2.28</v>
       </c>
       <c r="H14" t="n">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>4.8</v>
+        <v>3.95</v>
       </c>
       <c r="J14" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="K14" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="L14" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.92</v>
+        <v>1.73</v>
       </c>
       <c r="R14" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="S14" t="n">
-        <v>3.35</v>
+        <v>2.72</v>
       </c>
       <c r="T14" t="n">
-        <v>1.81</v>
+        <v>1.04</v>
       </c>
       <c r="U14" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="V14" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="W14" t="n">
-        <v>2.12</v>
+        <v>1.79</v>
       </c>
       <c r="X14" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="Y14" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="Z14" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>9</v>
+        <v>970</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>17.5</v>
+        <v>29</v>
       </c>
       <c r="AE14" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>9.6</v>
+        <v>20</v>
       </c>
       <c r="AH14" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AI14" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>21</v>
+        <v>900</v>
       </c>
       <c r="AK14" t="n">
-        <v>18.5</v>
+        <v>80</v>
       </c>
       <c r="AL14" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AM14" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>12.5</v>
+        <v>600</v>
       </c>
       <c r="AO14" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Olimpia</t>
+          <t>Atletico Bucaramanga</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Club 2 de Mayo de Pedro Juan Cab</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="L15" t="n">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N15" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="O15" t="n">
-        <v>1.29</v>
+        <v>1.45</v>
       </c>
       <c r="P15" t="n">
-        <v>2.06</v>
+        <v>1.67</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.86</v>
+        <v>2.4</v>
       </c>
       <c r="R15" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="S15" t="n">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="T15" t="n">
-        <v>1.04</v>
+        <v>2.26</v>
       </c>
       <c r="U15" t="n">
-        <v>1.04</v>
+        <v>1.71</v>
       </c>
       <c r="V15" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="W15" t="n">
-        <v>1.01</v>
+        <v>2.42</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Juticalpa</t>
+          <t>Lanus</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CD Victoria</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.83</v>
+        <v>2.14</v>
       </c>
       <c r="G16" t="n">
-        <v>1.91</v>
+        <v>2.18</v>
       </c>
       <c r="H16" t="n">
-        <v>3.85</v>
+        <v>4.7</v>
       </c>
       <c r="I16" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>4.6</v>
+        <v>3.1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.23</v>
+        <v>1.66</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.16</v>
       </c>
       <c r="N16" t="n">
-        <v>5.5</v>
+        <v>2.44</v>
       </c>
       <c r="O16" t="n">
-        <v>1.16</v>
+        <v>1.66</v>
       </c>
       <c r="P16" t="n">
-        <v>2.6</v>
+        <v>1.46</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.48</v>
+        <v>3.05</v>
       </c>
       <c r="R16" t="n">
-        <v>1.63</v>
+        <v>1.15</v>
       </c>
       <c r="S16" t="n">
-        <v>2.24</v>
+        <v>6.6</v>
       </c>
       <c r="T16" t="n">
-        <v>1.5</v>
+        <v>2.36</v>
       </c>
       <c r="U16" t="n">
-        <v>2.46</v>
+        <v>1.65</v>
       </c>
       <c r="V16" t="n">
         <v>1.25</v>
       </c>
       <c r="W16" t="n">
-        <v>2.08</v>
+        <v>1.85</v>
       </c>
       <c r="X16" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>48</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>28</v>
       </c>
-      <c r="Y16" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>85</v>
-      </c>
-      <c r="AA16" t="n">
+      <c r="AK16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>280</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO16" t="n">
         <v>180</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,126 +2678,126 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Deportes Concepcion</t>
+          <t>FC Juarez</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Deportes Copiapo</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.24</v>
+        <v>3.9</v>
       </c>
       <c r="G17" t="n">
-        <v>2.36</v>
+        <v>4.1</v>
       </c>
       <c r="H17" t="n">
-        <v>3.7</v>
+        <v>2.06</v>
       </c>
       <c r="I17" t="n">
-        <v>4.1</v>
+        <v>2.12</v>
       </c>
       <c r="J17" t="n">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="K17" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.52</v>
+        <v>1.42</v>
       </c>
       <c r="M17" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>3.05</v>
+        <v>3.85</v>
       </c>
       <c r="O17" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="P17" t="n">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.34</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="S17" t="n">
-        <v>4.5</v>
+        <v>3.55</v>
       </c>
       <c r="T17" t="n">
-        <v>1.98</v>
+        <v>1.82</v>
       </c>
       <c r="U17" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V17" t="n">
         <v>1.9</v>
       </c>
-      <c r="V17" t="n">
-        <v>1.33</v>
-      </c>
       <c r="W17" t="n">
-        <v>1.73</v>
+        <v>1.32</v>
       </c>
       <c r="X17" t="n">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>12</v>
+        <v>9.4</v>
       </c>
       <c r="Z17" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="AA17" t="n">
-        <v>190</v>
+        <v>25</v>
       </c>
       <c r="AB17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC17" t="n">
         <v>8.4</v>
       </c>
-      <c r="AC17" t="n">
-        <v>7.8</v>
-      </c>
       <c r="AD17" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AE17" t="n">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="AF17" t="n">
-        <v>14.5</v>
+        <v>29</v>
       </c>
       <c r="AG17" t="n">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ17" t="n">
+        <v>95</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN17" t="n">
         <v>55</v>
       </c>
-      <c r="AK17" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>130</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>28</v>
-      </c>
       <c r="AO17" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2813,530 +2813,125 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Atletico Bucaramanga</t>
+          <t>Atletico Nacional Medell</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="G18" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="H18" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I18" t="n">
         <v>6.6</v>
       </c>
-      <c r="I18" t="n">
-        <v>7.4</v>
-      </c>
       <c r="J18" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="K18" t="n">
-        <v>3.95</v>
+        <v>4.8</v>
       </c>
       <c r="L18" t="n">
-        <v>1.51</v>
+        <v>1.35</v>
       </c>
       <c r="M18" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="O18" t="n">
-        <v>1.46</v>
+        <v>1.26</v>
       </c>
       <c r="P18" t="n">
-        <v>1.67</v>
+        <v>2.16</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.36</v>
+        <v>1.79</v>
       </c>
       <c r="R18" t="n">
-        <v>1.23</v>
+        <v>1.45</v>
       </c>
       <c r="S18" t="n">
-        <v>4.7</v>
+        <v>3.05</v>
       </c>
       <c r="T18" t="n">
-        <v>2.26</v>
+        <v>1.8</v>
       </c>
       <c r="U18" t="n">
-        <v>1.7</v>
+        <v>2.06</v>
       </c>
       <c r="V18" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="W18" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="X18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC18" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y18" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>250</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>8.6</v>
-      </c>
       <c r="AD18" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN18" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AG18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>44</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>130</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>240</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AO18" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2025-11-26</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Lanus</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Tigre</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="H19" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="I19" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S19" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="X19" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>140</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>270</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>32</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2025-11-26</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>FC Juarez</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Toluca</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="G20" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N20" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="X20" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>95</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2025-11-26</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Atletico Nacional Medell</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Junior FC Barranquilla</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="H21" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="I21" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="J21" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K21" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N21" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S21" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W21" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="X21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>190</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>14</v>
-      </c>
-      <c r="AO21" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO9"/>
+  <dimension ref="A1:AO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Lanus</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Fortaleza EC</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.01</v>
+        <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="H2" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>1.52</v>
       </c>
       <c r="J2" t="n">
-        <v>1.05</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>3.7</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,67 +691,67 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.03</v>
+        <v>1.92</v>
       </c>
       <c r="O2" t="n">
-        <v>26</v>
+        <v>2.06</v>
       </c>
       <c r="P2" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="Q2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="R2" t="n">
         <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="T2" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Z2" t="n">
         <v>13.5</v>
       </c>
-      <c r="U2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V2" t="n">
-        <v>34</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1000</v>
-      </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB2" t="n">
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>550</v>
+        <v>4.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>560</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -760,7 +760,7 @@
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Olimpia</t>
+          <t>FC Juarez</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Club 2 de Mayo de Pedro Juan Cab</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -826,34 +826,34 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -868,52 +868,52 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.47</v>
+        <v>110</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,801 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Juticalpa</t>
+          <t>Atletico Nacional Medell</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CD Victoria</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="G4" t="n">
-        <v>1.76</v>
+        <v>1.92</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>5.9</v>
       </c>
       <c r="I4" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S4" t="n">
         <v>7</v>
       </c>
-      <c r="J4" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.48</v>
-      </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="V4" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W4" t="n">
-        <v>2.28</v>
+        <v>2.06</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
       <c r="AC4" t="n">
-        <v>15</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>630</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Chilean Primera B</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-11-26</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Deportes Concepcion</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Deportes Copiapo</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="S5" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="X5" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>330</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>38</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-11-26</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Atletico Bucaramanga</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Fortaleza FC</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="S6" t="n">
-        <v>9</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="X6" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>210</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>44</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>240</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>520</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>48</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2025-11-26</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Lanus</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Tigre</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="H7" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S7" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="X7" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>140</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>280</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2025-11-26</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>FC Juarez</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Toluca</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="G8" t="n">
-        <v>4</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X8" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>48</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2025-11-26</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Atletico Nacional Medell</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Junior FC Barranquilla</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="I9" t="n">
-        <v>6</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N9" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W9" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="X9" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>46</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
